--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="446">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1281,10 +1281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孔子世系简图(至秦)、秦始皇关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韓國都城變遷史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,38 +1297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周礼宴请等级、韓信戰役表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诏书形式、驿站交通规格、鞋类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>諸呂世系圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉惠帝挂名子嗣表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉历代皇帝生前庙名、大夫罪名表、各类彗星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦汉三公九卿概要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉徭役类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七国之乱世系图、臧兒田竇世系圖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牢獄別稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,22 +1313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武功爵表、张骞两次探索各国纪要、白鹿皮币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮南衡山谋反世系、死守外戚的平阳侯曹氏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南诸夷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匈奴五单于争立背景、假設蓋主嫁王充、上官皇后世系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漢武帝子嗣皇帝示意圖、霍光世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,7 +1432,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漢朝匈奴官制、汉武帝子嗣、人臣功五品</t>
+    <t>漢光武帝23年至33年、漢明帝至3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光武官員俸祿表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔子世系簡圖(至秦)、秦始皇關系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周禮宴請等級、韓信戰役表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詔書形式、驛站交通規格、鞋類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢惠帝掛名子嗣表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢歷代皇帝生前廟名、大夫罪名表、各類彗星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦漢三公九卿概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢徭役類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七國之亂世系圖、臧兒田竇世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮南衡山謀反世系、死守外戚的平陽侯曹氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功爵表、張騫兩次探索各國紀要、白鹿皮幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南諸夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢朝匈奴官制、漢武帝子嗣、人臣功五品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1717,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1838,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>卷43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>卷44</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1977,6 +1988,9 @@
                 <c:pt idx="42">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1990,11 +2004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185413904"/>
-        <c:axId val="101503208"/>
+        <c:axId val="187951888"/>
+        <c:axId val="188092080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185413904"/>
+        <c:axId val="187951888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2119,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101503208"/>
+        <c:crossAx val="188092080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101503208"/>
+        <c:axId val="188092080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2236,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185413904"/>
+        <c:crossAx val="187951888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3149,11 +3163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3271,19 +3285,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>680</v>
+        <v>676.90909090909099</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44699</v>
+        <v>44695.909090909088</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>478.8664769959716</v>
+        <v>473.13507650951141</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44497.866476995972</v>
+        <v>44492.135076509512</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3291,7 +3305,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B44" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B45" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3334,19 +3348,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>776.4545454545455</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44799</v>
+        <v>44795.454545454544</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>524.98523882543918</v>
+        <v>518.7018575537661</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44543.985238825437</v>
+        <v>44537.701857553766</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3397,19 +3411,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1180</v>
+        <v>1174.6363636363637</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45199</v>
+        <v>45193.63636363636</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>632.59568309419683</v>
+        <v>625.02434665702708</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44651.595683094194</v>
+        <v>44644.024346657025</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3460,19 +3474,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45779</v>
+        <v>45771</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>762.4968622471971</v>
+        <v>753.37077993167782</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44781.496862247201</v>
+        <v>44772.370779931676</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3523,19 +3537,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2650</v>
+        <v>2637.9545454545455</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46669</v>
+        <v>46656.954545454544</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1006.9262999433752</v>
+        <v>994.87471946622782</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45025.926299943378</v>
+        <v>45013.874719466228</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3586,19 +3600,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>2926.636363636364</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46959</v>
+        <v>46945.636363636368</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1046.8958935289138</v>
+        <v>1034.365929704582</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45065.895893528912</v>
+        <v>45053.365929704582</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3649,19 +3663,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>2926.636363636364</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46959</v>
+        <v>46945.636363636368</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1046.8958935289138</v>
+        <v>1034.365929704582</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45065.895893528912</v>
+        <v>45053.365929704582</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3736,7 +3750,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10</v>
+        <v>9.954545454545455</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3777,7 +3791,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.76864603049112612</v>
+        <v>0.75944635073757849</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4900,6 +4914,40 @@
       <c r="I44">
         <f>E44/H44</f>
         <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>505</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="2"/>
+        <v>卷44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44439</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44446</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ref="E45" si="40">D45-C45+1</f>
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45" si="41">G44+1</f>
+        <v>47</v>
+      </c>
+      <c r="G45" s="2">
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45" si="42">IF(F45*G45&lt;0,ABS(F45)+ABS(G45),G45-F45+1)</f>
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <f>E45/H45</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -4915,8 +4963,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5097,14 +5145,14 @@
         <v>-256</v>
       </c>
       <c r="F6" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="H6" t="s">
         <v>351</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>[卷5](5_筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系简图(至秦)、秦始皇关系图||周赧王43年至59年</v>
+        <v>[卷5](5_筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系簡圖(至秦)、秦始皇關系圖||周赧王43年至59年</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -5127,7 +5175,7 @@
         <v>-228</v>
       </c>
       <c r="G7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H7" t="s">
         <v>352</v>
@@ -5157,7 +5205,7 @@
         <v>-209</v>
       </c>
       <c r="F8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H8" t="s">
         <v>353</v>
@@ -5214,10 +5262,10 @@
         <v>-205</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
         <v>362</v>
@@ -5247,14 +5295,14 @@
         <v>-203</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="H11" t="s">
         <v>355</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>[卷10](5_筆記/资治通鉴10.html)|漢紀二|-204|-203||周礼宴请等级、韓信戰役表|楚漢3年至4年</v>
+        <v>[卷10](5_筆記/资治通鉴10.html)|漢紀二|-204|-203||周禮宴請等級、韓信戰役表|楚漢3年至4年</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -5277,14 +5325,14 @@
         <v>-200</v>
       </c>
       <c r="G12" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="H12" t="s">
         <v>356</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>[卷11](5_筆記/资治通鉴11.html)|漢紀三|-202|-200||诏书形式、驿站交通规格、鞋类型|漢高祖5年至7年</v>
+        <v>[卷11](5_筆記/资治通鉴11.html)|漢紀三|-202|-200||詔書形式、驛站交通規格、鞋類型|漢高祖5年至7年</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -5334,17 +5382,17 @@
         <v>-178</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="H14" t="s">
         <v>358</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>[卷13](5_筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|汉惠帝挂名子嗣表|漢高后共8年、漢文帝至2年</v>
+        <v>[卷13](5_筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|漢惠帝掛名子嗣表|漢高后共8年、漢文帝至2年</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -5367,14 +5415,14 @@
         <v>-170</v>
       </c>
       <c r="G15" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="H15" t="s">
         <v>359</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>[卷14](5_筆記/资治通鉴14.html)|漢紀六|-177|-170||汉历代皇帝生前庙名、大夫罪名表、各类彗星|漢文帝3年至10年</v>
+        <v>[卷14](5_筆記/资治通鉴14.html)|漢紀六|-177|-170||漢歷代皇帝生前廟名、大夫罪名表、各類彗星|漢文帝3年至10年</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -5397,14 +5445,14 @@
         <v>-155</v>
       </c>
       <c r="G16" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="H16" t="s">
         <v>360</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>[卷15](5_筆記/资治通鉴15.html)|漢紀七|-169|-155||秦汉三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
+        <v>[卷15](5_筆記/资治通鉴15.html)|漢紀七|-169|-155||秦漢三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -5427,17 +5475,17 @@
         <v>-141</v>
       </c>
       <c r="F17" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="H17" t="s">
         <v>361</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[卷16](5_筆記/资治通鉴16.html)|漢紀八|-154|-141|七国之乱世系图、臧兒田竇世系圖|汉徭役类型|漢景帝3年至16年</v>
+        <v>[卷16](5_筆記/资治通鉴16.html)|漢紀八|-154|-141|七國之亂世系圖、臧兒田竇世系圖|漢徭役類型|漢景帝3年至16年</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -5460,10 +5508,10 @@
         <v>-134</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G18" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H18" t="s">
         <v>363</v>
@@ -5493,7 +5541,7 @@
         <v>-125</v>
       </c>
       <c r="G19" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
         <v>364</v>
@@ -5523,17 +5571,17 @@
         <v>-119</v>
       </c>
       <c r="F20" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="H20" t="s">
         <v>365</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>[卷19](5_筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山谋反世系、死守外戚的平阳侯曹氏|武功爵表、张骞两次探索各国纪要、白鹿皮币|漢武帝17年至22年</v>
+        <v>[卷19](5_筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山謀反世系、死守外戚的平陽侯曹氏|武功爵表、張騫兩次探索各國紀要、白鹿皮幣|漢武帝17年至22年</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5556,14 +5604,14 @@
         <v>-110</v>
       </c>
       <c r="G21" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="H21" t="s">
         <v>370</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南诸夷|漢武帝17年至23年至31年</v>
+        <v>[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝17年至23年至31年</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -5613,14 +5661,14 @@
         <v>-87</v>
       </c>
       <c r="G23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H23" t="s">
         <v>372</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>[卷22](5_筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、汉武帝子嗣、人臣功五品|漢武帝43年至54年</v>
+        <v>[卷22](5_筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、漢武帝子嗣、人臣功五品|漢武帝43年至54年</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -5643,14 +5691,14 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="H24" t="s">
         <v>373</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>[卷23](5_筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五单于争立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
+        <v>[卷23](5_筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -5673,10 +5721,10 @@
         <v>-68</v>
       </c>
       <c r="F25" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G25" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="H25" t="s">
         <v>374</v>
@@ -5706,7 +5754,7 @@
         <v>-62</v>
       </c>
       <c r="G26" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H26" t="s">
         <v>375</v>
@@ -5763,10 +5811,10 @@
         <v>-49</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G28" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H28" t="s">
         <v>377</v>
@@ -5796,7 +5844,7 @@
         <v>-42</v>
       </c>
       <c r="G29" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H29" t="s">
         <v>378</v>
@@ -5826,7 +5874,7 @@
         <v>-33</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>379</v>
@@ -5856,7 +5904,7 @@
         <v>-23</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>380</v>
@@ -5886,10 +5934,10 @@
         <v>-14</v>
       </c>
       <c r="F32" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G32" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H32" t="s">
         <v>381</v>
@@ -5919,7 +5967,7 @@
         <v>-8</v>
       </c>
       <c r="F33" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H33" t="s">
         <v>382</v>
@@ -5949,7 +5997,7 @@
         <v>-6</v>
       </c>
       <c r="F34" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="H34" t="s">
         <v>383</v>
@@ -5979,7 +6027,7 @@
         <v>-3</v>
       </c>
       <c r="G35" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H35" t="s">
         <v>384</v>
@@ -6009,10 +6057,10 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G36" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H36" t="s">
         <v>385</v>
@@ -6042,10 +6090,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H37" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -6072,10 +6120,10 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H38" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -6102,10 +6150,10 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -6132,10 +6180,10 @@
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -6162,7 +6210,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -6189,10 +6237,10 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -6219,10 +6267,10 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H43" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -6249,10 +6297,10 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H44" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -6263,24 +6311,30 @@
       <c r="A45">
         <v>505</v>
       </c>
-      <c r="B45" t="e">
+      <c r="B45" t="str">
         <f>VLOOKUP($A45,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷44</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="e">
+      <c r="D45">
         <f>VLOOKUP($A45,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" t="e">
+        <v>47</v>
+      </c>
+      <c r="E45">
         <f>VLOOKUP($A45,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" t="e">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>432</v>
+      </c>
+      <c r="H45" t="s">
+        <v>431</v>
+      </c>
+      <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷44](5_筆記/资治通鉴44.html)|漢紀三十六|47|60||光武官員俸祿表|漢光武帝23年至33年、漢明帝至3年</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="449">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,6 +1490,17 @@
   <si>
     <t>匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西遊記人物原型、黃河改道概況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南陽樊氏世系、扶風馬氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢明帝4年至18年</t>
   </si>
 </sst>
 </file>
@@ -1640,6 +1651,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1717,7 +1729,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1849,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>卷44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>卷45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1991,6 +2006,9 @@
                 <c:pt idx="43">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2004,11 +2022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187951888"/>
-        <c:axId val="188092080"/>
+        <c:axId val="198738720"/>
+        <c:axId val="197838984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187951888"/>
+        <c:axId val="198738720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,6 +2072,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2119,12 +2138,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188092080"/>
+        <c:crossAx val="197838984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188092080"/>
+        <c:axId val="197838984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,6 +2189,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2236,7 +2256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187951888"/>
+        <c:crossAx val="198738720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3163,11 +3183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3285,19 +3305,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>676.90909090909099</v>
+        <v>675.4666666666667</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44695.909090909088</v>
+        <v>44694.466666666667</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>473.13507650951141</v>
+        <v>467.25871618729724</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44492.135076509512</v>
+        <v>44486.258716187294</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3305,7 +3325,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B45" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B46" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3348,19 +3368,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>776.4545454545455</v>
+        <v>774.80000000000007</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44795.454545454544</v>
+        <v>44793.8</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>518.7018575537661</v>
+        <v>512.25955562748641</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44537.701857553766</v>
+        <v>44531.25955562749</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3411,19 +3431,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1174.6363636363637</v>
+        <v>1172.1333333333334</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45193.63636363636</v>
+        <v>45191.133333333331</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>625.02434665702708</v>
+        <v>617.26151432126107</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44644.024346657025</v>
+        <v>44636.261514321261</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3474,19 +3494,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1752</v>
+        <v>1748.2666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45771</v>
+        <v>45767.26666666667</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>753.37077993167782</v>
+        <v>744.0138787444605</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44772.370779931676</v>
+        <v>44763.013878744459</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3537,19 +3557,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2637.9545454545455</v>
+        <v>2632.3333333333335</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46656.954545454544</v>
+        <v>46651.333333333336</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>994.87471946622782</v>
+        <v>982.5183277774629</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45013.874719466228</v>
+        <v>45001.518327777463</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3600,19 +3620,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2926.636363636364</v>
+        <v>2920.4</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46945.636363636368</v>
+        <v>46939.4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1034.365929704582</v>
+        <v>1021.5190552922935</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45053.365929704582</v>
+        <v>45040.519055292294</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3663,19 +3683,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2926.636363636364</v>
+        <v>2920.4</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46945.636363636368</v>
+        <v>46939.4</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1034.365929704582</v>
+        <v>1021.5190552922935</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45053.365929704582</v>
+        <v>45040.519055292294</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3750,7 +3770,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.954545454545455</v>
+        <v>9.9333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3791,7 +3811,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.75944635073757849</v>
+        <v>0.750013990669819</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4948,6 +4968,40 @@
       <c r="I45">
         <f>E45/H45</f>
         <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>506</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v>卷45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44447</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44455</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" ref="E46" si="43">D46-C46+1</f>
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="44">G45+1</f>
+        <v>61</v>
+      </c>
+      <c r="G46" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46" si="45">IF(F46*G46&lt;0,ABS(F46)+ABS(G46),G46-F46+1)</f>
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <f>E46/H46</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4964,7 +5018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6341,24 +6395,33 @@
       <c r="A46">
         <v>506</v>
       </c>
-      <c r="B46" t="e">
+      <c r="B46" t="str">
         <f>VLOOKUP($A46,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷45</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="e">
+      <c r="D46">
         <f>VLOOKUP($A46,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" t="e">
+        <v>61</v>
+      </c>
+      <c r="E46">
         <f>VLOOKUP($A46,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="e">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>447</v>
+      </c>
+      <c r="G46" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" t="s">
+        <v>448</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷45](5_筆記/资治通鉴45.html)|漢紀三十七|61|75|南陽樊氏世系、扶風馬氏世系|西遊記人物原型、黃河改道概況|漢明帝4年至18年</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="451">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,6 +1501,13 @@
   </si>
   <si>
     <t>漢明帝4年至18年</t>
+  </si>
+  <si>
+    <t>二宋二梁貴人世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢章帝至9年</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1736,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1864,6 +1871,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>卷45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>卷46</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2009,6 +2019,9 @@
                 <c:pt idx="44">
                   <c:v>0.6</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2022,11 +2035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198738720"/>
-        <c:axId val="197838984"/>
+        <c:axId val="202058384"/>
+        <c:axId val="102420176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198738720"/>
+        <c:axId val="202058384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,12 +2151,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197838984"/>
+        <c:crossAx val="102420176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197838984"/>
+        <c:axId val="102420176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198738720"/>
+        <c:crossAx val="202058384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3183,11 +3196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3305,19 +3318,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>675.4666666666667</v>
+        <v>671.13043478260875</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44694.466666666667</v>
+        <v>44690.130434782608</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>467.25871618729724</v>
+        <v>460.39375298914393</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44486.258716187294</v>
+        <v>44479.393752989141</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3325,7 +3338,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B46" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B47" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3368,19 +3381,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>774.80000000000007</v>
+        <v>769.82608695652175</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44793.8</v>
+        <v>44788.82608695652</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>512.25955562748641</v>
+        <v>504.73344027541782</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44531.25955562749</v>
+        <v>44523.73344027542</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3431,19 +3444,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1172.1333333333334</v>
+        <v>1164.608695652174</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45191.133333333331</v>
+        <v>45183.608695652176</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>617.26151432126107</v>
+        <v>608.19271061005691</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44636.261514321261</v>
+        <v>44627.192710610056</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3494,19 +3507,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1748.2666666666667</v>
+        <v>1737.0434782608695</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45767.26666666667</v>
+        <v>45756.043478260872</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>744.0138787444605</v>
+        <v>733.0828297997283</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44763.013878744459</v>
+        <v>44752.082829799729</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3557,19 +3570,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2632.3333333333335</v>
+        <v>2615.4347826086955</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46651.333333333336</v>
+        <v>46634.434782608696</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>982.5183277774629</v>
+        <v>968.08317241698001</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45001.518327777463</v>
+        <v>44987.083172416977</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3620,19 +3633,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2920.4</v>
+        <v>2901.6521739130435</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46939.4</v>
+        <v>46920.65217391304</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1021.5190552922935</v>
+        <v>1006.5109013984173</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45040.519055292294</v>
+        <v>45025.510901398418</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3683,19 +3696,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2920.4</v>
+        <v>2901.6521739130435</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46939.4</v>
+        <v>46920.65217391304</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1021.5190552922935</v>
+        <v>1006.5109013984173</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45040.519055292294</v>
+        <v>45025.510901398418</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3770,7 +3783,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.9333333333333336</v>
+        <v>9.8695652173913047</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3811,7 +3824,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.750013990669819</v>
+        <v>0.73899478810456487</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4830,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <f>E41/H41</f>
+        <f t="shared" ref="I41:I46" si="34">E41/H41</f>
         <v>3.5</v>
       </c>
     </row>
@@ -4849,7 +4862,7 @@
         <v>44424</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42" si="34">D42-C42+1</f>
+        <f t="shared" ref="E42" si="35">D42-C42+1</f>
         <v>8</v>
       </c>
       <c r="F42">
@@ -4860,11 +4873,11 @@
         <v>29</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="35">IF(F42*G42&lt;0,ABS(F42)+ABS(G42),G42-F42+1)</f>
+        <f t="shared" ref="H42" si="36">IF(F42*G42&lt;0,ABS(F42)+ABS(G42),G42-F42+1)</f>
         <v>3</v>
       </c>
       <c r="I42">
-        <f>E42/H42</f>
+        <f t="shared" si="34"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -4883,7 +4896,7 @@
         <v>44430</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ref="E43" si="36">D43-C43+1</f>
+        <f t="shared" ref="E43" si="37">D43-C43+1</f>
         <v>6</v>
       </c>
       <c r="F43">
@@ -4894,11 +4907,11 @@
         <v>35</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="37">IF(F43*G43&lt;0,ABS(F43)+ABS(G43),G43-F43+1)</f>
+        <f t="shared" ref="H43" si="38">IF(F43*G43&lt;0,ABS(F43)+ABS(G43),G43-F43+1)</f>
         <v>6</v>
       </c>
       <c r="I43">
-        <f>E43/H43</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -4917,7 +4930,7 @@
         <v>44438</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" ref="E44" si="38">D44-C44+1</f>
+        <f t="shared" ref="E44" si="39">D44-C44+1</f>
         <v>8</v>
       </c>
       <c r="F44">
@@ -4928,11 +4941,11 @@
         <v>46</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="39">IF(F44*G44&lt;0,ABS(F44)+ABS(G44),G44-F44+1)</f>
+        <f t="shared" ref="H44" si="40">IF(F44*G44&lt;0,ABS(F44)+ABS(G44),G44-F44+1)</f>
         <v>11</v>
       </c>
       <c r="I44">
-        <f>E44/H44</f>
+        <f t="shared" si="34"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
@@ -4951,22 +4964,22 @@
         <v>44446</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ref="E45" si="40">D45-C45+1</f>
+        <f t="shared" ref="E45" si="41">D45-C45+1</f>
         <v>8</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45" si="41">G44+1</f>
+        <f t="shared" ref="F45" si="42">G44+1</f>
         <v>47</v>
       </c>
       <c r="G45" s="2">
         <v>60</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45" si="42">IF(F45*G45&lt;0,ABS(F45)+ABS(G45),G45-F45+1)</f>
+        <f t="shared" ref="H45" si="43">IF(F45*G45&lt;0,ABS(F45)+ABS(G45),G45-F45+1)</f>
         <v>14</v>
       </c>
       <c r="I45">
-        <f>E45/H45</f>
+        <f t="shared" si="34"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -4985,23 +4998,58 @@
         <v>44455</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" ref="E46" si="43">D46-C46+1</f>
+        <f t="shared" ref="E46" si="44">D46-C46+1</f>
         <v>9</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46" si="44">G45+1</f>
+        <f t="shared" ref="F46" si="45">G45+1</f>
         <v>61</v>
       </c>
       <c r="G46" s="2">
         <v>75</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46" si="45">IF(F46*G46&lt;0,ABS(F46)+ABS(G46),G46-F46+1)</f>
+        <f t="shared" ref="H46" si="46">IF(F46*G46&lt;0,ABS(F46)+ABS(G46),G46-F46+1)</f>
         <v>15</v>
       </c>
       <c r="I46">
-        <f>E46/H46</f>
+        <f t="shared" si="34"/>
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>507</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="2"/>
+        <v>卷46</v>
+      </c>
+      <c r="C47" s="1">
+        <f>D46+1</f>
+        <v>44456</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44462</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ref="E47" si="47">D47-C47+1</f>
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="48">G46+1</f>
+        <v>76</v>
+      </c>
+      <c r="G47" s="2">
+        <v>84</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47" si="49">IF(F47*G47&lt;0,ABS(F47)+ABS(G47),G47-F47+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47" si="50">E47/H47</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5066,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6428,24 +6476,30 @@
       <c r="A47">
         <v>507</v>
       </c>
-      <c r="B47" t="e">
+      <c r="B47" t="str">
         <f>VLOOKUP($A47,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷46</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="e">
+      <c r="D47">
         <f>VLOOKUP($A47,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" t="e">
+        <v>76</v>
+      </c>
+      <c r="E47">
         <f>VLOOKUP($A47,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I47" t="e">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>449</v>
+      </c>
+      <c r="H47" t="s">
+        <v>450</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷46](5_筆記/资治通鉴46.html)|漢紀三十八|76|84|二宋二梁貴人世系||漢章帝至9年</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="454">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,6 +1508,18 @@
   </si>
   <si>
     <t>漢章帝至9年</t>
+  </si>
+  <si>
+    <t>漢章帝10年至13年、漢和帝至3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢龜茲王世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六代之樂、西漢皇后外戚結局表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1736,7 +1748,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1874,6 +1886,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>卷46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>卷47</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2022,6 +2037,9 @@
                 <c:pt idx="45">
                   <c:v>0.77777777777777779</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2035,11 +2053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202058384"/>
-        <c:axId val="102420176"/>
+        <c:axId val="200833496"/>
+        <c:axId val="200833880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202058384"/>
+        <c:axId val="200833496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,12 +2169,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102420176"/>
+        <c:crossAx val="200833880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102420176"/>
+        <c:axId val="200833880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202058384"/>
+        <c:crossAx val="200833496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3196,11 +3214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3318,19 +3336,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>671.13043478260875</v>
+        <v>666.97872340425522</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44690.130434782608</v>
+        <v>44685.978723404252</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>460.39375298914393</v>
+        <v>452.43031846169833</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44479.393752989141</v>
+        <v>44471.430318461702</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3338,7 +3356,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B47" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B48" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3381,19 +3399,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>769.82608695652175</v>
+        <v>765.063829787234</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44788.82608695652</v>
+        <v>44784.063829787236</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>504.73344027541782</v>
+        <v>496.0030618127447</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44523.73344027542</v>
+        <v>44515.003061812742</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3444,19 +3462,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1164.608695652174</v>
+        <v>1157.4042553191489</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45183.608695652176</v>
+        <v>45176.404255319147</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>608.19271061005691</v>
+        <v>597.67279629851964</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44627.192710610056</v>
+        <v>44616.672796298517</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3507,19 +3525,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1737.0434782608695</v>
+        <v>1726.2978723404253</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45756.043478260872</v>
+        <v>45745.297872340423</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>733.0828297997283</v>
+        <v>720.40269007063364</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44752.082829799729</v>
+        <v>44739.40269007063</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3570,19 +3588,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2615.4347826086955</v>
+        <v>2599.255319148936</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46634.434782608696</v>
+        <v>46618.255319148935</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>968.08317241698001</v>
+        <v>951.33822983117943</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44987.083172416977</v>
+        <v>44970.338229831177</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3633,19 +3651,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2901.6521739130435</v>
+        <v>2883.7021276595742</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46920.65217391304</v>
+        <v>46902.702127659577</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1006.5109013984173</v>
+        <v>989.10127406875301</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45025.510901398418</v>
+        <v>45008.101274068751</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3696,19 +3714,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2901.6521739130435</v>
+        <v>2883.7021276595742</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46920.65217391304</v>
+        <v>46902.702127659577</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1006.5109013984173</v>
+        <v>989.10127406875301</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45025.510901398418</v>
+        <v>45008.101274068751</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3783,7 +3801,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.8695652173913047</v>
+        <v>9.8085106382978715</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3824,7 +3842,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.73899478810456487</v>
+        <v>0.72621238918410647</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5050,6 +5068,41 @@
       <c r="I47">
         <f t="shared" ref="I47" si="50">E47/H47</f>
         <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>508</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v>卷47</v>
+      </c>
+      <c r="C48" s="1">
+        <f>D47+1</f>
+        <v>44463</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ref="E48" si="51">D48-C48+1</f>
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="52">G47+1</f>
+        <v>85</v>
+      </c>
+      <c r="G48" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48" si="53">IF(F48*G48&lt;0,ABS(F48)+ABS(G48),G48-F48+1)</f>
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48" si="54">E48/H48</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +5119,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6506,24 +6559,33 @@
       <c r="A48">
         <v>508</v>
       </c>
-      <c r="B48" t="e">
+      <c r="B48" t="str">
         <f>VLOOKUP($A48,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷47</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
       </c>
-      <c r="D48" t="e">
+      <c r="D48">
         <f>VLOOKUP($A48,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E48" t="e">
+        <v>85</v>
+      </c>
+      <c r="E48">
         <f>VLOOKUP($A48,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" t="e">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" t="s">
+        <v>453</v>
+      </c>
+      <c r="H48" t="s">
+        <v>451</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷47](5_筆記/资治通鉴47.html)|漢紀三十九|85|91|漢龜茲王世系|六代之樂、西漢皇后外戚結局表|漢章帝10年至13年、漢和帝至3年</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="456">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1519,6 +1519,14 @@
   </si>
   <si>
     <t>六代之樂、西漢皇后外戚結局表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢和帝4年至17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東漢燒當羌鬥爭史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1748,7 +1756,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1889,6 +1897,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>卷47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>卷48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2040,6 +2051,9 @@
                 <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2053,11 +2067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200833496"/>
-        <c:axId val="200833880"/>
+        <c:axId val="341199368"/>
+        <c:axId val="341288392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200833496"/>
+        <c:axId val="341199368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,12 +2183,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200833880"/>
+        <c:crossAx val="341288392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200833880"/>
+        <c:axId val="341288392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200833496"/>
+        <c:crossAx val="341199368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3214,11 +3228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3336,19 +3350,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>666.97872340425522</v>
+        <v>664.41666666666674</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44685.978723404252</v>
+        <v>44683.416666666664</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>452.43031846169833</v>
+        <v>447.04165175293133</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44471.430318461702</v>
+        <v>44466.04165175293</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3356,7 +3370,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B48" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B49" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3399,19 +3413,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>765.063829787234</v>
+        <v>762.125</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44784.063829787236</v>
+        <v>44781.125</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>496.0030618127447</v>
+        <v>490.09542238724254</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44515.003061812742</v>
+        <v>44509.09542238724</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3462,19 +3476,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1157.4042553191489</v>
+        <v>1152.9583333333335</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45176.404255319147</v>
+        <v>45171.958333333336</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>597.67279629851964</v>
+        <v>590.55422053396876</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44616.672796298517</v>
+        <v>44609.554220533966</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3525,19 +3539,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1726.2978723404253</v>
+        <v>1719.6666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45745.297872340423</v>
+        <v>45738.666666666664</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>720.40269007063364</v>
+        <v>711.82234115394522</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44739.40269007063</v>
+        <v>44730.822341153944</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3588,19 +3602,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2599.255319148936</v>
+        <v>2589.2708333333335</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46618.255319148935</v>
+        <v>46608.270833333336</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>951.33822983117943</v>
+        <v>940.00732551579461</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44970.338229831177</v>
+        <v>44959.007325515791</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3651,19 +3665,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2883.7021276595742</v>
+        <v>2872.625</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46902.702127659577</v>
+        <v>46891.625</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>989.10127406875301</v>
+        <v>977.32059339886439</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45008.101274068751</v>
+        <v>44996.320593398865</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3714,19 +3728,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2883.7021276595742</v>
+        <v>2872.625</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46902.702127659577</v>
+        <v>46891.625</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>989.10127406875301</v>
+        <v>977.32059339886439</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45008.101274068751</v>
+        <v>44996.320593398865</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3801,7 +3815,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.8085106382978715</v>
+        <v>9.7708333333333339</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3842,7 +3856,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.72621238918410647</v>
+        <v>0.71756284390518676</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5103,6 +5117,41 @@
       <c r="I48">
         <f t="shared" ref="I48" si="54">E48/H48</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>509</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v>卷48</v>
+      </c>
+      <c r="C49" s="1">
+        <f>D48+1</f>
+        <v>44470</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49" si="55">D49-C49+1</f>
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="56">G48+1</f>
+        <v>92</v>
+      </c>
+      <c r="G49" s="2">
+        <v>105</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49" si="57">IF(F49*G49&lt;0,ABS(F49)+ABS(G49),G49-F49+1)</f>
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49" si="58">E49/H49</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -5117,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -6592,24 +6641,30 @@
       <c r="A49">
         <v>509</v>
       </c>
-      <c r="B49" t="e">
+      <c r="B49" t="str">
         <f>VLOOKUP($A49,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷48</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
       </c>
-      <c r="D49" t="e">
+      <c r="D49">
         <f>VLOOKUP($A49,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
+        <v>92</v>
+      </c>
+      <c r="E49">
         <f>VLOOKUP($A49,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>455</v>
+      </c>
+      <c r="H49" t="s">
+        <v>454</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷48](5_筆記/资治通鉴48.html)|漢紀四十|92|105||東漢燒當羌鬥爭史|漢和帝4年至17年</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="457">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1527,6 +1527,10 @@
   </si>
   <si>
     <t>東漢燒當羌鬥爭史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢殤帝元年、漢安帝至9年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1534,7 +1538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,6 +1567,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1607,7 +1619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1620,6 +1632,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1756,7 +1769,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1900,6 +1913,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>卷48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>卷49</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2054,6 +2070,9 @@
                 <c:pt idx="47">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2067,11 +2086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="341199368"/>
-        <c:axId val="341288392"/>
+        <c:axId val="201681488"/>
+        <c:axId val="102769664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341199368"/>
+        <c:axId val="201681488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,12 +2202,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341288392"/>
+        <c:crossAx val="102769664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341288392"/>
+        <c:axId val="102769664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341199368"/>
+        <c:crossAx val="201681488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3228,11 +3247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3350,19 +3369,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>664.41666666666674</v>
+        <v>663.34693877551024</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44683.416666666664</v>
+        <v>44682.34693877551</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>447.04165175293133</v>
+        <v>440.00639641633342</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44466.04165175293</v>
+        <v>44459.006396416335</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3370,7 +3389,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B49" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B50" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3413,19 +3432,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>762.125</v>
+        <v>760.89795918367349</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44781.125</v>
+        <v>44779.897959183676</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>490.09542238724254</v>
+        <v>482.38261436975239</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44509.09542238724</v>
+        <v>44501.382614369752</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3476,19 +3495,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1152.9583333333335</v>
+        <v>1151.1020408163265</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45171.958333333336</v>
+        <v>45170.102040816324</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>590.55422053396876</v>
+        <v>581.26045626106327</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44609.554220533966</v>
+        <v>44600.260456261065</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3539,19 +3558,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1719.6666666666667</v>
+        <v>1716.8979591836735</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45738.666666666664</v>
+        <v>45735.897959183676</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>711.82234115394522</v>
+        <v>700.62013682985992</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44730.822341153944</v>
+        <v>44719.620136829857</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3602,19 +3621,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2589.2708333333335</v>
+        <v>2585.1020408163267</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46608.270833333336</v>
+        <v>46604.102040816324</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>940.00732551579461</v>
+        <v>925.21409198298034</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44959.007325515791</v>
+        <v>44944.214091982984</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3665,19 +3684,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2872.625</v>
+        <v>2868</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46891.625</v>
+        <v>46887</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>977.32059339886439</v>
+        <v>961.94014754261013</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44996.320593398865</v>
+        <v>44980.940147542613</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3728,19 +3747,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2872.625</v>
+        <v>2868</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46891.625</v>
+        <v>46887</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>977.32059339886439</v>
+        <v>961.94014754261013</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44996.320593398865</v>
+        <v>44980.940147542613</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3815,7 +3834,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.7708333333333339</v>
+        <v>9.7551020408163271</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3856,7 +3875,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.71756284390518676</v>
+        <v>0.70627029922364915</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5152,6 +5171,41 @@
       <c r="I49">
         <f t="shared" ref="I49" si="58">E49/H49</f>
         <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>510</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v>卷49</v>
+      </c>
+      <c r="C50" s="1">
+        <f>D49+1</f>
+        <v>44478</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44486</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ref="E50" si="59">D50-C50+1</f>
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="60">G49+1</f>
+        <v>106</v>
+      </c>
+      <c r="G50" s="2">
+        <v>115</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="61">IF(F50*G50&lt;0,ABS(F50)+ABS(G50),G50-F50+1)</f>
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50" si="62">E50/H50</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5166,9 +5220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6671,24 +6725,27 @@
       <c r="A50">
         <v>510</v>
       </c>
-      <c r="B50" t="e">
+      <c r="B50" t="str">
         <f>VLOOKUP($A50,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷49</v>
       </c>
       <c r="C50" t="s">
         <v>78</v>
       </c>
-      <c r="D50" t="e">
+      <c r="D50">
         <f>VLOOKUP($A50,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
+        <v>106</v>
+      </c>
+      <c r="E50">
         <f>VLOOKUP($A50,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
+        <v>115</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷49](5_筆記/资治通鉴49.html)|漢紀四十一|106|115|||漢殤帝元年、漢安帝至9年</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="460">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1531,6 +1531,18 @@
   </si>
   <si>
     <t>漢殤帝元年、漢安帝至9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡諷蔡瑁世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺殺先零羌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢安帝10年至18年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,7 +1781,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1916,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>卷49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>卷50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2073,6 +2088,9 @@
                 <c:pt idx="48">
                   <c:v>0.9</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2086,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201681488"/>
-        <c:axId val="102769664"/>
+        <c:axId val="209243648"/>
+        <c:axId val="209111960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201681488"/>
+        <c:axId val="209243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,12 +2220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102769664"/>
+        <c:crossAx val="209111960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102769664"/>
+        <c:axId val="209111960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2338,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201681488"/>
+        <c:crossAx val="209243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3247,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3369,19 +3387,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>663.34693877551024</v>
+        <v>663.68</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44682.34693877551</v>
+        <v>44682.68</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>440.00639641633342</v>
+        <v>432.11852220321401</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44459.006396416335</v>
+        <v>44451.118522203215</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3389,7 +3407,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B50" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B51" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3432,19 +3450,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>760.89795918367349</v>
+        <v>761.28</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44779.897959183676</v>
+        <v>44780.28</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>482.38261436975239</v>
+        <v>473.73507329822655</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44501.382614369752</v>
+        <v>44492.735073298223</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3495,19 +3513,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1151.1020408163265</v>
+        <v>1151.68</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45170.102040816324</v>
+        <v>45170.68</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>581.26045626106327</v>
+        <v>570.84035918658924</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44600.260456261065</v>
+        <v>44589.840359186586</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3558,19 +3576,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1716.8979591836735</v>
+        <v>1717.76</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45735.897959183676</v>
+        <v>45736.76</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>700.62013682985992</v>
+        <v>688.06031143754137</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44719.620136829857</v>
+        <v>44707.060311437541</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3621,19 +3639,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2585.1020408163267</v>
+        <v>2586.4</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46604.102040816324</v>
+        <v>46605.4</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>925.21409198298034</v>
+        <v>908.62803224110803</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44944.214091982984</v>
+        <v>44927.628032241111</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3684,19 +3702,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2868</v>
+        <v>2869.44</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46887</v>
+        <v>46888.44</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>961.94014754261013</v>
+        <v>944.6957098567857</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44980.940147542613</v>
+        <v>44963.695709856787</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3747,19 +3765,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2868</v>
+        <v>2869.44</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46887</v>
+        <v>46888.44</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>961.94014754261013</v>
+        <v>944.6957098567857</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44980.940147542613</v>
+        <v>44963.695709856787</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3834,7 +3852,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.7551020408163271</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3875,7 +3893,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.70627029922364915</v>
+        <v>0.6936091849168764</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5206,6 +5224,41 @@
       <c r="I50">
         <f t="shared" ref="I50" si="62">E50/H50</f>
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>511</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v>卷50</v>
+      </c>
+      <c r="C51" s="1">
+        <f>D50+1</f>
+        <v>44487</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44496</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ref="E51" si="63">D51-C51+1</f>
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51" si="64">G50+1</f>
+        <v>116</v>
+      </c>
+      <c r="G51" s="2">
+        <v>124</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51" si="65">IF(F51*G51&lt;0,ABS(F51)+ABS(G51),G51-F51+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51" si="66">E51/H51</f>
+        <v>1.1111111111111112</v>
       </c>
     </row>
   </sheetData>
@@ -5220,9 +5273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6752,24 +6805,33 @@
       <c r="A51">
         <v>511</v>
       </c>
-      <c r="B51" t="e">
+      <c r="B51" t="str">
         <f>VLOOKUP($A51,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷50</v>
       </c>
       <c r="C51" t="s">
         <v>79</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51">
         <f>VLOOKUP($A51,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
+        <v>116</v>
+      </c>
+      <c r="E51">
         <f>VLOOKUP($A51,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>457</v>
+      </c>
+      <c r="G51" t="s">
+        <v>458</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷50](5_筆記/资治通鉴50.html)|漢紀四十二|116|124|蔡諷蔡瑁世系圖|刺殺先零羌|漢安帝10年至18年</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="462">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1543,6 +1543,14 @@
   </si>
   <si>
     <t>漢安帝10年至18年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢安帝19年、前少帝劉懿、漢順帝至8年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢群臣上書類型、天體學說三家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1781,7 +1789,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1931,6 +1939,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>卷50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>卷51</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2091,6 +2102,9 @@
                 <c:pt idx="49">
                   <c:v>1.1111111111111112</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2104,11 +2118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209243648"/>
-        <c:axId val="209111960"/>
+        <c:axId val="103591104"/>
+        <c:axId val="212139648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209243648"/>
+        <c:axId val="103591104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,12 +2234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209111960"/>
+        <c:crossAx val="212139648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209111960"/>
+        <c:axId val="212139648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209243648"/>
+        <c:crossAx val="103591104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3265,11 +3279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3387,19 +3401,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>663.68</v>
+        <v>661.33333333333326</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44682.68</v>
+        <v>44680.333333333336</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>432.11852220321401</v>
+        <v>425.6452350327861</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44451.118522203215</v>
+        <v>44444.645235032789</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3407,7 +3421,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B51" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B52" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3450,19 +3464,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>761.28</v>
+        <v>758.58823529411757</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44780.28</v>
+        <v>44777.588235294119</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>473.73507329822655</v>
+        <v>466.63835558169006</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44492.735073298223</v>
+        <v>44485.638355581686</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3513,19 +3527,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1151.68</v>
+        <v>1147.6078431372548</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45170.68</v>
+        <v>45166.607843137252</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>570.84035918658924</v>
+        <v>562.28897019579938</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44589.840359186586</v>
+        <v>44581.288970195797</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3576,19 +3590,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1717.76</v>
+        <v>1711.6862745098038</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45736.76</v>
+        <v>45730.686274509804</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>688.06031143754137</v>
+        <v>677.75292640854548</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44707.060311437541</v>
+        <v>44696.752926408546</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3639,19 +3653,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2586.4</v>
+        <v>2577.2549019607841</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46605.4</v>
+        <v>46596.254901960783</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>908.62803224110803</v>
+        <v>895.01646531773645</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44927.628032241111</v>
+        <v>44914.016465317734</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3702,19 +3716,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2869.44</v>
+        <v>2859.2941176470586</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46888.44</v>
+        <v>46878.294117647056</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>944.6957098567857</v>
+        <v>930.54383646011991</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44963.695709856787</v>
+        <v>44949.543836460121</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3765,19 +3779,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2869.44</v>
+        <v>2859.2941176470586</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46888.44</v>
+        <v>46878.294117647056</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>944.6957098567857</v>
+        <v>930.54383646011991</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44963.695709856787</v>
+        <v>44949.543836460121</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3852,7 +3866,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.76</v>
+        <v>9.7254901960784306</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3893,7 +3907,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.6936091849168764</v>
+        <v>0.68321867581506601</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5259,6 +5273,41 @@
       <c r="I51">
         <f t="shared" ref="I51" si="66">E51/H51</f>
         <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>512</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v>卷51</v>
+      </c>
+      <c r="C52" s="1">
+        <f>D51+1</f>
+        <v>44497</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44504</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" ref="E52" si="67">D52-C52+1</f>
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52" si="68">G51+1</f>
+        <v>125</v>
+      </c>
+      <c r="G52" s="2">
+        <v>133</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52" si="69">IF(F52*G52&lt;0,ABS(F52)+ABS(G52),G52-F52+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52" si="70">E52/H52</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
   </sheetData>
@@ -5273,9 +5322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6838,24 +6887,30 @@
       <c r="A52">
         <v>512</v>
       </c>
-      <c r="B52" t="e">
+      <c r="B52" t="str">
         <f>VLOOKUP($A52,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷51</v>
       </c>
       <c r="C52" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="e">
+      <c r="D52">
         <f>VLOOKUP($A52,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
+        <v>125</v>
+      </c>
+      <c r="E52">
         <f>VLOOKUP($A52,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>461</v>
+      </c>
+      <c r="H52" t="s">
+        <v>460</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷51](5_筆記/资治通鉴51.html)|漢紀四十三|125|133||漢群臣上書類型、天體學說三家|漢安帝19年、前少帝劉懿、漢順帝至8年</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="463">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1551,6 +1551,10 @@
   </si>
   <si>
     <t>漢群臣上書類型、天體學說三家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢順帝9年至19年、漢沖帝、漢質帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1789,7 +1793,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1942,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>卷51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>卷52</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2105,6 +2112,9 @@
                 <c:pt idx="50">
                   <c:v>0.88888888888888884</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2118,11 +2128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103591104"/>
-        <c:axId val="212139648"/>
+        <c:axId val="370161984"/>
+        <c:axId val="370162376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103591104"/>
+        <c:axId val="370161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,12 +2244,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212139648"/>
+        <c:crossAx val="370162376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212139648"/>
+        <c:axId val="370162376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103591104"/>
+        <c:crossAx val="370161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,11 +3289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3401,19 +3411,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>661.33333333333326</v>
+        <v>660.38461538461536</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44680.333333333336</v>
+        <v>44679.384615384617</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>425.6452350327861</v>
+        <v>420.15944840130885</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44444.645235032789</v>
+        <v>44439.159448401311</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3421,7 +3431,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B52" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B53" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3464,19 +3474,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>758.58823529411757</v>
+        <v>757.5</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44777.588235294119</v>
+        <v>44776.5</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>466.63835558169006</v>
+        <v>460.62424278987794</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44485.638355581686</v>
+        <v>44479.624242789876</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3527,19 +3537,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1147.6078431372548</v>
+        <v>1145.9615384615386</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45166.607843137252</v>
+        <v>45164.961538461539</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>562.28897019579938</v>
+        <v>555.04209636320581</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44581.288970195797</v>
+        <v>44574.042096363206</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3590,19 +3600,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1711.6862745098038</v>
+        <v>1709.2307692307693</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45730.686274509804</v>
+        <v>45728.230769230766</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>677.75292640854548</v>
+        <v>669.01793389100862</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44696.752926408546</v>
+        <v>44688.017933891009</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3653,19 +3663,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2577.2549019607841</v>
+        <v>2573.5576923076924</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46596.254901960783</v>
+        <v>46592.557692307695</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>895.01646531773645</v>
+        <v>883.48134415042477</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44914.016465317734</v>
+        <v>44902.481344150423</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3716,19 +3726,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2859.2941176470586</v>
+        <v>2855.1923076923076</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46878.294117647056</v>
+        <v>46874.192307692305</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>930.54383646011991</v>
+        <v>918.55083262051789</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44949.543836460121</v>
+        <v>44937.550832620516</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3779,19 +3789,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2859.2941176470586</v>
+        <v>2855.1923076923076</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46878.294117647056</v>
+        <v>46874.192307692305</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>930.54383646011991</v>
+        <v>918.55083262051789</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44949.543836460121</v>
+        <v>44937.550832620516</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3866,7 +3876,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.7254901960784306</v>
+        <v>9.7115384615384617</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3907,7 +3917,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.68321867581506601</v>
+        <v>0.67441323980948453</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5109,29 +5119,29 @@
         <v>卷46</v>
       </c>
       <c r="C47" s="1">
-        <f>D46+1</f>
+        <f t="shared" ref="C47:C53" si="47">D46+1</f>
         <v>44456</v>
       </c>
       <c r="D47" s="1">
         <v>44462</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" ref="E47" si="47">D47-C47+1</f>
+        <f t="shared" ref="E47" si="48">D47-C47+1</f>
         <v>7</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47" si="48">G46+1</f>
+        <f t="shared" ref="F47" si="49">G46+1</f>
         <v>76</v>
       </c>
       <c r="G47" s="2">
         <v>84</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="49">IF(F47*G47&lt;0,ABS(F47)+ABS(G47),G47-F47+1)</f>
+        <f t="shared" ref="H47" si="50">IF(F47*G47&lt;0,ABS(F47)+ABS(G47),G47-F47+1)</f>
         <v>9</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47" si="50">E47/H47</f>
+        <f t="shared" ref="I47" si="51">E47/H47</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -5144,29 +5154,29 @@
         <v>卷47</v>
       </c>
       <c r="C48" s="1">
-        <f>D47+1</f>
+        <f t="shared" si="47"/>
         <v>44463</v>
       </c>
       <c r="D48" s="1">
         <v>44469</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" ref="E48" si="51">D48-C48+1</f>
+        <f t="shared" ref="E48" si="52">D48-C48+1</f>
         <v>7</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48" si="52">G47+1</f>
+        <f t="shared" ref="F48" si="53">G47+1</f>
         <v>85</v>
       </c>
       <c r="G48" s="2">
         <v>91</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48" si="53">IF(F48*G48&lt;0,ABS(F48)+ABS(G48),G48-F48+1)</f>
+        <f t="shared" ref="H48" si="54">IF(F48*G48&lt;0,ABS(F48)+ABS(G48),G48-F48+1)</f>
         <v>7</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48" si="54">E48/H48</f>
+        <f t="shared" ref="I48" si="55">E48/H48</f>
         <v>1</v>
       </c>
     </row>
@@ -5179,29 +5189,29 @@
         <v>卷48</v>
       </c>
       <c r="C49" s="1">
-        <f>D48+1</f>
+        <f t="shared" si="47"/>
         <v>44470</v>
       </c>
       <c r="D49" s="1">
         <v>44477</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ref="E49" si="55">D49-C49+1</f>
+        <f t="shared" ref="E49" si="56">D49-C49+1</f>
         <v>8</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="56">G48+1</f>
+        <f t="shared" ref="F49" si="57">G48+1</f>
         <v>92</v>
       </c>
       <c r="G49" s="2">
         <v>105</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49" si="57">IF(F49*G49&lt;0,ABS(F49)+ABS(G49),G49-F49+1)</f>
+        <f t="shared" ref="H49" si="58">IF(F49*G49&lt;0,ABS(F49)+ABS(G49),G49-F49+1)</f>
         <v>14</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49" si="58">E49/H49</f>
+        <f t="shared" ref="I49" si="59">E49/H49</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -5214,29 +5224,29 @@
         <v>卷49</v>
       </c>
       <c r="C50" s="1">
-        <f>D49+1</f>
+        <f t="shared" si="47"/>
         <v>44478</v>
       </c>
       <c r="D50" s="1">
         <v>44486</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ref="E50" si="59">D50-C50+1</f>
+        <f t="shared" ref="E50" si="60">D50-C50+1</f>
         <v>9</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50" si="60">G49+1</f>
+        <f t="shared" ref="F50" si="61">G49+1</f>
         <v>106</v>
       </c>
       <c r="G50" s="2">
         <v>115</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="61">IF(F50*G50&lt;0,ABS(F50)+ABS(G50),G50-F50+1)</f>
+        <f t="shared" ref="H50" si="62">IF(F50*G50&lt;0,ABS(F50)+ABS(G50),G50-F50+1)</f>
         <v>10</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50" si="62">E50/H50</f>
+        <f t="shared" ref="I50" si="63">E50/H50</f>
         <v>0.9</v>
       </c>
     </row>
@@ -5249,29 +5259,29 @@
         <v>卷50</v>
       </c>
       <c r="C51" s="1">
-        <f>D50+1</f>
+        <f t="shared" si="47"/>
         <v>44487</v>
       </c>
       <c r="D51" s="1">
         <v>44496</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" ref="E51" si="63">D51-C51+1</f>
+        <f t="shared" ref="E51" si="64">D51-C51+1</f>
         <v>10</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51" si="64">G50+1</f>
+        <f t="shared" ref="F51" si="65">G50+1</f>
         <v>116</v>
       </c>
       <c r="G51" s="2">
         <v>124</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51" si="65">IF(F51*G51&lt;0,ABS(F51)+ABS(G51),G51-F51+1)</f>
+        <f t="shared" ref="H51" si="66">IF(F51*G51&lt;0,ABS(F51)+ABS(G51),G51-F51+1)</f>
         <v>9</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51" si="66">E51/H51</f>
+        <f t="shared" ref="I51" si="67">E51/H51</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -5284,30 +5294,65 @@
         <v>卷51</v>
       </c>
       <c r="C52" s="1">
-        <f>D51+1</f>
+        <f t="shared" si="47"/>
         <v>44497</v>
       </c>
       <c r="D52" s="1">
         <v>44504</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" ref="E52" si="67">D52-C52+1</f>
+        <f t="shared" ref="E52" si="68">D52-C52+1</f>
         <v>8</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52" si="68">G51+1</f>
+        <f t="shared" ref="F52" si="69">G51+1</f>
         <v>125</v>
       </c>
       <c r="G52" s="2">
         <v>133</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52" si="69">IF(F52*G52&lt;0,ABS(F52)+ABS(G52),G52-F52+1)</f>
+        <f t="shared" ref="H52" si="70">IF(F52*G52&lt;0,ABS(F52)+ABS(G52),G52-F52+1)</f>
         <v>9</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52" si="70">E52/H52</f>
+        <f t="shared" ref="I52" si="71">E52/H52</f>
         <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>513</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="2"/>
+        <v>卷52</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="47"/>
+        <v>44505</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44513</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" ref="E53" si="72">D53-C53+1</f>
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53" si="73">G52+1</f>
+        <v>134</v>
+      </c>
+      <c r="G53" s="2">
+        <v>145</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53" si="74">IF(F53*G53&lt;0,ABS(F53)+ABS(G53),G53-F53+1)</f>
+        <v>12</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53" si="75">E53/H53</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -5322,9 +5367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6917,24 +6962,27 @@
       <c r="A53">
         <v>513</v>
       </c>
-      <c r="B53" t="e">
+      <c r="B53" t="str">
         <f>VLOOKUP($A53,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷52</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="D53" t="e">
+      <c r="D53">
         <f>VLOOKUP($A53,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="e">
+        <v>134</v>
+      </c>
+      <c r="E53">
         <f>VLOOKUP($A53,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="e">
+        <v>145</v>
+      </c>
+      <c r="H53" t="s">
+        <v>462</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷52](5_筆記/资治通鉴52.html)|漢紀四十四|134|145|||漢順帝9年至19年、漢沖帝、漢質帝</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,6 +1555,13 @@
   </si>
   <si>
     <t>漢順帝9年至19年、漢沖帝、漢質帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢桓帝至10年</t>
+  </si>
+  <si>
+    <t>梁氏世系圖、崔氏世系圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1793,7 +1800,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1949,6 +1956,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>卷52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>卷53</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2115,6 +2125,9 @@
                 <c:pt idx="51">
                   <c:v>0.75</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2128,11 +2141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370161984"/>
-        <c:axId val="370162376"/>
+        <c:axId val="208056096"/>
+        <c:axId val="208067976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370161984"/>
+        <c:axId val="208056096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,12 +2257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370162376"/>
+        <c:crossAx val="208067976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370162376"/>
+        <c:axId val="208067976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370161984"/>
+        <c:crossAx val="208056096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3289,11 +3302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3411,19 +3424,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>660.38461538461536</v>
+        <v>658.18867924528308</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44679.384615384617</v>
+        <v>44677.188679245286</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>420.15944840130885</v>
+        <v>414.89161289925306</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44439.159448401311</v>
+        <v>44433.89161289925</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3431,7 +3444,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B53" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B54" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3474,19 +3487,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>757.5</v>
+        <v>754.98113207547181</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44776.5</v>
+        <v>44773.981132075474</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>460.62424278987794</v>
+        <v>454.84907160544117</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44479.624242789876</v>
+        <v>44473.849071605444</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3537,19 +3550,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1145.9615384615386</v>
+        <v>1142.1509433962265</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45164.961538461539</v>
+        <v>45161.150943396227</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>555.04209636320581</v>
+        <v>548.08314191988006</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44574.042096363206</v>
+        <v>44567.08314191988</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3600,19 +3613,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1709.2307692307693</v>
+        <v>1703.5471698113208</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45728.230769230766</v>
+        <v>45722.547169811318</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>669.01793389100862</v>
+        <v>660.62998394230988</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44688.017933891009</v>
+        <v>44679.629983942308</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3663,19 +3676,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2573.5576923076924</v>
+        <v>2565</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46592.557692307695</v>
+        <v>46584</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>883.48134415042477</v>
+        <v>872.40451508510671</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44902.481344150423</v>
+        <v>44891.404515085109</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3726,19 +3739,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2855.1923076923076</v>
+        <v>2845.6981132075475</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46874.192307692305</v>
+        <v>46864.698113207545</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>918.55083262051789</v>
+        <v>907.0343126304698</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44937.550832620516</v>
+        <v>44926.034312630472</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3789,19 +3802,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2855.1923076923076</v>
+        <v>2845.6981132075475</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46874.192307692305</v>
+        <v>46864.698113207545</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>918.55083262051789</v>
+        <v>907.0343126304698</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44937.550832620516</v>
+        <v>44926.034312630472</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3876,7 +3889,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.7115384615384617</v>
+        <v>9.6792452830188687</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3917,7 +3930,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.67441323980948453</v>
+        <v>0.66595764510313493</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5353,6 +5366,41 @@
       <c r="I53">
         <f t="shared" ref="I53" si="75">E53/H53</f>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>514</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="2"/>
+        <v>卷53</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54" si="76">D53+1</f>
+        <v>44514</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44521</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ref="E54" si="77">D54-C54+1</f>
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="78">G53+1</f>
+        <v>146</v>
+      </c>
+      <c r="G54" s="2">
+        <v>156</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="79">IF(F54*G54&lt;0,ABS(F54)+ABS(G54),G54-F54+1)</f>
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="80">E54/H54</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
   </sheetData>
@@ -5367,9 +5415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6989,24 +7037,30 @@
       <c r="A54">
         <v>514</v>
       </c>
-      <c r="B54" t="e">
+      <c r="B54" t="str">
         <f>VLOOKUP($A54,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷53</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
       </c>
-      <c r="D54" t="e">
+      <c r="D54">
         <f>VLOOKUP($A54,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" t="e">
+        <v>146</v>
+      </c>
+      <c r="E54">
         <f>VLOOKUP($A54,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I54" t="e">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="H54" t="s">
+        <v>463</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷53](5_筆記/资治通鉴53.html)|漢紀四十五|146|156|梁氏世系圖、崔氏世系圖||漢桓帝至10年</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -11,7 +11,7 @@
     <sheet name="目錄生成" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1393,10 +1393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王莽滅親表、漢儒天子妻妾制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王莽15年、玄漢至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1562,6 +1558,10 @@
   </si>
   <si>
     <t>梁氏世系圖、崔氏世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽滅親表、周禮天子六宮制度、六宮安置表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,11 +2141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208056096"/>
-        <c:axId val="208067976"/>
+        <c:axId val="262458000"/>
+        <c:axId val="262458392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208056096"/>
+        <c:axId val="262458000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,12 +2257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208067976"/>
+        <c:crossAx val="262458392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208067976"/>
+        <c:axId val="262458392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208056096"/>
+        <c:crossAx val="262458000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5416,8 +5416,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5598,7 +5598,7 @@
         <v>-256</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H6" t="s">
         <v>351</v>
@@ -5748,7 +5748,7 @@
         <v>-203</v>
       </c>
       <c r="G11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
         <v>355</v>
@@ -5778,7 +5778,7 @@
         <v>-200</v>
       </c>
       <c r="G12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
         <v>356</v>
@@ -5838,7 +5838,7 @@
         <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H14" t="s">
         <v>358</v>
@@ -5868,7 +5868,7 @@
         <v>-170</v>
       </c>
       <c r="G15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H15" t="s">
         <v>359</v>
@@ -5898,7 +5898,7 @@
         <v>-155</v>
       </c>
       <c r="G16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H16" t="s">
         <v>360</v>
@@ -5928,10 +5928,10 @@
         <v>-141</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H17" t="s">
         <v>361</v>
@@ -6024,10 +6024,10 @@
         <v>-119</v>
       </c>
       <c r="F20" t="s">
+        <v>440</v>
+      </c>
+      <c r="G20" t="s">
         <v>441</v>
-      </c>
-      <c r="G20" t="s">
-        <v>442</v>
       </c>
       <c r="H20" t="s">
         <v>365</v>
@@ -6057,7 +6057,7 @@
         <v>-110</v>
       </c>
       <c r="G21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" t="s">
         <v>370</v>
@@ -6114,7 +6114,7 @@
         <v>-87</v>
       </c>
       <c r="G23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H23" t="s">
         <v>372</v>
@@ -6144,7 +6144,7 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" t="s">
         <v>373</v>
@@ -6603,14 +6603,14 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>420</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>[卷38](5_筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、漢儒天子妻妾制|王莽7年至14年</v>
+        <v>[卷38](5_筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、周禮天子六宮制度、六宮安置表|王莽7年至14年</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -6633,10 +6633,10 @@
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -6663,7 +6663,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -6690,10 +6690,10 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -6720,10 +6720,10 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
+        <v>426</v>
+      </c>
+      <c r="H43" t="s">
         <v>427</v>
-      </c>
-      <c r="H43" t="s">
-        <v>428</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -6750,10 +6750,10 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -6780,10 +6780,10 @@
         <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -6810,13 +6810,13 @@
         <v>75</v>
       </c>
       <c r="F46" t="s">
+        <v>446</v>
+      </c>
+      <c r="G46" t="s">
+        <v>445</v>
+      </c>
+      <c r="H46" t="s">
         <v>447</v>
-      </c>
-      <c r="G46" t="s">
-        <v>446</v>
-      </c>
-      <c r="H46" t="s">
-        <v>448</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -6843,10 +6843,10 @@
         <v>84</v>
       </c>
       <c r="F47" t="s">
+        <v>448</v>
+      </c>
+      <c r="H47" t="s">
         <v>449</v>
-      </c>
-      <c r="H47" t="s">
-        <v>450</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
@@ -6873,13 +6873,13 @@
         <v>91</v>
       </c>
       <c r="F48" t="s">
+        <v>451</v>
+      </c>
+      <c r="G48" t="s">
         <v>452</v>
       </c>
-      <c r="G48" t="s">
-        <v>453</v>
-      </c>
       <c r="H48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
@@ -6906,10 +6906,10 @@
         <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
@@ -6936,7 +6936,7 @@
         <v>115</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -6963,13 +6963,13 @@
         <v>124</v>
       </c>
       <c r="F51" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" t="s">
         <v>457</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>459</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
@@ -6996,10 +6996,10 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
@@ -7026,7 +7026,7 @@
         <v>145</v>
       </c>
       <c r="H53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
@@ -7053,10 +7053,10 @@
         <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="468">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1562,6 +1562,18 @@
   </si>
   <si>
     <t>王莽滅親表、周禮天子六宮制度、六宮安置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢桓帝11年至17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李杜組合匯總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧猛女關系圖、李固世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,7 +1812,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1959,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>卷53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>卷54</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2128,6 +2143,9 @@
                 <c:pt idx="52">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2141,11 +2159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262458000"/>
-        <c:axId val="262458392"/>
+        <c:axId val="208819560"/>
+        <c:axId val="209382216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262458000"/>
+        <c:axId val="208819560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,12 +2275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262458392"/>
+        <c:crossAx val="209382216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262458392"/>
+        <c:axId val="209382216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262458000"/>
+        <c:crossAx val="208819560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,11 +3320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3424,19 +3442,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>658.18867924528308</v>
+        <v>656.07407407407413</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44677.188679245286</v>
+        <v>44675.074074074073</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>414.89161289925306</v>
+        <v>407.76883840564631</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44433.89161289925</v>
+        <v>44426.768838405646</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3444,7 +3462,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B54" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B55" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3487,19 +3505,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>754.98113207547181</v>
+        <v>752.55555555555566</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44773.981132075474</v>
+        <v>44771.555555555555</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>454.84907160544117</v>
+        <v>447.04031561967327</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44473.849071605444</v>
+        <v>44466.04031561967</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3550,19 +3568,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1142.1509433962265</v>
+        <v>1138.4814814814815</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45161.150943396227</v>
+        <v>45157.481481481482</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>548.08314191988006</v>
+        <v>538.6737624524028</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44567.08314191988</v>
+        <v>44557.673762452403</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3613,19 +3631,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1703.5471698113208</v>
+        <v>1698.0740740740741</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45722.547169811318</v>
+        <v>45717.074074074073</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>660.62998394230988</v>
+        <v>649.28842327191194</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44679.629983942308</v>
+        <v>44668.288423271915</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3676,19 +3694,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2565</v>
+        <v>2556.7592592592596</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46584</v>
+        <v>46575.759259259263</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>872.40451508510671</v>
+        <v>857.42725250625472</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44891.404515085109</v>
+        <v>44876.427252506255</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3739,19 +3757,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2845.6981132075475</v>
+        <v>2836.5555555555557</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46864.698113207545</v>
+        <v>46855.555555555555</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>907.0343126304698</v>
+        <v>891.46253275841138</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44926.034312630472</v>
+        <v>44910.462532758414</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3802,19 +3820,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2845.6981132075475</v>
+        <v>2836.5555555555557</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46864.698113207545</v>
+        <v>46855.555555555555</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>907.0343126304698</v>
+        <v>891.46253275841138</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44926.034312630472</v>
+        <v>44910.462532758414</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3889,7 +3907,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.6792452830188687</v>
+        <v>9.6481481481481488</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3930,7 +3948,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66595764510313493</v>
+        <v>0.65452462023378222</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5401,6 +5419,41 @@
       <c r="I54">
         <f t="shared" ref="I54" si="80">E54/H54</f>
         <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>515</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="2"/>
+        <v>卷54</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55" si="81">D54+1</f>
+        <v>44522</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44529</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ref="E55" si="82">D55-C55+1</f>
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="83">G54+1</f>
+        <v>157</v>
+      </c>
+      <c r="G55" s="2">
+        <v>163</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="84">IF(F55*G55&lt;0,ABS(F55)+ABS(G55),G55-F55+1)</f>
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55" si="85">E55/H55</f>
+        <v>1.1428571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -5416,8 +5469,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7067,24 +7120,33 @@
       <c r="A55">
         <v>515</v>
       </c>
-      <c r="B55" t="e">
+      <c r="B55" t="str">
         <f>VLOOKUP($A55,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷54</v>
       </c>
       <c r="C55" t="s">
         <v>83</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55">
         <f>VLOOKUP($A55,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E55" t="e">
+        <v>157</v>
+      </c>
+      <c r="E55">
         <f>VLOOKUP($A55,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I55" t="e">
+        <v>163</v>
+      </c>
+      <c r="F55" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" t="s">
+        <v>466</v>
+      </c>
+      <c r="H55" t="s">
+        <v>465</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷54](5_筆記/资治通鉴54.html)|漢紀四十六|157|163|鄧猛女關系圖、李固世系|李杜組合匯總|漢桓帝11年至17年</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="469">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1574,6 +1574,10 @@
   </si>
   <si>
     <t>鄧猛女關系圖、李固世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢桓帝18年至20年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1675,7 +1679,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1812,7 +1817,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1974,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>卷54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>卷55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2146,6 +2154,9 @@
                 <c:pt idx="53">
                   <c:v>1.1428571428571428</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2159,11 +2170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208819560"/>
-        <c:axId val="209382216"/>
+        <c:axId val="214985616"/>
+        <c:axId val="214981920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208819560"/>
+        <c:axId val="214985616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,12 +2286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209382216"/>
+        <c:crossAx val="214981920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209382216"/>
+        <c:axId val="214981920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2404,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208819560"/>
+        <c:crossAx val="214985616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3320,11 +3331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3442,19 +3453,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>656.07407407407413</v>
+        <v>651.56363636363642</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44675.074074074073</v>
+        <v>44670.563636363637</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>407.76883840564631</v>
+        <v>413.46372143486917</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44426.768838405646</v>
+        <v>44432.46372143487</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3462,7 +3473,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B55" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B56" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3505,19 +3516,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>752.55555555555566</v>
+        <v>747.38181818181818</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44771.555555555555</v>
+        <v>44766.381818181821</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>447.04031561967327</v>
+        <v>453.28366250403798</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44466.04031561967</v>
+        <v>44472.283662504036</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3568,19 +3579,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1138.4814814814815</v>
+        <v>1130.6545454545455</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45157.481481481482</v>
+        <v>45149.654545454548</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>538.6737624524028</v>
+        <v>546.19685833209849</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44557.673762452403</v>
+        <v>44565.1968583321</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3631,19 +3642,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1698.0740740740741</v>
+        <v>1686.4</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45717.074074074073</v>
+        <v>45705.4</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>649.28842327191194</v>
+        <v>658.35635901025717</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44668.288423271915</v>
+        <v>44677.356359010257</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3694,19 +3705,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2556.7592592592596</v>
+        <v>2539.181818181818</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46575.759259259263</v>
+        <v>46558.181818181816</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>857.42725250625472</v>
+        <v>869.4020466768518</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44876.427252506255</v>
+        <v>44888.402046676849</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3757,19 +3768,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2836.5555555555557</v>
+        <v>2817.0545454545454</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46855.555555555555</v>
+        <v>46836.054545454543</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>891.46253275841138</v>
+        <v>903.91266227013136</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44910.462532758414</v>
+        <v>44922.91266227013</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3820,19 +3831,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2836.5555555555557</v>
+        <v>2817.0545454545454</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46855.555555555555</v>
+        <v>46836.054545454543</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>891.46253275841138</v>
+        <v>903.91266227013136</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44910.462532758414</v>
+        <v>44922.91266227013</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3907,7 +3918,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.6481481481481488</v>
+        <v>9.581818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3948,7 +3959,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.65452462023378222</v>
+        <v>0.66366568448614638</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5454,6 +5465,41 @@
       <c r="I55">
         <f t="shared" ref="I55" si="85">E55/H55</f>
         <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>516</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="2"/>
+        <v>卷55</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56" si="86">D55+1</f>
+        <v>44530</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44535</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ref="E56" si="87">D56-C56+1</f>
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="88">G55+1</f>
+        <v>164</v>
+      </c>
+      <c r="G56" s="2">
+        <v>166</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56" si="89">IF(F56*G56&lt;0,ABS(F56)+ABS(G56),G56-F56+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56" si="90">E56/H56</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5469,14 +5515,15 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="33.375" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -5501,7 +5548,7 @@
       <c r="G1" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>368</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -5530,7 +5577,7 @@
       <c r="F2" t="s">
         <v>386</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>348</v>
       </c>
       <c r="I2" t="str">
@@ -5563,7 +5610,7 @@
       <c r="G3" t="s">
         <v>387</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="11" t="s">
         <v>347</v>
       </c>
       <c r="I3" t="str">
@@ -5593,7 +5640,7 @@
       <c r="G4" t="s">
         <v>391</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>349</v>
       </c>
       <c r="I4" t="str">
@@ -5623,7 +5670,7 @@
       <c r="G5" t="s">
         <v>392</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="11" t="s">
         <v>350</v>
       </c>
       <c r="I5" t="str">
@@ -5653,7 +5700,7 @@
       <c r="F6" t="s">
         <v>432</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="11" t="s">
         <v>351</v>
       </c>
       <c r="I6" t="str">
@@ -5683,7 +5730,7 @@
       <c r="G7" t="s">
         <v>393</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="11" t="s">
         <v>352</v>
       </c>
       <c r="I7" t="str">
@@ -5713,7 +5760,7 @@
       <c r="F8" t="s">
         <v>394</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="11" t="s">
         <v>353</v>
       </c>
       <c r="I8" t="str">
@@ -5740,7 +5787,7 @@
         <f>VLOOKUP($A9,統計!$A:$G,7,)</f>
         <v>-207</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="11" t="s">
         <v>354</v>
       </c>
       <c r="I9" t="str">
@@ -5773,7 +5820,7 @@
       <c r="G10" t="s">
         <v>395</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="11" t="s">
         <v>362</v>
       </c>
       <c r="I10" t="str">
@@ -5803,7 +5850,7 @@
       <c r="G11" t="s">
         <v>433</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="11" t="s">
         <v>355</v>
       </c>
       <c r="I11" t="str">
@@ -5833,7 +5880,7 @@
       <c r="G12" t="s">
         <v>434</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="11" t="s">
         <v>356</v>
       </c>
       <c r="I12" t="str">
@@ -5860,7 +5907,7 @@
         <f>VLOOKUP($A13,統計!$A:$G,7,)</f>
         <v>-188</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="11" t="s">
         <v>357</v>
       </c>
       <c r="I13" t="str">
@@ -5893,7 +5940,7 @@
       <c r="G14" t="s">
         <v>435</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I14" t="str">
@@ -5923,7 +5970,7 @@
       <c r="G15" t="s">
         <v>436</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="11" t="s">
         <v>359</v>
       </c>
       <c r="I15" t="str">
@@ -5953,7 +6000,7 @@
       <c r="G16" t="s">
         <v>437</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="11" t="s">
         <v>360</v>
       </c>
       <c r="I16" t="str">
@@ -5986,7 +6033,7 @@
       <c r="G17" t="s">
         <v>438</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="11" t="s">
         <v>361</v>
       </c>
       <c r="I17" t="str">
@@ -6019,7 +6066,7 @@
       <c r="G18" t="s">
         <v>398</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="11" t="s">
         <v>363</v>
       </c>
       <c r="I18" t="str">
@@ -6049,7 +6096,7 @@
       <c r="G19" t="s">
         <v>400</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="11" t="s">
         <v>364</v>
       </c>
       <c r="I19" t="str">
@@ -6082,7 +6129,7 @@
       <c r="G20" t="s">
         <v>441</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="11" t="s">
         <v>365</v>
       </c>
       <c r="I20" t="str">
@@ -6112,7 +6159,7 @@
       <c r="G21" t="s">
         <v>442</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="11" t="s">
         <v>370</v>
       </c>
       <c r="I21" t="str">
@@ -6139,7 +6186,7 @@
         <f>VLOOKUP($A22,統計!$A:$G,7,)</f>
         <v>-99</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="11" t="s">
         <v>371</v>
       </c>
       <c r="I22" t="str">
@@ -6169,7 +6216,7 @@
       <c r="G23" t="s">
         <v>443</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="11" t="s">
         <v>372</v>
       </c>
       <c r="I23" t="str">
@@ -6199,7 +6246,7 @@
       <c r="F24" t="s">
         <v>444</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="11" t="s">
         <v>373</v>
       </c>
       <c r="I24" t="str">
@@ -6232,7 +6279,7 @@
       <c r="G25" t="s">
         <v>402</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="11" t="s">
         <v>374</v>
       </c>
       <c r="I25" t="str">
@@ -6262,7 +6309,7 @@
       <c r="G26" t="s">
         <v>403</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="11" t="s">
         <v>375</v>
       </c>
       <c r="I26" t="str">
@@ -6322,7 +6369,7 @@
       <c r="G28" t="s">
         <v>404</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="11" t="s">
         <v>377</v>
       </c>
       <c r="I28" t="str">
@@ -6352,7 +6399,7 @@
       <c r="G29" t="s">
         <v>406</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="11" t="s">
         <v>378</v>
       </c>
       <c r="I29" t="str">
@@ -6445,7 +6492,7 @@
       <c r="G32" t="s">
         <v>410</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="11" t="s">
         <v>381</v>
       </c>
       <c r="I32" t="str">
@@ -6475,7 +6522,7 @@
       <c r="F33" t="s">
         <v>411</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="11" t="s">
         <v>382</v>
       </c>
       <c r="I33" t="str">
@@ -6505,7 +6552,7 @@
       <c r="F34" t="s">
         <v>412</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="11" t="s">
         <v>383</v>
       </c>
       <c r="I34" t="str">
@@ -6535,7 +6582,7 @@
       <c r="G35" t="s">
         <v>413</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="11" t="s">
         <v>384</v>
       </c>
       <c r="I35" t="str">
@@ -6568,7 +6615,7 @@
       <c r="G36" t="s">
         <v>414</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="11" t="s">
         <v>385</v>
       </c>
       <c r="I36" t="str">
@@ -6598,7 +6645,7 @@
       <c r="G37" t="s">
         <v>416</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="11" t="s">
         <v>417</v>
       </c>
       <c r="I37" t="str">
@@ -6628,7 +6675,7 @@
       <c r="G38" t="s">
         <v>419</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="11" t="s">
         <v>418</v>
       </c>
       <c r="I38" t="str">
@@ -6775,7 +6822,7 @@
       <c r="F43" t="s">
         <v>426</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="11" t="s">
         <v>427</v>
       </c>
       <c r="I43" t="str">
@@ -6805,7 +6852,7 @@
       <c r="G44" t="s">
         <v>429</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="11" t="s">
         <v>428</v>
       </c>
       <c r="I44" t="str">
@@ -6835,7 +6882,7 @@
       <c r="G45" t="s">
         <v>431</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="11" t="s">
         <v>430</v>
       </c>
       <c r="I45" t="str">
@@ -6868,7 +6915,7 @@
       <c r="G46" t="s">
         <v>445</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="11" t="s">
         <v>447</v>
       </c>
       <c r="I46" t="str">
@@ -6898,7 +6945,7 @@
       <c r="F47" t="s">
         <v>448</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="11" t="s">
         <v>449</v>
       </c>
       <c r="I47" t="str">
@@ -6931,7 +6978,7 @@
       <c r="G48" t="s">
         <v>452</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="11" t="s">
         <v>450</v>
       </c>
       <c r="I48" t="str">
@@ -6961,7 +7008,7 @@
       <c r="G49" t="s">
         <v>454</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="11" t="s">
         <v>453</v>
       </c>
       <c r="I49" t="str">
@@ -6988,7 +7035,7 @@
         <f>VLOOKUP($A50,統計!$A:$G,7,)</f>
         <v>115</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="13" t="s">
         <v>455</v>
       </c>
       <c r="I50" t="str">
@@ -7021,7 +7068,7 @@
       <c r="G51" t="s">
         <v>457</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="13" t="s">
         <v>458</v>
       </c>
       <c r="I51" t="str">
@@ -7051,7 +7098,7 @@
       <c r="G52" t="s">
         <v>460</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="11" t="s">
         <v>459</v>
       </c>
       <c r="I52" t="str">
@@ -7078,7 +7125,7 @@
         <f>VLOOKUP($A53,統計!$A:$G,7,)</f>
         <v>145</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="11" t="s">
         <v>461</v>
       </c>
       <c r="I53" t="str">
@@ -7108,7 +7155,7 @@
       <c r="F54" t="s">
         <v>463</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="11" t="s">
         <v>462</v>
       </c>
       <c r="I54" t="str">
@@ -7141,7 +7188,7 @@
       <c r="G55" t="s">
         <v>466</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="11" t="s">
         <v>465</v>
       </c>
       <c r="I55" t="str">
@@ -7153,24 +7200,27 @@
       <c r="A56">
         <v>516</v>
       </c>
-      <c r="B56" t="e">
+      <c r="B56" t="str">
         <f>VLOOKUP($A56,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷55</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
-      <c r="D56" t="e">
+      <c r="D56">
         <f>VLOOKUP($A56,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" t="e">
+        <v>164</v>
+      </c>
+      <c r="E56">
         <f>VLOOKUP($A56,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I56" t="e">
+        <v>166</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷55](5_筆記/资治通鉴55.html)|漢紀四十七|164|166|||漢桓帝18年至20年</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="471">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1578,6 +1578,14 @@
   </si>
   <si>
     <t>漢桓帝18年至20年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢桓帝21年、漢靈帝至4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南袁氏世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1825,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1982,6 +1990,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>卷55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>卷56</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2157,6 +2168,9 @@
                 <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2170,11 +2184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214985616"/>
-        <c:axId val="214981920"/>
+        <c:axId val="197449064"/>
+        <c:axId val="197665576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214985616"/>
+        <c:axId val="197449064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,12 +2300,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214981920"/>
+        <c:crossAx val="197665576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214981920"/>
+        <c:axId val="197665576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214985616"/>
+        <c:crossAx val="197449064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3331,11 +3345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3453,19 +3467,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>651.56363636363642</v>
+        <v>648.42857142857144</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44670.563636363637</v>
+        <v>44667.428571428572</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>413.46372143486917</v>
+        <v>408.2445095312803</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44432.46372143487</v>
+        <v>44427.24450953128</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3473,7 +3487,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B56" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B57" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3516,19 +3530,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>747.38181818181818</v>
+        <v>743.78571428571433</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44766.381818181821</v>
+        <v>44762.785714285717</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>453.28366250403798</v>
+        <v>447.5617977686428</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44472.283662504036</v>
+        <v>44466.561797768642</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3579,19 +3593,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1130.6545454545455</v>
+        <v>1125.2142857142858</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45149.654545454548</v>
+        <v>45144.214285714283</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>546.19685833209849</v>
+        <v>539.3021369891552</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44565.1968583321</v>
+        <v>44558.302136989158</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3642,19 +3656,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1686.4</v>
+        <v>1678.2857142857144</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45705.4</v>
+        <v>45697.285714285717</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>658.35635901025717</v>
+        <v>650.0458321910595</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44677.356359010257</v>
+        <v>44669.045832191063</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3705,19 +3719,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2539.181818181818</v>
+        <v>2526.9642857142858</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46558.181818181816</v>
+        <v>46545.964285714283</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>869.4020466768518</v>
+        <v>858.42745984908061</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44888.402046676849</v>
+        <v>44877.427459849081</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3768,19 +3782,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2817.0545454545454</v>
+        <v>2803.5</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46836.054545454543</v>
+        <v>46822.5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>903.91266227013136</v>
+        <v>892.50244298812811</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44922.91266227013</v>
+        <v>44911.50244298813</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3831,19 +3845,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2817.0545454545454</v>
+        <v>2803.5</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46836.054545454543</v>
+        <v>46822.5</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>903.91266227013136</v>
+        <v>892.50244298812811</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44922.91266227013</v>
+        <v>44911.50244298813</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3918,7 +3932,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.581818181818182</v>
+        <v>9.5357142857142865</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3959,7 +3973,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66366568448614638</v>
+        <v>0.65528813728937452</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5500,6 +5514,41 @@
       <c r="I56">
         <f t="shared" ref="I56" si="90">E56/H56</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>517</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="2"/>
+        <v>卷56</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57" si="91">D56+1</f>
+        <v>44536</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44542</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" ref="E57" si="92">D57-C57+1</f>
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="93">G56+1</f>
+        <v>167</v>
+      </c>
+      <c r="G57" s="2">
+        <v>171</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57" si="94">IF(F57*G57&lt;0,ABS(F57)+ABS(G57),G57-F57+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57" si="95">E57/H57</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -5514,9 +5563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7227,24 +7276,30 @@
       <c r="A57">
         <v>517</v>
       </c>
-      <c r="B57" t="e">
+      <c r="B57" t="str">
         <f>VLOOKUP($A57,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷56</v>
       </c>
       <c r="C57" t="s">
         <v>85</v>
       </c>
-      <c r="D57" t="e">
+      <c r="D57">
         <f>VLOOKUP($A57,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" t="e">
+        <v>167</v>
+      </c>
+      <c r="E57">
         <f>VLOOKUP($A57,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" t="e">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷56](5_筆記/资治通鉴56.html)|漢紀四十八|167|171|汝南袁氏世系||漢桓帝21年、漢靈帝至4年</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="472">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,6 +1586,10 @@
   </si>
   <si>
     <t>汝南袁氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢靈帝5年至13年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +1829,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1993,6 +1997,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>卷56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>卷57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2171,6 +2178,9 @@
                 <c:pt idx="55">
                   <c:v>1.4</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2184,11 +2194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197449064"/>
-        <c:axId val="197665576"/>
+        <c:axId val="210828824"/>
+        <c:axId val="103963592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197449064"/>
+        <c:axId val="210828824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,12 +2310,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197665576"/>
+        <c:crossAx val="103963592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197665576"/>
+        <c:axId val="103963592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197449064"/>
+        <c:crossAx val="210828824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3345,11 +3355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3467,19 +3477,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>648.42857142857144</v>
+        <v>646.59649122807014</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44667.428571428572</v>
+        <v>44665.596491228069</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>408.2445095312803</v>
+        <v>403.0102652584597</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44427.24450953128</v>
+        <v>44422.010265258461</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3487,7 +3497,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B57" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B58" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3530,19 +3540,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>743.78571428571433</v>
+        <v>741.68421052631584</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44762.785714285717</v>
+        <v>44760.684210526313</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>447.5617977686428</v>
+        <v>441.82345292380091</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44466.561797768642</v>
+        <v>44460.823452923803</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3593,19 +3603,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1125.2142857142858</v>
+        <v>1122.0350877192982</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45144.214285714283</v>
+        <v>45141.035087719298</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>539.3021369891552</v>
+        <v>532.38755747626374</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44558.302136989158</v>
+        <v>44551.387557476264</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3656,19 +3666,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1678.2857142857144</v>
+        <v>1673.5438596491229</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45697.285714285717</v>
+        <v>45692.543859649122</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>650.0458321910595</v>
+        <v>641.71136940030817</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44669.045832191063</v>
+        <v>44660.711369400306</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3719,19 +3729,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2526.9642857142858</v>
+        <v>2519.8245614035091</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46545.964285714283</v>
+        <v>46538.824561403511</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>858.42745984908061</v>
+        <v>847.42126402661665</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44877.427459849081</v>
+        <v>44866.42126402662</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3782,19 +3792,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2803.5</v>
+        <v>2795.5789473684213</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46822.5</v>
+        <v>46814.57894736842</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>892.50244298812811</v>
+        <v>881.05936000324573</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44911.50244298813</v>
+        <v>44900.059360003244</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3845,19 +3855,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2803.5</v>
+        <v>2795.5789473684213</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46822.5</v>
+        <v>46814.57894736842</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>892.50244298812811</v>
+        <v>881.05936000324573</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44911.50244298813</v>
+        <v>44900.059360003244</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3932,7 +3942,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.5357142857142865</v>
+        <v>9.5087719298245617</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3973,7 +3983,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.65528813728937452</v>
+        <v>0.64688646108902037</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5549,6 +5559,41 @@
       <c r="I57">
         <f t="shared" ref="I57" si="95">E57/H57</f>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>518</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="2"/>
+        <v>卷57</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58" si="96">D57+1</f>
+        <v>44543</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44550</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ref="E58" si="97">D58-C58+1</f>
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58" si="98">G57+1</f>
+        <v>172</v>
+      </c>
+      <c r="G58" s="2">
+        <v>180</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58" si="99">IF(F58*G58&lt;0,ABS(F58)+ABS(G58),G58-F58+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58" si="100">E58/H58</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
   </sheetData>
@@ -5563,9 +5608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7306,24 +7351,27 @@
       <c r="A58">
         <v>518</v>
       </c>
-      <c r="B58" t="e">
+      <c r="B58" t="str">
         <f>VLOOKUP($A58,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷57</v>
       </c>
       <c r="C58" t="s">
         <v>86</v>
       </c>
-      <c r="D58" t="e">
+      <c r="D58">
         <f>VLOOKUP($A58,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E58" t="e">
+        <v>172</v>
+      </c>
+      <c r="E58">
         <f>VLOOKUP($A58,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
+        <v>180</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷57](5_筆記/资治通鉴57.html)|漢紀四十九|172|180|||漢靈帝5年至13年</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="474">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,14 @@
   </si>
   <si>
     <t>漢靈帝5年至13年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀石槐世系、何皇后世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢靈帝14年至20年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,7 +1837,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2000,6 +2008,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>卷57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>卷58</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2181,6 +2192,9 @@
                 <c:pt idx="56">
                   <c:v>0.88888888888888884</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2194,11 +2208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210828824"/>
-        <c:axId val="103963592"/>
+        <c:axId val="210688056"/>
+        <c:axId val="210688440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210828824"/>
+        <c:axId val="210688056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,12 +2324,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103963592"/>
+        <c:crossAx val="210688440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103963592"/>
+        <c:axId val="210688440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210828824"/>
+        <c:crossAx val="210688056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3355,11 +3369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3477,19 +3491,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>646.59649122807014</v>
+        <v>643.65517241379303</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44665.596491228069</v>
+        <v>44662.65517241379</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>403.0102652584597</v>
+        <v>397.35616646301975</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44422.010265258461</v>
+        <v>44416.356166463018</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3497,7 +3511,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B58" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B59" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3540,19 +3554,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>741.68421052631584</v>
+        <v>738.31034482758616</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44760.684210526313</v>
+        <v>44757.310344827587</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>441.82345292380091</v>
+        <v>435.62481812880014</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44460.823452923803</v>
+        <v>44454.624818128803</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3603,19 +3617,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1122.0350877192982</v>
+        <v>1116.9310344827586</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45141.035087719298</v>
+        <v>45135.931034482761</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>532.38755747626374</v>
+        <v>524.91833868228775</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44551.387557476264</v>
+        <v>44543.918338682284</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3666,19 +3680,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1673.5438596491229</v>
+        <v>1665.9310344827586</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45692.543859649122</v>
+        <v>45684.931034482761</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>641.71136940030817</v>
+        <v>632.70837420756914</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44660.711369400306</v>
+        <v>44651.70837420757</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3729,19 +3743,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2519.8245614035091</v>
+        <v>2508.3620689655172</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46538.824561403511</v>
+        <v>46527.362068965514</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>847.42126402661665</v>
+        <v>835.5322280362052</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44866.42126402662</v>
+        <v>44854.532228036202</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3792,19 +3806,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2795.5789473684213</v>
+        <v>2782.8620689655172</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46814.57894736842</v>
+        <v>46801.862068965514</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>881.05936000324573</v>
+        <v>868.69839281321492</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44900.059360003244</v>
+        <v>44887.698392813218</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3855,19 +3869,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2795.5789473684213</v>
+        <v>2782.8620689655172</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46814.57894736842</v>
+        <v>46801.862068965514</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>881.05936000324573</v>
+        <v>868.69839281321492</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44900.059360003244</v>
+        <v>44887.698392813218</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3942,7 +3956,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.5087719298245617</v>
+        <v>9.4655172413793096</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3983,7 +3997,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.64688646108902037</v>
+        <v>0.63781086109633989</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5594,6 +5608,41 @@
       <c r="I58">
         <f t="shared" ref="I58" si="100">E58/H58</f>
         <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>519</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="2"/>
+        <v>卷58</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59" si="101">D58+1</f>
+        <v>44551</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44557</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ref="E59" si="102">D59-C59+1</f>
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="103">G58+1</f>
+        <v>181</v>
+      </c>
+      <c r="G59" s="2">
+        <v>187</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59" si="104">IF(F59*G59&lt;0,ABS(F59)+ABS(G59),G59-F59+1)</f>
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59" si="105">E59/H59</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5610,7 +5659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7378,24 +7427,30 @@
       <c r="A59">
         <v>519</v>
       </c>
-      <c r="B59" t="e">
+      <c r="B59" t="str">
         <f>VLOOKUP($A59,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷58</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
-      <c r="D59" t="e">
+      <c r="D59">
         <f>VLOOKUP($A59,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E59" t="e">
+        <v>181</v>
+      </c>
+      <c r="E59">
         <f>VLOOKUP($A59,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
+        <v>187</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷58](5_筆記/资治通鉴58.html)|漢紀五十|181|187|檀石槐世系、何皇后世系||漢靈帝14年至20年</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="476">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1598,6 +1598,14 @@
   </si>
   <si>
     <t>漢靈帝14年至20年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二分野表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢靈帝21年、劉辯、漢獻帝至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1837,7 +1845,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2011,6 +2019,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>卷58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>卷59</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2195,6 +2206,9 @@
                 <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2208,11 +2222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210688056"/>
-        <c:axId val="210688440"/>
+        <c:axId val="198631816"/>
+        <c:axId val="3644040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210688056"/>
+        <c:axId val="198631816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,12 +2338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210688440"/>
+        <c:crossAx val="3644040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210688440"/>
+        <c:axId val="3644040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210688056"/>
+        <c:crossAx val="198631816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3369,11 +3383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3491,19 +3505,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>643.65517241379303</v>
+        <v>641.96610169491532</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44662.65517241379</v>
+        <v>44660.966101694918</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>397.35616646301975</v>
+        <v>413.2590068385889</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44416.356166463018</v>
+        <v>44432.259006838591</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3511,7 +3525,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B59" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B60" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3554,19 +3568,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>738.31034482758616</v>
+        <v>736.37288135593224</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44757.310344827587</v>
+        <v>44755.372881355936</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>435.62481812880014</v>
+        <v>453.05923221630212</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44454.624818128803</v>
+        <v>44472.059232216299</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3617,19 +3631,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1116.9310344827586</v>
+        <v>1114</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45135.931034482761</v>
+        <v>45133</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>524.91833868228775</v>
+        <v>545.92642476429967</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44543.918338682284</v>
+        <v>44564.9264247643</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3680,19 +3694,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1665.9310344827586</v>
+        <v>1661.5593220338983</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45684.931034482761</v>
+        <v>45680.5593220339</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>632.70837420756914</v>
+        <v>658.03039291152527</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44651.70837420757</v>
+        <v>44677.030392911525</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3743,19 +3757,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2508.3620689655172</v>
+        <v>2501.7796610169494</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46527.362068965514</v>
+        <v>46520.779661016946</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>835.5322280362052</v>
+        <v>868.97158741340525</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44854.532228036202</v>
+        <v>44887.971587413405</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3806,19 +3820,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2782.8620689655172</v>
+        <v>2775.5593220338983</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46801.862068965514</v>
+        <v>46794.5593220339</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>868.69839281321492</v>
+        <v>903.46511607409002</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44887.698392813218</v>
+        <v>44922.46511607409</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3869,19 +3883,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2782.8620689655172</v>
+        <v>2775.5593220338983</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46801.862068965514</v>
+        <v>46794.5593220339</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>868.69839281321492</v>
+        <v>903.46511607409002</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44887.698392813218</v>
+        <v>44922.46511607409</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3956,7 +3970,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4655172413793096</v>
+        <v>9.4406779661016955</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3997,7 +4011,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.63781086109633989</v>
+        <v>0.66333708962855364</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5643,6 +5657,41 @@
       <c r="I59">
         <f t="shared" ref="I59" si="105">E59/H59</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>520</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="2"/>
+        <v>卷59</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60" si="106">D59+1</f>
+        <v>44558</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44565</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ref="E60" si="107">D60-C60+1</f>
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60" si="108">G59+1</f>
+        <v>188</v>
+      </c>
+      <c r="G60" s="2">
+        <v>190</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60" si="109">IF(F60*G60&lt;0,ABS(F60)+ABS(G60),G60-F60+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60" si="110">E60/H60</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -5657,9 +5706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7457,24 +7506,30 @@
       <c r="A60">
         <v>520</v>
       </c>
-      <c r="B60" t="e">
+      <c r="B60" t="str">
         <f>VLOOKUP($A60,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷59</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="D60" t="e">
+      <c r="D60">
         <f>VLOOKUP($A60,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" t="e">
+        <v>188</v>
+      </c>
+      <c r="E60">
         <f>VLOOKUP($A60,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" t="e">
+        <v>190</v>
+      </c>
+      <c r="G60" t="s">
+        <v>474</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷59](5_筆記/资治通鉴59.html)|漢紀五十一|188|190||十二分野表|漢靈帝21年、劉辯、漢獻帝至2年</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="478">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1606,6 +1606,14 @@
   </si>
   <si>
     <t>漢靈帝21年、劉辯、漢獻帝至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢末道教諸張世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝3年至5年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1853,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2022,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>卷59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>卷60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2209,6 +2220,9 @@
                 <c:pt idx="58">
                   <c:v>2.6666666666666665</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2222,11 +2236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198631816"/>
-        <c:axId val="3644040"/>
+        <c:axId val="99053352"/>
+        <c:axId val="214420296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198631816"/>
+        <c:axId val="99053352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +2352,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3644040"/>
+        <c:crossAx val="214420296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3644040"/>
+        <c:axId val="214420296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198631816"/>
+        <c:crossAx val="99053352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3383,11 +3397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3505,19 +3519,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>641.96610169491532</v>
+        <v>641.4666666666667</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44660.966101694918</v>
+        <v>44660.466666666667</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>413.2590068385889</v>
+        <v>433.62913105532999</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44432.259006838591</v>
+        <v>44452.629131055328</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3525,7 +3539,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B60" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B61" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3568,19 +3582,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>736.37288135593224</v>
+        <v>735.80000000000007</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44755.372881355936</v>
+        <v>44754.8</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>453.05923221630212</v>
+        <v>475.39116614894124</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44472.059232216299</v>
+        <v>44494.39116614894</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3631,19 +3645,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1114</v>
+        <v>1113.1333333333334</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45133</v>
+        <v>45132.133333333331</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>545.92642476429967</v>
+        <v>572.83591470070076</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44564.9264247643</v>
+        <v>44591.8359147007</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3694,19 +3708,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1661.5593220338983</v>
+        <v>1660.2666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45680.5593220339</v>
+        <v>45679.26666666667</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>658.03039291152527</v>
+        <v>690.46564688103911</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44677.030392911525</v>
+        <v>44709.465646881043</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3757,19 +3771,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2501.7796610169494</v>
+        <v>2499.8333333333335</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46520.779661016946</v>
+        <v>46518.833333333336</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>868.97158741340525</v>
+        <v>911.80443287717856</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44887.971587413405</v>
+        <v>44930.804432877179</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3820,19 +3834,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2775.5593220338983</v>
+        <v>2773.4</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46794.5593220339</v>
+        <v>46792.4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>903.46511607409002</v>
+        <v>947.99819662497498</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44922.46511607409</v>
+        <v>44966.998196624976</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3883,19 +3897,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2775.5593220338983</v>
+        <v>2773.4</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46794.5593220339</v>
+        <v>46792.4</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>903.46511607409002</v>
+        <v>947.99819662497498</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44922.46511607409</v>
+        <v>44966.998196624976</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3970,7 +3984,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4406779661016955</v>
+        <v>9.4333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4011,7 +4025,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66333708962855364</v>
+        <v>0.6960339182268539</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5692,6 +5706,41 @@
       <c r="I60">
         <f t="shared" ref="I60" si="110">E60/H60</f>
         <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>521</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="2"/>
+        <v>卷60</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61" si="111">D60+1</f>
+        <v>44566</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44574</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ref="E61" si="112">D61-C61+1</f>
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="113">G60+1</f>
+        <v>191</v>
+      </c>
+      <c r="G61" s="2">
+        <v>193</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61" si="114">IF(F61*G61&lt;0,ABS(F61)+ABS(G61),G61-F61+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ref="I61" si="115">E61/H61</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5708,7 +5757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7536,24 +7585,30 @@
       <c r="A61">
         <v>521</v>
       </c>
-      <c r="B61" t="e">
+      <c r="B61" t="str">
         <f>VLOOKUP($A61,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷60</v>
       </c>
       <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="D61" t="e">
+      <c r="D61">
         <f>VLOOKUP($A61,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" t="e">
+        <v>191</v>
+      </c>
+      <c r="E61">
         <f>VLOOKUP($A61,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" t="e">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>476</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷60](5_筆記/资治通鉴60.html)|漢紀五十二|191|193|漢末道教諸張世系||漢獻帝3年至5年</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="480">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1614,6 +1614,14 @@
   </si>
   <si>
     <t>漢獻帝3年至5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫吳世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝6年至7年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1853,7 +1861,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2033,6 +2041,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>卷60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>卷61</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2223,6 +2234,9 @@
                 <c:pt idx="59">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2236,11 +2250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99053352"/>
-        <c:axId val="214420296"/>
+        <c:axId val="203993888"/>
+        <c:axId val="204863352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99053352"/>
+        <c:axId val="203993888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,12 +2366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214420296"/>
+        <c:crossAx val="204863352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214420296"/>
+        <c:axId val="204863352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99053352"/>
+        <c:crossAx val="203993888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3397,11 +3411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3519,19 +3533,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>641.4666666666667</v>
+        <v>642.09836065573768</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44660.466666666667</v>
+        <v>44661.098360655735</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>433.62913105532999</v>
+        <v>483.25910797991054</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44452.629131055328</v>
+        <v>44502.259107979909</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3539,7 +3553,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B61" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B62" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3582,19 +3596,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>735.80000000000007</v>
+        <v>736.52459016393436</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44754.8</v>
+        <v>44755.524590163935</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>475.39116614894124</v>
+        <v>529.80091613206889</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44494.39116614894</v>
+        <v>44548.800916132066</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3645,19 +3659,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1113.1333333333334</v>
+        <v>1114.2295081967213</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45132.133333333331</v>
+        <v>45133.229508196724</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>572.83591470070076</v>
+        <v>638.39846848710488</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44591.8359147007</v>
+        <v>44657.398468487103</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3708,19 +3722,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1660.2666666666667</v>
+        <v>1661.9016393442623</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45679.26666666667</v>
+        <v>45680.901639344265</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>690.46564688103911</v>
+        <v>769.49122811568418</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44709.465646881043</v>
+        <v>44788.491228115687</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3771,19 +3785,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2499.8333333333335</v>
+        <v>2502.2950819672133</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46518.833333333336</v>
+        <v>46521.295081967211</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>911.80443287717856</v>
+        <v>1016.1628113221233</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44930.804432877179</v>
+        <v>45035.162811322123</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3834,19 +3848,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2773.4</v>
+        <v>2776.1311475409834</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46792.4</v>
+        <v>46795.131147540982</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>947.99819662497498</v>
+        <v>1056.4990450539938</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44966.998196624976</v>
+        <v>45075.499045053992</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3897,19 +3911,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2773.4</v>
+        <v>2776.1311475409834</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46792.4</v>
+        <v>46795.131147540982</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>947.99819662497498</v>
+        <v>1056.4990450539938</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44966.998196624976</v>
+        <v>45075.499045053992</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3984,7 +3998,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4333333333333336</v>
+        <v>9.442622950819672</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4025,7 +4039,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.6960339182268539</v>
+        <v>0.77569680253597195</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5741,6 +5755,41 @@
       <c r="I61">
         <f t="shared" ref="I61" si="115">E61/H61</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>522</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="2"/>
+        <v>卷61</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62" si="116">D61+1</f>
+        <v>44575</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44584</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" ref="E62" si="117">D62-C62+1</f>
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="118">G61+1</f>
+        <v>194</v>
+      </c>
+      <c r="G62" s="2">
+        <v>195</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62" si="119">IF(F62*G62&lt;0,ABS(F62)+ABS(G62),G62-F62+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62" si="120">E62/H62</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5755,9 +5804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7615,24 +7664,30 @@
       <c r="A62">
         <v>522</v>
       </c>
-      <c r="B62" t="e">
+      <c r="B62" t="str">
         <f>VLOOKUP($A62,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷61</v>
       </c>
       <c r="C62" t="s">
         <v>90</v>
       </c>
-      <c r="D62" t="e">
+      <c r="D62">
         <f>VLOOKUP($A62,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" t="e">
+        <v>194</v>
+      </c>
+      <c r="E62">
         <f>VLOOKUP($A62,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" t="e">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>478</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷61](5_筆記/资治通鉴61.html)|漢紀五十三|194|195|孫吳世系||漢獻帝6年至7年</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="483">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1622,6 +1622,18 @@
   </si>
   <si>
     <t>漢獻帝6年至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡邕漢樂四品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳陳氏世系、潁川陳氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝8年至10年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1725,6 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1861,7 +1874,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2044,6 +2057,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>卷61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>卷62</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2237,6 +2253,9 @@
                 <c:pt idx="60">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2250,11 +2269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203993888"/>
-        <c:axId val="204863352"/>
+        <c:axId val="203403648"/>
+        <c:axId val="203818496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203993888"/>
+        <c:axId val="203403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,12 +2385,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204863352"/>
+        <c:crossAx val="203818496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204863352"/>
+        <c:axId val="203818496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203993888"/>
+        <c:crossAx val="203403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3411,11 +3430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3533,19 +3552,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>642.09836065573768</v>
+        <v>640.51612903225805</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44661.098360655735</v>
+        <v>44659.516129032258</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>483.25910797991054</v>
+        <v>494.69616973308354</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44502.259107979909</v>
+        <v>44513.696169733084</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3553,7 +3572,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B62" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B63" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3596,19 +3615,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>736.52459016393436</v>
+        <v>734.70967741935488</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44755.524590163935</v>
+        <v>44753.709677419356</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>529.80091613206889</v>
+        <v>542.33946055809963</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44548.800916132066</v>
+        <v>44561.339460558098</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3659,19 +3678,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1114.2295081967213</v>
+        <v>1111.483870967742</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45133.229508196724</v>
+        <v>45130.483870967742</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>638.39846848710488</v>
+        <v>653.50713914980383</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44657.398468487103</v>
+        <v>44672.507139149806</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3722,19 +3741,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1661.9016393442623</v>
+        <v>1657.8064516129034</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45680.901639344265</v>
+        <v>45676.806451612902</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>769.49122811568418</v>
+        <v>787.7024083069324</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44788.491228115687</v>
+        <v>44806.702408306934</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3785,19 +3804,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2502.2950819672133</v>
+        <v>2496.1290322580649</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46521.295081967211</v>
+        <v>46515.129032258068</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1016.1628113221233</v>
+        <v>1040.2118496795176</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45035.162811322123</v>
+        <v>45059.211849679516</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3848,19 +3867,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2776.1311475409834</v>
+        <v>2769.2903225806454</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46795.131147540982</v>
+        <v>46788.290322580644</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1056.4990450539938</v>
+        <v>1081.5027017278649</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45075.499045053992</v>
+        <v>45100.502701727863</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3911,19 +3930,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2776.1311475409834</v>
+        <v>2769.2903225806454</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46795.131147540982</v>
+        <v>46788.290322580644</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1056.4990450539938</v>
+        <v>1081.5027017278649</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45075.499045053992</v>
+        <v>45100.502701727863</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3998,7 +4017,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.442622950819672</v>
+        <v>9.4193548387096779</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4039,7 +4058,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.77569680253597195</v>
+        <v>0.79405484708360119</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5790,6 +5809,41 @@
       <c r="I62">
         <f t="shared" ref="I62" si="120">E62/H62</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>523</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="2"/>
+        <v>卷62</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ref="C63" si="121">D62+1</f>
+        <v>44585</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44592</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" ref="E63" si="122">D63-C63+1</f>
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="123">G62+1</f>
+        <v>196</v>
+      </c>
+      <c r="G63" s="2">
+        <v>198</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63" si="124">IF(F63*G63&lt;0,ABS(F63)+ABS(G63),G63-F63+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63" si="125">E63/H63</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -5805,8 +5859,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7694,24 +7748,33 @@
       <c r="A63">
         <v>523</v>
       </c>
-      <c r="B63" t="e">
+      <c r="B63" t="str">
         <f>VLOOKUP($A63,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷62</v>
       </c>
       <c r="C63" t="s">
         <v>91</v>
       </c>
-      <c r="D63" t="e">
+      <c r="D63">
         <f>VLOOKUP($A63,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" t="e">
+        <v>196</v>
+      </c>
+      <c r="E63">
         <f>VLOOKUP($A63,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" t="e">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>481</v>
+      </c>
+      <c r="G63" t="s">
+        <v>480</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷62](5_筆記/资治通鉴62.html)|漢紀五十四|196|198|下邳陳氏世系、潁川陳氏世系|蔡邕漢樂四品|漢獻帝8年至10年</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="484">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1634,6 +1634,10 @@
   </si>
   <si>
     <t>漢獻帝8年至10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝11年至12年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1878,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2060,6 +2064,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>卷62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>卷63</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2256,6 +2263,9 @@
                 <c:pt idx="61">
                   <c:v>2.6666666666666665</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2269,11 +2279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203403648"/>
-        <c:axId val="203818496"/>
+        <c:axId val="204973496"/>
+        <c:axId val="204985352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203403648"/>
+        <c:axId val="204973496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,12 +2395,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203818496"/>
+        <c:crossAx val="204985352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203818496"/>
+        <c:axId val="204985352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203403648"/>
+        <c:crossAx val="204973496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3430,11 +3440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3552,19 +3562,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>640.51612903225805</v>
+        <v>638.98412698412699</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44659.516129032258</v>
+        <v>44657.984126984127</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>494.69616973308354</v>
+        <v>525.73296864649842</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44513.696169733084</v>
+        <v>44544.732968646502</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3572,7 +3582,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B63" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B64" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3615,19 +3625,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>734.70967741935488</v>
+        <v>732.95238095238096</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44753.709677419356</v>
+        <v>44751.952380952382</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>542.33946055809963</v>
+        <v>576.3653572801901</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44561.339460558098</v>
+        <v>44595.365357280192</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3678,19 +3688,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1111.483870967742</v>
+        <v>1108.8253968253969</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45130.483870967742</v>
+        <v>45127.825396825399</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>653.50713914980383</v>
+        <v>694.50759742547064</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44672.507139149806</v>
+        <v>44713.507597425472</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3741,19 +3751,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1657.8064516129034</v>
+        <v>1653.8412698412699</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45676.806451612902</v>
+        <v>45672.841269841272</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>787.7024083069324</v>
+        <v>837.12215874370213</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44806.702408306934</v>
+        <v>44856.122158743703</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3804,19 +3814,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2496.1290322580649</v>
+        <v>2490.1587301587301</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46515.129032258068</v>
+        <v>46509.158730158728</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1040.2118496795176</v>
+        <v>1105.4738185022679</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45059.211849679516</v>
+        <v>45124.473818502265</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3867,19 +3877,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2769.2903225806454</v>
+        <v>2762.666666666667</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46788.290322580644</v>
+        <v>46781.666666666664</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1081.5027017278649</v>
+        <v>1149.3552219848007</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45100.502701727863</v>
+        <v>45168.355221984799</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3930,19 +3940,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2769.2903225806454</v>
+        <v>2762.666666666667</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46788.290322580644</v>
+        <v>46781.666666666664</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1081.5027017278649</v>
+        <v>1149.3552219848007</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45100.502701727863</v>
+        <v>45168.355221984799</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4017,7 +4027,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4193548387096779</v>
+        <v>9.3968253968253972</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4058,7 +4068,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.79405484708360119</v>
+        <v>0.84387314389486101</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5844,6 +5854,41 @@
       <c r="I63">
         <f t="shared" ref="I63" si="125">E63/H63</f>
         <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>524</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="2"/>
+        <v>卷63</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" ref="C64" si="126">D63+1</f>
+        <v>44593</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44600</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ref="E64" si="127">D64-C64+1</f>
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="128">G63+1</f>
+        <v>199</v>
+      </c>
+      <c r="G64" s="2">
+        <v>200</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="129">IF(F64*G64&lt;0,ABS(F64)+ABS(G64),G64-F64+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="130">E64/H64</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5860,7 +5905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7781,24 +7826,27 @@
       <c r="A64">
         <v>524</v>
       </c>
-      <c r="B64" t="e">
+      <c r="B64" t="str">
         <f>VLOOKUP($A64,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷63</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64">
         <f>VLOOKUP($A64,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" t="e">
+        <v>199</v>
+      </c>
+      <c r="E64">
         <f>VLOOKUP($A64,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I64" t="e">
+        <v>200</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷63](5_筆記/资治通鉴63.html)|漢紀五十五|199|200|||漢獻帝11年至12年</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="486">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1638,14 @@
   </si>
   <si>
     <t>漢獻帝11年至12年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼東公孫世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝13年至17年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,7 +1886,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2067,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>卷63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>卷64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2266,6 +2277,9 @@
                 <c:pt idx="62">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2279,11 +2293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204973496"/>
-        <c:axId val="204985352"/>
+        <c:axId val="204201568"/>
+        <c:axId val="204850112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204973496"/>
+        <c:axId val="204201568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,12 +2409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204985352"/>
+        <c:crossAx val="204850112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204985352"/>
+        <c:axId val="204850112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204973496"/>
+        <c:crossAx val="204201568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3440,11 +3454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3562,19 +3576,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>638.98412698412699</v>
+        <v>637.5</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44657.984126984127</v>
+        <v>44656.5</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>525.73296864649842</v>
+        <v>519.86957097863353</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44544.732968646502</v>
+        <v>44538.869570978633</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3582,7 +3596,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B64" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B65" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3625,19 +3639,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>732.95238095238096</v>
+        <v>731.25</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44751.952380952382</v>
+        <v>44750.25</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>576.3653572801901</v>
+        <v>569.93726641798833</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44595.365357280192</v>
+        <v>44588.93726641799</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3688,19 +3702,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1108.8253968253969</v>
+        <v>1106.25</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45127.825396825399</v>
+        <v>45125.25</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>694.50759742547064</v>
+        <v>686.76188910981614</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44713.507597425472</v>
+        <v>44705.761889109817</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3751,19 +3765,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1653.8412698412699</v>
+        <v>1650</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45672.841269841272</v>
+        <v>45669</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>837.12215874370213</v>
+        <v>827.78589793066533</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44856.122158743703</v>
+        <v>44846.785897930662</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3814,19 +3828,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2490.1587301587301</v>
+        <v>2484.375</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46509.158730158728</v>
+        <v>46503.375</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1105.4738185022679</v>
+        <v>1093.1446837592455</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45124.473818502265</v>
+        <v>45112.144683759245</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3877,19 +3891,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2762.666666666667</v>
+        <v>2756.25</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46781.666666666664</v>
+        <v>46775.25</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1149.3552219848007</v>
+        <v>1136.536686473353</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45168.355221984799</v>
+        <v>45155.536686473351</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3940,19 +3954,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2762.666666666667</v>
+        <v>2756.25</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46781.666666666664</v>
+        <v>46775.25</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1149.3552219848007</v>
+        <v>1136.536686473353</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45168.355221984799</v>
+        <v>45155.536686473351</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4027,7 +4041,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3968253968253972</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4068,7 +4082,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.84387314389486101</v>
+        <v>0.83446159065591263</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5889,6 +5903,41 @@
       <c r="I64">
         <f t="shared" ref="I64" si="130">E64/H64</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>525</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="2"/>
+        <v>卷64</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65" si="131">D64+1</f>
+        <v>44601</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44608</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65" si="132">D65-C65+1</f>
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="133">G64+1</f>
+        <v>201</v>
+      </c>
+      <c r="G65" s="2">
+        <v>205</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="134">IF(F65*G65&lt;0,ABS(F65)+ABS(G65),G65-F65+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65" si="135">E65/H65</f>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -5905,7 +5954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7853,24 +7902,30 @@
       <c r="A65">
         <v>525</v>
       </c>
-      <c r="B65" t="e">
+      <c r="B65" t="str">
         <f>VLOOKUP($A65,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷64</v>
       </c>
       <c r="C65" t="s">
         <v>93</v>
       </c>
-      <c r="D65" t="e">
+      <c r="D65">
         <f>VLOOKUP($A65,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" t="e">
+        <v>201</v>
+      </c>
+      <c r="E65">
         <f>VLOOKUP($A65,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" t="e">
+        <v>205</v>
+      </c>
+      <c r="F65" t="s">
+        <v>484</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷64](5_筆記/资治通鉴64.html)|漢紀五十六|201|205|遼東公孫世系||漢獻帝13年至17年</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="487">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1647,6 +1647,9 @@
   <si>
     <t>漢獻帝13年至17年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝18年至20年</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1889,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2078,6 +2081,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>卷64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>卷65</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2280,6 +2286,9 @@
                 <c:pt idx="63">
                   <c:v>1.6</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2293,11 +2302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204201568"/>
-        <c:axId val="204850112"/>
+        <c:axId val="201093576"/>
+        <c:axId val="201093968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204201568"/>
+        <c:axId val="201093576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,12 +2418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204850112"/>
+        <c:crossAx val="201093968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204850112"/>
+        <c:axId val="201093968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +2536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204201568"/>
+        <c:crossAx val="201093576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3454,11 +3463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3576,19 +3585,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>637.5</v>
+        <v>636.06153846153848</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44656.5</v>
+        <v>44655.061538461538</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>519.86957097863353</v>
+        <v>529.21481015361269</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44538.869570978633</v>
+        <v>44548.214810153615</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3596,7 +3605,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B65" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B66" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3639,19 +3648,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>731.25</v>
+        <v>729.6</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44750.25</v>
+        <v>44748.6</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>569.93726641798833</v>
+        <v>580.1825286274759</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44588.93726641799</v>
+        <v>44599.182528627476</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3702,19 +3711,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1106.25</v>
+        <v>1103.7538461538463</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45125.25</v>
+        <v>45122.75384615385</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>686.76188910981614</v>
+        <v>699.10720506649</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44705.761889109817</v>
+        <v>44718.107205066488</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3765,19 +3774,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1650</v>
+        <v>1646.2769230769231</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45669</v>
+        <v>45665.276923076926</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>827.78589793066533</v>
+        <v>842.66627876787129</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44846.785897930662</v>
+        <v>44861.666278767872</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3828,19 +3837,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2484.375</v>
+        <v>2478.7692307692309</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46503.375</v>
+        <v>46497.769230769234</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1093.1446837592455</v>
+        <v>1112.795186679346</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45112.144683759245</v>
+        <v>45131.795186679345</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3891,19 +3900,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2756.25</v>
+        <v>2750.0307692307692</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46775.25</v>
+        <v>46769.030769230769</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1136.536686473353</v>
+        <v>1156.9672093566942</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45155.536686473351</v>
+        <v>45175.967209356691</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3954,19 +3963,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2756.25</v>
+        <v>2750.0307692307692</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46775.25</v>
+        <v>46769.030769230769</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1136.536686473353</v>
+        <v>1156.9672093566942</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45155.536686473351</v>
+        <v>45175.967209356691</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4041,7 +4050,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.375</v>
+        <v>9.3538461538461544</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4082,7 +4091,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.83446159065591263</v>
+        <v>0.84946197456438632</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5938,6 +5947,41 @@
       <c r="I65">
         <f t="shared" ref="I65" si="135">E65/H65</f>
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>526</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="2"/>
+        <v>卷65</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" ref="C66" si="136">D65+1</f>
+        <v>44609</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44616</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="137">D66-C66+1</f>
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66" si="138">G65+1</f>
+        <v>206</v>
+      </c>
+      <c r="G66" s="2">
+        <v>208</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66" si="139">IF(F66*G66&lt;0,ABS(F66)+ABS(G66),G66-F66+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66" si="140">E66/H66</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -5952,9 +5996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7932,24 +7976,27 @@
       <c r="A66">
         <v>526</v>
       </c>
-      <c r="B66" t="e">
+      <c r="B66" t="str">
         <f>VLOOKUP($A66,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷65</v>
       </c>
       <c r="C66" t="s">
         <v>94</v>
       </c>
-      <c r="D66" t="e">
+      <c r="D66">
         <f>VLOOKUP($A66,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" t="e">
+        <v>206</v>
+      </c>
+      <c r="E66">
         <f>VLOOKUP($A66,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" t="e">
+        <v>208</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷65](5_筆記/资治通鉴65.html)|漢紀五十七|206|208|||漢獻帝18年至20年</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="488">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>漢獻帝18年至20年</t>
+  </si>
+  <si>
+    <t>漢獻帝21年至25年</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1892,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2084,6 +2087,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>卷65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>卷66</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2289,6 +2295,9 @@
                 <c:pt idx="64">
                   <c:v>2.6666666666666665</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2302,11 +2311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201093576"/>
-        <c:axId val="201093968"/>
+        <c:axId val="203287096"/>
+        <c:axId val="203672216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201093576"/>
+        <c:axId val="203287096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,12 +2427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201093968"/>
+        <c:crossAx val="203672216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201093968"/>
+        <c:axId val="203672216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2545,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201093576"/>
+        <c:crossAx val="203287096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3463,11 +3472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3585,19 +3594,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>636.06153846153848</v>
+        <v>635.69696969696963</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44655.061538461538</v>
+        <v>44654.696969696968</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>529.21481015361269</v>
+        <v>525.85991346867377</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44548.214810153615</v>
+        <v>44544.859913468674</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3605,7 +3614,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B67" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3648,19 +3657,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>729.6</v>
+        <v>729.18181818181813</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44748.6</v>
+        <v>44748.181818181816</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>580.1825286274759</v>
+        <v>576.50452792793601</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44599.182528627476</v>
+        <v>44595.504527927937</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3711,19 +3720,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1103.7538461538463</v>
+        <v>1103.121212121212</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45122.75384615385</v>
+        <v>45122.121212121216</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>699.10720506649</v>
+        <v>694.6752949995481</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44718.107205066488</v>
+        <v>44713.67529499955</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3774,19 +3783,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1646.2769230769231</v>
+        <v>1645.3333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45665.276923076926</v>
+        <v>45664.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>842.66627876787129</v>
+        <v>837.32429239313694</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44861.666278767872</v>
+        <v>44856.324292393139</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3837,19 +3846,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2478.7692307692309</v>
+        <v>2477.3484848484845</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46497.769230769234</v>
+        <v>46496.348484848488</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1112.795186679346</v>
+        <v>1105.7407490272271</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45131.795186679345</v>
+        <v>45124.740749027231</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3900,19 +3909,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2750.0307692307692</v>
+        <v>2748.454545454545</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46769.030769230769</v>
+        <v>46767.454545454544</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1156.9672093566942</v>
+        <v>1149.6327482252545</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45175.967209356691</v>
+        <v>45168.632748225253</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3963,19 +3972,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2750.0307692307692</v>
+        <v>2748.454545454545</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46769.030769230769</v>
+        <v>46767.454545454544</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1156.9672093566942</v>
+        <v>1149.6327482252545</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45175.967209356691</v>
+        <v>45168.632748225253</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4050,7 +4059,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3538461538461544</v>
+        <v>9.3484848484848477</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4091,7 +4100,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.84946197456438632</v>
+        <v>0.84407690765437193</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5982,6 +5991,41 @@
       <c r="I66">
         <f t="shared" ref="I66" si="140">E66/H66</f>
         <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>527</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="2"/>
+        <v>卷66</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67" si="141">D66+1</f>
+        <v>44617</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67" si="142">D67-C67+1</f>
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67" si="143">G66+1</f>
+        <v>209</v>
+      </c>
+      <c r="G67" s="2">
+        <v>213</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67" si="144">IF(F67*G67&lt;0,ABS(F67)+ABS(G67),G67-F67+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="145">E67/H67</f>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -5998,7 +6042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8003,24 +8047,27 @@
       <c r="A67">
         <v>527</v>
       </c>
-      <c r="B67" t="e">
+      <c r="B67" t="str">
         <f>VLOOKUP($A67,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷66</v>
       </c>
       <c r="C67" t="s">
         <v>95</v>
       </c>
-      <c r="D67" t="e">
+      <c r="D67">
         <f>VLOOKUP($A67,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" t="e">
+        <v>209</v>
+      </c>
+      <c r="E67">
         <f>VLOOKUP($A67,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" t="e">
+        <v>213</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I67" t="str">
         <f t="shared" ref="I67:I130" si="1">"["&amp;B67&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67&amp;"|"&amp;G67&amp;"|"&amp;H67</f>
-        <v>#N/A</v>
+        <v>[卷66](5_筆記/资治通鉴66.html)|漢紀五十八|209|213|||漢獻帝21年至25年</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="490">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1653,6 +1653,14 @@
   </si>
   <si>
     <t>漢獻帝21年至25年</t>
+  </si>
+  <si>
+    <t>孫十萬合肥之戰表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝26年至28年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1892,7 +1900,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2090,6 +2098,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>卷66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>卷67</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2298,6 +2309,9 @@
                 <c:pt idx="65">
                   <c:v>1.8</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2311,11 +2325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203287096"/>
-        <c:axId val="203672216"/>
+        <c:axId val="196567576"/>
+        <c:axId val="196587856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203287096"/>
+        <c:axId val="196567576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,12 +2441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203672216"/>
+        <c:crossAx val="196587856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203672216"/>
+        <c:axId val="196587856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203287096"/>
+        <c:crossAx val="196567576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3472,11 +3486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3594,19 +3608,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>635.69696969696963</v>
+        <v>633.31343283582089</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44654.696969696968</v>
+        <v>44652.313432835821</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>525.85991346867377</v>
+        <v>529.57375656940826</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44544.859913468674</v>
+        <v>44548.573756569407</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3614,7 +3628,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B67" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B68" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3657,19 +3671,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>729.18181818181813</v>
+        <v>726.44776119402991</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44748.181818181816</v>
+        <v>44745.447761194031</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>576.50452792793601</v>
+        <v>580.57604452151816</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44595.504527927937</v>
+        <v>44599.57604452152</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3720,19 +3734,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1103.121212121212</v>
+        <v>1098.9850746268658</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45122.121212121216</v>
+        <v>45117.985074626864</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>694.6752949995481</v>
+        <v>699.5813830764414</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44713.67529499955</v>
+        <v>44718.581383076438</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3783,19 +3797,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1645.3333333333333</v>
+        <v>1639.1641791044776</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45664.333333333336</v>
+        <v>45658.164179104475</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>837.32429239313694</v>
+        <v>843.2378274748844</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44856.324292393139</v>
+        <v>44862.237827474884</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3846,19 +3860,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2477.3484848484845</v>
+        <v>2468.0597014925374</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46496.348484848488</v>
+        <v>46487.059701492537</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1105.7407490272271</v>
+        <v>1113.5499536210671</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45124.740749027231</v>
+        <v>45132.54995362107</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3909,19 +3923,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2748.454545454545</v>
+        <v>2738.1492537313434</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46767.454545454544</v>
+        <v>46757.149253731346</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1149.6327482252545</v>
+        <v>1157.7519365128958</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45168.632748225253</v>
+        <v>45176.751936512897</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3972,19 +3986,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2748.454545454545</v>
+        <v>2738.1492537313434</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46767.454545454544</v>
+        <v>46757.149253731346</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1149.6327482252545</v>
+        <v>1157.7519365128958</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45168.632748225253</v>
+        <v>45176.751936512897</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4059,7 +4073,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3484848484848477</v>
+        <v>9.3134328358208958</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4100,7 +4114,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.84407690765437193</v>
+        <v>0.85003813253516569</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6026,6 +6040,41 @@
       <c r="I67">
         <f t="shared" ref="I67" si="145">E67/H67</f>
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>528</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="2"/>
+        <v>卷67</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68" si="146">D67+1</f>
+        <v>44626</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44632</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68" si="147">D68-C68+1</f>
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68" si="148">G67+1</f>
+        <v>214</v>
+      </c>
+      <c r="G68" s="2">
+        <v>216</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68" si="149">IF(F68*G68&lt;0,ABS(F68)+ABS(G68),G68-F68+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68" si="150">E68/H68</f>
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6040,9 +6089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8074,24 +8123,30 @@
       <c r="A68">
         <v>528</v>
       </c>
-      <c r="B68" t="e">
+      <c r="B68" t="str">
         <f>VLOOKUP($A68,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷67</v>
       </c>
       <c r="C68" t="s">
         <v>96</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68">
         <f>VLOOKUP($A68,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" t="e">
+        <v>214</v>
+      </c>
+      <c r="E68">
         <f>VLOOKUP($A68,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" t="e">
+        <v>216</v>
+      </c>
+      <c r="G68" t="s">
+        <v>488</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>[卷67](5_筆記/资治通鉴67.html)|漢紀五十九|214|216||孫十萬合肥之戰表|漢獻帝26年至28年</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="491">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,6 +1661,9 @@
   <si>
     <t>漢獻帝26年至28年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢獻帝29年至31年</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1903,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2101,6 +2104,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>卷67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>卷68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2312,6 +2318,9 @@
                 <c:pt idx="66">
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2325,11 +2334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196567576"/>
-        <c:axId val="196587856"/>
+        <c:axId val="102820216"/>
+        <c:axId val="205004288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196567576"/>
+        <c:axId val="102820216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2450,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196587856"/>
+        <c:crossAx val="205004288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196587856"/>
+        <c:axId val="205004288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196567576"/>
+        <c:crossAx val="102820216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3486,11 +3495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3608,19 +3617,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>633.31343283582089</v>
+        <v>631</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44652.313432835821</v>
+        <v>44650</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>529.57375656940826</v>
+        <v>532.84329658533807</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44548.573756569407</v>
+        <v>44551.843296585335</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3628,7 +3637,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B68" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B69" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3671,19 +3680,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>726.44776119402991</v>
+        <v>723.79411764705878</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44745.447761194031</v>
+        <v>44742.794117647056</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>580.57604452151816</v>
+        <v>584.16046800607683</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44599.57604452152</v>
+        <v>44603.160468006077</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3734,19 +3743,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1098.9850746268658</v>
+        <v>1094.9705882352941</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45117.985074626864</v>
+        <v>45113.970588235294</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>699.5813830764414</v>
+        <v>703.90053465446738</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44718.581383076438</v>
+        <v>44722.900534654465</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3797,19 +3806,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1639.1641791044776</v>
+        <v>1633.1764705882354</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45658.164179104475</v>
+        <v>45652.176470588238</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>843.2378274748844</v>
+        <v>848.44390082288169</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44862.237827474884</v>
+        <v>44867.44390082288</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3860,19 +3869,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2468.0597014925374</v>
+        <v>2459.044117647059</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46487.059701492537</v>
+        <v>46478.044117647056</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1113.5499536210671</v>
+        <v>1120.4249093527974</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45132.54995362107</v>
+        <v>45139.424909352798</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3923,19 +3932,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2738.1492537313434</v>
+        <v>2728.1470588235293</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46757.149253731346</v>
+        <v>46747.147058823532</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1157.7519365128958</v>
+        <v>1164.8997912507712</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45176.751936512897</v>
+        <v>45183.899791250769</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3986,19 +3995,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2738.1492537313434</v>
+        <v>2728.1470588235293</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46757.149253731346</v>
+        <v>46747.147058823532</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1157.7519365128958</v>
+        <v>1164.8997912507712</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45176.751936512897</v>
+        <v>45183.899791250769</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4073,7 +4082,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3134328358208958</v>
+        <v>9.2794117647058822</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4114,7 +4123,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.85003813253516569</v>
+        <v>0.8552861903456469</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6074,6 +6083,41 @@
       </c>
       <c r="I68">
         <f t="shared" ref="I68" si="150">E68/H68</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>529</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>卷68</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69" si="151">D68+1</f>
+        <v>44633</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44639</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" ref="E69" si="152">D69-C69+1</f>
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="153">G68+1</f>
+        <v>217</v>
+      </c>
+      <c r="G69" s="2">
+        <v>219</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69" si="154">IF(F69*G69&lt;0,ABS(F69)+ABS(G69),G69-F69+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69" si="155">E69/H69</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6091,7 +6135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8153,24 +8197,27 @@
       <c r="A69">
         <v>529</v>
       </c>
-      <c r="B69" t="e">
+      <c r="B69" t="str">
         <f>VLOOKUP($A69,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷68</v>
       </c>
       <c r="C69" t="s">
         <v>97</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D69">
         <f>VLOOKUP($A69,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" t="e">
+        <v>217</v>
+      </c>
+      <c r="E69">
         <f>VLOOKUP($A69,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I69" t="e">
+        <v>219</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>[卷68](5_筆記/资治通鉴68.html)|漢紀六十|217|219|||漢獻帝29年至31年</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1460,10 +1460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漢徭役類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七國之亂世系圖、臧兒田竇世系圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,6 +1660,10 @@
   </si>
   <si>
     <t>漢獻帝29年至31年</t>
+  </si>
+  <si>
+    <t>漢兵役類型(昭帝紀注)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2334,11 +2334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102820216"/>
-        <c:axId val="205004288"/>
+        <c:axId val="204339048"/>
+        <c:axId val="204352032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102820216"/>
+        <c:axId val="204339048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,12 +2450,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205004288"/>
+        <c:crossAx val="204352032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205004288"/>
+        <c:axId val="204352032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102820216"/>
+        <c:crossAx val="204339048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6134,8 +6134,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6200,8 +6200,8 @@
         <v>348</v>
       </c>
       <c r="I2" t="str">
-        <f>"["&amp;B2&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B2,"卷","")&amp;".html)|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2&amp;"|"&amp;H2</f>
-        <v>[卷1](5_筆記/资治通鉴1.html)|周紀一|-403|-369|趙建國前世系圖、趙建國前傳位圖、魏建國前傳位圖、韓建國前傳位圖、田氏代齊前傳位圖、秦四代亂政世系圖、秦四代亂政傳位圖||周威烈王23年至24年、周安王共26年、周烈王至7年</v>
+        <f>A2&amp;"|"&amp;"["&amp;B2&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B2,"卷","")&amp;".html)|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2&amp;"|"&amp;H2</f>
+        <v>101|[卷1](5_筆記/资治通鉴1.html)|周紀一|-403|-369|趙建國前世系圖、趙建國前傳位圖、魏建國前傳位圖、韓建國前傳位圖、田氏代齊前傳位圖、秦四代亂政世系圖、秦四代亂政傳位圖||周威烈王23年至24年、周安王共26年、周烈王至7年</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6233,8 +6233,8 @@
         <v>347</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">"["&amp;B3&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B3,"卷","")&amp;".html)|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3&amp;"|"&amp;G3&amp;"|"&amp;H3</f>
-        <v>[卷2](5_筆記/资治通鉴2.html)|周紀二|-368|-321|齊威王時期諸田譜系|商鞅二十等爵|周顯王共48年</v>
+        <f t="shared" ref="I3:I66" si="0">A3&amp;"|"&amp;"["&amp;B3&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B3,"卷","")&amp;".html)|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3&amp;"|"&amp;G3&amp;"|"&amp;H3</f>
+        <v>102|[卷2](5_筆記/资治通鉴2.html)|周紀二|-368|-321|齊威王時期諸田譜系|商鞅二十等爵|周顯王共48年</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>[卷3](5_筆記/资治通鉴3.html)|周紀三|-320|-298||古蜀國世系|周慎靚王共6年、周赧王至17年</v>
+        <v>103|[卷3](5_筆記/资治通鉴3.html)|周紀三|-320|-298||古蜀國世系|周慎靚王共6年、周赧王至17年</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>[卷4](5_筆記/资治通鉴4.html)|周紀四|-297|-273||楚国都城与各种郢都、西周國、東周國|周赧王18年至42年</v>
+        <v>104|[卷4](5_筆記/资治通鉴4.html)|周紀四|-297|-273||楚国都城与各种郢都、西周國、東周國|周赧王18年至42年</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>[卷5](5_筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系簡圖(至秦)、秦始皇關系圖||周赧王43年至59年</v>
+        <v>105|[卷5](5_筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系簡圖(至秦)、秦始皇關系圖||周赧王43年至59年</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>[卷6](5_筆記/资治通鉴6.html)|秦紀一|-255|-228||韓國都城變遷史|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
+        <v>201|[卷6](5_筆記/资治通鉴6.html)|秦紀一|-255|-228||韓國都城變遷史|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>[卷7](5_筆記/资治通鉴7.html)|秦紀二|-227|-209|王翦家族、蒙驁家族、項燕家族||秦始皇20年至37年、秦二世元年</v>
+        <v>202|[卷7](5_筆記/资治通鉴7.html)|秦紀二|-227|-209|王翦家族、蒙驁家族、項燕家族||秦始皇20年至37年、秦二世元年</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>[卷8](5_筆記/资治通鉴8.html)|秦紀三|-208|-207|||秦二世2年至3年</v>
+        <v>203|[卷8](5_筆記/资治通鉴8.html)|秦紀三|-208|-207|||秦二世2年至3年</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>[卷9](5_筆記/资治通鉴9.html)|漢紀一|-206|-205|秦末漢初政權逗逼分裂圖|歷代歲首表|楚漢至2年</v>
+        <v>301|[卷9](5_筆記/资治通鉴9.html)|漢紀一|-206|-205|秦末漢初政權逗逼分裂圖|歷代歲首表|楚漢至2年</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>[卷10](5_筆記/资治通鉴10.html)|漢紀二|-204|-203||周禮宴請等級、韓信戰役表|楚漢3年至4年</v>
+        <v>302|[卷10](5_筆記/资治通鉴10.html)|漢紀二|-204|-203||周禮宴請等級、韓信戰役表|楚漢3年至4年</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>[卷11](5_筆記/资治通鉴11.html)|漢紀三|-202|-200||詔書形式、驛站交通規格、鞋類型|漢高祖5年至7年</v>
+        <v>303|[卷11](5_筆記/资治通鉴11.html)|漢紀三|-202|-200||詔書形式、驛站交通規格、鞋類型|漢高祖5年至7年</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>[卷12](5_筆記/资治通鉴12.html)|漢紀四|-199|-188|||漢高祖8年至12年、漢惠帝共7年</v>
+        <v>304|[卷12](5_筆記/资治通鉴12.html)|漢紀四|-199|-188|||漢高祖8年至12年、漢惠帝共7年</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>[卷13](5_筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|漢惠帝掛名子嗣表|漢高后共8年、漢文帝至2年</v>
+        <v>305|[卷13](5_筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|漢惠帝掛名子嗣表|漢高后共8年、漢文帝至2年</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>[卷14](5_筆記/资治通鉴14.html)|漢紀六|-177|-170||漢歷代皇帝生前廟名、大夫罪名表、各類彗星|漢文帝3年至10年</v>
+        <v>306|[卷14](5_筆記/资治通鉴14.html)|漢紀六|-177|-170||漢歷代皇帝生前廟名、大夫罪名表、各類彗星|漢文帝3年至10年</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>[卷15](5_筆記/资治通鉴15.html)|漢紀七|-169|-155||秦漢三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
+        <v>307|[卷15](5_筆記/资治通鉴15.html)|漢紀七|-169|-155||秦漢三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -6647,17 +6647,17 @@
         <v>-141</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G17" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>361</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[卷16](5_筆記/资治通鉴16.html)|漢紀八|-154|-141|七國之亂世系圖、臧兒田竇世系圖|漢徭役類型|漢景帝3年至16年</v>
+        <v>308|[卷16](5_筆記/资治通鉴16.html)|漢紀八|-154|-141|七國之亂世系圖、臧兒田竇世系圖|漢兵役類型(昭帝紀注)|漢景帝3年至16年</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[卷17](5_筆記/资治通鉴17.html)|漢紀九|-140|-134|衛霍裙帶世系|牢獄別稱|漢武帝至7年</v>
+        <v>309|[卷17](5_筆記/资治通鉴17.html)|漢紀九|-140|-134|衛霍裙帶世系|牢獄別稱|漢武帝至7年</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>[卷18](5_筆記/资治通鉴18.html)|漢紀十|-133|-125||武帝時期漢匈重要戰役|漢武帝8年至16年</v>
+        <v>310|[卷18](5_筆記/资治通鉴18.html)|漢紀十|-133|-125||武帝時期漢匈重要戰役|漢武帝8年至16年</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -6743,17 +6743,17 @@
         <v>-119</v>
       </c>
       <c r="F20" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" t="s">
         <v>440</v>
-      </c>
-      <c r="G20" t="s">
-        <v>441</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>365</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>[卷19](5_筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山謀反世系、死守外戚的平陽侯曹氏|武功爵表、張騫兩次探索各國紀要、白鹿皮幣|漢武帝17年至22年</v>
+        <v>311|[卷19](5_筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山謀反世系、死守外戚的平陽侯曹氏|武功爵表、張騫兩次探索各國紀要、白鹿皮幣|漢武帝17年至22年</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -6776,14 +6776,14 @@
         <v>-110</v>
       </c>
       <c r="G21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>370</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝17年至23年至31年</v>
+        <v>312|[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝17年至23年至31年</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>[卷21](5_筆記/资治通鉴21.html)|漢紀十三|-109|-99|||漢武帝32年至42年</v>
+        <v>313|[卷21](5_筆記/资治通鉴21.html)|漢紀十三|-109|-99|||漢武帝32年至42年</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -6833,14 +6833,14 @@
         <v>-87</v>
       </c>
       <c r="G23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>372</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>[卷22](5_筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、漢武帝子嗣、人臣功五品|漢武帝43年至54年</v>
+        <v>314|[卷22](5_筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、漢武帝子嗣、人臣功五品|漢武帝43年至54年</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -6863,14 +6863,14 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>373</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>[卷23](5_筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
+        <v>315|[卷23](5_筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>[卷24](5_筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢武帝子嗣皇帝示意圖、霍光世系|西漢綬帶顏色、各時代盜墓信息|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
+        <v>316|[卷24](5_筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢武帝子嗣皇帝示意圖、霍光世系|西漢綬帶顏色、各時代盜墓信息|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>[卷25](5_筆記/资治通鉴25.html)|漢紀十七|-67|-62||五爭車師|漢宣帝7年至12年</v>
+        <v>317|[卷25](5_筆記/资治通鉴25.html)|漢紀十七|-67|-62||五爭車師|漢宣帝7年至12年</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>[卷26](5_筆記/资治通鉴26.html)|漢紀十八|-61|-59|||漢宣帝13年至15年</v>
+        <v>318|[卷26](5_筆記/资治通鉴26.html)|漢紀十八|-61|-59|||漢宣帝13年至15年</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>[卷27](5_筆記/资治通鉴27.html)|漢紀十九|-58|-49|麒麟閣十一功臣成分|五單于爭立表|漢宣帝16年至25年</v>
+        <v>319|[卷27](5_筆記/资治通鉴27.html)|漢紀十九|-58|-49|麒麟閣十一功臣成分|五單于爭立表|漢宣帝16年至25年</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>[卷28](5_筆記/资治通鉴28.html)|漢紀二十|-48|-42||蕭史黨爭表、舜命九官（尚書）|漢元帝至7年</v>
+        <v>320|[卷28](5_筆記/资治通鉴28.html)|漢紀二十|-48|-42||蕭史黨爭表、舜命九官（尚書）|漢元帝至7年</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>[卷29](5_筆記/资治通鉴29.html)|漢紀二十一|-41|-33|金日磾及班彪世系||漢元帝8年至16年</v>
+        <v>321|[卷29](5_筆記/资治通鉴29.html)|漢紀二十一|-41|-33|金日磾及班彪世系||漢元帝8年至16年</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>[卷30](5_筆記/资治通鉴30.html)|漢紀二十二|-32|-23|呼韓邪世系||漢成帝至10年</v>
+        <v>322|[卷30](5_筆記/资治通鉴30.html)|漢紀二十二|-32|-23|呼韓邪世系||漢成帝至10年</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>[卷31](5_筆記/资治通鉴31.html)|漢紀二十三|-22|-14|許平君世系、班氏世系|墳形製|漢成帝11年19年</v>
+        <v>323|[卷31](5_筆記/资治通鉴31.html)|漢紀二十三|-22|-14|許平君世系、班氏世系|墳形製|漢成帝11年19年</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>[卷32](5_筆記/资治通鉴32.html)|漢紀二十四|-13|-8|馮奉世世系||漢成帝20年至25年</v>
+        <v>324|[卷32](5_筆記/资治通鉴32.html)|漢紀二十四|-13|-8|馮奉世世系||漢成帝20年至25年</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>[卷33](5_筆記/资治通鉴33.html)|漢紀二十五|-7|-6|傅丁太后世系||漢成帝26年、漢哀帝元年</v>
+        <v>325|[卷33](5_筆記/资治通鉴33.html)|漢紀二十五|-7|-6|傅丁太后世系||漢成帝26年、漢哀帝元年</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>[卷34](5_筆記/资治通鉴34.html)|漢紀二十六|-5|-3||西漢帝王男寵表|漢哀帝2年至4年</v>
+        <v>326|[卷34](5_筆記/资治通鉴34.html)|漢紀二十六|-5|-3||西漢帝王男寵表|漢哀帝2年至4年</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>[卷35](5_筆記/资治通鉴35.html)|漢紀二十七|-2|2|衛子夫後衛氏世系|新三公分職|漢哀帝5年至6年、漢平帝至2年</v>
+        <v>327|[卷35](5_筆記/资治通鉴35.html)|漢紀二十七|-2|2|衛子夫後衛氏世系|新三公分職|漢哀帝5年至6年、漢平帝至2年</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>[卷36](5_筆記/资治通鉴36.html)|漢紀二十八|3|8||九錫之法|漢平帝3年至6年、王莽居攝、始初至3年</v>
+        <v>328|[卷36](5_筆記/资治通鉴36.html)|漢紀二十八|3|8||九錫之法|漢平帝3年至6年、王莽居攝、始初至3年</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>[卷37](5_筆記/资治通鉴37.html)|漢紀二十九|9|14||王莽十一公表、漢官儀印制|王莽至6年</v>
+        <v>401|[卷37](5_筆記/资治通鉴37.html)|漢紀二十九|9|14||王莽十一公表、漢官儀印制|王莽至6年</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -7322,14 +7322,14 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>420</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>[卷38](5_筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、周禮天子六宮制度、六宮安置表|王莽7年至14年</v>
+        <v>402|[卷38](5_筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、周禮天子六宮制度、六宮安置表|王莽7年至14年</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>[卷39](5_筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡、銅馬諸賊表|王莽15年、玄漢至2年</v>
+        <v>403|[卷39](5_筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡、銅馬諸賊表|王莽15年、玄漢至2年</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>[卷40](5_筆記/资治通鉴40.html)|漢紀三十二|25|26|||漢光武帝至2年</v>
+        <v>501|[卷40](5_筆記/资治通鉴40.html)|漢紀三十二|25|26|||漢光武帝至2年</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>[卷41](5_筆記/资治通鉴41.html)|漢紀三十三|27|29|耿氏世系、莎車王世系||漢光武帝3年至5年</v>
+        <v>502|[卷41](5_筆記/资治通鉴41.html)|漢紀三十三|27|29|耿氏世系、莎車王世系||漢光武帝3年至5年</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>[卷42](5_筆記/资治通鉴42.html)|漢紀三十四|30|35|陰氏世系||漢光武帝6年至11年</v>
+        <v>503|[卷42](5_筆記/资治通鉴42.html)|漢紀三十四|30|35|陰氏世系||漢光武帝6年至11年</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>[卷43](5_筆記/资治通鉴43.html)|漢紀三十五|36|46||羌人諸种、光武子嗣表|漢光武帝12年至22年</v>
+        <v>504|[卷43](5_筆記/资治通鉴43.html)|漢紀三十五|36|46||羌人諸种、光武子嗣表|漢光武帝12年至22年</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>[卷44](5_筆記/资治通鉴44.html)|漢紀三十六|47|60||光武官員俸祿表|漢光武帝23年至33年、漢明帝至3年</v>
+        <v>505|[卷44](5_筆記/资治通鉴44.html)|漢紀三十六|47|60||光武官員俸祿表|漢光武帝23年至33年、漢明帝至3年</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -7529,17 +7529,17 @@
         <v>75</v>
       </c>
       <c r="F46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G46" t="s">
+        <v>444</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="G46" t="s">
-        <v>445</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>[卷45](5_筆記/资治通鉴45.html)|漢紀三十七|61|75|南陽樊氏世系、扶風馬氏世系|西遊記人物原型、黃河改道概況|漢明帝4年至18年</v>
+        <v>506|[卷45](5_筆記/资治通鉴45.html)|漢紀三十七|61|75|南陽樊氏世系、扶風馬氏世系|西遊記人物原型、黃河改道概況|漢明帝4年至18年</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -7562,14 +7562,14 @@
         <v>84</v>
       </c>
       <c r="F47" t="s">
+        <v>447</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>449</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>[卷46](5_筆記/资治通鉴46.html)|漢紀三十八|76|84|二宋二梁貴人世系||漢章帝至9年</v>
+        <v>507|[卷46](5_筆記/资治通鉴46.html)|漢紀三十八|76|84|二宋二梁貴人世系||漢章帝至9年</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -7592,17 +7592,17 @@
         <v>91</v>
       </c>
       <c r="F48" t="s">
+        <v>450</v>
+      </c>
+      <c r="G48" t="s">
         <v>451</v>
       </c>
-      <c r="G48" t="s">
-        <v>452</v>
-      </c>
       <c r="H48" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>[卷47](5_筆記/资治通鉴47.html)|漢紀三十九|85|91|漢龜茲王世系|六代之樂、西漢皇后外戚結局表|漢章帝10年至13年、漢和帝至3年</v>
+        <v>508|[卷47](5_筆記/资治通鉴47.html)|漢紀三十九|85|91|漢龜茲王世系|六代之樂、西漢皇后外戚結局表|漢章帝10年至13年、漢和帝至3年</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -7625,14 +7625,14 @@
         <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>[卷48](5_筆記/资治通鉴48.html)|漢紀四十|92|105||東漢燒當羌鬥爭史|漢和帝4年至17年</v>
+        <v>509|[卷48](5_筆記/资治通鉴48.html)|漢紀四十|92|105||東漢燒當羌鬥爭史|漢和帝4年至17年</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -7655,11 +7655,11 @@
         <v>115</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>[卷49](5_筆記/资治通鉴49.html)|漢紀四十一|106|115|||漢殤帝元年、漢安帝至9年</v>
+        <v>510|[卷49](5_筆記/资治通鉴49.html)|漢紀四十一|106|115|||漢殤帝元年、漢安帝至9年</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -7682,17 +7682,17 @@
         <v>124</v>
       </c>
       <c r="F51" t="s">
+        <v>455</v>
+      </c>
+      <c r="G51" t="s">
         <v>456</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>[卷50](5_筆記/资治通鉴50.html)|漢紀四十二|116|124|蔡諷蔡瑁世系圖|刺殺先零羌|漢安帝10年至18年</v>
+        <v>511|[卷50](5_筆記/资治通鉴50.html)|漢紀四十二|116|124|蔡諷蔡瑁世系圖|刺殺先零羌|漢安帝10年至18年</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -7715,14 +7715,14 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>[卷51](5_筆記/资治通鉴51.html)|漢紀四十三|125|133||漢群臣上書類型、天體學說三家|漢安帝19年、前少帝劉懿、漢順帝至8年</v>
+        <v>512|[卷51](5_筆記/资治通鉴51.html)|漢紀四十三|125|133||漢群臣上書類型、天體學說三家|漢安帝19年、前少帝劉懿、漢順帝至8年</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -7745,11 +7745,11 @@
         <v>145</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>[卷52](5_筆記/资治通鉴52.html)|漢紀四十四|134|145|||漢順帝9年至19年、漢沖帝、漢質帝</v>
+        <v>513|[卷52](5_筆記/资治通鉴52.html)|漢紀四十四|134|145|||漢順帝9年至19年、漢沖帝、漢質帝</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -7772,14 +7772,14 @@
         <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>[卷53](5_筆記/资治通鉴53.html)|漢紀四十五|146|156|梁氏世系圖、崔氏世系圖||漢桓帝至10年</v>
+        <v>514|[卷53](5_筆記/资治通鉴53.html)|漢紀四十五|146|156|梁氏世系圖、崔氏世系圖||漢桓帝至10年</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -7802,17 +7802,17 @@
         <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>[卷54](5_筆記/资治通鉴54.html)|漢紀四十六|157|163|鄧猛女關系圖、李固世系|李杜組合匯總|漢桓帝11年至17年</v>
+        <v>515|[卷54](5_筆記/资治通鉴54.html)|漢紀四十六|157|163|鄧猛女關系圖、李固世系|李杜組合匯總|漢桓帝11年至17年</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -7835,11 +7835,11 @@
         <v>166</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>[卷55](5_筆記/资治通鉴55.html)|漢紀四十七|164|166|||漢桓帝18年至20年</v>
+        <v>516|[卷55](5_筆記/资治通鉴55.html)|漢紀四十七|164|166|||漢桓帝18年至20年</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -7862,14 +7862,14 @@
         <v>171</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>[卷56](5_筆記/资治通鉴56.html)|漢紀四十八|167|171|汝南袁氏世系||漢桓帝21年、漢靈帝至4年</v>
+        <v>517|[卷56](5_筆記/资治通鉴56.html)|漢紀四十八|167|171|汝南袁氏世系||漢桓帝21年、漢靈帝至4年</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -7892,11 +7892,11 @@
         <v>180</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>[卷57](5_筆記/资治通鉴57.html)|漢紀四十九|172|180|||漢靈帝5年至13年</v>
+        <v>518|[卷57](5_筆記/资治通鉴57.html)|漢紀四十九|172|180|||漢靈帝5年至13年</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -7919,14 +7919,14 @@
         <v>187</v>
       </c>
       <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>[卷58](5_筆記/资治通鉴58.html)|漢紀五十|181|187|檀石槐世系、何皇后世系||漢靈帝14年至20年</v>
+        <v>519|[卷58](5_筆記/资治通鉴58.html)|漢紀五十|181|187|檀石槐世系、何皇后世系||漢靈帝14年至20年</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -7949,14 +7949,14 @@
         <v>190</v>
       </c>
       <c r="G60" t="s">
+        <v>473</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>[卷59](5_筆記/资治通鉴59.html)|漢紀五十一|188|190||十二分野表|漢靈帝21年、劉辯、漢獻帝至2年</v>
+        <v>520|[卷59](5_筆記/资治通鉴59.html)|漢紀五十一|188|190||十二分野表|漢靈帝21年、劉辯、漢獻帝至2年</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -7979,14 +7979,14 @@
         <v>193</v>
       </c>
       <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>[卷60](5_筆記/资治通鉴60.html)|漢紀五十二|191|193|漢末道教諸張世系||漢獻帝3年至5年</v>
+        <v>521|[卷60](5_筆記/资治通鉴60.html)|漢紀五十二|191|193|漢末道教諸張世系||漢獻帝3年至5年</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -8009,14 +8009,14 @@
         <v>195</v>
       </c>
       <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>[卷61](5_筆記/资治通鉴61.html)|漢紀五十三|194|195|孫吳世系||漢獻帝6年至7年</v>
+        <v>522|[卷61](5_筆記/资治通鉴61.html)|漢紀五十三|194|195|孫吳世系||漢獻帝6年至7年</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -8039,17 +8039,17 @@
         <v>198</v>
       </c>
       <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>479</v>
+      </c>
+      <c r="H63" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="G63" t="s">
-        <v>480</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>482</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>[卷62](5_筆記/资治通鉴62.html)|漢紀五十四|196|198|下邳陳氏世系、潁川陳氏世系|蔡邕漢樂四品|漢獻帝8年至10年</v>
+        <v>523|[卷62](5_筆記/资治通鉴62.html)|漢紀五十四|196|198|下邳陳氏世系、潁川陳氏世系|蔡邕漢樂四品|漢獻帝8年至10年</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -8072,11 +8072,11 @@
         <v>200</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>[卷63](5_筆記/资治通鉴63.html)|漢紀五十五|199|200|||漢獻帝11年至12年</v>
+        <v>524|[卷63](5_筆記/资治通鉴63.html)|漢紀五十五|199|200|||漢獻帝11年至12年</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -8099,14 +8099,14 @@
         <v>205</v>
       </c>
       <c r="F65" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>[卷64](5_筆記/资治通鉴64.html)|漢紀五十六|201|205|遼東公孫世系||漢獻帝13年至17年</v>
+        <v>525|[卷64](5_筆記/资治通鉴64.html)|漢紀五十六|201|205|遼東公孫世系||漢獻帝13年至17年</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -8129,11 +8129,11 @@
         <v>208</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>[卷65](5_筆記/资治通鉴65.html)|漢紀五十七|206|208|||漢獻帝18年至20年</v>
+        <v>526|[卷65](5_筆記/资治通鉴65.html)|漢紀五十七|206|208|||漢獻帝18年至20年</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -8156,11 +8156,11 @@
         <v>213</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="1">"["&amp;B67&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67&amp;"|"&amp;G67&amp;"|"&amp;H67</f>
-        <v>[卷66](5_筆記/资治通鉴66.html)|漢紀五十八|209|213|||漢獻帝21年至25年</v>
+        <f t="shared" ref="I67:I130" si="1">A67&amp;"|"&amp;"["&amp;B67&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67&amp;"|"&amp;G67&amp;"|"&amp;H67</f>
+        <v>527|[卷66](5_筆記/资治通鉴66.html)|漢紀五十八|209|213|||漢獻帝21年至25年</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -8183,14 +8183,14 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>[卷67](5_筆記/资治通鉴67.html)|漢紀五十九|214|216||孫十萬合肥之戰表|漢獻帝26年至28年</v>
+        <v>528|[卷67](5_筆記/资治通鉴67.html)|漢紀五十九|214|216||孫十萬合肥之戰表|漢獻帝26年至28年</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -8213,11 +8213,11 @@
         <v>219</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>[卷68](5_筆記/资治通鉴68.html)|漢紀六十|217|219|||漢獻帝29年至31年</v>
+        <v>529|[卷68](5_筆記/资治通鉴68.html)|漢紀六十|217|219|||漢獻帝29年至31年</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -9704,7 +9704,7 @@
         <v>#N/A</v>
       </c>
       <c r="I131" t="e">
-        <f t="shared" ref="I131:I194" si="2">"["&amp;B131&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;F131&amp;"|"&amp;G131&amp;"|"&amp;H131</f>
+        <f t="shared" ref="I131:I194" si="2">A131&amp;"|"&amp;"["&amp;B131&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;F131&amp;"|"&amp;G131&amp;"|"&amp;H131</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
         <v>#N/A</v>
       </c>
       <c r="I195" t="e">
-        <f t="shared" ref="I195:I258" si="3">"["&amp;B195&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B195,"卷","")&amp;".html)|"&amp;C195&amp;"|"&amp;D195&amp;"|"&amp;E195&amp;"|"&amp;F195&amp;"|"&amp;G195&amp;"|"&amp;H195</f>
+        <f t="shared" ref="I195:I258" si="3">A195&amp;"|"&amp;"["&amp;B195&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B195,"卷","")&amp;".html)|"&amp;C195&amp;"|"&amp;D195&amp;"|"&amp;E195&amp;"|"&amp;F195&amp;"|"&amp;G195&amp;"|"&amp;H195</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
         <v>#N/A</v>
       </c>
       <c r="I259" t="e">
-        <f t="shared" ref="I259:I295" si="4">"["&amp;B259&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B259,"卷","")&amp;".html)|"&amp;C259&amp;"|"&amp;D259&amp;"|"&amp;E259&amp;"|"&amp;F259&amp;"|"&amp;G259&amp;"|"&amp;H259</f>
+        <f t="shared" ref="I259:I295" si="4">A259&amp;"|"&amp;"["&amp;B259&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B259,"卷","")&amp;".html)|"&amp;C259&amp;"|"&amp;D259&amp;"|"&amp;E259&amp;"|"&amp;F259&amp;"|"&amp;G259&amp;"|"&amp;H259</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="492">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1664,6 +1664,9 @@
   <si>
     <t>漢兵役類型(昭帝紀注)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹丕至3年</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1906,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2107,6 +2110,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>卷68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>卷69</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2321,6 +2327,9 @@
                 <c:pt idx="67">
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2334,11 +2343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204339048"/>
-        <c:axId val="204352032"/>
+        <c:axId val="200100080"/>
+        <c:axId val="200490760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204339048"/>
+        <c:axId val="200100080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,12 +2459,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204352032"/>
+        <c:crossAx val="200490760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204352032"/>
+        <c:axId val="200490760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204339048"/>
+        <c:crossAx val="200100080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3495,11 +3504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3617,19 +3626,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>631</v>
+        <v>628.75362318840575</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44650</v>
+        <v>44647.753623188408</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>532.84329658533807</v>
+        <v>535.76037318713236</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44551.843296585335</v>
+        <v>44554.760373187135</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3637,7 +3646,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B69" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B70" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3680,19 +3689,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>723.79411764705878</v>
+        <v>721.21739130434787</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44742.794117647056</v>
+        <v>44740.217391304344</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>584.16046800607683</v>
+        <v>587.35848296438417</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44603.160468006077</v>
+        <v>44606.358482964381</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3743,19 +3752,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1094.9705882352941</v>
+        <v>1091.072463768116</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45113.970588235294</v>
+        <v>45110.072463768112</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>703.90053465446738</v>
+        <v>707.75407244463872</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44722.900534654465</v>
+        <v>44726.754072444637</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3806,19 +3815,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1633.1764705882354</v>
+        <v>1627.3623188405797</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45652.176470588238</v>
+        <v>45646.362318840576</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>848.44390082288169</v>
+        <v>853.08874831723153</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44867.44390082288</v>
+        <v>44872.088748317234</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3869,19 +3878,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2459.044117647059</v>
+        <v>2450.289855072464</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46478.044117647056</v>
+        <v>46469.289855072464</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1120.4249093527974</v>
+        <v>1126.5587301366666</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45139.424909352798</v>
+        <v>45145.558730136669</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3932,19 +3941,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2728.1470588235293</v>
+        <v>2718.4347826086955</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46747.147058823532</v>
+        <v>46737.434782608696</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1164.8997912507712</v>
+        <v>1171.2770919436184</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45183.899791250769</v>
+        <v>45190.277091943615</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3995,19 +4004,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2728.1470588235293</v>
+        <v>2718.4347826086955</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46747.147058823532</v>
+        <v>46737.434782608696</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1164.8997912507712</v>
+        <v>1171.2770919436184</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45183.899791250769</v>
+        <v>45190.277091943615</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4082,7 +4091,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.2794117647058822</v>
+        <v>9.2463768115942031</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4123,7 +4132,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.8552861903456469</v>
+        <v>0.8599684962875318</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6118,6 +6127,40 @@
       </c>
       <c r="I69">
         <f t="shared" ref="I69" si="155">E69/H69</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>601</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>卷69</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44709</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44715</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ref="E70" si="156">D70-C70+1</f>
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="157">G69+1</f>
+        <v>220</v>
+      </c>
+      <c r="G70" s="2">
+        <v>222</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70" si="158">IF(F70*G70&lt;0,ABS(F70)+ABS(G70),G70-F70+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70" si="159">E70/H70</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6134,8 +6177,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I69"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8224,24 +8267,27 @@
       <c r="A70">
         <v>601</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70" t="str">
         <f>VLOOKUP($A70,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷69</v>
       </c>
       <c r="C70" t="s">
         <v>98</v>
       </c>
-      <c r="D70" t="e">
+      <c r="D70">
         <f>VLOOKUP($A70,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" t="e">
+        <v>220</v>
+      </c>
+      <c r="E70">
         <f>VLOOKUP($A70,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I70" t="e">
+        <v>222</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>601|[卷69](5_筆記/资治通鉴69.html)|魏紀一|220|222|||曹丕至3年</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="494">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1667,6 +1667,14 @@
   </si>
   <si>
     <t>曹丕至3年</t>
+  </si>
+  <si>
+    <t>曹丕三次伐吳表、諸葛亮五次北伐表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹丕4年至7年、曹叡至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1906,7 +1914,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2113,6 +2121,9 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>卷69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>卷70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2329,6 +2340,9 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,11 +2357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200100080"/>
-        <c:axId val="200490760"/>
+        <c:axId val="68473184"/>
+        <c:axId val="68473576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200100080"/>
+        <c:axId val="68473184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,12 +2473,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200490760"/>
+        <c:crossAx val="68473576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200490760"/>
+        <c:axId val="68473576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200100080"/>
+        <c:crossAx val="68473184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3504,11 +3518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3626,19 +3640,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>628.75362318840575</v>
+        <v>626.57142857142856</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44647.753623188408</v>
+        <v>44645.571428571428</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>535.76037318713236</v>
+        <v>528.63160613821867</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44554.760373187135</v>
+        <v>44547.631606138217</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3646,7 +3660,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B70" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B71" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3689,19 +3703,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>721.21739130434787</v>
+        <v>718.71428571428567</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44740.217391304344</v>
+        <v>44737.714285714283</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>587.35848296438417</v>
+        <v>579.54315729117707</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44606.358482964381</v>
+        <v>44598.543157291177</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3752,19 +3766,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1091.072463768116</v>
+        <v>1087.2857142857142</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45110.072463768112</v>
+        <v>45106.285714285717</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>707.75407244463872</v>
+        <v>698.3367766480801</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44726.754072444637</v>
+        <v>44717.336776648081</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3815,19 +3829,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1627.3623188405797</v>
+        <v>1621.7142857142856</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45646.362318840576</v>
+        <v>45640.714285714283</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>853.08874831723153</v>
+        <v>841.73764572891309</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44872.088748317234</v>
+        <v>44860.737645728914</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3878,19 +3892,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2450.289855072464</v>
+        <v>2441.7857142857142</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46469.289855072464</v>
+        <v>46460.785714285717</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1126.5587301366666</v>
+        <v>1111.5688668395928</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45145.558730136669</v>
+        <v>45130.568866839596</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3941,19 +3955,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2718.4347826086955</v>
+        <v>2709</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46737.434782608696</v>
+        <v>46728</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1171.2770919436184</v>
+        <v>1155.6922111721569</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45190.277091943615</v>
+        <v>45174.692211172158</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4004,19 +4018,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2718.4347826086955</v>
+        <v>2709</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46737.434782608696</v>
+        <v>46728</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1171.2770919436184</v>
+        <v>1155.6922111721569</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45190.277091943615</v>
+        <v>45174.692211172158</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4091,7 +4105,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.2463768115942031</v>
+        <v>9.2142857142857135</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4132,7 +4146,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.8599684962875318</v>
+        <v>0.84852585254930757</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6104,7 +6118,7 @@
         <v>卷68</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69" si="151">D68+1</f>
+        <f t="shared" ref="C69:C71" si="151">D68+1</f>
         <v>44633</v>
       </c>
       <c r="D69" s="1">
@@ -6162,6 +6176,41 @@
       <c r="I70">
         <f t="shared" ref="I70" si="159">E70/H70</f>
         <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>602</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>卷70</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="151"/>
+        <v>44716</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44722</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" ref="E71" si="160">D71-C71+1</f>
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="161">G70+1</f>
+        <v>223</v>
+      </c>
+      <c r="G71" s="2">
+        <v>227</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71" si="162">IF(F71*G71&lt;0,ABS(F71)+ABS(G71),G71-F71+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71" si="163">E71/H71</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -6177,8 +6226,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8294,24 +8343,30 @@
       <c r="A71">
         <v>602</v>
       </c>
-      <c r="B71" t="e">
+      <c r="B71" t="str">
         <f>VLOOKUP($A71,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷70</v>
       </c>
       <c r="C71" t="s">
         <v>99</v>
       </c>
-      <c r="D71" t="e">
+      <c r="D71">
         <f>VLOOKUP($A71,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" t="e">
+        <v>223</v>
+      </c>
+      <c r="E71">
         <f>VLOOKUP($A71,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I71" t="e">
+        <v>227</v>
+      </c>
+      <c r="G71" t="s">
+        <v>492</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>602|[卷70](5_筆記/资治通鉴70.html)|魏紀二|223|227||曹丕三次伐吳表、諸葛亮五次北伐表|曹丕4年至7年、曹叡至2年</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,6 +1674,10 @@
   </si>
   <si>
     <t>曹丕4年至7年、曹叡至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹叡3年至5年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1914,7 +1918,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2124,6 +2128,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>卷70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>卷71</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2343,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,11 +2367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68473184"/>
-        <c:axId val="68473576"/>
+        <c:axId val="196852832"/>
+        <c:axId val="197231632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68473184"/>
+        <c:axId val="196852832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,12 +2483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68473576"/>
+        <c:crossAx val="197231632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68473576"/>
+        <c:axId val="197231632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68473184"/>
+        <c:crossAx val="196852832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3518,11 +3528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3640,19 +3650,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>626.57142857142856</v>
+        <v>623.49295774647885</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44645.571428571428</v>
+        <v>44642.492957746479</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>528.63160613821867</v>
+        <v>527.34383658952584</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44547.631606138217</v>
+        <v>44546.343836589527</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3660,7 +3670,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B71" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B72" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3703,19 +3713,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>718.71428571428567</v>
+        <v>715.18309859154931</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44737.714285714283</v>
+        <v>44734.183098591551</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>579.54315729117707</v>
+        <v>578.13136499301152</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44598.543157291177</v>
+        <v>44597.131364993009</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3766,19 +3776,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1087.2857142857142</v>
+        <v>1081.943661971831</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45106.285714285717</v>
+        <v>45100.943661971833</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>698.3367766480801</v>
+        <v>696.63559793447791</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44717.336776648081</v>
+        <v>44715.635597934481</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3829,19 +3839,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1621.7142857142856</v>
+        <v>1613.7464788732393</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45640.714285714283</v>
+        <v>45632.74647887324</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>841.73764572891309</v>
+        <v>839.68713627096247</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44860.737645728914</v>
+        <v>44858.687136270964</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3892,19 +3902,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2441.7857142857142</v>
+        <v>2429.788732394366</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46460.785714285717</v>
+        <v>46448.788732394365</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1111.5688668395928</v>
+        <v>1108.8610368094364</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45130.568866839596</v>
+        <v>45127.861036809438</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3955,19 +3965,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2709</v>
+        <v>2695.6901408450703</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46728</v>
+        <v>46714.690140845072</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1155.6922111721569</v>
+        <v>1152.8768947591238</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45174.692211172158</v>
+        <v>45171.876894759123</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4018,19 +4028,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2709</v>
+        <v>2695.6901408450703</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46728</v>
+        <v>46714.690140845072</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1155.6922111721569</v>
+        <v>1152.8768947591238</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45174.692211172158</v>
+        <v>45171.876894759123</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4105,7 +4115,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.2142857142857135</v>
+        <v>9.169014084507042</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4146,7 +4156,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.84852585254930757</v>
+        <v>0.84645880672476059</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6211,6 +6221,41 @@
       <c r="I71">
         <f t="shared" ref="I71" si="163">E71/H71</f>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>603</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>卷71</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ref="C72" si="164">D71+1</f>
+        <v>44723</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44728</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" ref="E72" si="165">D72-C72+1</f>
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="166">G71+1</f>
+        <v>228</v>
+      </c>
+      <c r="G72" s="2">
+        <v>230</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72" si="167">IF(F72*G72&lt;0,ABS(F72)+ABS(G72),G72-F72+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72" si="168">E72/H72</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6272,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8373,24 +8418,27 @@
       <c r="A72">
         <v>603</v>
       </c>
-      <c r="B72" t="e">
+      <c r="B72" t="str">
         <f>VLOOKUP($A72,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷71</v>
       </c>
       <c r="C72" t="s">
         <v>100</v>
       </c>
-      <c r="D72" t="e">
+      <c r="D72">
         <f>VLOOKUP($A72,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" t="e">
+        <v>228</v>
+      </c>
+      <c r="E72">
         <f>VLOOKUP($A72,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I72" t="e">
+        <v>230</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>603|[卷71](5_筆記/资治通鉴71.html)|魏紀三|228|230|||曹叡3年至5年</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="497">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1678,6 +1678,13 @@
   </si>
   <si>
     <t>曹叡3年至5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉曄勸諫表</t>
+  </si>
+  <si>
+    <t>曹叡6年至9年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1918,7 +1925,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2131,6 +2138,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>卷71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>卷72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2353,6 +2363,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,11 +2380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196852832"/>
-        <c:axId val="197231632"/>
+        <c:axId val="207200568"/>
+        <c:axId val="206890648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196852832"/>
+        <c:axId val="207200568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,12 +2496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197231632"/>
+        <c:crossAx val="206890648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197231632"/>
+        <c:axId val="206890648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196852832"/>
+        <c:crossAx val="207200568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3528,11 +3541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3650,19 +3663,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>623.49295774647885</v>
+        <v>621.44444444444446</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44642.492957746479</v>
+        <v>44640.444444444445</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>527.34383658952584</v>
+        <v>522.91872886156068</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44546.343836589527</v>
+        <v>44541.918728861558</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3670,7 +3683,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B72" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B73" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3713,19 +3726,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>715.18309859154931</v>
+        <v>712.83333333333337</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44734.183098591551</v>
+        <v>44731.833333333336</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>578.13136499301152</v>
+        <v>573.28008316604485</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44597.131364993009</v>
+        <v>44592.280083166042</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3776,19 +3789,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1081.943661971831</v>
+        <v>1078.3888888888889</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45100.943661971833</v>
+        <v>45097.388888888891</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>696.63559793447791</v>
+        <v>690.78990987650786</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44715.635597934481</v>
+        <v>44709.789909876505</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3839,19 +3852,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1613.7464788732393</v>
+        <v>1608.4444444444446</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45632.74647887324</v>
+        <v>45627.444444444445</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>839.68713627096247</v>
+        <v>832.64105783413834</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44858.687136270964</v>
+        <v>44851.641057834138</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3902,19 +3915,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2429.788732394366</v>
+        <v>2421.8055555555557</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46448.788732394365</v>
+        <v>46440.805555555555</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1108.8610368094364</v>
+        <v>1099.5562356479045</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45127.861036809438</v>
+        <v>45118.556235647906</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3965,19 +3978,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2695.6901408450703</v>
+        <v>2686.8333333333335</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46714.690140845072</v>
+        <v>46705.833333333336</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1152.8768947591238</v>
+        <v>1143.2027427117907</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45171.876894759123</v>
+        <v>45162.202742711794</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4028,19 +4041,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2695.6901408450703</v>
+        <v>2686.8333333333335</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46714.690140845072</v>
+        <v>46705.833333333336</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1152.8768947591238</v>
+        <v>1143.2027427117907</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45171.876894759123</v>
+        <v>45162.202742711794</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4115,7 +4128,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.169014084507042</v>
+        <v>9.1388888888888893</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4156,7 +4169,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.84645880672476059</v>
+        <v>0.83935590507473623</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6256,6 +6269,41 @@
       <c r="I72">
         <f t="shared" ref="I72" si="168">E72/H72</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>604</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>卷72</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ref="C73" si="169">D72+1</f>
+        <v>44729</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44735</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" ref="E73" si="170">D73-C73+1</f>
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="171">G72+1</f>
+        <v>231</v>
+      </c>
+      <c r="G73" s="2">
+        <v>234</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ref="H73" si="172">IF(F73*G73&lt;0,ABS(F73)+ABS(G73),G73-F73+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73" si="173">E73/H73</f>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -6272,7 +6320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8445,24 +8493,30 @@
       <c r="A73">
         <v>604</v>
       </c>
-      <c r="B73" t="e">
+      <c r="B73" t="str">
         <f>VLOOKUP($A73,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷72</v>
       </c>
       <c r="C73" t="s">
         <v>101</v>
       </c>
-      <c r="D73" t="e">
+      <c r="D73">
         <f>VLOOKUP($A73,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" t="e">
+        <v>231</v>
+      </c>
+      <c r="E73">
         <f>VLOOKUP($A73,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I73" t="e">
+        <v>234</v>
+      </c>
+      <c r="G73" t="s">
+        <v>495</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>604|[卷72](5_筆記/资治通鉴72.html)|魏紀四|231|234||劉曄勸諫表|曹叡6年至9年</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1685,6 +1685,13 @@
   </si>
   <si>
     <t>曹叡6年至9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹叡10年至12年</t>
+  </si>
+  <si>
+    <t>曹叡後宮十二等爵位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1932,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2141,6 +2148,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>卷72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>卷73</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,6 +2376,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,11 +2393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207200568"/>
-        <c:axId val="206890648"/>
+        <c:axId val="209203000"/>
+        <c:axId val="210124552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207200568"/>
+        <c:axId val="209203000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206890648"/>
+        <c:crossAx val="210124552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206890648"/>
+        <c:axId val="210124552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207200568"/>
+        <c:crossAx val="209203000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3541,11 +3554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3663,19 +3676,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>621.44444444444446</v>
+        <v>617.58904109589037</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44640.444444444445</v>
+        <v>44636.589041095889</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>522.91872886156068</v>
+        <v>517.56228821958985</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44541.918728861558</v>
+        <v>44536.562288219589</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3683,7 +3696,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B73" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B74" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3726,19 +3739,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>712.83333333333337</v>
+        <v>708.41095890410952</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44731.833333333336</v>
+        <v>44727.410958904111</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>573.28008316604485</v>
+        <v>567.40777344138019</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44592.280083166042</v>
+        <v>44586.40777344138</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3789,19 +3802,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1078.3888888888889</v>
+        <v>1071.6986301369861</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45097.388888888891</v>
+        <v>45090.698630136983</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>690.78990987650786</v>
+        <v>683.71390562555769</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44709.789909876505</v>
+        <v>44702.713905625555</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3852,19 +3865,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1608.4444444444446</v>
+        <v>1598.4657534246574</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45627.444444444445</v>
+        <v>45617.465753424658</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>832.64105783413834</v>
+        <v>824.11202233360052</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44851.641057834138</v>
+        <v>44843.112022333604</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3915,19 +3928,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2421.8055555555557</v>
+        <v>2406.7808219178082</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46440.805555555555</v>
+        <v>46425.780821917811</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1099.5562356479045</v>
+        <v>1088.2930940090894</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45118.556235647906</v>
+        <v>45107.293094009088</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3978,19 +3991,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2686.8333333333335</v>
+        <v>2670.1643835616437</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46705.833333333336</v>
+        <v>46689.164383561641</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1143.2027427117907</v>
+        <v>1131.492514534641</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45162.202742711794</v>
+        <v>45150.492514534642</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4041,19 +4054,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2686.8333333333335</v>
+        <v>2670.1643835616437</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46705.833333333336</v>
+        <v>46689.164383561641</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1143.2027427117907</v>
+        <v>1131.492514534641</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45162.202742711794</v>
+        <v>45150.492514534642</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4128,7 +4141,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.1388888888888893</v>
+        <v>9.0821917808219172</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4169,7 +4182,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.83935590507473623</v>
+        <v>0.83075808702983922</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6304,6 +6317,41 @@
       <c r="I73">
         <f t="shared" ref="I73" si="173">E73/H73</f>
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>605</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>卷73</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74" si="174">D73+1</f>
+        <v>44736</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44740</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" ref="E74" si="175">D74-C74+1</f>
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74" si="176">G73+1</f>
+        <v>235</v>
+      </c>
+      <c r="G74" s="2">
+        <v>237</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74" si="177">IF(F74*G74&lt;0,ABS(F74)+ABS(G74),G74-F74+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ref="I74" si="178">E74/H74</f>
+        <v>1.6666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8523,24 +8571,30 @@
       <c r="A74">
         <v>605</v>
       </c>
-      <c r="B74" t="e">
+      <c r="B74" t="str">
         <f>VLOOKUP($A74,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷73</v>
       </c>
       <c r="C74" t="s">
         <v>102</v>
       </c>
-      <c r="D74" t="e">
+      <c r="D74">
         <f>VLOOKUP($A74,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" t="e">
+        <v>235</v>
+      </c>
+      <c r="E74">
         <f>VLOOKUP($A74,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I74" t="e">
+        <v>237</v>
+      </c>
+      <c r="G74" t="s">
+        <v>498</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>605|[卷73](5_筆記/资治通鉴73.html)|魏紀五|235|237||曹叡後宮十二等爵位|曹叡10年至12年</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="501">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1692,6 +1692,14 @@
   </si>
   <si>
     <t>曹叡後宮十二等爵位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全氏世系圖、吳郡陸氏世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹叡13年至14年、曹芳至7年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1940,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2151,6 +2159,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>卷73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>卷74</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,6 +2390,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,11 +2407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209203000"/>
-        <c:axId val="210124552"/>
+        <c:axId val="357474640"/>
+        <c:axId val="357949488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209203000"/>
+        <c:axId val="357474640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2523,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210124552"/>
+        <c:crossAx val="357949488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210124552"/>
+        <c:axId val="357949488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209203000"/>
+        <c:crossAx val="357474640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3554,11 +3568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3676,19 +3690,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>617.58904109589037</v>
+        <v>616.5945945945947</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44636.589041095889</v>
+        <v>44635.594594594593</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>517.56228821958985</v>
+        <v>513.25937434663877</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44536.562288219589</v>
+        <v>44532.259374346642</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3696,7 +3710,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B74" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B75" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3739,19 +3753,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>708.41095890410952</v>
+        <v>707.27027027027032</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44727.410958904111</v>
+        <v>44726.270270270274</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>567.40777344138019</v>
+        <v>562.69045373796837</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44586.40777344138</v>
+        <v>44581.690453737967</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3802,19 +3816,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1071.6986301369861</v>
+        <v>1069.9729729729731</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45090.698630136983</v>
+        <v>45088.972972972973</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>683.71390562555769</v>
+        <v>678.02963898440396</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44702.713905625555</v>
+        <v>44697.029638984401</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3865,19 +3879,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1598.4657534246574</v>
+        <v>1595.8918918918921</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45617.465753424658</v>
+        <v>45614.891891891893</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>824.11202233360052</v>
+        <v>817.26051260331565</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44843.112022333604</v>
+        <v>44836.260512603316</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3928,19 +3942,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2406.7808219178082</v>
+        <v>2402.9054054054054</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46425.780821917811</v>
+        <v>46421.905405405407</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1088.2930940090894</v>
+        <v>1079.2452333773624</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45107.293094009088</v>
+        <v>45098.245233377362</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3991,19 +4005,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2670.1643835616437</v>
+        <v>2665.864864864865</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46689.164383561641</v>
+        <v>46684.864864864867</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1131.492514534641</v>
+        <v>1122.0855021831815</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45150.492514534642</v>
+        <v>45141.085502183181</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4054,19 +4068,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2670.1643835616437</v>
+        <v>2665.864864864865</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46689.164383561641</v>
+        <v>46684.864864864867</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1131.492514534641</v>
+        <v>1122.0855021831815</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45150.492514534642</v>
+        <v>45141.085502183181</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4141,7 +4155,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.0821917808219172</v>
+        <v>9.0675675675675684</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4182,7 +4196,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.83075808702983922</v>
+        <v>0.82385132318882626</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6352,6 +6366,41 @@
       <c r="I74">
         <f t="shared" ref="I74" si="178">E74/H74</f>
         <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>606</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>卷74</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75" si="179">D74+1</f>
+        <v>44741</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44748</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" ref="E75" si="180">D75-C75+1</f>
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75" si="181">G74+1</f>
+        <v>238</v>
+      </c>
+      <c r="G75" s="2">
+        <v>245</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75" si="182">IF(F75*G75&lt;0,ABS(F75)+ABS(G75),G75-F75+1)</f>
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75" si="183">E75/H75</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6368,7 +6417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8601,24 +8650,30 @@
       <c r="A75">
         <v>606</v>
       </c>
-      <c r="B75" t="e">
+      <c r="B75" t="str">
         <f>VLOOKUP($A75,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷74</v>
       </c>
       <c r="C75" t="s">
         <v>103</v>
       </c>
-      <c r="D75" t="e">
+      <c r="D75">
         <f>VLOOKUP($A75,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" t="e">
+        <v>238</v>
+      </c>
+      <c r="E75">
         <f>VLOOKUP($A75,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I75" t="e">
+        <v>245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>606|[卷74](5_筆記/资治通鉴74.html)|魏紀六|238|245|全氏世系圖、吳郡陸氏世系圖||曹叡13年至14年、曹芳至7年</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="504">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1700,6 +1700,18 @@
   </si>
   <si>
     <t>曹叡13年至14年、曹芳至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹芳8年至14年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜維十一次北伐表、壽春三叛表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太山羊氏世系、太原王氏世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1940,7 +1952,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2162,6 +2174,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>卷74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>卷75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2393,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,11 +2425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357474640"/>
-        <c:axId val="357949488"/>
+        <c:axId val="213275600"/>
+        <c:axId val="209976352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357474640"/>
+        <c:axId val="213275600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,12 +2541,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357949488"/>
+        <c:crossAx val="209976352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357949488"/>
+        <c:axId val="209976352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357474640"/>
+        <c:crossAx val="213275600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3568,11 +3586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3690,19 +3708,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>616.5945945945947</v>
+        <v>615.62666666666667</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44635.594594594593</v>
+        <v>44634.626666666663</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>513.25937434663877</v>
+        <v>508.27257491950115</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44532.259374346642</v>
+        <v>44527.272574919501</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3710,7 +3728,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B75" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B76" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3753,19 +3771,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>707.27027027027032</v>
+        <v>706.16</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44726.270270270274</v>
+        <v>44725.16</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>562.69045373796837</v>
+        <v>557.22338470308068</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44581.690453737967</v>
+        <v>44576.22338470308</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3816,19 +3834,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1069.9729729729731</v>
+        <v>1068.2933333333333</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45088.972972972973</v>
+        <v>45087.293333333335</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>678.02963898440396</v>
+        <v>671.44194086476637</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44697.029638984401</v>
+        <v>44690.441940864766</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3879,19 +3897,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1595.8918918918921</v>
+        <v>1593.3866666666665</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45614.891891891893</v>
+        <v>45612.386666666665</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>817.26051260331565</v>
+        <v>809.32005508851546</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44836.260512603316</v>
+        <v>44828.320055088516</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3942,19 +3960,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2402.9054054054054</v>
+        <v>2399.1333333333332</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46421.905405405407</v>
+        <v>46418.133333333331</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1079.2452333773624</v>
+        <v>1068.7593469414871</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45098.245233377362</v>
+        <v>45087.759346941486</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -4005,19 +4023,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2665.864864864865</v>
+        <v>2661.68</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46684.864864864867</v>
+        <v>46680.68</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1122.0855021831815</v>
+        <v>1111.1833820872562</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45141.085502183181</v>
+        <v>45130.183382087256</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4068,19 +4086,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2665.864864864865</v>
+        <v>2661.68</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46684.864864864867</v>
+        <v>46680.68</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1122.0855021831815</v>
+        <v>1111.1833820872562</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45141.085502183181</v>
+        <v>45130.183382087256</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4155,7 +4173,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.0675675675675684</v>
+        <v>9.0533333333333328</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4196,7 +4214,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.82385132318882626</v>
+        <v>0.81584682972632605</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6401,6 +6419,41 @@
       <c r="I75">
         <f t="shared" ref="I75" si="183">E75/H75</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>607</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>卷75</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ref="C76" si="184">D75+1</f>
+        <v>44749</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" ref="E76" si="185">D76-C76+1</f>
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="186">G75+1</f>
+        <v>246</v>
+      </c>
+      <c r="G76" s="2">
+        <v>252</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76" si="187">IF(F76*G76&lt;0,ABS(F76)+ABS(G76),G76-F76+1)</f>
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76" si="188">E76/H76</f>
+        <v>1.1428571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -6417,7 +6470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8680,24 +8733,33 @@
       <c r="A76">
         <v>607</v>
       </c>
-      <c r="B76" t="e">
+      <c r="B76" t="str">
         <f>VLOOKUP($A76,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷75</v>
       </c>
       <c r="C76" t="s">
         <v>104</v>
       </c>
-      <c r="D76" t="e">
+      <c r="D76">
         <f>VLOOKUP($A76,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" t="e">
+        <v>246</v>
+      </c>
+      <c r="E76">
         <f>VLOOKUP($A76,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I76" t="e">
+        <v>252</v>
+      </c>
+      <c r="F76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="s">
+        <v>502</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>607|[卷75](5_筆記/资治通鉴75.html)|魏紀七|246|252|太山羊氏世系、太原王氏世系|姜維十一次北伐表、壽春三叛表|曹芳8年至14年</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1198,10 +1198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漢武帝17年至23年至31年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漢武帝32年至42年</t>
   </si>
   <si>
@@ -1712,6 +1708,10 @@
   </si>
   <si>
     <t>太山羊氏世系、太原王氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝23年至31年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2425,11 +2424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213275600"/>
-        <c:axId val="209976352"/>
+        <c:axId val="194268520"/>
+        <c:axId val="194268912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213275600"/>
+        <c:axId val="194268520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2541,12 +2539,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209976352"/>
+        <c:crossAx val="194268912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209976352"/>
+        <c:axId val="194268912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2659,7 +2656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213275600"/>
+        <c:crossAx val="194268520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6469,8 +6466,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6497,10 +6494,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>368</v>
@@ -6529,7 +6526,7 @@
         <v>-369</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>348</v>
@@ -6559,10 +6556,10 @@
         <v>-321</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>347</v>
@@ -6592,7 +6589,7 @@
         <v>-298</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>349</v>
@@ -6622,7 +6619,7 @@
         <v>-273</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>350</v>
@@ -6652,7 +6649,7 @@
         <v>-256</v>
       </c>
       <c r="F6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>351</v>
@@ -6682,7 +6679,7 @@
         <v>-228</v>
       </c>
       <c r="G7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>352</v>
@@ -6712,7 +6709,7 @@
         <v>-209</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>353</v>
@@ -6769,10 +6766,10 @@
         <v>-205</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>362</v>
@@ -6802,7 +6799,7 @@
         <v>-203</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>355</v>
@@ -6832,7 +6829,7 @@
         <v>-200</v>
       </c>
       <c r="G12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>356</v>
@@ -6889,10 +6886,10 @@
         <v>-178</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>358</v>
@@ -6922,7 +6919,7 @@
         <v>-170</v>
       </c>
       <c r="G15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>359</v>
@@ -6952,7 +6949,7 @@
         <v>-155</v>
       </c>
       <c r="G16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>360</v>
@@ -6982,10 +6979,10 @@
         <v>-141</v>
       </c>
       <c r="F17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>361</v>
@@ -7015,10 +7012,10 @@
         <v>-134</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>363</v>
@@ -7048,7 +7045,7 @@
         <v>-125</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>364</v>
@@ -7078,10 +7075,10 @@
         <v>-119</v>
       </c>
       <c r="F20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" t="s">
         <v>439</v>
-      </c>
-      <c r="G20" t="s">
-        <v>440</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>365</v>
@@ -7111,14 +7108,14 @@
         <v>-110</v>
       </c>
       <c r="G21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>312|[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝17年至23年至31年</v>
+        <v>312|[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝23年至31年</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -7141,7 +7138,7 @@
         <v>-99</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -7168,10 +7165,10 @@
         <v>-87</v>
       </c>
       <c r="G23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -7198,10 +7195,10 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -7228,13 +7225,13 @@
         <v>-68</v>
       </c>
       <c r="F25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G25" t="s">
         <v>401</v>
       </c>
-      <c r="G25" t="s">
-        <v>402</v>
-      </c>
       <c r="H25" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -7261,10 +7258,10 @@
         <v>-62</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -7291,7 +7288,7 @@
         <v>-59</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -7318,13 +7315,13 @@
         <v>-49</v>
       </c>
       <c r="F28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -7351,10 +7348,10 @@
         <v>-42</v>
       </c>
       <c r="G29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -7381,10 +7378,10 @@
         <v>-33</v>
       </c>
       <c r="F30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -7411,10 +7408,10 @@
         <v>-23</v>
       </c>
       <c r="F31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -7441,13 +7438,13 @@
         <v>-14</v>
       </c>
       <c r="F32" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32" t="s">
         <v>409</v>
       </c>
-      <c r="G32" t="s">
-        <v>410</v>
-      </c>
       <c r="H32" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -7474,10 +7471,10 @@
         <v>-8</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -7504,10 +7501,10 @@
         <v>-6</v>
       </c>
       <c r="F34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -7534,10 +7531,10 @@
         <v>-3</v>
       </c>
       <c r="G35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -7564,13 +7561,13 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -7597,10 +7594,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -7627,10 +7624,10 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -7657,10 +7654,10 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -7687,10 +7684,10 @@
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -7717,7 +7714,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -7744,10 +7741,10 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -7774,10 +7771,10 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -7804,10 +7801,10 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -7834,10 +7831,10 @@
         <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -7864,13 +7861,13 @@
         <v>75</v>
       </c>
       <c r="F46" t="s">
+        <v>444</v>
+      </c>
+      <c r="G46" t="s">
+        <v>443</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="G46" t="s">
-        <v>444</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -7897,10 +7894,10 @@
         <v>84</v>
       </c>
       <c r="F47" t="s">
+        <v>446</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
@@ -7927,13 +7924,13 @@
         <v>91</v>
       </c>
       <c r="F48" t="s">
+        <v>449</v>
+      </c>
+      <c r="G48" t="s">
         <v>450</v>
       </c>
-      <c r="G48" t="s">
-        <v>451</v>
-      </c>
       <c r="H48" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
@@ -7960,10 +7957,10 @@
         <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
@@ -7990,7 +7987,7 @@
         <v>115</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -8017,13 +8014,13 @@
         <v>124</v>
       </c>
       <c r="F51" t="s">
+        <v>454</v>
+      </c>
+      <c r="G51" t="s">
         <v>455</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>457</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
@@ -8050,10 +8047,10 @@
         <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
@@ -8080,7 +8077,7 @@
         <v>145</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
@@ -8107,10 +8104,10 @@
         <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
@@ -8137,13 +8134,13 @@
         <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
@@ -8170,7 +8167,7 @@
         <v>166</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
@@ -8197,10 +8194,10 @@
         <v>171</v>
       </c>
       <c r="F57" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
@@ -8227,7 +8224,7 @@
         <v>180</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
@@ -8254,10 +8251,10 @@
         <v>187</v>
       </c>
       <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
@@ -8284,10 +8281,10 @@
         <v>190</v>
       </c>
       <c r="G60" t="s">
+        <v>472</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
@@ -8314,10 +8311,10 @@
         <v>193</v>
       </c>
       <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
@@ -8344,10 +8341,10 @@
         <v>195</v>
       </c>
       <c r="F62" t="s">
+        <v>476</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
@@ -8374,13 +8371,13 @@
         <v>198</v>
       </c>
       <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>478</v>
+      </c>
+      <c r="H63" s="14" t="s">
         <v>480</v>
-      </c>
-      <c r="G63" t="s">
-        <v>479</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>481</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
@@ -8407,7 +8404,7 @@
         <v>200</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
@@ -8434,10 +8431,10 @@
         <v>205</v>
       </c>
       <c r="F65" t="s">
+        <v>482</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>484</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
@@ -8464,7 +8461,7 @@
         <v>208</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
@@ -8491,7 +8488,7 @@
         <v>213</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I130" si="1">A67&amp;"|"&amp;"["&amp;B67&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67&amp;"|"&amp;G67&amp;"|"&amp;H67</f>
@@ -8518,10 +8515,10 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
+        <v>486</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
@@ -8548,7 +8545,7 @@
         <v>219</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
@@ -8575,7 +8572,7 @@
         <v>222</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
@@ -8602,10 +8599,10 @@
         <v>227</v>
       </c>
       <c r="G71" t="s">
+        <v>491</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
@@ -8632,7 +8629,7 @@
         <v>230</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
@@ -8659,10 +8656,10 @@
         <v>234</v>
       </c>
       <c r="G73" t="s">
+        <v>494</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>495</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>496</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
@@ -8689,10 +8686,10 @@
         <v>237</v>
       </c>
       <c r="G74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
@@ -8719,10 +8716,10 @@
         <v>245</v>
       </c>
       <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>499</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
@@ -8749,13 +8746,13 @@
         <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G76" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="506">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1712,6 +1712,14 @@
   </si>
   <si>
     <t>漢武帝23年至31年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅邪諸葛世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹芳15年至16年、曹髦至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,6 +1882,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1951,7 +1960,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2176,6 +2185,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>卷75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>卷76</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2410,6 +2422,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,11 +2439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194268520"/>
-        <c:axId val="194268912"/>
+        <c:axId val="210867936"/>
+        <c:axId val="294053688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194268520"/>
+        <c:axId val="210867936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,6 +2489,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2539,12 +2555,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194268912"/>
+        <c:crossAx val="294053688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194268912"/>
+        <c:axId val="294053688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,6 +2606,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2656,7 +2673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194268520"/>
+        <c:crossAx val="210867936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3583,11 +3600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3705,19 +3722,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>615.62666666666667</v>
+        <v>613.78947368421063</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44634.626666666663</v>
+        <v>44632.789473684214</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>508.27257491950115</v>
+        <v>510.90546700589636</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44527.272574919501</v>
+        <v>44529.905467005898</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3725,7 +3742,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B76" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B77" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3768,19 +3785,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>706.16</v>
+        <v>704.0526315789474</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44725.16</v>
+        <v>44723.052631578947</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>557.22338470308068</v>
+        <v>560.10984585076596</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44576.22338470308</v>
+        <v>44579.109845850769</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3831,19 +3848,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1068.2933333333333</v>
+        <v>1065.1052631578948</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45087.293333333335</v>
+        <v>45084.105263157893</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>671.44194086476637</v>
+        <v>674.92006315546178</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44690.441940864766</v>
+        <v>44693.920063155463</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3894,19 +3911,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1593.3866666666665</v>
+        <v>1588.6315789473686</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45612.386666666665</v>
+        <v>45607.631578947367</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>809.32005508851546</v>
+        <v>813.51239690184457</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44828.320055088516</v>
+        <v>44832.512396901846</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3957,19 +3974,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2399.1333333333332</v>
+        <v>2391.9736842105267</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46418.133333333331</v>
+        <v>46410.973684210527</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1068.7593469414871</v>
+        <v>1074.2956047796536</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45087.759346941486</v>
+        <v>45093.295604779654</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -4020,19 +4037,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2661.68</v>
+        <v>2653.7368421052633</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46680.68</v>
+        <v>46672.736842105267</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1111.1833820872562</v>
+        <v>1116.9393997785407</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45130.183382087256</v>
+        <v>45135.939399778537</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4083,19 +4100,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2661.68</v>
+        <v>2653.7368421052633</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46680.68</v>
+        <v>46672.736842105267</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1111.1833820872562</v>
+        <v>1116.9393997785407</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45130.183382087256</v>
+        <v>45135.939399778537</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4170,7 +4187,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.0533333333333328</v>
+        <v>9.026315789473685</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4211,7 +4228,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.81584682972632605</v>
+        <v>0.8200729807478272</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6451,6 +6468,41 @@
       <c r="I76">
         <f t="shared" ref="I76" si="188">E76/H76</f>
         <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>608</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>卷76</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ref="C77" si="189">D76+1</f>
+        <v>44757</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44763</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" ref="E77" si="190">D77-C77+1</f>
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="191">G76+1</f>
+        <v>253</v>
+      </c>
+      <c r="G77" s="2">
+        <v>255</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77" si="192">IF(F77*G77&lt;0,ABS(F77)+ABS(G77),G77-F77+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77" si="193">E77/H77</f>
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6466,8 +6518,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8763,24 +8815,30 @@
       <c r="A77">
         <v>608</v>
       </c>
-      <c r="B77" t="e">
+      <c r="B77" t="str">
         <f>VLOOKUP($A77,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷76</v>
       </c>
       <c r="C77" t="s">
         <v>105</v>
       </c>
-      <c r="D77" t="e">
+      <c r="D77">
         <f>VLOOKUP($A77,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" t="e">
+        <v>253</v>
+      </c>
+      <c r="E77">
         <f>VLOOKUP($A77,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I77" t="e">
+        <v>255</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>608|[卷76](5_筆記/资治通鉴76.html)|魏紀八|253|255|琅邪諸葛世系||曹芳15年至16年、曹髦至2年</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="508">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,6 +1720,14 @@
   </si>
   <si>
     <t>曹芳15年至16年、曹髦至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權托孤亂政圖、琅邪王氏世系、琅邪太原王氏源流圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹髦3年至7年、曹奐至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1960,7 +1968,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2188,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>卷76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>卷77</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2425,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,11 +2453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210867936"/>
-        <c:axId val="294053688"/>
+        <c:axId val="224205216"/>
+        <c:axId val="166910512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210867936"/>
+        <c:axId val="224205216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,12 +2569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294053688"/>
+        <c:crossAx val="166910512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294053688"/>
+        <c:axId val="166910512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210867936"/>
+        <c:crossAx val="224205216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3600,11 +3614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3722,19 +3736,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>613.78947368421063</v>
+        <v>612.88311688311694</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44632.789473684214</v>
+        <v>44631.883116883117</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>510.90546700589636</v>
+        <v>505.17831181639247</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44529.905467005898</v>
+        <v>44524.178311816395</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3742,7 +3756,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B77" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B78" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3785,19 +3799,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>704.0526315789474</v>
+        <v>703.01298701298697</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44723.052631578947</v>
+        <v>44722.012987012989</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>560.10984585076596</v>
+        <v>553.83111873289897</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44579.109845850769</v>
+        <v>44572.831118732902</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3848,19 +3862,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1065.1052631578948</v>
+        <v>1063.5324675324675</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45084.105263157893</v>
+        <v>45082.532467532466</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>674.92006315546178</v>
+        <v>667.35433487141415</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44693.920063155463</v>
+        <v>44686.354334871416</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3911,19 +3925,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1588.6315789473686</v>
+        <v>1586.2857142857142</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45607.631578947367</v>
+        <v>45605.285714285717</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>813.51239690184457</v>
+        <v>804.39307435290743</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44832.512396901846</v>
+        <v>44823.393074352905</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3974,19 +3988,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2391.9736842105267</v>
+        <v>2388.4415584415583</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46410.973684210527</v>
+        <v>46407.441558441555</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1074.2956047796536</v>
+        <v>1062.2529510103918</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45093.295604779654</v>
+        <v>45081.252951010392</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -4037,19 +4051,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2653.7368421052633</v>
+        <v>2649.818181818182</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46672.736842105267</v>
+        <v>46668.818181818184</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1116.9393997785407</v>
+        <v>1104.4187170046976</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45135.939399778537</v>
+        <v>45123.418717004701</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -4100,19 +4114,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2653.7368421052633</v>
+        <v>2649.818181818182</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46672.736842105267</v>
+        <v>46668.818181818184</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1116.9393997785407</v>
+        <v>1104.4187170046976</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45135.939399778537</v>
+        <v>45123.418717004701</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -4187,7 +4201,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.026315789473685</v>
+        <v>9.0129870129870131</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -4228,7 +4242,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.8200729807478272</v>
+        <v>0.81088011527510828</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -6503,6 +6517,41 @@
       <c r="I77">
         <f t="shared" ref="I77" si="193">E77/H77</f>
         <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>609</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>卷77</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" ref="C78" si="194">D77+1</f>
+        <v>44764</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44771</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" ref="E78" si="195">D78-C78+1</f>
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78" si="196">G77+1</f>
+        <v>256</v>
+      </c>
+      <c r="G78" s="2">
+        <v>261</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78" si="197">IF(F78*G78&lt;0,ABS(F78)+ABS(G78),G78-F78+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78" si="198">E78/H78</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6519,7 +6568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8845,24 +8894,30 @@
       <c r="A78">
         <v>609</v>
       </c>
-      <c r="B78" t="e">
+      <c r="B78" t="str">
         <f>VLOOKUP($A78,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷77</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
-      <c r="D78" t="e">
+      <c r="D78">
         <f>VLOOKUP($A78,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" t="e">
+        <v>256</v>
+      </c>
+      <c r="E78">
         <f>VLOOKUP($A78,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" t="e">
+        <v>261</v>
+      </c>
+      <c r="F78" t="s">
+        <v>506</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>609|[卷77](5_筆記/资治通鉴77.html)|魏紀九|256|261|孫權托孤亂政圖、琅邪王氏世系、琅邪太原王氏源流圖||曹髦3年至7年、曹奐至2年</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="508">
   <si>
     <t xml:space="preserve">索引號</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t xml:space="preserve">晉紀一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹奐6年至7年、司馬炎至7年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀二</t>
@@ -1677,16 +1680,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1699,14 +1698,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1810,7 +1801,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1844,7 +1835,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1872,7 +1863,7 @@
             <a:solidFill>
               <a:srgbClr val="4f81bd"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="19080">
+            <a:ln w="19080">
               <a:solidFill>
                 <a:srgbClr val="4f81bd"/>
               </a:solidFill>
@@ -1890,7 +1881,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1910,12 +1901,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2166,16 +2152,22 @@
                 <c:pt idx="77">
                   <c:v>2.33333333333333</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>164.775735294118</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98971055"/>
-        <c:axId val="67073672"/>
+        <c:axId val="37135447"/>
+        <c:axId val="47779490"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98971055"/>
+        <c:axId val="37135447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,12 +2212,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2251,12 +2243,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67073672"/>
+        <c:crossAx val="47779490"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67073672"/>
+        <c:axId val="47779490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2293,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2332,13 +2324,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98971055"/>
+        <c:crossAx val="37135447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2371,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>671040</xdr:colOff>
+      <xdr:colOff>670680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2381,8 +2373,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6835320" y="1995480"/>
-        <a:ext cx="4150080" cy="2742840"/>
+        <a:off x="6835320" y="1995120"/>
+        <a:ext cx="4150080" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2400,12 +2392,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,66 +2405,65 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2490,7 +2481,7 @@
       <c r="D2" s="1" t="n">
         <v>44042</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="0" t="n">
         <f aca="false">D2-C2+1</f>
         <v>24</v>
       </c>
@@ -2523,19 +2514,19 @@
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>611.128205128205</v>
+        <v>-37491.8</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44630.1282051282</v>
+        <v>6527.2</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>507.627375782915</v>
+        <v>2601.65360470217</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>44526.6273757829</v>
+        <v>46620.6536047022</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2543,7 @@
       <c r="D3" s="1" t="n">
         <v>44071</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="0" t="n">
         <f aca="false">D3-C3+1</f>
         <v>30</v>
       </c>
@@ -2586,19 +2577,19 @@
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>701</v>
+        <v>-43005.3</v>
       </c>
       <c r="P3" s="1" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44720</v>
+        <v>1013.7</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>556.516047607915</v>
+        <v>2852.21414448087</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>44575.5160476079</v>
+        <v>46871.2141444809</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,7 +2606,7 @@
       <c r="D4" s="1" t="n">
         <v>44099</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <f aca="false">D4-C4+1</f>
         <v>28</v>
       </c>
@@ -2649,19 +2640,19 @@
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1060.48717948718</v>
+        <v>-65059.3</v>
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45079.4871794872</v>
+        <v>-21040.3</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>670.589615199581</v>
+        <v>3436.8554039645</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>44689.5896151996</v>
+        <v>47455.8554039645</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2669,7 @@
       <c r="D5" s="1" t="n">
         <v>44121</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="0" t="n">
         <f aca="false">D5-C5+1</f>
         <v>23</v>
       </c>
@@ -2712,19 +2703,19 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1581.74358974359</v>
+        <v>-97037.6</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>45600.7435897436</v>
+        <v>-53018.6</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>808.292707506664</v>
+        <v>4142.60092434117</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>44827.2927075067</v>
+        <v>48161.6009243412</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2732,7 @@
       <c r="D6" s="1" t="n">
         <v>44145</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="0" t="n">
         <f aca="false">D6-C6+1</f>
         <v>24</v>
       </c>
@@ -2775,19 +2766,19 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>2381.60256410256</v>
+        <v>-146107.75</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>46400.6025641026</v>
+        <v>-102088.75</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>1067.40266817916</v>
+        <v>5470.57178516829</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>45086.4026681792</v>
+        <v>49489.5717851683</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2795,7 @@
       <c r="D7" s="1" t="n">
         <v>44171</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="0" t="n">
         <f aca="false">D7-C7+1</f>
         <v>26</v>
       </c>
@@ -2838,19 +2829,19 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>2642.23076923077</v>
+        <v>-162096.9</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>46661.2307692308</v>
+        <v>-118077.9</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>1109.7728504275</v>
+        <v>5687.72425297649</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>45128.7728504275</v>
+        <v>49706.7242529765</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,7 +2858,7 @@
       <c r="D8" s="1" t="n">
         <v>44187</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="0" t="n">
         <f aca="false">D8-C8+1</f>
         <v>16</v>
       </c>
@@ -2889,10 +2880,10 @@
       <c r="K8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="6" t="n">
         <v>294</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="6" t="n">
         <v>959</v>
       </c>
       <c r="N8" s="0" t="n">
@@ -2901,19 +2892,19 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>2642.23076923077</v>
+        <v>-162096.9</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>46661.2307692308</v>
+        <v>-118077.9</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>1109.7728504275</v>
+        <v>5687.72425297649</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>45128.7728504275</v>
+        <v>49706.7242529765</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,7 +2921,7 @@
       <c r="D9" s="1" t="n">
         <v>44202</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="0" t="n">
         <f aca="false">D9-C9+1</f>
         <v>15</v>
       </c>
@@ -2964,7 +2955,7 @@
       <c r="D10" s="1" t="n">
         <v>44207</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="0" t="n">
         <f aca="false">D10-C10+1</f>
         <v>5</v>
       </c>
@@ -2988,7 +2979,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>8.98717948717949</v>
+        <v>-551.35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,7 +2996,7 @@
       <c r="D11" s="1" t="n">
         <v>44212</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="0" t="n">
         <f aca="false">D11-C11+1</f>
         <v>6</v>
       </c>
@@ -3029,7 +3020,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>0.814811197083331</v>
+        <v>4.17600899631167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3037,7 @@
       <c r="D12" s="1" t="n">
         <v>44220</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="0" t="n">
         <f aca="false">D12-C12+1</f>
         <v>8</v>
       </c>
@@ -3080,7 +3071,7 @@
       <c r="D13" s="1" t="n">
         <v>44229</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="0" t="n">
         <f aca="false">D13-C13+1</f>
         <v>9</v>
       </c>
@@ -3114,7 +3105,7 @@
       <c r="D14" s="1" t="n">
         <v>44238</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14-C14+1</f>
         <v>10</v>
       </c>
@@ -3148,7 +3139,7 @@
       <c r="D15" s="1" t="n">
         <v>44247</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15-C15+1</f>
         <v>9</v>
       </c>
@@ -3182,7 +3173,7 @@
       <c r="D16" s="1" t="n">
         <v>44255</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="0" t="n">
         <f aca="false">D16-C16+1</f>
         <v>8</v>
       </c>
@@ -3216,7 +3207,7 @@
       <c r="D17" s="1" t="n">
         <v>44264</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="0" t="n">
         <f aca="false">D17-C17+1</f>
         <v>9</v>
       </c>
@@ -3250,7 +3241,7 @@
       <c r="D18" s="1" t="n">
         <v>44271</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="0" t="n">
         <f aca="false">D18-C18+1</f>
         <v>7</v>
       </c>
@@ -3284,7 +3275,7 @@
       <c r="D19" s="1" t="n">
         <v>44278</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="0" t="n">
         <f aca="false">D19-C19+1</f>
         <v>7</v>
       </c>
@@ -3292,7 +3283,7 @@
         <f aca="false">G18+1</f>
         <v>-133</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="0" t="n">
         <v>-125</v>
       </c>
       <c r="H19" s="0" t="n">
@@ -3318,7 +3309,7 @@
       <c r="D20" s="1" t="n">
         <v>44287</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="0" t="n">
         <f aca="false">D20-C20+1</f>
         <v>9</v>
       </c>
@@ -3326,7 +3317,7 @@
         <f aca="false">G19+1</f>
         <v>-124</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="0" t="n">
         <v>-119</v>
       </c>
       <c r="H20" s="0" t="n">
@@ -3352,7 +3343,7 @@
       <c r="D21" s="1" t="n">
         <v>44293</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="0" t="n">
         <f aca="false">D21-C21+1</f>
         <v>7</v>
       </c>
@@ -3360,7 +3351,7 @@
         <f aca="false">G20+1</f>
         <v>-118</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="0" t="n">
         <v>-110</v>
       </c>
       <c r="H21" s="0" t="n">
@@ -3386,7 +3377,7 @@
       <c r="D22" s="1" t="n">
         <v>44300</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="0" t="n">
         <f aca="false">D22-C22+1</f>
         <v>7</v>
       </c>
@@ -3420,7 +3411,7 @@
       <c r="D23" s="1" t="n">
         <v>44307</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="0" t="n">
         <f aca="false">D23-C23+1</f>
         <v>8</v>
       </c>
@@ -3428,7 +3419,7 @@
         <f aca="false">G22+1</f>
         <v>-98</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="0" t="n">
         <v>-87</v>
       </c>
       <c r="H23" s="0" t="n">
@@ -3454,7 +3445,7 @@
       <c r="D24" s="1" t="n">
         <v>44316</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="0" t="n">
         <f aca="false">D24-C24+1</f>
         <v>10</v>
       </c>
@@ -3488,7 +3479,7 @@
       <c r="D25" s="1" t="n">
         <v>44325</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="0" t="n">
         <f aca="false">D25-C25+1</f>
         <v>9</v>
       </c>
@@ -3522,7 +3513,7 @@
       <c r="D26" s="1" t="n">
         <v>44330</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="0" t="n">
         <f aca="false">D26-C26+1</f>
         <v>6</v>
       </c>
@@ -3556,7 +3547,7 @@
       <c r="D27" s="1" t="n">
         <v>44333</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="0" t="n">
         <f aca="false">D27-C27+1</f>
         <v>3</v>
       </c>
@@ -3590,7 +3581,7 @@
       <c r="D28" s="1" t="n">
         <v>44340</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="0" t="n">
         <f aca="false">D28-C28+1</f>
         <v>7</v>
       </c>
@@ -3598,7 +3589,7 @@
         <f aca="false">G27+1</f>
         <v>-58</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="0" t="n">
         <v>-49</v>
       </c>
       <c r="H28" s="0" t="n">
@@ -3624,7 +3615,7 @@
       <c r="D29" s="1" t="n">
         <v>44345</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="0" t="n">
         <f aca="false">D29-C29+1</f>
         <v>5</v>
       </c>
@@ -3632,7 +3623,7 @@
         <f aca="false">G28+1</f>
         <v>-48</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="0" t="n">
         <v>-42</v>
       </c>
       <c r="H29" s="0" t="n">
@@ -3658,7 +3649,7 @@
       <c r="D30" s="1" t="n">
         <v>44352</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="0" t="n">
         <f aca="false">D30-C30+1</f>
         <v>7</v>
       </c>
@@ -3666,7 +3657,7 @@
         <f aca="false">G29+1</f>
         <v>-41</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="0" t="n">
         <v>-33</v>
       </c>
       <c r="H30" s="0" t="n">
@@ -3692,7 +3683,7 @@
       <c r="D31" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="0" t="n">
         <f aca="false">D31-C31+1</f>
         <v>9</v>
       </c>
@@ -3700,7 +3691,7 @@
         <f aca="false">G30+1</f>
         <v>-32</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="0" t="n">
         <v>-23</v>
       </c>
       <c r="H31" s="0" t="n">
@@ -3726,7 +3717,7 @@
       <c r="D32" s="1" t="n">
         <v>44368</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="0" t="n">
         <f aca="false">D32-C32+1</f>
         <v>8</v>
       </c>
@@ -3734,7 +3725,7 @@
         <f aca="false">G31+1</f>
         <v>-22</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="0" t="n">
         <v>-14</v>
       </c>
       <c r="H32" s="0" t="n">
@@ -3760,7 +3751,7 @@
       <c r="D33" s="1" t="n">
         <v>44373</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="0" t="n">
         <f aca="false">D33-C33+1</f>
         <v>5</v>
       </c>
@@ -3768,7 +3759,7 @@
         <f aca="false">G32+1</f>
         <v>-13</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="0" t="n">
         <v>-8</v>
       </c>
       <c r="H33" s="0" t="n">
@@ -3794,7 +3785,7 @@
       <c r="D34" s="1" t="n">
         <v>44377</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="0" t="n">
         <f aca="false">D34-C34+1</f>
         <v>5</v>
       </c>
@@ -3802,7 +3793,7 @@
         <f aca="false">G33+1</f>
         <v>-7</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="0" t="n">
         <v>-6</v>
       </c>
       <c r="H34" s="0" t="n">
@@ -3828,7 +3819,7 @@
       <c r="D35" s="1" t="n">
         <v>44380</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="0" t="n">
         <f aca="false">D35-C35+1</f>
         <v>3</v>
       </c>
@@ -3836,7 +3827,7 @@
         <f aca="false">G34+1</f>
         <v>-5</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="0" t="n">
         <v>-3</v>
       </c>
       <c r="H35" s="0" t="n">
@@ -3862,7 +3853,7 @@
       <c r="D36" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="0" t="n">
         <f aca="false">D36-C36+1</f>
         <v>5</v>
       </c>
@@ -3870,7 +3861,7 @@
         <f aca="false">G35+1</f>
         <v>-2</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
@@ -3896,7 +3887,7 @@
       <c r="D37" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="0" t="n">
         <f aca="false">D37-C37+1</f>
         <v>5</v>
       </c>
@@ -3904,7 +3895,7 @@
         <f aca="false">G36+1</f>
         <v>3</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H37" s="0" t="n">
@@ -3930,7 +3921,7 @@
       <c r="D38" s="1" t="n">
         <v>44396</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="0" t="n">
         <f aca="false">D38-C38+1</f>
         <v>6</v>
       </c>
@@ -3938,7 +3929,7 @@
         <f aca="false">G37+1</f>
         <v>9</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H38" s="0" t="n">
@@ -3964,7 +3955,7 @@
       <c r="D39" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="0" t="n">
         <f aca="false">D39-C39+1</f>
         <v>7</v>
       </c>
@@ -3972,7 +3963,7 @@
         <f aca="false">G38+1</f>
         <v>15</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H39" s="0" t="n">
@@ -3998,7 +3989,7 @@
       <c r="D40" s="1" t="n">
         <v>44409</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="0" t="n">
         <f aca="false">D40-C40+1</f>
         <v>6</v>
       </c>
@@ -4006,7 +3997,7 @@
         <f aca="false">G39+1</f>
         <v>23</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="0" t="n">
         <v>24</v>
       </c>
       <c r="H40" s="0" t="n">
@@ -4032,7 +4023,7 @@
       <c r="D41" s="1" t="n">
         <v>44416</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="0" t="n">
         <f aca="false">D41-C41+1</f>
         <v>7</v>
       </c>
@@ -4040,7 +4031,7 @@
         <f aca="false">G40+1</f>
         <v>25</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="0" t="n">
         <v>26</v>
       </c>
       <c r="H41" s="0" t="n">
@@ -4066,7 +4057,7 @@
       <c r="D42" s="1" t="n">
         <v>44424</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="0" t="n">
         <f aca="false">D42-C42+1</f>
         <v>8</v>
       </c>
@@ -4074,7 +4065,7 @@
         <f aca="false">G41+1</f>
         <v>27</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="0" t="n">
         <v>29</v>
       </c>
       <c r="H42" s="0" t="n">
@@ -4100,7 +4091,7 @@
       <c r="D43" s="1" t="n">
         <v>44430</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="0" t="n">
         <f aca="false">D43-C43+1</f>
         <v>6</v>
       </c>
@@ -4108,7 +4099,7 @@
         <f aca="false">G42+1</f>
         <v>30</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="0" t="n">
         <v>35</v>
       </c>
       <c r="H43" s="0" t="n">
@@ -4134,7 +4125,7 @@
       <c r="D44" s="1" t="n">
         <v>44438</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="0" t="n">
         <f aca="false">D44-C44+1</f>
         <v>8</v>
       </c>
@@ -4142,7 +4133,7 @@
         <f aca="false">G43+1</f>
         <v>36</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="0" t="n">
         <v>46</v>
       </c>
       <c r="H44" s="0" t="n">
@@ -4168,7 +4159,7 @@
       <c r="D45" s="1" t="n">
         <v>44446</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="0" t="n">
         <f aca="false">D45-C45+1</f>
         <v>8</v>
       </c>
@@ -4176,7 +4167,7 @@
         <f aca="false">G44+1</f>
         <v>47</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="0" t="n">
         <v>60</v>
       </c>
       <c r="H45" s="0" t="n">
@@ -4202,7 +4193,7 @@
       <c r="D46" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="0" t="n">
         <f aca="false">D46-C46+1</f>
         <v>9</v>
       </c>
@@ -4210,7 +4201,7 @@
         <f aca="false">G45+1</f>
         <v>61</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="0" t="n">
         <v>75</v>
       </c>
       <c r="H46" s="0" t="n">
@@ -4237,7 +4228,7 @@
       <c r="D47" s="1" t="n">
         <v>44462</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="0" t="n">
         <f aca="false">D47-C47+1</f>
         <v>7</v>
       </c>
@@ -4245,7 +4236,7 @@
         <f aca="false">G46+1</f>
         <v>76</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H47" s="0" t="n">
@@ -4272,7 +4263,7 @@
       <c r="D48" s="1" t="n">
         <v>44469</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="0" t="n">
         <f aca="false">D48-C48+1</f>
         <v>7</v>
       </c>
@@ -4280,7 +4271,7 @@
         <f aca="false">G47+1</f>
         <v>85</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="0" t="n">
         <v>91</v>
       </c>
       <c r="H48" s="0" t="n">
@@ -4307,7 +4298,7 @@
       <c r="D49" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="0" t="n">
         <f aca="false">D49-C49+1</f>
         <v>8</v>
       </c>
@@ -4315,7 +4306,7 @@
         <f aca="false">G48+1</f>
         <v>92</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H49" s="0" t="n">
@@ -4342,7 +4333,7 @@
       <c r="D50" s="1" t="n">
         <v>44486</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="0" t="n">
         <f aca="false">D50-C50+1</f>
         <v>9</v>
       </c>
@@ -4350,7 +4341,7 @@
         <f aca="false">G49+1</f>
         <v>106</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="0" t="n">
         <v>115</v>
       </c>
       <c r="H50" s="0" t="n">
@@ -4377,7 +4368,7 @@
       <c r="D51" s="1" t="n">
         <v>44496</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="0" t="n">
         <f aca="false">D51-C51+1</f>
         <v>10</v>
       </c>
@@ -4385,7 +4376,7 @@
         <f aca="false">G50+1</f>
         <v>116</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="0" t="n">
         <v>124</v>
       </c>
       <c r="H51" s="0" t="n">
@@ -4412,7 +4403,7 @@
       <c r="D52" s="1" t="n">
         <v>44504</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="0" t="n">
         <f aca="false">D52-C52+1</f>
         <v>8</v>
       </c>
@@ -4420,7 +4411,7 @@
         <f aca="false">G51+1</f>
         <v>125</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="0" t="n">
         <v>133</v>
       </c>
       <c r="H52" s="0" t="n">
@@ -4447,7 +4438,7 @@
       <c r="D53" s="1" t="n">
         <v>44513</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="0" t="n">
         <f aca="false">D53-C53+1</f>
         <v>9</v>
       </c>
@@ -4455,7 +4446,7 @@
         <f aca="false">G52+1</f>
         <v>134</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="0" t="n">
         <v>145</v>
       </c>
       <c r="H53" s="0" t="n">
@@ -4482,7 +4473,7 @@
       <c r="D54" s="1" t="n">
         <v>44521</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="0" t="n">
         <f aca="false">D54-C54+1</f>
         <v>8</v>
       </c>
@@ -4490,7 +4481,7 @@
         <f aca="false">G53+1</f>
         <v>146</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="0" t="n">
         <v>156</v>
       </c>
       <c r="H54" s="0" t="n">
@@ -4517,7 +4508,7 @@
       <c r="D55" s="1" t="n">
         <v>44529</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="0" t="n">
         <f aca="false">D55-C55+1</f>
         <v>8</v>
       </c>
@@ -4525,7 +4516,7 @@
         <f aca="false">G54+1</f>
         <v>157</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="0" t="n">
         <v>163</v>
       </c>
       <c r="H55" s="0" t="n">
@@ -4552,7 +4543,7 @@
       <c r="D56" s="1" t="n">
         <v>44535</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="0" t="n">
         <f aca="false">D56-C56+1</f>
         <v>6</v>
       </c>
@@ -4560,7 +4551,7 @@
         <f aca="false">G55+1</f>
         <v>164</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="0" t="n">
         <v>166</v>
       </c>
       <c r="H56" s="0" t="n">
@@ -4587,7 +4578,7 @@
       <c r="D57" s="1" t="n">
         <v>44542</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="0" t="n">
         <f aca="false">D57-C57+1</f>
         <v>7</v>
       </c>
@@ -4595,7 +4586,7 @@
         <f aca="false">G56+1</f>
         <v>167</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="0" t="n">
         <v>171</v>
       </c>
       <c r="H57" s="0" t="n">
@@ -4622,7 +4613,7 @@
       <c r="D58" s="1" t="n">
         <v>44550</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="0" t="n">
         <f aca="false">D58-C58+1</f>
         <v>8</v>
       </c>
@@ -4630,7 +4621,7 @@
         <f aca="false">G57+1</f>
         <v>172</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="0" t="n">
         <v>180</v>
       </c>
       <c r="H58" s="0" t="n">
@@ -4657,7 +4648,7 @@
       <c r="D59" s="1" t="n">
         <v>44557</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="0" t="n">
         <f aca="false">D59-C59+1</f>
         <v>7</v>
       </c>
@@ -4665,7 +4656,7 @@
         <f aca="false">G58+1</f>
         <v>181</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="0" t="n">
         <v>187</v>
       </c>
       <c r="H59" s="0" t="n">
@@ -4692,7 +4683,7 @@
       <c r="D60" s="1" t="n">
         <v>44565</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="0" t="n">
         <f aca="false">D60-C60+1</f>
         <v>8</v>
       </c>
@@ -4700,7 +4691,7 @@
         <f aca="false">G59+1</f>
         <v>188</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="0" t="n">
         <v>190</v>
       </c>
       <c r="H60" s="0" t="n">
@@ -4727,7 +4718,7 @@
       <c r="D61" s="1" t="n">
         <v>44574</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="0" t="n">
         <f aca="false">D61-C61+1</f>
         <v>9</v>
       </c>
@@ -4735,7 +4726,7 @@
         <f aca="false">G60+1</f>
         <v>191</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="0" t="n">
         <v>193</v>
       </c>
       <c r="H61" s="0" t="n">
@@ -4762,7 +4753,7 @@
       <c r="D62" s="1" t="n">
         <v>44584</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="0" t="n">
         <f aca="false">D62-C62+1</f>
         <v>10</v>
       </c>
@@ -4770,7 +4761,7 @@
         <f aca="false">G61+1</f>
         <v>194</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="0" t="n">
         <v>195</v>
       </c>
       <c r="H62" s="0" t="n">
@@ -4797,7 +4788,7 @@
       <c r="D63" s="1" t="n">
         <v>44592</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="0" t="n">
         <f aca="false">D63-C63+1</f>
         <v>8</v>
       </c>
@@ -4805,7 +4796,7 @@
         <f aca="false">G62+1</f>
         <v>196</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="0" t="n">
         <v>198</v>
       </c>
       <c r="H63" s="0" t="n">
@@ -4832,7 +4823,7 @@
       <c r="D64" s="1" t="n">
         <v>44600</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="0" t="n">
         <f aca="false">D64-C64+1</f>
         <v>8</v>
       </c>
@@ -4840,7 +4831,7 @@
         <f aca="false">G63+1</f>
         <v>199</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="0" t="n">
         <v>200</v>
       </c>
       <c r="H64" s="0" t="n">
@@ -4867,7 +4858,7 @@
       <c r="D65" s="1" t="n">
         <v>44608</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="0" t="n">
         <f aca="false">D65-C65+1</f>
         <v>8</v>
       </c>
@@ -4875,7 +4866,7 @@
         <f aca="false">G64+1</f>
         <v>201</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="0" t="n">
         <v>205</v>
       </c>
       <c r="H65" s="0" t="n">
@@ -4902,7 +4893,7 @@
       <c r="D66" s="1" t="n">
         <v>44616</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="0" t="n">
         <f aca="false">D66-C66+1</f>
         <v>8</v>
       </c>
@@ -4910,7 +4901,7 @@
         <f aca="false">G65+1</f>
         <v>206</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="0" t="n">
         <v>208</v>
       </c>
       <c r="H66" s="0" t="n">
@@ -4937,7 +4928,7 @@
       <c r="D67" s="1" t="n">
         <v>44625</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="0" t="n">
         <f aca="false">D67-C67+1</f>
         <v>9</v>
       </c>
@@ -4945,7 +4936,7 @@
         <f aca="false">G66+1</f>
         <v>209</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="0" t="n">
         <v>213</v>
       </c>
       <c r="H67" s="0" t="n">
@@ -4972,7 +4963,7 @@
       <c r="D68" s="1" t="n">
         <v>44632</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="0" t="n">
         <f aca="false">D68-C68+1</f>
         <v>7</v>
       </c>
@@ -4980,7 +4971,7 @@
         <f aca="false">G67+1</f>
         <v>214</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="0" t="n">
         <v>216</v>
       </c>
       <c r="H68" s="0" t="n">
@@ -5007,7 +4998,7 @@
       <c r="D69" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="0" t="n">
         <f aca="false">D69-C69+1</f>
         <v>7</v>
       </c>
@@ -5015,7 +5006,7 @@
         <f aca="false">G68+1</f>
         <v>217</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="0" t="n">
         <v>219</v>
       </c>
       <c r="H69" s="0" t="n">
@@ -5041,7 +5032,7 @@
       <c r="D70" s="1" t="n">
         <v>44715</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="0" t="n">
         <f aca="false">D70-C70+1</f>
         <v>7</v>
       </c>
@@ -5049,7 +5040,7 @@
         <f aca="false">G69+1</f>
         <v>220</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="0" t="n">
         <v>222</v>
       </c>
       <c r="H70" s="0" t="n">
@@ -5076,7 +5067,7 @@
       <c r="D71" s="1" t="n">
         <v>44722</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="0" t="n">
         <f aca="false">D71-C71+1</f>
         <v>7</v>
       </c>
@@ -5084,7 +5075,7 @@
         <f aca="false">G70+1</f>
         <v>223</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="0" t="n">
         <v>227</v>
       </c>
       <c r="H71" s="0" t="n">
@@ -5111,7 +5102,7 @@
       <c r="D72" s="1" t="n">
         <v>44728</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="0" t="n">
         <f aca="false">D72-C72+1</f>
         <v>6</v>
       </c>
@@ -5119,7 +5110,7 @@
         <f aca="false">G71+1</f>
         <v>228</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="0" t="n">
         <v>230</v>
       </c>
       <c r="H72" s="0" t="n">
@@ -5146,7 +5137,7 @@
       <c r="D73" s="1" t="n">
         <v>44735</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="0" t="n">
         <f aca="false">D73-C73+1</f>
         <v>7</v>
       </c>
@@ -5154,7 +5145,7 @@
         <f aca="false">G72+1</f>
         <v>231</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="0" t="n">
         <v>234</v>
       </c>
       <c r="H73" s="0" t="n">
@@ -5181,7 +5172,7 @@
       <c r="D74" s="1" t="n">
         <v>44740</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="0" t="n">
         <f aca="false">D74-C74+1</f>
         <v>5</v>
       </c>
@@ -5189,7 +5180,7 @@
         <f aca="false">G73+1</f>
         <v>235</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="0" t="n">
         <v>237</v>
       </c>
       <c r="H74" s="0" t="n">
@@ -5216,7 +5207,7 @@
       <c r="D75" s="1" t="n">
         <v>44748</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="0" t="n">
         <f aca="false">D75-C75+1</f>
         <v>8</v>
       </c>
@@ -5224,7 +5215,7 @@
         <f aca="false">G74+1</f>
         <v>238</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="0" t="n">
         <v>245</v>
       </c>
       <c r="H75" s="0" t="n">
@@ -5251,7 +5242,7 @@
       <c r="D76" s="1" t="n">
         <v>44756</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="0" t="n">
         <f aca="false">D76-C76+1</f>
         <v>8</v>
       </c>
@@ -5259,7 +5250,7 @@
         <f aca="false">G75+1</f>
         <v>246</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="0" t="n">
         <v>252</v>
       </c>
       <c r="H76" s="0" t="n">
@@ -5286,7 +5277,7 @@
       <c r="D77" s="1" t="n">
         <v>44763</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="0" t="n">
         <f aca="false">D77-C77+1</f>
         <v>7</v>
       </c>
@@ -5294,7 +5285,7 @@
         <f aca="false">G76+1</f>
         <v>253</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="0" t="n">
         <v>255</v>
       </c>
       <c r="H77" s="0" t="n">
@@ -5321,7 +5312,7 @@
       <c r="D78" s="1" t="n">
         <v>44771</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="0" t="n">
         <f aca="false">D78-C78+1</f>
         <v>8</v>
       </c>
@@ -5329,7 +5320,7 @@
         <f aca="false">G77+1</f>
         <v>256</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="0" t="n">
         <v>261</v>
       </c>
       <c r="H78" s="0" t="n">
@@ -5356,7 +5347,7 @@
       <c r="D79" s="1" t="n">
         <v>44778</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="0" t="n">
         <f aca="false">D79-C79+1</f>
         <v>7</v>
       </c>
@@ -5364,7 +5355,7 @@
         <f aca="false">G78+1</f>
         <v>262</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="0" t="n">
         <v>264</v>
       </c>
       <c r="H79" s="0" t="n">
@@ -5376,10 +5367,72 @@
         <v>2.33333333333333</v>
       </c>
     </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="B80" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B79)</f>
+        <v>卷79</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>44817</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">D80-C80+1</f>
+        <v>10</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <f aca="false">G79+1</f>
+        <v>265</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">IF(F80*G80&lt;0,ABS(F80)+ABS(G80),G80-F80+1)</f>
+        <v>8</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <f aca="false">E80/H80</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="B81" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B80)</f>
+        <v>卷80</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>44820</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">D81-C81+1</f>
+        <v>-44819</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <f aca="false">G80+1</f>
+        <v>273</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <f aca="false">IF(F81*G81&lt;0,ABS(F81)+ABS(G81),G81-F81+1)</f>
+        <v>-272</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <f aca="false">E81/H81</f>
+        <v>164.775735294118</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5396,44 +5449,44 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5459,7 +5512,7 @@
       <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="0" t="str">
@@ -5492,7 +5545,7 @@
       <c r="G3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="0" t="str">
@@ -5522,7 +5575,7 @@
       <c r="G4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="0" t="str">
@@ -5552,7 +5605,7 @@
       <c r="G5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="0" t="str">
@@ -5582,7 +5635,7 @@
       <c r="F6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="0" t="str">
@@ -5612,7 +5665,7 @@
       <c r="G7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="0" t="str">
@@ -5642,7 +5695,7 @@
       <c r="F8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="0" t="str">
@@ -5669,7 +5722,7 @@
         <f aca="false">VLOOKUP($A9,統計!$A:$G,7,)</f>
         <v>-207</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="0" t="str">
@@ -5702,7 +5755,7 @@
       <c r="G10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="0" t="str">
@@ -5732,7 +5785,7 @@
       <c r="G11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="0" t="str">
@@ -5762,7 +5815,7 @@
       <c r="G12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="0" t="str">
@@ -5789,7 +5842,7 @@
         <f aca="false">VLOOKUP($A13,統計!$A:$G,7,)</f>
         <v>-188</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="I13" s="0" t="str">
@@ -5822,7 +5875,7 @@
       <c r="G14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="0" t="str">
@@ -5852,7 +5905,7 @@
       <c r="G15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I15" s="0" t="str">
@@ -5882,7 +5935,7 @@
       <c r="G16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="0" t="str">
@@ -5915,7 +5968,7 @@
       <c r="G17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="I17" s="0" t="str">
@@ -5948,7 +6001,7 @@
       <c r="G18" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="7" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="0" t="str">
@@ -5978,7 +6031,7 @@
       <c r="G19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="0" t="str">
@@ -6011,7 +6064,7 @@
       <c r="G20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I20" s="0" t="str">
@@ -6041,7 +6094,7 @@
       <c r="G21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="0" t="str">
@@ -6068,7 +6121,7 @@
         <f aca="false">VLOOKUP($A22,統計!$A:$G,7,)</f>
         <v>-99</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="0" t="str">
@@ -6098,7 +6151,7 @@
       <c r="G23" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="0" t="str">
@@ -6128,7 +6181,7 @@
       <c r="F24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="0" t="str">
@@ -6161,7 +6214,7 @@
       <c r="G25" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I25" s="0" t="str">
@@ -6191,7 +6244,7 @@
       <c r="G26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I26" s="0" t="str">
@@ -6218,7 +6271,7 @@
         <f aca="false">VLOOKUP($A27,統計!$A:$G,7,)</f>
         <v>-59</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="0" t="str">
@@ -6251,7 +6304,7 @@
       <c r="G28" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="0" t="str">
@@ -6281,7 +6334,7 @@
       <c r="G29" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I29" s="0" t="str">
@@ -6311,7 +6364,7 @@
       <c r="F30" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="7" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="0" t="str">
@@ -6341,7 +6394,7 @@
       <c r="F31" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="7" t="s">
         <v>126</v>
       </c>
       <c r="I31" s="0" t="str">
@@ -6374,7 +6427,7 @@
       <c r="G32" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I32" s="0" t="str">
@@ -6404,7 +6457,7 @@
       <c r="F33" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I33" s="0" t="str">
@@ -6434,7 +6487,7 @@
       <c r="F34" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="7" t="s">
         <v>136</v>
       </c>
       <c r="I34" s="0" t="str">
@@ -6464,7 +6517,7 @@
       <c r="G35" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I35" s="0" t="str">
@@ -6497,7 +6550,7 @@
       <c r="G36" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="0" t="str">
@@ -6527,7 +6580,7 @@
       <c r="G37" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="7" t="s">
         <v>146</v>
       </c>
       <c r="I37" s="0" t="str">
@@ -6557,7 +6610,7 @@
       <c r="G38" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="7" t="s">
         <v>149</v>
       </c>
       <c r="I38" s="0" t="str">
@@ -6587,7 +6640,7 @@
       <c r="G39" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="7" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="0" t="str">
@@ -6617,7 +6670,7 @@
       <c r="G40" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="7" t="s">
         <v>155</v>
       </c>
       <c r="I40" s="0" t="str">
@@ -6644,7 +6697,7 @@
         <f aca="false">VLOOKUP($A41,統計!$A:$G,7,)</f>
         <v>26</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="7" t="s">
         <v>157</v>
       </c>
       <c r="I41" s="0" t="str">
@@ -6674,7 +6727,7 @@
       <c r="F42" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I42" s="0" t="str">
@@ -6704,7 +6757,7 @@
       <c r="F43" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="7" t="s">
         <v>163</v>
       </c>
       <c r="I43" s="0" t="str">
@@ -6734,7 +6787,7 @@
       <c r="G44" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="7" t="s">
         <v>166</v>
       </c>
       <c r="I44" s="0" t="str">
@@ -6764,7 +6817,7 @@
       <c r="G45" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="7" t="s">
         <v>169</v>
       </c>
       <c r="I45" s="0" t="str">
@@ -6797,7 +6850,7 @@
       <c r="G46" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="7" t="s">
         <v>173</v>
       </c>
       <c r="I46" s="0" t="str">
@@ -6827,7 +6880,7 @@
       <c r="F47" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I47" s="0" t="str">
@@ -6860,7 +6913,7 @@
       <c r="G48" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="7" t="s">
         <v>180</v>
       </c>
       <c r="I48" s="0" t="str">
@@ -6890,7 +6943,7 @@
       <c r="G49" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I49" s="0" t="str">
@@ -6917,7 +6970,7 @@
         <f aca="false">VLOOKUP($A50,統計!$A:$G,7,)</f>
         <v>115</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="9" t="s">
         <v>185</v>
       </c>
       <c r="I50" s="0" t="str">
@@ -6950,7 +7003,7 @@
       <c r="G51" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="9" t="s">
         <v>189</v>
       </c>
       <c r="I51" s="0" t="str">
@@ -6980,7 +7033,7 @@
       <c r="G52" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="7" t="s">
         <v>192</v>
       </c>
       <c r="I52" s="0" t="str">
@@ -7007,7 +7060,7 @@
         <f aca="false">VLOOKUP($A53,統計!$A:$G,7,)</f>
         <v>145</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="0" t="str">
@@ -7037,7 +7090,7 @@
       <c r="F54" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="7" t="s">
         <v>197</v>
       </c>
       <c r="I54" s="0" t="str">
@@ -7070,7 +7123,7 @@
       <c r="G55" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I55" s="0" t="str">
@@ -7097,7 +7150,7 @@
         <f aca="false">VLOOKUP($A56,統計!$A:$G,7,)</f>
         <v>166</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="7" t="s">
         <v>203</v>
       </c>
       <c r="I56" s="0" t="str">
@@ -7127,7 +7180,7 @@
       <c r="F57" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="7" t="s">
         <v>206</v>
       </c>
       <c r="I57" s="0" t="str">
@@ -7154,7 +7207,7 @@
         <f aca="false">VLOOKUP($A58,統計!$A:$G,7,)</f>
         <v>180</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="7" t="s">
         <v>208</v>
       </c>
       <c r="I58" s="0" t="str">
@@ -7184,7 +7237,7 @@
       <c r="F59" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="7" t="s">
         <v>211</v>
       </c>
       <c r="I59" s="0" t="str">
@@ -7214,7 +7267,7 @@
       <c r="G60" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="7" t="s">
         <v>214</v>
       </c>
       <c r="I60" s="0" t="str">
@@ -7244,7 +7297,7 @@
       <c r="F61" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="7" t="s">
         <v>217</v>
       </c>
       <c r="I61" s="0" t="str">
@@ -7274,7 +7327,7 @@
       <c r="F62" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="7" t="s">
         <v>220</v>
       </c>
       <c r="I62" s="0" t="str">
@@ -7307,7 +7360,7 @@
       <c r="G63" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="10" t="s">
         <v>224</v>
       </c>
       <c r="I63" s="0" t="str">
@@ -7334,7 +7387,7 @@
         <f aca="false">VLOOKUP($A64,統計!$A:$G,7,)</f>
         <v>200</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I64" s="0" t="str">
@@ -7364,7 +7417,7 @@
       <c r="F65" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="7" t="s">
         <v>229</v>
       </c>
       <c r="I65" s="0" t="str">
@@ -7391,7 +7444,7 @@
         <f aca="false">VLOOKUP($A66,統計!$A:$G,7,)</f>
         <v>208</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="7" t="s">
         <v>231</v>
       </c>
       <c r="I66" s="0" t="str">
@@ -7418,7 +7471,7 @@
         <f aca="false">VLOOKUP($A67,統計!$A:$G,7,)</f>
         <v>213</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I67" s="0" t="str">
@@ -7448,7 +7501,7 @@
       <c r="G68" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="7" t="s">
         <v>236</v>
       </c>
       <c r="I68" s="0" t="str">
@@ -7475,7 +7528,7 @@
         <f aca="false">VLOOKUP($A69,統計!$A:$G,7,)</f>
         <v>219</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="7" t="s">
         <v>238</v>
       </c>
       <c r="I69" s="0" t="str">
@@ -7502,7 +7555,7 @@
         <f aca="false">VLOOKUP($A70,統計!$A:$G,7,)</f>
         <v>222</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="7" t="s">
         <v>240</v>
       </c>
       <c r="I70" s="0" t="str">
@@ -7532,7 +7585,7 @@
       <c r="G71" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="7" t="s">
         <v>243</v>
       </c>
       <c r="I71" s="0" t="str">
@@ -7559,7 +7612,7 @@
         <f aca="false">VLOOKUP($A72,統計!$A:$G,7,)</f>
         <v>230</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="7" t="s">
         <v>245</v>
       </c>
       <c r="I72" s="0" t="str">
@@ -7589,7 +7642,7 @@
       <c r="G73" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="7" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="0" t="str">
@@ -7619,7 +7672,7 @@
       <c r="G74" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="7" t="s">
         <v>251</v>
       </c>
       <c r="I74" s="0" t="str">
@@ -7649,7 +7702,7 @@
       <c r="F75" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="7" t="s">
         <v>254</v>
       </c>
       <c r="I75" s="0" t="str">
@@ -7682,7 +7735,7 @@
       <c r="G76" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="7" t="s">
         <v>258</v>
       </c>
       <c r="I76" s="0" t="str">
@@ -7712,7 +7765,7 @@
       <c r="F77" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="7" t="s">
         <v>261</v>
       </c>
       <c r="I77" s="0" t="str">
@@ -7742,7 +7795,7 @@
       <c r="F78" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="7" t="s">
         <v>264</v>
       </c>
       <c r="I78" s="0" t="str">
@@ -7780,52 +7833,55 @@
         <v>610|[卷78](5_筆記/资治通鉴78.html)|魏紀十|262|264|陳留阮氏世系、三卞皇后圖||曹奐3年至5年</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>701</v>
       </c>
-      <c r="B80" s="0" t="e">
+      <c r="B80" s="0" t="str">
         <f aca="false">VLOOKUP($A80,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷79</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D80" s="0" t="e">
+      <c r="D80" s="0" t="n">
         <f aca="false">VLOOKUP($A80,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="0" t="e">
+        <v>265</v>
+      </c>
+      <c r="E80" s="0" t="n">
         <f aca="false">VLOOKUP($A80,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I80" s="0" t="e">
+        <v>272</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I80" s="0" t="str">
         <f aca="false">A80&amp;"|"&amp;"["&amp;B80&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B80,"卷","")&amp;".html)|"&amp;C80&amp;"|"&amp;D80&amp;"|"&amp;E80&amp;"|"&amp;F80&amp;"|"&amp;G80&amp;"|"&amp;H80</f>
-        <v>#N/A</v>
+        <v>701|[卷79](5_筆記/资治通鉴79.html)|晉紀一|265|272|||曹奐6年至7年、司馬炎至7年</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="B81" s="0" t="e">
+      <c r="B81" s="0" t="str">
         <f aca="false">VLOOKUP($A81,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="0" t="e">
+        <v>270</v>
+      </c>
+      <c r="D81" s="0" t="n">
         <f aca="false">VLOOKUP($A81,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="0" t="e">
+        <v>273</v>
+      </c>
+      <c r="E81" s="0" t="n">
         <f aca="false">VLOOKUP($A81,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0" t="str">
         <f aca="false">A81&amp;"|"&amp;"["&amp;B81&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B81,"卷","")&amp;".html)|"&amp;C81&amp;"|"&amp;D81&amp;"|"&amp;E81&amp;"|"&amp;F81&amp;"|"&amp;G81&amp;"|"&amp;H81</f>
-        <v>#N/A</v>
+        <v>702|[卷80](5_筆記/资治通鉴80.html)|晉紀二|273|0|||</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +7893,7 @@
         <v>#N/A</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D82" s="0" t="e">
         <f aca="false">VLOOKUP($A82,統計!$A:$G,6,)</f>
@@ -7861,7 +7917,7 @@
         <v>#N/A</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D83" s="0" t="e">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,6,)</f>
@@ -7885,7 +7941,7 @@
         <v>#N/A</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D84" s="0" t="e">
         <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
@@ -7909,7 +7965,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D85" s="0" t="e">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,6,)</f>
@@ -7933,7 +7989,7 @@
         <v>#N/A</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D86" s="0" t="e">
         <f aca="false">VLOOKUP($A86,統計!$A:$G,6,)</f>
@@ -7957,7 +8013,7 @@
         <v>#N/A</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D87" s="0" t="e">
         <f aca="false">VLOOKUP($A87,統計!$A:$G,6,)</f>
@@ -7981,7 +8037,7 @@
         <v>#N/A</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D88" s="0" t="e">
         <f aca="false">VLOOKUP($A88,統計!$A:$G,6,)</f>
@@ -8005,7 +8061,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D89" s="0" t="e">
         <f aca="false">VLOOKUP($A89,統計!$A:$G,6,)</f>
@@ -8029,7 +8085,7 @@
         <v>#N/A</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D90" s="0" t="e">
         <f aca="false">VLOOKUP($A90,統計!$A:$G,6,)</f>
@@ -8053,7 +8109,7 @@
         <v>#N/A</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" s="0" t="e">
         <f aca="false">VLOOKUP($A91,統計!$A:$G,6,)</f>
@@ -8077,7 +8133,7 @@
         <v>#N/A</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D92" s="0" t="e">
         <f aca="false">VLOOKUP($A92,統計!$A:$G,6,)</f>
@@ -8101,7 +8157,7 @@
         <v>#N/A</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D93" s="0" t="e">
         <f aca="false">VLOOKUP($A93,統計!$A:$G,6,)</f>
@@ -8125,7 +8181,7 @@
         <v>#N/A</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" s="0" t="e">
         <f aca="false">VLOOKUP($A94,統計!$A:$G,6,)</f>
@@ -8149,7 +8205,7 @@
         <v>#N/A</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D95" s="0" t="e">
         <f aca="false">VLOOKUP($A95,統計!$A:$G,6,)</f>
@@ -8173,7 +8229,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D96" s="0" t="e">
         <f aca="false">VLOOKUP($A96,統計!$A:$G,6,)</f>
@@ -8197,7 +8253,7 @@
         <v>#N/A</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D97" s="0" t="e">
         <f aca="false">VLOOKUP($A97,統計!$A:$G,6,)</f>
@@ -8221,7 +8277,7 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D98" s="0" t="e">
         <f aca="false">VLOOKUP($A98,統計!$A:$G,6,)</f>
@@ -8245,7 +8301,7 @@
         <v>#N/A</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="0" t="e">
         <f aca="false">VLOOKUP($A99,統計!$A:$G,6,)</f>
@@ -8269,7 +8325,7 @@
         <v>#N/A</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="0" t="e">
         <f aca="false">VLOOKUP($A100,統計!$A:$G,6,)</f>
@@ -8293,7 +8349,7 @@
         <v>#N/A</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D101" s="0" t="e">
         <f aca="false">VLOOKUP($A101,統計!$A:$G,6,)</f>
@@ -8317,7 +8373,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="0" t="e">
         <f aca="false">VLOOKUP($A102,統計!$A:$G,6,)</f>
@@ -8341,7 +8397,7 @@
         <v>#N/A</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="0" t="e">
         <f aca="false">VLOOKUP($A103,統計!$A:$G,6,)</f>
@@ -8365,7 +8421,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="0" t="e">
         <f aca="false">VLOOKUP($A104,統計!$A:$G,6,)</f>
@@ -8389,7 +8445,7 @@
         <v>#N/A</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="0" t="e">
         <f aca="false">VLOOKUP($A105,統計!$A:$G,6,)</f>
@@ -8413,7 +8469,7 @@
         <v>#N/A</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="0" t="e">
         <f aca="false">VLOOKUP($A106,統計!$A:$G,6,)</f>
@@ -8437,7 +8493,7 @@
         <v>#N/A</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="0" t="e">
         <f aca="false">VLOOKUP($A107,統計!$A:$G,6,)</f>
@@ -8461,7 +8517,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="0" t="e">
         <f aca="false">VLOOKUP($A108,統計!$A:$G,6,)</f>
@@ -8485,7 +8541,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="0" t="e">
         <f aca="false">VLOOKUP($A109,統計!$A:$G,6,)</f>
@@ -8509,7 +8565,7 @@
         <v>#N/A</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="0" t="e">
         <f aca="false">VLOOKUP($A110,統計!$A:$G,6,)</f>
@@ -8533,7 +8589,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="0" t="e">
         <f aca="false">VLOOKUP($A111,統計!$A:$G,6,)</f>
@@ -8557,7 +8613,7 @@
         <v>#N/A</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="0" t="e">
         <f aca="false">VLOOKUP($A112,統計!$A:$G,6,)</f>
@@ -8581,7 +8637,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="0" t="e">
         <f aca="false">VLOOKUP($A113,統計!$A:$G,6,)</f>
@@ -8605,7 +8661,7 @@
         <v>#N/A</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="0" t="e">
         <f aca="false">VLOOKUP($A114,統計!$A:$G,6,)</f>
@@ -8629,7 +8685,7 @@
         <v>#N/A</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D115" s="0" t="e">
         <f aca="false">VLOOKUP($A115,統計!$A:$G,6,)</f>
@@ -8653,7 +8709,7 @@
         <v>#N/A</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="0" t="e">
         <f aca="false">VLOOKUP($A116,統計!$A:$G,6,)</f>
@@ -8677,7 +8733,7 @@
         <v>#N/A</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D117" s="0" t="e">
         <f aca="false">VLOOKUP($A117,統計!$A:$G,6,)</f>
@@ -8701,7 +8757,7 @@
         <v>#N/A</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D118" s="0" t="e">
         <f aca="false">VLOOKUP($A118,統計!$A:$G,6,)</f>
@@ -8725,7 +8781,7 @@
         <v>#N/A</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D119" s="0" t="e">
         <f aca="false">VLOOKUP($A119,統計!$A:$G,6,)</f>
@@ -8749,7 +8805,7 @@
         <v>#N/A</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D120" s="0" t="e">
         <f aca="false">VLOOKUP($A120,統計!$A:$G,6,)</f>
@@ -8773,7 +8829,7 @@
         <v>#N/A</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D121" s="0" t="e">
         <f aca="false">VLOOKUP($A121,統計!$A:$G,6,)</f>
@@ -8797,7 +8853,7 @@
         <v>#N/A</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D122" s="0" t="e">
         <f aca="false">VLOOKUP($A122,統計!$A:$G,6,)</f>
@@ -8821,7 +8877,7 @@
         <v>#N/A</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D123" s="0" t="e">
         <f aca="false">VLOOKUP($A123,統計!$A:$G,6,)</f>
@@ -8845,7 +8901,7 @@
         <v>#N/A</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D124" s="0" t="e">
         <f aca="false">VLOOKUP($A124,統計!$A:$G,6,)</f>
@@ -8869,7 +8925,7 @@
         <v>#N/A</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D125" s="0" t="e">
         <f aca="false">VLOOKUP($A125,統計!$A:$G,6,)</f>
@@ -8893,7 +8949,7 @@
         <v>#N/A</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D126" s="0" t="e">
         <f aca="false">VLOOKUP($A126,統計!$A:$G,6,)</f>
@@ -8917,7 +8973,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D127" s="0" t="e">
         <f aca="false">VLOOKUP($A127,統計!$A:$G,6,)</f>
@@ -8941,7 +8997,7 @@
         <v>#N/A</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D128" s="0" t="e">
         <f aca="false">VLOOKUP($A128,統計!$A:$G,6,)</f>
@@ -8965,7 +9021,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D129" s="0" t="e">
         <f aca="false">VLOOKUP($A129,統計!$A:$G,6,)</f>
@@ -8989,7 +9045,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D130" s="0" t="e">
         <f aca="false">VLOOKUP($A130,統計!$A:$G,6,)</f>
@@ -9013,7 +9069,7 @@
         <v>#N/A</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D131" s="0" t="e">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,6,)</f>
@@ -9037,7 +9093,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D132" s="0" t="e">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,6,)</f>
@@ -9061,7 +9117,7 @@
         <v>#N/A</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D133" s="0" t="e">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,6,)</f>
@@ -9085,7 +9141,7 @@
         <v>#N/A</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D134" s="0" t="e">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,6,)</f>
@@ -9109,7 +9165,7 @@
         <v>#N/A</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D135" s="0" t="e">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,6,)</f>
@@ -9133,7 +9189,7 @@
         <v>#N/A</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D136" s="0" t="e">
         <f aca="false">VLOOKUP($A136,統計!$A:$G,6,)</f>
@@ -9157,7 +9213,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D137" s="0" t="e">
         <f aca="false">VLOOKUP($A137,統計!$A:$G,6,)</f>
@@ -9181,7 +9237,7 @@
         <v>#N/A</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D138" s="0" t="e">
         <f aca="false">VLOOKUP($A138,統計!$A:$G,6,)</f>
@@ -9205,7 +9261,7 @@
         <v>#N/A</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D139" s="0" t="e">
         <f aca="false">VLOOKUP($A139,統計!$A:$G,6,)</f>
@@ -9229,7 +9285,7 @@
         <v>#N/A</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D140" s="0" t="e">
         <f aca="false">VLOOKUP($A140,統計!$A:$G,6,)</f>
@@ -9253,7 +9309,7 @@
         <v>#N/A</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D141" s="0" t="e">
         <f aca="false">VLOOKUP($A141,統計!$A:$G,6,)</f>
@@ -9277,7 +9333,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D142" s="0" t="e">
         <f aca="false">VLOOKUP($A142,統計!$A:$G,6,)</f>
@@ -9301,7 +9357,7 @@
         <v>#N/A</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D143" s="0" t="e">
         <f aca="false">VLOOKUP($A143,統計!$A:$G,6,)</f>
@@ -9325,7 +9381,7 @@
         <v>#N/A</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D144" s="0" t="e">
         <f aca="false">VLOOKUP($A144,統計!$A:$G,6,)</f>
@@ -9349,7 +9405,7 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D145" s="0" t="e">
         <f aca="false">VLOOKUP($A145,統計!$A:$G,6,)</f>
@@ -9373,7 +9429,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D146" s="0" t="e">
         <f aca="false">VLOOKUP($A146,統計!$A:$G,6,)</f>
@@ -9397,7 +9453,7 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D147" s="0" t="e">
         <f aca="false">VLOOKUP($A147,統計!$A:$G,6,)</f>
@@ -9421,7 +9477,7 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D148" s="0" t="e">
         <f aca="false">VLOOKUP($A148,統計!$A:$G,6,)</f>
@@ -9445,7 +9501,7 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D149" s="0" t="e">
         <f aca="false">VLOOKUP($A149,統計!$A:$G,6,)</f>
@@ -9469,7 +9525,7 @@
         <v>#N/A</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D150" s="0" t="e">
         <f aca="false">VLOOKUP($A150,統計!$A:$G,6,)</f>
@@ -9493,7 +9549,7 @@
         <v>#N/A</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D151" s="0" t="e">
         <f aca="false">VLOOKUP($A151,統計!$A:$G,6,)</f>
@@ -9517,7 +9573,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D152" s="0" t="e">
         <f aca="false">VLOOKUP($A152,統計!$A:$G,6,)</f>
@@ -9541,7 +9597,7 @@
         <v>#N/A</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D153" s="0" t="e">
         <f aca="false">VLOOKUP($A153,統計!$A:$G,6,)</f>
@@ -9565,7 +9621,7 @@
         <v>#N/A</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D154" s="0" t="e">
         <f aca="false">VLOOKUP($A154,統計!$A:$G,6,)</f>
@@ -9589,7 +9645,7 @@
         <v>#N/A</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D155" s="0" t="e">
         <f aca="false">VLOOKUP($A155,統計!$A:$G,6,)</f>
@@ -9613,7 +9669,7 @@
         <v>#N/A</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D156" s="0" t="e">
         <f aca="false">VLOOKUP($A156,統計!$A:$G,6,)</f>
@@ -9637,7 +9693,7 @@
         <v>#N/A</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D157" s="0" t="e">
         <f aca="false">VLOOKUP($A157,統計!$A:$G,6,)</f>
@@ -9661,7 +9717,7 @@
         <v>#N/A</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D158" s="0" t="e">
         <f aca="false">VLOOKUP($A158,統計!$A:$G,6,)</f>
@@ -9685,7 +9741,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D159" s="0" t="e">
         <f aca="false">VLOOKUP($A159,統計!$A:$G,6,)</f>
@@ -9709,7 +9765,7 @@
         <v>#N/A</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D160" s="0" t="e">
         <f aca="false">VLOOKUP($A160,統計!$A:$G,6,)</f>
@@ -9733,7 +9789,7 @@
         <v>#N/A</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D161" s="0" t="e">
         <f aca="false">VLOOKUP($A161,統計!$A:$G,6,)</f>
@@ -9757,7 +9813,7 @@
         <v>#N/A</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D162" s="0" t="e">
         <f aca="false">VLOOKUP($A162,統計!$A:$G,6,)</f>
@@ -9781,7 +9837,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D163" s="0" t="e">
         <f aca="false">VLOOKUP($A163,統計!$A:$G,6,)</f>
@@ -9805,7 +9861,7 @@
         <v>#N/A</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D164" s="0" t="e">
         <f aca="false">VLOOKUP($A164,統計!$A:$G,6,)</f>
@@ -9829,7 +9885,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D165" s="0" t="e">
         <f aca="false">VLOOKUP($A165,統計!$A:$G,6,)</f>
@@ -9853,7 +9909,7 @@
         <v>#N/A</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D166" s="0" t="e">
         <f aca="false">VLOOKUP($A166,統計!$A:$G,6,)</f>
@@ -9877,7 +9933,7 @@
         <v>#N/A</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D167" s="0" t="e">
         <f aca="false">VLOOKUP($A167,統計!$A:$G,6,)</f>
@@ -9901,7 +9957,7 @@
         <v>#N/A</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D168" s="0" t="e">
         <f aca="false">VLOOKUP($A168,統計!$A:$G,6,)</f>
@@ -9925,7 +9981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D169" s="0" t="e">
         <f aca="false">VLOOKUP($A169,統計!$A:$G,6,)</f>
@@ -9949,7 +10005,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D170" s="0" t="e">
         <f aca="false">VLOOKUP($A170,統計!$A:$G,6,)</f>
@@ -9973,7 +10029,7 @@
         <v>#N/A</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D171" s="0" t="e">
         <f aca="false">VLOOKUP($A171,統計!$A:$G,6,)</f>
@@ -9997,7 +10053,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D172" s="0" t="e">
         <f aca="false">VLOOKUP($A172,統計!$A:$G,6,)</f>
@@ -10021,7 +10077,7 @@
         <v>#N/A</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D173" s="0" t="e">
         <f aca="false">VLOOKUP($A173,統計!$A:$G,6,)</f>
@@ -10045,7 +10101,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D174" s="0" t="e">
         <f aca="false">VLOOKUP($A174,統計!$A:$G,6,)</f>
@@ -10069,7 +10125,7 @@
         <v>#N/A</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D175" s="0" t="e">
         <f aca="false">VLOOKUP($A175,統計!$A:$G,6,)</f>
@@ -10093,7 +10149,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D176" s="0" t="e">
         <f aca="false">VLOOKUP($A176,統計!$A:$G,6,)</f>
@@ -10117,7 +10173,7 @@
         <v>#N/A</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D177" s="0" t="e">
         <f aca="false">VLOOKUP($A177,統計!$A:$G,6,)</f>
@@ -10141,7 +10197,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D178" s="0" t="e">
         <f aca="false">VLOOKUP($A178,統計!$A:$G,6,)</f>
@@ -10165,7 +10221,7 @@
         <v>#N/A</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D179" s="0" t="e">
         <f aca="false">VLOOKUP($A179,統計!$A:$G,6,)</f>
@@ -10189,7 +10245,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D180" s="0" t="e">
         <f aca="false">VLOOKUP($A180,統計!$A:$G,6,)</f>
@@ -10213,7 +10269,7 @@
         <v>#N/A</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D181" s="0" t="e">
         <f aca="false">VLOOKUP($A181,統計!$A:$G,6,)</f>
@@ -10237,7 +10293,7 @@
         <v>#N/A</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D182" s="0" t="e">
         <f aca="false">VLOOKUP($A182,統計!$A:$G,6,)</f>
@@ -10261,7 +10317,7 @@
         <v>#N/A</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D183" s="0" t="e">
         <f aca="false">VLOOKUP($A183,統計!$A:$G,6,)</f>
@@ -10285,7 +10341,7 @@
         <v>#N/A</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D184" s="0" t="e">
         <f aca="false">VLOOKUP($A184,統計!$A:$G,6,)</f>
@@ -10309,7 +10365,7 @@
         <v>#N/A</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D185" s="0" t="e">
         <f aca="false">VLOOKUP($A185,統計!$A:$G,6,)</f>
@@ -10333,7 +10389,7 @@
         <v>#N/A</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D186" s="0" t="e">
         <f aca="false">VLOOKUP($A186,統計!$A:$G,6,)</f>
@@ -10357,7 +10413,7 @@
         <v>#N/A</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D187" s="0" t="e">
         <f aca="false">VLOOKUP($A187,統計!$A:$G,6,)</f>
@@ -10381,7 +10437,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D188" s="0" t="e">
         <f aca="false">VLOOKUP($A188,統計!$A:$G,6,)</f>
@@ -10405,7 +10461,7 @@
         <v>#N/A</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D189" s="0" t="e">
         <f aca="false">VLOOKUP($A189,統計!$A:$G,6,)</f>
@@ -10429,7 +10485,7 @@
         <v>#N/A</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D190" s="0" t="e">
         <f aca="false">VLOOKUP($A190,統計!$A:$G,6,)</f>
@@ -10453,7 +10509,7 @@
         <v>#N/A</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D191" s="0" t="e">
         <f aca="false">VLOOKUP($A191,統計!$A:$G,6,)</f>
@@ -10477,7 +10533,7 @@
         <v>#N/A</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D192" s="0" t="e">
         <f aca="false">VLOOKUP($A192,統計!$A:$G,6,)</f>
@@ -10501,7 +10557,7 @@
         <v>#N/A</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D193" s="0" t="e">
         <f aca="false">VLOOKUP($A193,統計!$A:$G,6,)</f>
@@ -10525,7 +10581,7 @@
         <v>#N/A</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D194" s="0" t="e">
         <f aca="false">VLOOKUP($A194,統計!$A:$G,6,)</f>
@@ -10549,7 +10605,7 @@
         <v>#N/A</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D195" s="0" t="e">
         <f aca="false">VLOOKUP($A195,統計!$A:$G,6,)</f>
@@ -10573,7 +10629,7 @@
         <v>#N/A</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D196" s="0" t="e">
         <f aca="false">VLOOKUP($A196,統計!$A:$G,6,)</f>
@@ -10597,7 +10653,7 @@
         <v>#N/A</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D197" s="0" t="e">
         <f aca="false">VLOOKUP($A197,統計!$A:$G,6,)</f>
@@ -10621,7 +10677,7 @@
         <v>#N/A</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D198" s="0" t="e">
         <f aca="false">VLOOKUP($A198,統計!$A:$G,6,)</f>
@@ -10645,7 +10701,7 @@
         <v>#N/A</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D199" s="0" t="e">
         <f aca="false">VLOOKUP($A199,統計!$A:$G,6,)</f>
@@ -10669,7 +10725,7 @@
         <v>#N/A</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D200" s="0" t="e">
         <f aca="false">VLOOKUP($A200,統計!$A:$G,6,)</f>
@@ -10693,7 +10749,7 @@
         <v>#N/A</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D201" s="0" t="e">
         <f aca="false">VLOOKUP($A201,統計!$A:$G,6,)</f>
@@ -10717,7 +10773,7 @@
         <v>#N/A</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D202" s="0" t="e">
         <f aca="false">VLOOKUP($A202,統計!$A:$G,6,)</f>
@@ -10741,7 +10797,7 @@
         <v>#N/A</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D203" s="0" t="e">
         <f aca="false">VLOOKUP($A203,統計!$A:$G,6,)</f>
@@ -10765,7 +10821,7 @@
         <v>#N/A</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D204" s="0" t="e">
         <f aca="false">VLOOKUP($A204,統計!$A:$G,6,)</f>
@@ -10789,7 +10845,7 @@
         <v>#N/A</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D205" s="0" t="e">
         <f aca="false">VLOOKUP($A205,統計!$A:$G,6,)</f>
@@ -10813,7 +10869,7 @@
         <v>#N/A</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D206" s="0" t="e">
         <f aca="false">VLOOKUP($A206,統計!$A:$G,6,)</f>
@@ -10837,7 +10893,7 @@
         <v>#N/A</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D207" s="0" t="e">
         <f aca="false">VLOOKUP($A207,統計!$A:$G,6,)</f>
@@ -10861,7 +10917,7 @@
         <v>#N/A</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D208" s="0" t="e">
         <f aca="false">VLOOKUP($A208,統計!$A:$G,6,)</f>
@@ -10885,7 +10941,7 @@
         <v>#N/A</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D209" s="0" t="e">
         <f aca="false">VLOOKUP($A209,統計!$A:$G,6,)</f>
@@ -10909,7 +10965,7 @@
         <v>#N/A</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D210" s="0" t="e">
         <f aca="false">VLOOKUP($A210,統計!$A:$G,6,)</f>
@@ -10933,7 +10989,7 @@
         <v>#N/A</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D211" s="0" t="e">
         <f aca="false">VLOOKUP($A211,統計!$A:$G,6,)</f>
@@ -10957,7 +11013,7 @@
         <v>#N/A</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D212" s="0" t="e">
         <f aca="false">VLOOKUP($A212,統計!$A:$G,6,)</f>
@@ -10981,7 +11037,7 @@
         <v>#N/A</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D213" s="0" t="e">
         <f aca="false">VLOOKUP($A213,統計!$A:$G,6,)</f>
@@ -11005,7 +11061,7 @@
         <v>#N/A</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D214" s="0" t="e">
         <f aca="false">VLOOKUP($A214,統計!$A:$G,6,)</f>
@@ -11029,7 +11085,7 @@
         <v>#N/A</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D215" s="0" t="e">
         <f aca="false">VLOOKUP($A215,統計!$A:$G,6,)</f>
@@ -11053,7 +11109,7 @@
         <v>#N/A</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D216" s="0" t="e">
         <f aca="false">VLOOKUP($A216,統計!$A:$G,6,)</f>
@@ -11077,7 +11133,7 @@
         <v>#N/A</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D217" s="0" t="e">
         <f aca="false">VLOOKUP($A217,統計!$A:$G,6,)</f>
@@ -11101,7 +11157,7 @@
         <v>#N/A</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D218" s="0" t="e">
         <f aca="false">VLOOKUP($A218,統計!$A:$G,6,)</f>
@@ -11125,7 +11181,7 @@
         <v>#N/A</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D219" s="0" t="e">
         <f aca="false">VLOOKUP($A219,統計!$A:$G,6,)</f>
@@ -11149,7 +11205,7 @@
         <v>#N/A</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D220" s="0" t="e">
         <f aca="false">VLOOKUP($A220,統計!$A:$G,6,)</f>
@@ -11173,7 +11229,7 @@
         <v>#N/A</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D221" s="0" t="e">
         <f aca="false">VLOOKUP($A221,統計!$A:$G,6,)</f>
@@ -11197,7 +11253,7 @@
         <v>#N/A</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D222" s="0" t="e">
         <f aca="false">VLOOKUP($A222,統計!$A:$G,6,)</f>
@@ -11221,7 +11277,7 @@
         <v>#N/A</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D223" s="0" t="e">
         <f aca="false">VLOOKUP($A223,統計!$A:$G,6,)</f>
@@ -11245,7 +11301,7 @@
         <v>#N/A</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D224" s="0" t="e">
         <f aca="false">VLOOKUP($A224,統計!$A:$G,6,)</f>
@@ -11269,7 +11325,7 @@
         <v>#N/A</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D225" s="0" t="e">
         <f aca="false">VLOOKUP($A225,統計!$A:$G,6,)</f>
@@ -11293,7 +11349,7 @@
         <v>#N/A</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D226" s="0" t="e">
         <f aca="false">VLOOKUP($A226,統計!$A:$G,6,)</f>
@@ -11317,7 +11373,7 @@
         <v>#N/A</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D227" s="0" t="e">
         <f aca="false">VLOOKUP($A227,統計!$A:$G,6,)</f>
@@ -11341,7 +11397,7 @@
         <v>#N/A</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D228" s="0" t="e">
         <f aca="false">VLOOKUP($A228,統計!$A:$G,6,)</f>
@@ -11365,7 +11421,7 @@
         <v>#N/A</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D229" s="0" t="e">
         <f aca="false">VLOOKUP($A229,統計!$A:$G,6,)</f>
@@ -11389,7 +11445,7 @@
         <v>#N/A</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D230" s="0" t="e">
         <f aca="false">VLOOKUP($A230,統計!$A:$G,6,)</f>
@@ -11413,7 +11469,7 @@
         <v>#N/A</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D231" s="0" t="e">
         <f aca="false">VLOOKUP($A231,統計!$A:$G,6,)</f>
@@ -11437,7 +11493,7 @@
         <v>#N/A</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D232" s="0" t="e">
         <f aca="false">VLOOKUP($A232,統計!$A:$G,6,)</f>
@@ -11461,7 +11517,7 @@
         <v>#N/A</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D233" s="0" t="e">
         <f aca="false">VLOOKUP($A233,統計!$A:$G,6,)</f>
@@ -11485,7 +11541,7 @@
         <v>#N/A</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D234" s="0" t="e">
         <f aca="false">VLOOKUP($A234,統計!$A:$G,6,)</f>
@@ -11509,7 +11565,7 @@
         <v>#N/A</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D235" s="0" t="e">
         <f aca="false">VLOOKUP($A235,統計!$A:$G,6,)</f>
@@ -11533,7 +11589,7 @@
         <v>#N/A</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D236" s="0" t="e">
         <f aca="false">VLOOKUP($A236,統計!$A:$G,6,)</f>
@@ -11557,7 +11613,7 @@
         <v>#N/A</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D237" s="0" t="e">
         <f aca="false">VLOOKUP($A237,統計!$A:$G,6,)</f>
@@ -11581,7 +11637,7 @@
         <v>#N/A</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D238" s="0" t="e">
         <f aca="false">VLOOKUP($A238,統計!$A:$G,6,)</f>
@@ -11605,7 +11661,7 @@
         <v>#N/A</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D239" s="0" t="e">
         <f aca="false">VLOOKUP($A239,統計!$A:$G,6,)</f>
@@ -11629,7 +11685,7 @@
         <v>#N/A</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D240" s="0" t="e">
         <f aca="false">VLOOKUP($A240,統計!$A:$G,6,)</f>
@@ -11653,7 +11709,7 @@
         <v>#N/A</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D241" s="0" t="e">
         <f aca="false">VLOOKUP($A241,統計!$A:$G,6,)</f>
@@ -11677,7 +11733,7 @@
         <v>#N/A</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D242" s="0" t="e">
         <f aca="false">VLOOKUP($A242,統計!$A:$G,6,)</f>
@@ -11701,7 +11757,7 @@
         <v>#N/A</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D243" s="0" t="e">
         <f aca="false">VLOOKUP($A243,統計!$A:$G,6,)</f>
@@ -11725,7 +11781,7 @@
         <v>#N/A</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D244" s="0" t="e">
         <f aca="false">VLOOKUP($A244,統計!$A:$G,6,)</f>
@@ -11749,7 +11805,7 @@
         <v>#N/A</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D245" s="0" t="e">
         <f aca="false">VLOOKUP($A245,統計!$A:$G,6,)</f>
@@ -11773,7 +11829,7 @@
         <v>#N/A</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D246" s="0" t="e">
         <f aca="false">VLOOKUP($A246,統計!$A:$G,6,)</f>
@@ -11797,7 +11853,7 @@
         <v>#N/A</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D247" s="0" t="e">
         <f aca="false">VLOOKUP($A247,統計!$A:$G,6,)</f>
@@ -11821,7 +11877,7 @@
         <v>#N/A</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D248" s="0" t="e">
         <f aca="false">VLOOKUP($A248,統計!$A:$G,6,)</f>
@@ -11845,7 +11901,7 @@
         <v>#N/A</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D249" s="0" t="e">
         <f aca="false">VLOOKUP($A249,統計!$A:$G,6,)</f>
@@ -11869,7 +11925,7 @@
         <v>#N/A</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D250" s="0" t="e">
         <f aca="false">VLOOKUP($A250,統計!$A:$G,6,)</f>
@@ -11893,7 +11949,7 @@
         <v>#N/A</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D251" s="0" t="e">
         <f aca="false">VLOOKUP($A251,統計!$A:$G,6,)</f>
@@ -11917,7 +11973,7 @@
         <v>#N/A</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D252" s="0" t="e">
         <f aca="false">VLOOKUP($A252,統計!$A:$G,6,)</f>
@@ -11941,7 +11997,7 @@
         <v>#N/A</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D253" s="0" t="e">
         <f aca="false">VLOOKUP($A253,統計!$A:$G,6,)</f>
@@ -11965,7 +12021,7 @@
         <v>#N/A</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D254" s="0" t="e">
         <f aca="false">VLOOKUP($A254,統計!$A:$G,6,)</f>
@@ -11989,7 +12045,7 @@
         <v>#N/A</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D255" s="0" t="e">
         <f aca="false">VLOOKUP($A255,統計!$A:$G,6,)</f>
@@ -12013,7 +12069,7 @@
         <v>#N/A</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D256" s="0" t="e">
         <f aca="false">VLOOKUP($A256,統計!$A:$G,6,)</f>
@@ -12037,7 +12093,7 @@
         <v>#N/A</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D257" s="0" t="e">
         <f aca="false">VLOOKUP($A257,統計!$A:$G,6,)</f>
@@ -12061,7 +12117,7 @@
         <v>#N/A</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D258" s="0" t="e">
         <f aca="false">VLOOKUP($A258,統計!$A:$G,6,)</f>
@@ -12085,7 +12141,7 @@
         <v>#N/A</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D259" s="0" t="e">
         <f aca="false">VLOOKUP($A259,統計!$A:$G,6,)</f>
@@ -12109,7 +12165,7 @@
         <v>#N/A</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D260" s="0" t="e">
         <f aca="false">VLOOKUP($A260,統計!$A:$G,6,)</f>
@@ -12133,7 +12189,7 @@
         <v>#N/A</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D261" s="0" t="e">
         <f aca="false">VLOOKUP($A261,統計!$A:$G,6,)</f>
@@ -12157,7 +12213,7 @@
         <v>#N/A</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D262" s="0" t="e">
         <f aca="false">VLOOKUP($A262,統計!$A:$G,6,)</f>
@@ -12181,7 +12237,7 @@
         <v>#N/A</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D263" s="0" t="e">
         <f aca="false">VLOOKUP($A263,統計!$A:$G,6,)</f>
@@ -12205,7 +12261,7 @@
         <v>#N/A</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D264" s="0" t="e">
         <f aca="false">VLOOKUP($A264,統計!$A:$G,6,)</f>
@@ -12229,7 +12285,7 @@
         <v>#N/A</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D265" s="0" t="e">
         <f aca="false">VLOOKUP($A265,統計!$A:$G,6,)</f>
@@ -12253,7 +12309,7 @@
         <v>#N/A</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D266" s="0" t="e">
         <f aca="false">VLOOKUP($A266,統計!$A:$G,6,)</f>
@@ -12277,7 +12333,7 @@
         <v>#N/A</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D267" s="0" t="e">
         <f aca="false">VLOOKUP($A267,統計!$A:$G,6,)</f>
@@ -12301,7 +12357,7 @@
         <v>#N/A</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D268" s="0" t="e">
         <f aca="false">VLOOKUP($A268,統計!$A:$G,6,)</f>
@@ -12325,7 +12381,7 @@
         <v>#N/A</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D269" s="0" t="e">
         <f aca="false">VLOOKUP($A269,統計!$A:$G,6,)</f>
@@ -12349,7 +12405,7 @@
         <v>#N/A</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D270" s="0" t="e">
         <f aca="false">VLOOKUP($A270,統計!$A:$G,6,)</f>
@@ -12373,7 +12429,7 @@
         <v>#N/A</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D271" s="0" t="e">
         <f aca="false">VLOOKUP($A271,統計!$A:$G,6,)</f>
@@ -12397,7 +12453,7 @@
         <v>#N/A</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D272" s="0" t="e">
         <f aca="false">VLOOKUP($A272,統計!$A:$G,6,)</f>
@@ -12421,7 +12477,7 @@
         <v>#N/A</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D273" s="0" t="e">
         <f aca="false">VLOOKUP($A273,統計!$A:$G,6,)</f>
@@ -12445,7 +12501,7 @@
         <v>#N/A</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D274" s="0" t="e">
         <f aca="false">VLOOKUP($A274,統計!$A:$G,6,)</f>
@@ -12469,7 +12525,7 @@
         <v>#N/A</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D275" s="0" t="e">
         <f aca="false">VLOOKUP($A275,統計!$A:$G,6,)</f>
@@ -12493,7 +12549,7 @@
         <v>#N/A</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D276" s="0" t="e">
         <f aca="false">VLOOKUP($A276,統計!$A:$G,6,)</f>
@@ -12517,7 +12573,7 @@
         <v>#N/A</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D277" s="0" t="e">
         <f aca="false">VLOOKUP($A277,統計!$A:$G,6,)</f>
@@ -12541,7 +12597,7 @@
         <v>#N/A</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D278" s="0" t="e">
         <f aca="false">VLOOKUP($A278,統計!$A:$G,6,)</f>
@@ -12565,7 +12621,7 @@
         <v>#N/A</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D279" s="0" t="e">
         <f aca="false">VLOOKUP($A279,統計!$A:$G,6,)</f>
@@ -12589,7 +12645,7 @@
         <v>#N/A</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D280" s="0" t="e">
         <f aca="false">VLOOKUP($A280,統計!$A:$G,6,)</f>
@@ -12613,7 +12669,7 @@
         <v>#N/A</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D281" s="0" t="e">
         <f aca="false">VLOOKUP($A281,統計!$A:$G,6,)</f>
@@ -12637,7 +12693,7 @@
         <v>#N/A</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D282" s="0" t="e">
         <f aca="false">VLOOKUP($A282,統計!$A:$G,6,)</f>
@@ -12661,7 +12717,7 @@
         <v>#N/A</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D283" s="0" t="e">
         <f aca="false">VLOOKUP($A283,統計!$A:$G,6,)</f>
@@ -12685,7 +12741,7 @@
         <v>#N/A</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D284" s="0" t="e">
         <f aca="false">VLOOKUP($A284,統計!$A:$G,6,)</f>
@@ -12709,7 +12765,7 @@
         <v>#N/A</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D285" s="0" t="e">
         <f aca="false">VLOOKUP($A285,統計!$A:$G,6,)</f>
@@ -12733,7 +12789,7 @@
         <v>#N/A</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D286" s="0" t="e">
         <f aca="false">VLOOKUP($A286,統計!$A:$G,6,)</f>
@@ -12757,7 +12813,7 @@
         <v>#N/A</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D287" s="0" t="e">
         <f aca="false">VLOOKUP($A287,統計!$A:$G,6,)</f>
@@ -12781,7 +12837,7 @@
         <v>#N/A</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D288" s="0" t="e">
         <f aca="false">VLOOKUP($A288,統計!$A:$G,6,)</f>
@@ -12805,7 +12861,7 @@
         <v>#N/A</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D289" s="0" t="e">
         <f aca="false">VLOOKUP($A289,統計!$A:$G,6,)</f>
@@ -12829,7 +12885,7 @@
         <v>#N/A</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D290" s="0" t="e">
         <f aca="false">VLOOKUP($A290,統計!$A:$G,6,)</f>
@@ -12853,7 +12909,7 @@
         <v>#N/A</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D291" s="0" t="e">
         <f aca="false">VLOOKUP($A291,統計!$A:$G,6,)</f>
@@ -12877,7 +12933,7 @@
         <v>#N/A</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D292" s="0" t="e">
         <f aca="false">VLOOKUP($A292,統計!$A:$G,6,)</f>
@@ -12901,7 +12957,7 @@
         <v>#N/A</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D293" s="0" t="e">
         <f aca="false">VLOOKUP($A293,統計!$A:$G,6,)</f>
@@ -12925,7 +12981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D294" s="0" t="e">
         <f aca="false">VLOOKUP($A294,統計!$A:$G,6,)</f>
@@ -12949,7 +13005,7 @@
         <v>#N/A</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D295" s="0" t="e">
         <f aca="false">VLOOKUP($A295,統計!$A:$G,6,)</f>
@@ -12966,8 +13022,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12990,13 +13046,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13010,30 +13066,30 @@
         <v>1173</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">C2/B2</f>
         <v>2.41791044776119</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">D2/C2</f>
         <v>1.81018518518519</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">O2/D2</f>
@@ -13045,7 +13101,7 @@
         <v>1239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13053,7 +13109,7 @@
         <v>2175</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13064,19 +13120,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13084,7 +13140,7 @@
         <v>3732</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">C6-C2</f>
@@ -13115,27 +13171,27 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="11" t="n">
         <f aca="false">C2/C7</f>
         <v>0.0674157303370787</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
@@ -13151,7 +13207,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N10" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>2</v>
@@ -13167,7 +13223,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>294</v>
@@ -13183,7 +13239,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>200</v>
@@ -13191,7 +13247,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N14" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>118</v>
@@ -13199,8 +13255,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="510">
   <si>
     <t xml:space="preserve">索引號</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t xml:space="preserve">晉紀二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">諸王就國情況(西晉大小國)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">司馬炎8年至14年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀三</t>
@@ -1801,7 +1807,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2156,18 +2162,21 @@
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>164.775735294118</c:v>
+                  <c:v>1.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>160.673835125448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="37135447"/>
-        <c:axId val="47779490"/>
+        <c:axId val="77021377"/>
+        <c:axId val="65069290"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37135447"/>
+        <c:axId val="77021377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,12 +2252,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47779490"/>
+        <c:crossAx val="65069290"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47779490"/>
+        <c:axId val="65069290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37135447"/>
+        <c:crossAx val="77021377"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2363,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>670680</xdr:colOff>
+      <xdr:colOff>670320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2374,7 +2383,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6835320" y="1995120"/>
-        <a:ext cx="4150080" cy="2742480"/>
+        <a:ext cx="4150440" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2392,12 +2401,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2514,19 +2523,19 @@
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>-37491.8</v>
+        <v>-37028.9382716049</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>6527.2</v>
+        <v>6990.06172839506</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>2601.65360470217</v>
+        <v>2511.58429231704</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>46620.6536047022</v>
+        <v>46530.584292317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,19 +2586,19 @@
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>-43005.3</v>
+        <v>-42474.3703703704</v>
       </c>
       <c r="P3" s="1" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>1013.7</v>
+        <v>1544.62962962964</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>2852.21414448087</v>
+        <v>2753.47041998802</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>46871.2141444809</v>
+        <v>46772.470419988</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,19 +2649,19 @@
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>-65059.3</v>
+        <v>-64256.0987654321</v>
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>-21040.3</v>
+        <v>-20237.0987654321</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>3436.8554039645</v>
+        <v>3317.87138455364</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>47455.8554039645</v>
+        <v>47336.8713845537</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,19 +2712,19 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>-97037.6</v>
+        <v>-95839.6049382716</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>-53018.6</v>
+        <v>-51820.6049382716</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>4142.60092434117</v>
+        <v>3999.18397749358</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>48161.6009243412</v>
+        <v>48018.1839774936</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,19 +2775,19 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>-146107.75</v>
+        <v>-144303.950617284</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>-102088.75</v>
+        <v>-100284.950617284</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>5470.57178516829</v>
+        <v>5281.18045414979</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>49489.5717851683</v>
+        <v>49300.1804541498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,19 +2838,19 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>-162096.9</v>
+        <v>-160095.703703704</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>-118077.9</v>
+        <v>-116076.703703704</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>5687.72425297649</v>
+        <v>5490.81509813131</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>49706.7242529765</v>
+        <v>49509.8150981313</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,19 +2901,19 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>-162096.9</v>
+        <v>-160095.703703704</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>-118077.9</v>
+        <v>-116076.703703704</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>5687.72425297649</v>
+        <v>5490.81509813131</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>49706.7242529765</v>
+        <v>49509.8150981313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,7 +2988,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>-551.35</v>
+        <v>-544.543209876543</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3029,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>4.17600899631167</v>
+        <v>4.03143546118304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,21 +5421,55 @@
       <c r="C81" s="1" t="n">
         <v>44820</v>
       </c>
+      <c r="D81" s="1" t="n">
+        <v>44828</v>
+      </c>
       <c r="E81" s="0" t="n">
         <f aca="false">D81-C81+1</f>
-        <v>-44819</v>
+        <v>9</v>
       </c>
       <c r="F81" s="0" t="n">
         <f aca="false">G80+1</f>
         <v>273</v>
       </c>
+      <c r="G81" s="0" t="n">
+        <v>279</v>
+      </c>
       <c r="H81" s="0" t="n">
         <f aca="false">IF(F81*G81&lt;0,ABS(F81)+ABS(G81),G81-F81+1)</f>
-        <v>-272</v>
+        <v>7</v>
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">E81/H81</f>
-        <v>164.775735294118</v>
+        <v>1.28571428571429</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="B82" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B81)</f>
+        <v>卷81</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>44829</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">D82-C82+1</f>
+        <v>-44828</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <f aca="false">G81+1</f>
+        <v>280</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <f aca="false">IF(F82*G82&lt;0,ABS(F82)+ABS(G82),G82-F82+1)</f>
+        <v>-279</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <f aca="false">E82/H82</f>
+        <v>160.673835125448</v>
       </c>
     </row>
   </sheetData>
@@ -5451,7 +5494,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7860,7 +7903,7 @@
         <v>701|[卷79](5_筆記/资治通鉴79.html)|晉紀一|265|272|||曹奐6年至7年、司馬炎至7年</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>702</v>
       </c>
@@ -7877,35 +7920,41 @@
       </c>
       <c r="E81" s="0" t="n">
         <f aca="false">VLOOKUP($A81,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>272</v>
       </c>
       <c r="I81" s="0" t="str">
         <f aca="false">A81&amp;"|"&amp;"["&amp;B81&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B81,"卷","")&amp;".html)|"&amp;C81&amp;"|"&amp;D81&amp;"|"&amp;E81&amp;"|"&amp;F81&amp;"|"&amp;G81&amp;"|"&amp;H81</f>
-        <v>702|[卷80](5_筆記/资治通鉴80.html)|晉紀二|273|0|||</v>
+        <v>702|[卷80](5_筆記/资治通鉴80.html)|晉紀二|273|279||諸王就國情況(西晉大小國)|司馬炎8年至14年</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>703</v>
       </c>
-      <c r="B82" s="0" t="e">
+      <c r="B82" s="0" t="str">
         <f aca="false">VLOOKUP($A82,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="0" t="e">
+        <v>273</v>
+      </c>
+      <c r="D82" s="0" t="n">
         <f aca="false">VLOOKUP($A82,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="0" t="e">
+        <v>280</v>
+      </c>
+      <c r="E82" s="0" t="n">
         <f aca="false">VLOOKUP($A82,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I82" s="0" t="e">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="str">
         <f aca="false">A82&amp;"|"&amp;"["&amp;B82&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B82,"卷","")&amp;".html)|"&amp;C82&amp;"|"&amp;D82&amp;"|"&amp;E82&amp;"|"&amp;F82&amp;"|"&amp;G82&amp;"|"&amp;H82</f>
-        <v>#N/A</v>
+        <v>703|[卷81](5_筆記/资治通鉴81.html)|晉紀三|280|0|||</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +7966,7 @@
         <v>#N/A</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D83" s="0" t="e">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,6,)</f>
@@ -7941,7 +7990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D84" s="0" t="e">
         <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
@@ -7965,7 +8014,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D85" s="0" t="e">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,6,)</f>
@@ -7989,7 +8038,7 @@
         <v>#N/A</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D86" s="0" t="e">
         <f aca="false">VLOOKUP($A86,統計!$A:$G,6,)</f>
@@ -8013,7 +8062,7 @@
         <v>#N/A</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D87" s="0" t="e">
         <f aca="false">VLOOKUP($A87,統計!$A:$G,6,)</f>
@@ -8037,7 +8086,7 @@
         <v>#N/A</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D88" s="0" t="e">
         <f aca="false">VLOOKUP($A88,統計!$A:$G,6,)</f>
@@ -8061,7 +8110,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D89" s="0" t="e">
         <f aca="false">VLOOKUP($A89,統計!$A:$G,6,)</f>
@@ -8085,7 +8134,7 @@
         <v>#N/A</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D90" s="0" t="e">
         <f aca="false">VLOOKUP($A90,統計!$A:$G,6,)</f>
@@ -8109,7 +8158,7 @@
         <v>#N/A</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D91" s="0" t="e">
         <f aca="false">VLOOKUP($A91,統計!$A:$G,6,)</f>
@@ -8133,7 +8182,7 @@
         <v>#N/A</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D92" s="0" t="e">
         <f aca="false">VLOOKUP($A92,統計!$A:$G,6,)</f>
@@ -8157,7 +8206,7 @@
         <v>#N/A</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D93" s="0" t="e">
         <f aca="false">VLOOKUP($A93,統計!$A:$G,6,)</f>
@@ -8181,7 +8230,7 @@
         <v>#N/A</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D94" s="0" t="e">
         <f aca="false">VLOOKUP($A94,統計!$A:$G,6,)</f>
@@ -8205,7 +8254,7 @@
         <v>#N/A</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D95" s="0" t="e">
         <f aca="false">VLOOKUP($A95,統計!$A:$G,6,)</f>
@@ -8229,7 +8278,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D96" s="0" t="e">
         <f aca="false">VLOOKUP($A96,統計!$A:$G,6,)</f>
@@ -8253,7 +8302,7 @@
         <v>#N/A</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D97" s="0" t="e">
         <f aca="false">VLOOKUP($A97,統計!$A:$G,6,)</f>
@@ -8277,7 +8326,7 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D98" s="0" t="e">
         <f aca="false">VLOOKUP($A98,統計!$A:$G,6,)</f>
@@ -8301,7 +8350,7 @@
         <v>#N/A</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" s="0" t="e">
         <f aca="false">VLOOKUP($A99,統計!$A:$G,6,)</f>
@@ -8325,7 +8374,7 @@
         <v>#N/A</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D100" s="0" t="e">
         <f aca="false">VLOOKUP($A100,統計!$A:$G,6,)</f>
@@ -8349,7 +8398,7 @@
         <v>#N/A</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D101" s="0" t="e">
         <f aca="false">VLOOKUP($A101,統計!$A:$G,6,)</f>
@@ -8373,7 +8422,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="0" t="e">
         <f aca="false">VLOOKUP($A102,統計!$A:$G,6,)</f>
@@ -8397,7 +8446,7 @@
         <v>#N/A</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="0" t="e">
         <f aca="false">VLOOKUP($A103,統計!$A:$G,6,)</f>
@@ -8421,7 +8470,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="0" t="e">
         <f aca="false">VLOOKUP($A104,統計!$A:$G,6,)</f>
@@ -8445,7 +8494,7 @@
         <v>#N/A</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="0" t="e">
         <f aca="false">VLOOKUP($A105,統計!$A:$G,6,)</f>
@@ -8469,7 +8518,7 @@
         <v>#N/A</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="0" t="e">
         <f aca="false">VLOOKUP($A106,統計!$A:$G,6,)</f>
@@ -8493,7 +8542,7 @@
         <v>#N/A</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="0" t="e">
         <f aca="false">VLOOKUP($A107,統計!$A:$G,6,)</f>
@@ -8517,7 +8566,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="0" t="e">
         <f aca="false">VLOOKUP($A108,統計!$A:$G,6,)</f>
@@ -8541,7 +8590,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="0" t="e">
         <f aca="false">VLOOKUP($A109,統計!$A:$G,6,)</f>
@@ -8565,7 +8614,7 @@
         <v>#N/A</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="0" t="e">
         <f aca="false">VLOOKUP($A110,統計!$A:$G,6,)</f>
@@ -8589,7 +8638,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D111" s="0" t="e">
         <f aca="false">VLOOKUP($A111,統計!$A:$G,6,)</f>
@@ -8613,7 +8662,7 @@
         <v>#N/A</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="0" t="e">
         <f aca="false">VLOOKUP($A112,統計!$A:$G,6,)</f>
@@ -8637,7 +8686,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="0" t="e">
         <f aca="false">VLOOKUP($A113,統計!$A:$G,6,)</f>
@@ -8661,7 +8710,7 @@
         <v>#N/A</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="0" t="e">
         <f aca="false">VLOOKUP($A114,統計!$A:$G,6,)</f>
@@ -8685,7 +8734,7 @@
         <v>#N/A</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="0" t="e">
         <f aca="false">VLOOKUP($A115,統計!$A:$G,6,)</f>
@@ -8709,7 +8758,7 @@
         <v>#N/A</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D116" s="0" t="e">
         <f aca="false">VLOOKUP($A116,統計!$A:$G,6,)</f>
@@ -8733,7 +8782,7 @@
         <v>#N/A</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="0" t="e">
         <f aca="false">VLOOKUP($A117,統計!$A:$G,6,)</f>
@@ -8757,7 +8806,7 @@
         <v>#N/A</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D118" s="0" t="e">
         <f aca="false">VLOOKUP($A118,統計!$A:$G,6,)</f>
@@ -8781,7 +8830,7 @@
         <v>#N/A</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D119" s="0" t="e">
         <f aca="false">VLOOKUP($A119,統計!$A:$G,6,)</f>
@@ -8805,7 +8854,7 @@
         <v>#N/A</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D120" s="0" t="e">
         <f aca="false">VLOOKUP($A120,統計!$A:$G,6,)</f>
@@ -8829,7 +8878,7 @@
         <v>#N/A</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D121" s="0" t="e">
         <f aca="false">VLOOKUP($A121,統計!$A:$G,6,)</f>
@@ -8853,7 +8902,7 @@
         <v>#N/A</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D122" s="0" t="e">
         <f aca="false">VLOOKUP($A122,統計!$A:$G,6,)</f>
@@ -8877,7 +8926,7 @@
         <v>#N/A</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D123" s="0" t="e">
         <f aca="false">VLOOKUP($A123,統計!$A:$G,6,)</f>
@@ -8901,7 +8950,7 @@
         <v>#N/A</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D124" s="0" t="e">
         <f aca="false">VLOOKUP($A124,統計!$A:$G,6,)</f>
@@ -8925,7 +8974,7 @@
         <v>#N/A</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D125" s="0" t="e">
         <f aca="false">VLOOKUP($A125,統計!$A:$G,6,)</f>
@@ -8949,7 +8998,7 @@
         <v>#N/A</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D126" s="0" t="e">
         <f aca="false">VLOOKUP($A126,統計!$A:$G,6,)</f>
@@ -8973,7 +9022,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D127" s="0" t="e">
         <f aca="false">VLOOKUP($A127,統計!$A:$G,6,)</f>
@@ -8997,7 +9046,7 @@
         <v>#N/A</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D128" s="0" t="e">
         <f aca="false">VLOOKUP($A128,統計!$A:$G,6,)</f>
@@ -9021,7 +9070,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D129" s="0" t="e">
         <f aca="false">VLOOKUP($A129,統計!$A:$G,6,)</f>
@@ -9045,7 +9094,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D130" s="0" t="e">
         <f aca="false">VLOOKUP($A130,統計!$A:$G,6,)</f>
@@ -9069,7 +9118,7 @@
         <v>#N/A</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D131" s="0" t="e">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,6,)</f>
@@ -9093,7 +9142,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D132" s="0" t="e">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,6,)</f>
@@ -9117,7 +9166,7 @@
         <v>#N/A</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D133" s="0" t="e">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,6,)</f>
@@ -9141,7 +9190,7 @@
         <v>#N/A</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D134" s="0" t="e">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,6,)</f>
@@ -9165,7 +9214,7 @@
         <v>#N/A</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D135" s="0" t="e">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,6,)</f>
@@ -9189,7 +9238,7 @@
         <v>#N/A</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D136" s="0" t="e">
         <f aca="false">VLOOKUP($A136,統計!$A:$G,6,)</f>
@@ -9213,7 +9262,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D137" s="0" t="e">
         <f aca="false">VLOOKUP($A137,統計!$A:$G,6,)</f>
@@ -9237,7 +9286,7 @@
         <v>#N/A</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D138" s="0" t="e">
         <f aca="false">VLOOKUP($A138,統計!$A:$G,6,)</f>
@@ -9261,7 +9310,7 @@
         <v>#N/A</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D139" s="0" t="e">
         <f aca="false">VLOOKUP($A139,統計!$A:$G,6,)</f>
@@ -9285,7 +9334,7 @@
         <v>#N/A</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D140" s="0" t="e">
         <f aca="false">VLOOKUP($A140,統計!$A:$G,6,)</f>
@@ -9309,7 +9358,7 @@
         <v>#N/A</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D141" s="0" t="e">
         <f aca="false">VLOOKUP($A141,統計!$A:$G,6,)</f>
@@ -9333,7 +9382,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D142" s="0" t="e">
         <f aca="false">VLOOKUP($A142,統計!$A:$G,6,)</f>
@@ -9357,7 +9406,7 @@
         <v>#N/A</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D143" s="0" t="e">
         <f aca="false">VLOOKUP($A143,統計!$A:$G,6,)</f>
@@ -9381,7 +9430,7 @@
         <v>#N/A</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D144" s="0" t="e">
         <f aca="false">VLOOKUP($A144,統計!$A:$G,6,)</f>
@@ -9405,7 +9454,7 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D145" s="0" t="e">
         <f aca="false">VLOOKUP($A145,統計!$A:$G,6,)</f>
@@ -9429,7 +9478,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D146" s="0" t="e">
         <f aca="false">VLOOKUP($A146,統計!$A:$G,6,)</f>
@@ -9453,7 +9502,7 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D147" s="0" t="e">
         <f aca="false">VLOOKUP($A147,統計!$A:$G,6,)</f>
@@ -9477,7 +9526,7 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D148" s="0" t="e">
         <f aca="false">VLOOKUP($A148,統計!$A:$G,6,)</f>
@@ -9501,7 +9550,7 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D149" s="0" t="e">
         <f aca="false">VLOOKUP($A149,統計!$A:$G,6,)</f>
@@ -9525,7 +9574,7 @@
         <v>#N/A</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D150" s="0" t="e">
         <f aca="false">VLOOKUP($A150,統計!$A:$G,6,)</f>
@@ -9549,7 +9598,7 @@
         <v>#N/A</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D151" s="0" t="e">
         <f aca="false">VLOOKUP($A151,統計!$A:$G,6,)</f>
@@ -9573,7 +9622,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D152" s="0" t="e">
         <f aca="false">VLOOKUP($A152,統計!$A:$G,6,)</f>
@@ -9597,7 +9646,7 @@
         <v>#N/A</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D153" s="0" t="e">
         <f aca="false">VLOOKUP($A153,統計!$A:$G,6,)</f>
@@ -9621,7 +9670,7 @@
         <v>#N/A</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D154" s="0" t="e">
         <f aca="false">VLOOKUP($A154,統計!$A:$G,6,)</f>
@@ -9645,7 +9694,7 @@
         <v>#N/A</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D155" s="0" t="e">
         <f aca="false">VLOOKUP($A155,統計!$A:$G,6,)</f>
@@ -9669,7 +9718,7 @@
         <v>#N/A</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D156" s="0" t="e">
         <f aca="false">VLOOKUP($A156,統計!$A:$G,6,)</f>
@@ -9693,7 +9742,7 @@
         <v>#N/A</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D157" s="0" t="e">
         <f aca="false">VLOOKUP($A157,統計!$A:$G,6,)</f>
@@ -9717,7 +9766,7 @@
         <v>#N/A</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D158" s="0" t="e">
         <f aca="false">VLOOKUP($A158,統計!$A:$G,6,)</f>
@@ -9741,7 +9790,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D159" s="0" t="e">
         <f aca="false">VLOOKUP($A159,統計!$A:$G,6,)</f>
@@ -9765,7 +9814,7 @@
         <v>#N/A</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D160" s="0" t="e">
         <f aca="false">VLOOKUP($A160,統計!$A:$G,6,)</f>
@@ -9789,7 +9838,7 @@
         <v>#N/A</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D161" s="0" t="e">
         <f aca="false">VLOOKUP($A161,統計!$A:$G,6,)</f>
@@ -9813,7 +9862,7 @@
         <v>#N/A</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D162" s="0" t="e">
         <f aca="false">VLOOKUP($A162,統計!$A:$G,6,)</f>
@@ -9837,7 +9886,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D163" s="0" t="e">
         <f aca="false">VLOOKUP($A163,統計!$A:$G,6,)</f>
@@ -9861,7 +9910,7 @@
         <v>#N/A</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D164" s="0" t="e">
         <f aca="false">VLOOKUP($A164,統計!$A:$G,6,)</f>
@@ -9885,7 +9934,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D165" s="0" t="e">
         <f aca="false">VLOOKUP($A165,統計!$A:$G,6,)</f>
@@ -9909,7 +9958,7 @@
         <v>#N/A</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D166" s="0" t="e">
         <f aca="false">VLOOKUP($A166,統計!$A:$G,6,)</f>
@@ -9933,7 +9982,7 @@
         <v>#N/A</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D167" s="0" t="e">
         <f aca="false">VLOOKUP($A167,統計!$A:$G,6,)</f>
@@ -9957,7 +10006,7 @@
         <v>#N/A</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D168" s="0" t="e">
         <f aca="false">VLOOKUP($A168,統計!$A:$G,6,)</f>
@@ -9981,7 +10030,7 @@
         <v>#N/A</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D169" s="0" t="e">
         <f aca="false">VLOOKUP($A169,統計!$A:$G,6,)</f>
@@ -10005,7 +10054,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D170" s="0" t="e">
         <f aca="false">VLOOKUP($A170,統計!$A:$G,6,)</f>
@@ -10029,7 +10078,7 @@
         <v>#N/A</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D171" s="0" t="e">
         <f aca="false">VLOOKUP($A171,統計!$A:$G,6,)</f>
@@ -10053,7 +10102,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D172" s="0" t="e">
         <f aca="false">VLOOKUP($A172,統計!$A:$G,6,)</f>
@@ -10077,7 +10126,7 @@
         <v>#N/A</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D173" s="0" t="e">
         <f aca="false">VLOOKUP($A173,統計!$A:$G,6,)</f>
@@ -10101,7 +10150,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D174" s="0" t="e">
         <f aca="false">VLOOKUP($A174,統計!$A:$G,6,)</f>
@@ -10125,7 +10174,7 @@
         <v>#N/A</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D175" s="0" t="e">
         <f aca="false">VLOOKUP($A175,統計!$A:$G,6,)</f>
@@ -10149,7 +10198,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D176" s="0" t="e">
         <f aca="false">VLOOKUP($A176,統計!$A:$G,6,)</f>
@@ -10173,7 +10222,7 @@
         <v>#N/A</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D177" s="0" t="e">
         <f aca="false">VLOOKUP($A177,統計!$A:$G,6,)</f>
@@ -10197,7 +10246,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D178" s="0" t="e">
         <f aca="false">VLOOKUP($A178,統計!$A:$G,6,)</f>
@@ -10221,7 +10270,7 @@
         <v>#N/A</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D179" s="0" t="e">
         <f aca="false">VLOOKUP($A179,統計!$A:$G,6,)</f>
@@ -10245,7 +10294,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D180" s="0" t="e">
         <f aca="false">VLOOKUP($A180,統計!$A:$G,6,)</f>
@@ -10269,7 +10318,7 @@
         <v>#N/A</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D181" s="0" t="e">
         <f aca="false">VLOOKUP($A181,統計!$A:$G,6,)</f>
@@ -10293,7 +10342,7 @@
         <v>#N/A</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D182" s="0" t="e">
         <f aca="false">VLOOKUP($A182,統計!$A:$G,6,)</f>
@@ -10317,7 +10366,7 @@
         <v>#N/A</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D183" s="0" t="e">
         <f aca="false">VLOOKUP($A183,統計!$A:$G,6,)</f>
@@ -10341,7 +10390,7 @@
         <v>#N/A</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D184" s="0" t="e">
         <f aca="false">VLOOKUP($A184,統計!$A:$G,6,)</f>
@@ -10365,7 +10414,7 @@
         <v>#N/A</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D185" s="0" t="e">
         <f aca="false">VLOOKUP($A185,統計!$A:$G,6,)</f>
@@ -10389,7 +10438,7 @@
         <v>#N/A</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D186" s="0" t="e">
         <f aca="false">VLOOKUP($A186,統計!$A:$G,6,)</f>
@@ -10413,7 +10462,7 @@
         <v>#N/A</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D187" s="0" t="e">
         <f aca="false">VLOOKUP($A187,統計!$A:$G,6,)</f>
@@ -10437,7 +10486,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D188" s="0" t="e">
         <f aca="false">VLOOKUP($A188,統計!$A:$G,6,)</f>
@@ -10461,7 +10510,7 @@
         <v>#N/A</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D189" s="0" t="e">
         <f aca="false">VLOOKUP($A189,統計!$A:$G,6,)</f>
@@ -10485,7 +10534,7 @@
         <v>#N/A</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D190" s="0" t="e">
         <f aca="false">VLOOKUP($A190,統計!$A:$G,6,)</f>
@@ -10509,7 +10558,7 @@
         <v>#N/A</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D191" s="0" t="e">
         <f aca="false">VLOOKUP($A191,統計!$A:$G,6,)</f>
@@ -10533,7 +10582,7 @@
         <v>#N/A</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D192" s="0" t="e">
         <f aca="false">VLOOKUP($A192,統計!$A:$G,6,)</f>
@@ -10557,7 +10606,7 @@
         <v>#N/A</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D193" s="0" t="e">
         <f aca="false">VLOOKUP($A193,統計!$A:$G,6,)</f>
@@ -10581,7 +10630,7 @@
         <v>#N/A</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D194" s="0" t="e">
         <f aca="false">VLOOKUP($A194,統計!$A:$G,6,)</f>
@@ -10605,7 +10654,7 @@
         <v>#N/A</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D195" s="0" t="e">
         <f aca="false">VLOOKUP($A195,統計!$A:$G,6,)</f>
@@ -10629,7 +10678,7 @@
         <v>#N/A</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D196" s="0" t="e">
         <f aca="false">VLOOKUP($A196,統計!$A:$G,6,)</f>
@@ -10653,7 +10702,7 @@
         <v>#N/A</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D197" s="0" t="e">
         <f aca="false">VLOOKUP($A197,統計!$A:$G,6,)</f>
@@ -10677,7 +10726,7 @@
         <v>#N/A</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D198" s="0" t="e">
         <f aca="false">VLOOKUP($A198,統計!$A:$G,6,)</f>
@@ -10701,7 +10750,7 @@
         <v>#N/A</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D199" s="0" t="e">
         <f aca="false">VLOOKUP($A199,統計!$A:$G,6,)</f>
@@ -10725,7 +10774,7 @@
         <v>#N/A</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D200" s="0" t="e">
         <f aca="false">VLOOKUP($A200,統計!$A:$G,6,)</f>
@@ -10749,7 +10798,7 @@
         <v>#N/A</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D201" s="0" t="e">
         <f aca="false">VLOOKUP($A201,統計!$A:$G,6,)</f>
@@ -10773,7 +10822,7 @@
         <v>#N/A</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D202" s="0" t="e">
         <f aca="false">VLOOKUP($A202,統計!$A:$G,6,)</f>
@@ -10797,7 +10846,7 @@
         <v>#N/A</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D203" s="0" t="e">
         <f aca="false">VLOOKUP($A203,統計!$A:$G,6,)</f>
@@ -10821,7 +10870,7 @@
         <v>#N/A</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D204" s="0" t="e">
         <f aca="false">VLOOKUP($A204,統計!$A:$G,6,)</f>
@@ -10845,7 +10894,7 @@
         <v>#N/A</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D205" s="0" t="e">
         <f aca="false">VLOOKUP($A205,統計!$A:$G,6,)</f>
@@ -10869,7 +10918,7 @@
         <v>#N/A</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D206" s="0" t="e">
         <f aca="false">VLOOKUP($A206,統計!$A:$G,6,)</f>
@@ -10893,7 +10942,7 @@
         <v>#N/A</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D207" s="0" t="e">
         <f aca="false">VLOOKUP($A207,統計!$A:$G,6,)</f>
@@ -10917,7 +10966,7 @@
         <v>#N/A</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D208" s="0" t="e">
         <f aca="false">VLOOKUP($A208,統計!$A:$G,6,)</f>
@@ -10941,7 +10990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D209" s="0" t="e">
         <f aca="false">VLOOKUP($A209,統計!$A:$G,6,)</f>
@@ -10965,7 +11014,7 @@
         <v>#N/A</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D210" s="0" t="e">
         <f aca="false">VLOOKUP($A210,統計!$A:$G,6,)</f>
@@ -10989,7 +11038,7 @@
         <v>#N/A</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D211" s="0" t="e">
         <f aca="false">VLOOKUP($A211,統計!$A:$G,6,)</f>
@@ -11013,7 +11062,7 @@
         <v>#N/A</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D212" s="0" t="e">
         <f aca="false">VLOOKUP($A212,統計!$A:$G,6,)</f>
@@ -11037,7 +11086,7 @@
         <v>#N/A</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D213" s="0" t="e">
         <f aca="false">VLOOKUP($A213,統計!$A:$G,6,)</f>
@@ -11061,7 +11110,7 @@
         <v>#N/A</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D214" s="0" t="e">
         <f aca="false">VLOOKUP($A214,統計!$A:$G,6,)</f>
@@ -11085,7 +11134,7 @@
         <v>#N/A</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D215" s="0" t="e">
         <f aca="false">VLOOKUP($A215,統計!$A:$G,6,)</f>
@@ -11109,7 +11158,7 @@
         <v>#N/A</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D216" s="0" t="e">
         <f aca="false">VLOOKUP($A216,統計!$A:$G,6,)</f>
@@ -11133,7 +11182,7 @@
         <v>#N/A</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D217" s="0" t="e">
         <f aca="false">VLOOKUP($A217,統計!$A:$G,6,)</f>
@@ -11157,7 +11206,7 @@
         <v>#N/A</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D218" s="0" t="e">
         <f aca="false">VLOOKUP($A218,統計!$A:$G,6,)</f>
@@ -11181,7 +11230,7 @@
         <v>#N/A</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D219" s="0" t="e">
         <f aca="false">VLOOKUP($A219,統計!$A:$G,6,)</f>
@@ -11205,7 +11254,7 @@
         <v>#N/A</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D220" s="0" t="e">
         <f aca="false">VLOOKUP($A220,統計!$A:$G,6,)</f>
@@ -11229,7 +11278,7 @@
         <v>#N/A</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D221" s="0" t="e">
         <f aca="false">VLOOKUP($A221,統計!$A:$G,6,)</f>
@@ -11253,7 +11302,7 @@
         <v>#N/A</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D222" s="0" t="e">
         <f aca="false">VLOOKUP($A222,統計!$A:$G,6,)</f>
@@ -11277,7 +11326,7 @@
         <v>#N/A</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D223" s="0" t="e">
         <f aca="false">VLOOKUP($A223,統計!$A:$G,6,)</f>
@@ -11301,7 +11350,7 @@
         <v>#N/A</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D224" s="0" t="e">
         <f aca="false">VLOOKUP($A224,統計!$A:$G,6,)</f>
@@ -11325,7 +11374,7 @@
         <v>#N/A</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D225" s="0" t="e">
         <f aca="false">VLOOKUP($A225,統計!$A:$G,6,)</f>
@@ -11349,7 +11398,7 @@
         <v>#N/A</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D226" s="0" t="e">
         <f aca="false">VLOOKUP($A226,統計!$A:$G,6,)</f>
@@ -11373,7 +11422,7 @@
         <v>#N/A</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D227" s="0" t="e">
         <f aca="false">VLOOKUP($A227,統計!$A:$G,6,)</f>
@@ -11397,7 +11446,7 @@
         <v>#N/A</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D228" s="0" t="e">
         <f aca="false">VLOOKUP($A228,統計!$A:$G,6,)</f>
@@ -11421,7 +11470,7 @@
         <v>#N/A</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D229" s="0" t="e">
         <f aca="false">VLOOKUP($A229,統計!$A:$G,6,)</f>
@@ -11445,7 +11494,7 @@
         <v>#N/A</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D230" s="0" t="e">
         <f aca="false">VLOOKUP($A230,統計!$A:$G,6,)</f>
@@ -11469,7 +11518,7 @@
         <v>#N/A</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D231" s="0" t="e">
         <f aca="false">VLOOKUP($A231,統計!$A:$G,6,)</f>
@@ -11493,7 +11542,7 @@
         <v>#N/A</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D232" s="0" t="e">
         <f aca="false">VLOOKUP($A232,統計!$A:$G,6,)</f>
@@ -11517,7 +11566,7 @@
         <v>#N/A</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D233" s="0" t="e">
         <f aca="false">VLOOKUP($A233,統計!$A:$G,6,)</f>
@@ -11541,7 +11590,7 @@
         <v>#N/A</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D234" s="0" t="e">
         <f aca="false">VLOOKUP($A234,統計!$A:$G,6,)</f>
@@ -11565,7 +11614,7 @@
         <v>#N/A</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D235" s="0" t="e">
         <f aca="false">VLOOKUP($A235,統計!$A:$G,6,)</f>
@@ -11589,7 +11638,7 @@
         <v>#N/A</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D236" s="0" t="e">
         <f aca="false">VLOOKUP($A236,統計!$A:$G,6,)</f>
@@ -11613,7 +11662,7 @@
         <v>#N/A</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D237" s="0" t="e">
         <f aca="false">VLOOKUP($A237,統計!$A:$G,6,)</f>
@@ -11637,7 +11686,7 @@
         <v>#N/A</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D238" s="0" t="e">
         <f aca="false">VLOOKUP($A238,統計!$A:$G,6,)</f>
@@ -11661,7 +11710,7 @@
         <v>#N/A</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D239" s="0" t="e">
         <f aca="false">VLOOKUP($A239,統計!$A:$G,6,)</f>
@@ -11685,7 +11734,7 @@
         <v>#N/A</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D240" s="0" t="e">
         <f aca="false">VLOOKUP($A240,統計!$A:$G,6,)</f>
@@ -11709,7 +11758,7 @@
         <v>#N/A</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D241" s="0" t="e">
         <f aca="false">VLOOKUP($A241,統計!$A:$G,6,)</f>
@@ -11733,7 +11782,7 @@
         <v>#N/A</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D242" s="0" t="e">
         <f aca="false">VLOOKUP($A242,統計!$A:$G,6,)</f>
@@ -11757,7 +11806,7 @@
         <v>#N/A</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D243" s="0" t="e">
         <f aca="false">VLOOKUP($A243,統計!$A:$G,6,)</f>
@@ -11781,7 +11830,7 @@
         <v>#N/A</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D244" s="0" t="e">
         <f aca="false">VLOOKUP($A244,統計!$A:$G,6,)</f>
@@ -11805,7 +11854,7 @@
         <v>#N/A</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D245" s="0" t="e">
         <f aca="false">VLOOKUP($A245,統計!$A:$G,6,)</f>
@@ -11829,7 +11878,7 @@
         <v>#N/A</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D246" s="0" t="e">
         <f aca="false">VLOOKUP($A246,統計!$A:$G,6,)</f>
@@ -11853,7 +11902,7 @@
         <v>#N/A</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D247" s="0" t="e">
         <f aca="false">VLOOKUP($A247,統計!$A:$G,6,)</f>
@@ -11877,7 +11926,7 @@
         <v>#N/A</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D248" s="0" t="e">
         <f aca="false">VLOOKUP($A248,統計!$A:$G,6,)</f>
@@ -11901,7 +11950,7 @@
         <v>#N/A</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D249" s="0" t="e">
         <f aca="false">VLOOKUP($A249,統計!$A:$G,6,)</f>
@@ -11925,7 +11974,7 @@
         <v>#N/A</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D250" s="0" t="e">
         <f aca="false">VLOOKUP($A250,統計!$A:$G,6,)</f>
@@ -11949,7 +11998,7 @@
         <v>#N/A</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D251" s="0" t="e">
         <f aca="false">VLOOKUP($A251,統計!$A:$G,6,)</f>
@@ -11973,7 +12022,7 @@
         <v>#N/A</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D252" s="0" t="e">
         <f aca="false">VLOOKUP($A252,統計!$A:$G,6,)</f>
@@ -11997,7 +12046,7 @@
         <v>#N/A</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D253" s="0" t="e">
         <f aca="false">VLOOKUP($A253,統計!$A:$G,6,)</f>
@@ -12021,7 +12070,7 @@
         <v>#N/A</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D254" s="0" t="e">
         <f aca="false">VLOOKUP($A254,統計!$A:$G,6,)</f>
@@ -12045,7 +12094,7 @@
         <v>#N/A</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D255" s="0" t="e">
         <f aca="false">VLOOKUP($A255,統計!$A:$G,6,)</f>
@@ -12069,7 +12118,7 @@
         <v>#N/A</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D256" s="0" t="e">
         <f aca="false">VLOOKUP($A256,統計!$A:$G,6,)</f>
@@ -12093,7 +12142,7 @@
         <v>#N/A</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D257" s="0" t="e">
         <f aca="false">VLOOKUP($A257,統計!$A:$G,6,)</f>
@@ -12117,7 +12166,7 @@
         <v>#N/A</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D258" s="0" t="e">
         <f aca="false">VLOOKUP($A258,統計!$A:$G,6,)</f>
@@ -12141,7 +12190,7 @@
         <v>#N/A</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D259" s="0" t="e">
         <f aca="false">VLOOKUP($A259,統計!$A:$G,6,)</f>
@@ -12165,7 +12214,7 @@
         <v>#N/A</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D260" s="0" t="e">
         <f aca="false">VLOOKUP($A260,統計!$A:$G,6,)</f>
@@ -12189,7 +12238,7 @@
         <v>#N/A</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D261" s="0" t="e">
         <f aca="false">VLOOKUP($A261,統計!$A:$G,6,)</f>
@@ -12213,7 +12262,7 @@
         <v>#N/A</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D262" s="0" t="e">
         <f aca="false">VLOOKUP($A262,統計!$A:$G,6,)</f>
@@ -12237,7 +12286,7 @@
         <v>#N/A</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D263" s="0" t="e">
         <f aca="false">VLOOKUP($A263,統計!$A:$G,6,)</f>
@@ -12261,7 +12310,7 @@
         <v>#N/A</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D264" s="0" t="e">
         <f aca="false">VLOOKUP($A264,統計!$A:$G,6,)</f>
@@ -12285,7 +12334,7 @@
         <v>#N/A</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D265" s="0" t="e">
         <f aca="false">VLOOKUP($A265,統計!$A:$G,6,)</f>
@@ -12309,7 +12358,7 @@
         <v>#N/A</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D266" s="0" t="e">
         <f aca="false">VLOOKUP($A266,統計!$A:$G,6,)</f>
@@ -12333,7 +12382,7 @@
         <v>#N/A</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D267" s="0" t="e">
         <f aca="false">VLOOKUP($A267,統計!$A:$G,6,)</f>
@@ -12357,7 +12406,7 @@
         <v>#N/A</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D268" s="0" t="e">
         <f aca="false">VLOOKUP($A268,統計!$A:$G,6,)</f>
@@ -12381,7 +12430,7 @@
         <v>#N/A</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D269" s="0" t="e">
         <f aca="false">VLOOKUP($A269,統計!$A:$G,6,)</f>
@@ -12405,7 +12454,7 @@
         <v>#N/A</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D270" s="0" t="e">
         <f aca="false">VLOOKUP($A270,統計!$A:$G,6,)</f>
@@ -12429,7 +12478,7 @@
         <v>#N/A</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D271" s="0" t="e">
         <f aca="false">VLOOKUP($A271,統計!$A:$G,6,)</f>
@@ -12453,7 +12502,7 @@
         <v>#N/A</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D272" s="0" t="e">
         <f aca="false">VLOOKUP($A272,統計!$A:$G,6,)</f>
@@ -12477,7 +12526,7 @@
         <v>#N/A</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D273" s="0" t="e">
         <f aca="false">VLOOKUP($A273,統計!$A:$G,6,)</f>
@@ -12501,7 +12550,7 @@
         <v>#N/A</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D274" s="0" t="e">
         <f aca="false">VLOOKUP($A274,統計!$A:$G,6,)</f>
@@ -12525,7 +12574,7 @@
         <v>#N/A</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D275" s="0" t="e">
         <f aca="false">VLOOKUP($A275,統計!$A:$G,6,)</f>
@@ -12549,7 +12598,7 @@
         <v>#N/A</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D276" s="0" t="e">
         <f aca="false">VLOOKUP($A276,統計!$A:$G,6,)</f>
@@ -12573,7 +12622,7 @@
         <v>#N/A</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D277" s="0" t="e">
         <f aca="false">VLOOKUP($A277,統計!$A:$G,6,)</f>
@@ -12597,7 +12646,7 @@
         <v>#N/A</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D278" s="0" t="e">
         <f aca="false">VLOOKUP($A278,統計!$A:$G,6,)</f>
@@ -12621,7 +12670,7 @@
         <v>#N/A</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D279" s="0" t="e">
         <f aca="false">VLOOKUP($A279,統計!$A:$G,6,)</f>
@@ -12645,7 +12694,7 @@
         <v>#N/A</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D280" s="0" t="e">
         <f aca="false">VLOOKUP($A280,統計!$A:$G,6,)</f>
@@ -12669,7 +12718,7 @@
         <v>#N/A</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D281" s="0" t="e">
         <f aca="false">VLOOKUP($A281,統計!$A:$G,6,)</f>
@@ -12693,7 +12742,7 @@
         <v>#N/A</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D282" s="0" t="e">
         <f aca="false">VLOOKUP($A282,統計!$A:$G,6,)</f>
@@ -12717,7 +12766,7 @@
         <v>#N/A</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D283" s="0" t="e">
         <f aca="false">VLOOKUP($A283,統計!$A:$G,6,)</f>
@@ -12741,7 +12790,7 @@
         <v>#N/A</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D284" s="0" t="e">
         <f aca="false">VLOOKUP($A284,統計!$A:$G,6,)</f>
@@ -12765,7 +12814,7 @@
         <v>#N/A</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D285" s="0" t="e">
         <f aca="false">VLOOKUP($A285,統計!$A:$G,6,)</f>
@@ -12789,7 +12838,7 @@
         <v>#N/A</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D286" s="0" t="e">
         <f aca="false">VLOOKUP($A286,統計!$A:$G,6,)</f>
@@ -12813,7 +12862,7 @@
         <v>#N/A</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D287" s="0" t="e">
         <f aca="false">VLOOKUP($A287,統計!$A:$G,6,)</f>
@@ -12837,7 +12886,7 @@
         <v>#N/A</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D288" s="0" t="e">
         <f aca="false">VLOOKUP($A288,統計!$A:$G,6,)</f>
@@ -12861,7 +12910,7 @@
         <v>#N/A</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D289" s="0" t="e">
         <f aca="false">VLOOKUP($A289,統計!$A:$G,6,)</f>
@@ -12885,7 +12934,7 @@
         <v>#N/A</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D290" s="0" t="e">
         <f aca="false">VLOOKUP($A290,統計!$A:$G,6,)</f>
@@ -12909,7 +12958,7 @@
         <v>#N/A</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D291" s="0" t="e">
         <f aca="false">VLOOKUP($A291,統計!$A:$G,6,)</f>
@@ -12933,7 +12982,7 @@
         <v>#N/A</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D292" s="0" t="e">
         <f aca="false">VLOOKUP($A292,統計!$A:$G,6,)</f>
@@ -12957,7 +13006,7 @@
         <v>#N/A</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D293" s="0" t="e">
         <f aca="false">VLOOKUP($A293,統計!$A:$G,6,)</f>
@@ -12981,7 +13030,7 @@
         <v>#N/A</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D294" s="0" t="e">
         <f aca="false">VLOOKUP($A294,統計!$A:$G,6,)</f>
@@ -13005,7 +13054,7 @@
         <v>#N/A</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D295" s="0" t="e">
         <f aca="false">VLOOKUP($A295,統計!$A:$G,6,)</f>
@@ -13046,13 +13095,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13066,30 +13115,30 @@
         <v>1173</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">C2/B2</f>
         <v>2.41791044776119</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">D2/C2</f>
         <v>1.81018518518519</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">O2/D2</f>
@@ -13101,7 +13150,7 @@
         <v>1239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13109,7 +13158,7 @@
         <v>2175</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,19 +13169,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13140,7 +13189,7 @@
         <v>3732</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">C6-C2</f>
@@ -13171,7 +13220,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13180,18 +13229,18 @@
         <v>0.0674157303370787</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
@@ -13207,7 +13256,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N10" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>2</v>
@@ -13223,7 +13272,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>294</v>
@@ -13239,7 +13288,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>200</v>
@@ -13247,7 +13296,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N14" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>118</v>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="512">
   <si>
     <t xml:space="preserve">索引號</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t xml:space="preserve">晉紀三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弘農楊氏名人世系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">司馬炎15年至23年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀四</t>
@@ -1807,7 +1813,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2165,18 +2171,18 @@
                   <c:v>1.28571428571429</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>160.673835125448</c:v>
+                  <c:v>0.888888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77021377"/>
-        <c:axId val="65069290"/>
+        <c:axId val="57524932"/>
+        <c:axId val="83774724"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77021377"/>
+        <c:axId val="57524932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2258,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65069290"/>
+        <c:crossAx val="83774724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65069290"/>
+        <c:axId val="83774724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2339,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77021377"/>
+        <c:crossAx val="57524932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2372,9 +2378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:colOff>669600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2383,7 +2389,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6835320" y="1995120"/>
-        <a:ext cx="4150440" cy="2742120"/>
+        <a:ext cx="4149720" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2406,7 +2412,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
+      <selection pane="bottomLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,19 +2529,19 @@
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>-37028.9382716049</v>
+        <v>611.160493827161</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>6990.06172839506</v>
+        <v>44630.1604938272</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>2511.58429231704</v>
+        <v>494.239180822187</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>46530.584292317</v>
+        <v>44513.2391808222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,19 +2592,19 @@
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>-42474.3703703704</v>
+        <v>701.037037037037</v>
       </c>
       <c r="P3" s="1" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>1544.62962962964</v>
+        <v>44720.037037037</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>2753.47041998802</v>
+        <v>541.838459874083</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>46772.470419988</v>
+        <v>44560.8384598741</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,19 +2655,19 @@
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>-64256.0987654321</v>
+        <v>1060.54320987654</v>
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>-20237.0987654321</v>
+        <v>45079.5432098766</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>3317.87138455364</v>
+        <v>652.903444328507</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>47336.8713845537</v>
+        <v>44671.9034443285</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,19 +2718,19 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>-95839.6049382716</v>
+        <v>1581.82716049383</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>-51820.6049382716</v>
+        <v>45600.8271604938</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>3999.18397749358</v>
+        <v>786.974746991347</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>48018.1839774936</v>
+        <v>44805.9747469913</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,19 +2781,19 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>-144303.950617284</v>
+        <v>2381.72839506173</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>-100284.950617284</v>
+        <v>46400.7283950617</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>5281.18045414979</v>
+        <v>1039.2509259664</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>49300.1804541498</v>
+        <v>45058.2509259664</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,19 +2844,19 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>-160095.703703704</v>
+        <v>2642.37037037037</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>-116076.703703704</v>
+        <v>46661.3703703704</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>5490.81509813131</v>
+        <v>1080.50363447804</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>49509.8150981313</v>
+        <v>45099.503634478</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,19 +2907,19 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>-160095.703703704</v>
+        <v>2642.37037037037</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>-116076.703703704</v>
+        <v>46661.3703703704</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>5490.81509813131</v>
+        <v>1080.50363447804</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>49509.8150981313</v>
+        <v>45099.503634478</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +2994,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>-544.543209876543</v>
+        <v>8.98765432098766</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3035,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>4.03143546118304</v>
+        <v>0.7933213175316</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,21 +5461,27 @@
       <c r="C82" s="1" t="n">
         <v>44829</v>
       </c>
+      <c r="D82" s="1" t="n">
+        <v>44836</v>
+      </c>
       <c r="E82" s="0" t="n">
         <f aca="false">D82-C82+1</f>
-        <v>-44828</v>
+        <v>8</v>
       </c>
       <c r="F82" s="0" t="n">
         <f aca="false">G81+1</f>
         <v>280</v>
       </c>
+      <c r="G82" s="0" t="n">
+        <v>288</v>
+      </c>
       <c r="H82" s="0" t="n">
         <f aca="false">IF(F82*G82&lt;0,ABS(F82)+ABS(G82),G82-F82+1)</f>
-        <v>-279</v>
+        <v>9</v>
       </c>
       <c r="I82" s="0" t="n">
         <f aca="false">E82/H82</f>
-        <v>160.673835125448</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -5494,14 +5506,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="22.03"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,7 +7945,7 @@
         <v>702|[卷80](5_筆記/资治通鉴80.html)|晉紀二|273|279||諸王就國情況(西晉大小國)|司馬炎8年至14年</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>703</v>
       </c>
@@ -7950,14 +7962,20 @@
       </c>
       <c r="E82" s="0" t="n">
         <f aca="false">VLOOKUP($A82,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>275</v>
       </c>
       <c r="I82" s="0" t="str">
         <f aca="false">A82&amp;"|"&amp;"["&amp;B82&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B82,"卷","")&amp;".html)|"&amp;C82&amp;"|"&amp;D82&amp;"|"&amp;E82&amp;"|"&amp;F82&amp;"|"&amp;G82&amp;"|"&amp;H82</f>
-        <v>703|[卷81](5_筆記/资治通鉴81.html)|晉紀三|280|0|||</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703|[卷81](5_筆記/资治通鉴81.html)|晉紀三|280|288|弘農楊氏名人世系||司馬炎15年至23年</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>704</v>
       </c>
@@ -7966,7 +7984,7 @@
         <v>#N/A</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D83" s="0" t="e">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,6,)</f>
@@ -7976,6 +7994,7 @@
         <f aca="false">VLOOKUP($A83,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
+      <c r="H83" s="0"/>
       <c r="I83" s="0" t="e">
         <f aca="false">A83&amp;"|"&amp;"["&amp;B83&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B83,"卷","")&amp;".html)|"&amp;C83&amp;"|"&amp;D83&amp;"|"&amp;E83&amp;"|"&amp;F83&amp;"|"&amp;G83&amp;"|"&amp;H83</f>
         <v>#N/A</v>
@@ -7990,7 +8009,7 @@
         <v>#N/A</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D84" s="0" t="e">
         <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
@@ -8014,7 +8033,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D85" s="0" t="e">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,6,)</f>
@@ -8038,7 +8057,7 @@
         <v>#N/A</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D86" s="0" t="e">
         <f aca="false">VLOOKUP($A86,統計!$A:$G,6,)</f>
@@ -8062,7 +8081,7 @@
         <v>#N/A</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D87" s="0" t="e">
         <f aca="false">VLOOKUP($A87,統計!$A:$G,6,)</f>
@@ -8086,7 +8105,7 @@
         <v>#N/A</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D88" s="0" t="e">
         <f aca="false">VLOOKUP($A88,統計!$A:$G,6,)</f>
@@ -8110,7 +8129,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D89" s="0" t="e">
         <f aca="false">VLOOKUP($A89,統計!$A:$G,6,)</f>
@@ -8134,7 +8153,7 @@
         <v>#N/A</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D90" s="0" t="e">
         <f aca="false">VLOOKUP($A90,統計!$A:$G,6,)</f>
@@ -8158,7 +8177,7 @@
         <v>#N/A</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D91" s="0" t="e">
         <f aca="false">VLOOKUP($A91,統計!$A:$G,6,)</f>
@@ -8182,7 +8201,7 @@
         <v>#N/A</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D92" s="0" t="e">
         <f aca="false">VLOOKUP($A92,統計!$A:$G,6,)</f>
@@ -8206,7 +8225,7 @@
         <v>#N/A</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D93" s="0" t="e">
         <f aca="false">VLOOKUP($A93,統計!$A:$G,6,)</f>
@@ -8230,7 +8249,7 @@
         <v>#N/A</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D94" s="0" t="e">
         <f aca="false">VLOOKUP($A94,統計!$A:$G,6,)</f>
@@ -8254,7 +8273,7 @@
         <v>#N/A</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D95" s="0" t="e">
         <f aca="false">VLOOKUP($A95,統計!$A:$G,6,)</f>
@@ -8278,7 +8297,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D96" s="0" t="e">
         <f aca="false">VLOOKUP($A96,統計!$A:$G,6,)</f>
@@ -8302,7 +8321,7 @@
         <v>#N/A</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D97" s="0" t="e">
         <f aca="false">VLOOKUP($A97,統計!$A:$G,6,)</f>
@@ -8326,7 +8345,7 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D98" s="0" t="e">
         <f aca="false">VLOOKUP($A98,統計!$A:$G,6,)</f>
@@ -8350,7 +8369,7 @@
         <v>#N/A</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D99" s="0" t="e">
         <f aca="false">VLOOKUP($A99,統計!$A:$G,6,)</f>
@@ -8374,7 +8393,7 @@
         <v>#N/A</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D100" s="0" t="e">
         <f aca="false">VLOOKUP($A100,統計!$A:$G,6,)</f>
@@ -8398,7 +8417,7 @@
         <v>#N/A</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D101" s="0" t="e">
         <f aca="false">VLOOKUP($A101,統計!$A:$G,6,)</f>
@@ -8422,7 +8441,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="0" t="e">
         <f aca="false">VLOOKUP($A102,統計!$A:$G,6,)</f>
@@ -8446,7 +8465,7 @@
         <v>#N/A</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="0" t="e">
         <f aca="false">VLOOKUP($A103,統計!$A:$G,6,)</f>
@@ -8470,7 +8489,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="0" t="e">
         <f aca="false">VLOOKUP($A104,統計!$A:$G,6,)</f>
@@ -8494,7 +8513,7 @@
         <v>#N/A</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="0" t="e">
         <f aca="false">VLOOKUP($A105,統計!$A:$G,6,)</f>
@@ -8518,7 +8537,7 @@
         <v>#N/A</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="0" t="e">
         <f aca="false">VLOOKUP($A106,統計!$A:$G,6,)</f>
@@ -8542,7 +8561,7 @@
         <v>#N/A</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="0" t="e">
         <f aca="false">VLOOKUP($A107,統計!$A:$G,6,)</f>
@@ -8566,7 +8585,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="0" t="e">
         <f aca="false">VLOOKUP($A108,統計!$A:$G,6,)</f>
@@ -8590,7 +8609,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="0" t="e">
         <f aca="false">VLOOKUP($A109,統計!$A:$G,6,)</f>
@@ -8614,7 +8633,7 @@
         <v>#N/A</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="0" t="e">
         <f aca="false">VLOOKUP($A110,統計!$A:$G,6,)</f>
@@ -8638,7 +8657,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="0" t="e">
         <f aca="false">VLOOKUP($A111,統計!$A:$G,6,)</f>
@@ -8662,7 +8681,7 @@
         <v>#N/A</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="0" t="e">
         <f aca="false">VLOOKUP($A112,統計!$A:$G,6,)</f>
@@ -8686,7 +8705,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="0" t="e">
         <f aca="false">VLOOKUP($A113,統計!$A:$G,6,)</f>
@@ -8710,7 +8729,7 @@
         <v>#N/A</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="0" t="e">
         <f aca="false">VLOOKUP($A114,統計!$A:$G,6,)</f>
@@ -8734,7 +8753,7 @@
         <v>#N/A</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="0" t="e">
         <f aca="false">VLOOKUP($A115,統計!$A:$G,6,)</f>
@@ -8758,7 +8777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D116" s="0" t="e">
         <f aca="false">VLOOKUP($A116,統計!$A:$G,6,)</f>
@@ -8782,7 +8801,7 @@
         <v>#N/A</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D117" s="0" t="e">
         <f aca="false">VLOOKUP($A117,統計!$A:$G,6,)</f>
@@ -8806,7 +8825,7 @@
         <v>#N/A</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D118" s="0" t="e">
         <f aca="false">VLOOKUP($A118,統計!$A:$G,6,)</f>
@@ -8830,7 +8849,7 @@
         <v>#N/A</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D119" s="0" t="e">
         <f aca="false">VLOOKUP($A119,統計!$A:$G,6,)</f>
@@ -8854,7 +8873,7 @@
         <v>#N/A</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D120" s="0" t="e">
         <f aca="false">VLOOKUP($A120,統計!$A:$G,6,)</f>
@@ -8878,7 +8897,7 @@
         <v>#N/A</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D121" s="0" t="e">
         <f aca="false">VLOOKUP($A121,統計!$A:$G,6,)</f>
@@ -8902,7 +8921,7 @@
         <v>#N/A</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D122" s="0" t="e">
         <f aca="false">VLOOKUP($A122,統計!$A:$G,6,)</f>
@@ -8926,7 +8945,7 @@
         <v>#N/A</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D123" s="0" t="e">
         <f aca="false">VLOOKUP($A123,統計!$A:$G,6,)</f>
@@ -8950,7 +8969,7 @@
         <v>#N/A</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D124" s="0" t="e">
         <f aca="false">VLOOKUP($A124,統計!$A:$G,6,)</f>
@@ -8974,7 +8993,7 @@
         <v>#N/A</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D125" s="0" t="e">
         <f aca="false">VLOOKUP($A125,統計!$A:$G,6,)</f>
@@ -8998,7 +9017,7 @@
         <v>#N/A</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D126" s="0" t="e">
         <f aca="false">VLOOKUP($A126,統計!$A:$G,6,)</f>
@@ -9022,7 +9041,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D127" s="0" t="e">
         <f aca="false">VLOOKUP($A127,統計!$A:$G,6,)</f>
@@ -9046,7 +9065,7 @@
         <v>#N/A</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D128" s="0" t="e">
         <f aca="false">VLOOKUP($A128,統計!$A:$G,6,)</f>
@@ -9070,7 +9089,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D129" s="0" t="e">
         <f aca="false">VLOOKUP($A129,統計!$A:$G,6,)</f>
@@ -9094,7 +9113,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D130" s="0" t="e">
         <f aca="false">VLOOKUP($A130,統計!$A:$G,6,)</f>
@@ -9118,7 +9137,7 @@
         <v>#N/A</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D131" s="0" t="e">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,6,)</f>
@@ -9142,7 +9161,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D132" s="0" t="e">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,6,)</f>
@@ -9166,7 +9185,7 @@
         <v>#N/A</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D133" s="0" t="e">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,6,)</f>
@@ -9190,7 +9209,7 @@
         <v>#N/A</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D134" s="0" t="e">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,6,)</f>
@@ -9214,7 +9233,7 @@
         <v>#N/A</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D135" s="0" t="e">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,6,)</f>
@@ -9238,7 +9257,7 @@
         <v>#N/A</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D136" s="0" t="e">
         <f aca="false">VLOOKUP($A136,統計!$A:$G,6,)</f>
@@ -9262,7 +9281,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D137" s="0" t="e">
         <f aca="false">VLOOKUP($A137,統計!$A:$G,6,)</f>
@@ -9286,7 +9305,7 @@
         <v>#N/A</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D138" s="0" t="e">
         <f aca="false">VLOOKUP($A138,統計!$A:$G,6,)</f>
@@ -9310,7 +9329,7 @@
         <v>#N/A</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D139" s="0" t="e">
         <f aca="false">VLOOKUP($A139,統計!$A:$G,6,)</f>
@@ -9334,7 +9353,7 @@
         <v>#N/A</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D140" s="0" t="e">
         <f aca="false">VLOOKUP($A140,統計!$A:$G,6,)</f>
@@ -9358,7 +9377,7 @@
         <v>#N/A</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D141" s="0" t="e">
         <f aca="false">VLOOKUP($A141,統計!$A:$G,6,)</f>
@@ -9382,7 +9401,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D142" s="0" t="e">
         <f aca="false">VLOOKUP($A142,統計!$A:$G,6,)</f>
@@ -9406,7 +9425,7 @@
         <v>#N/A</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D143" s="0" t="e">
         <f aca="false">VLOOKUP($A143,統計!$A:$G,6,)</f>
@@ -9430,7 +9449,7 @@
         <v>#N/A</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D144" s="0" t="e">
         <f aca="false">VLOOKUP($A144,統計!$A:$G,6,)</f>
@@ -9454,7 +9473,7 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D145" s="0" t="e">
         <f aca="false">VLOOKUP($A145,統計!$A:$G,6,)</f>
@@ -9478,7 +9497,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D146" s="0" t="e">
         <f aca="false">VLOOKUP($A146,統計!$A:$G,6,)</f>
@@ -9502,7 +9521,7 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D147" s="0" t="e">
         <f aca="false">VLOOKUP($A147,統計!$A:$G,6,)</f>
@@ -9526,7 +9545,7 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D148" s="0" t="e">
         <f aca="false">VLOOKUP($A148,統計!$A:$G,6,)</f>
@@ -9550,7 +9569,7 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D149" s="0" t="e">
         <f aca="false">VLOOKUP($A149,統計!$A:$G,6,)</f>
@@ -9574,7 +9593,7 @@
         <v>#N/A</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D150" s="0" t="e">
         <f aca="false">VLOOKUP($A150,統計!$A:$G,6,)</f>
@@ -9598,7 +9617,7 @@
         <v>#N/A</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D151" s="0" t="e">
         <f aca="false">VLOOKUP($A151,統計!$A:$G,6,)</f>
@@ -9622,7 +9641,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D152" s="0" t="e">
         <f aca="false">VLOOKUP($A152,統計!$A:$G,6,)</f>
@@ -9646,7 +9665,7 @@
         <v>#N/A</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D153" s="0" t="e">
         <f aca="false">VLOOKUP($A153,統計!$A:$G,6,)</f>
@@ -9670,7 +9689,7 @@
         <v>#N/A</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D154" s="0" t="e">
         <f aca="false">VLOOKUP($A154,統計!$A:$G,6,)</f>
@@ -9694,7 +9713,7 @@
         <v>#N/A</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D155" s="0" t="e">
         <f aca="false">VLOOKUP($A155,統計!$A:$G,6,)</f>
@@ -9718,7 +9737,7 @@
         <v>#N/A</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D156" s="0" t="e">
         <f aca="false">VLOOKUP($A156,統計!$A:$G,6,)</f>
@@ -9742,7 +9761,7 @@
         <v>#N/A</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D157" s="0" t="e">
         <f aca="false">VLOOKUP($A157,統計!$A:$G,6,)</f>
@@ -9766,7 +9785,7 @@
         <v>#N/A</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D158" s="0" t="e">
         <f aca="false">VLOOKUP($A158,統計!$A:$G,6,)</f>
@@ -9790,7 +9809,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D159" s="0" t="e">
         <f aca="false">VLOOKUP($A159,統計!$A:$G,6,)</f>
@@ -9814,7 +9833,7 @@
         <v>#N/A</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D160" s="0" t="e">
         <f aca="false">VLOOKUP($A160,統計!$A:$G,6,)</f>
@@ -9838,7 +9857,7 @@
         <v>#N/A</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D161" s="0" t="e">
         <f aca="false">VLOOKUP($A161,統計!$A:$G,6,)</f>
@@ -9862,7 +9881,7 @@
         <v>#N/A</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D162" s="0" t="e">
         <f aca="false">VLOOKUP($A162,統計!$A:$G,6,)</f>
@@ -9886,7 +9905,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D163" s="0" t="e">
         <f aca="false">VLOOKUP($A163,統計!$A:$G,6,)</f>
@@ -9910,7 +9929,7 @@
         <v>#N/A</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D164" s="0" t="e">
         <f aca="false">VLOOKUP($A164,統計!$A:$G,6,)</f>
@@ -9934,7 +9953,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D165" s="0" t="e">
         <f aca="false">VLOOKUP($A165,統計!$A:$G,6,)</f>
@@ -9958,7 +9977,7 @@
         <v>#N/A</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D166" s="0" t="e">
         <f aca="false">VLOOKUP($A166,統計!$A:$G,6,)</f>
@@ -9982,7 +10001,7 @@
         <v>#N/A</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D167" s="0" t="e">
         <f aca="false">VLOOKUP($A167,統計!$A:$G,6,)</f>
@@ -10006,7 +10025,7 @@
         <v>#N/A</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D168" s="0" t="e">
         <f aca="false">VLOOKUP($A168,統計!$A:$G,6,)</f>
@@ -10030,7 +10049,7 @@
         <v>#N/A</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D169" s="0" t="e">
         <f aca="false">VLOOKUP($A169,統計!$A:$G,6,)</f>
@@ -10054,7 +10073,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D170" s="0" t="e">
         <f aca="false">VLOOKUP($A170,統計!$A:$G,6,)</f>
@@ -10078,7 +10097,7 @@
         <v>#N/A</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D171" s="0" t="e">
         <f aca="false">VLOOKUP($A171,統計!$A:$G,6,)</f>
@@ -10102,7 +10121,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D172" s="0" t="e">
         <f aca="false">VLOOKUP($A172,統計!$A:$G,6,)</f>
@@ -10126,7 +10145,7 @@
         <v>#N/A</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D173" s="0" t="e">
         <f aca="false">VLOOKUP($A173,統計!$A:$G,6,)</f>
@@ -10150,7 +10169,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D174" s="0" t="e">
         <f aca="false">VLOOKUP($A174,統計!$A:$G,6,)</f>
@@ -10174,7 +10193,7 @@
         <v>#N/A</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D175" s="0" t="e">
         <f aca="false">VLOOKUP($A175,統計!$A:$G,6,)</f>
@@ -10198,7 +10217,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D176" s="0" t="e">
         <f aca="false">VLOOKUP($A176,統計!$A:$G,6,)</f>
@@ -10222,7 +10241,7 @@
         <v>#N/A</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D177" s="0" t="e">
         <f aca="false">VLOOKUP($A177,統計!$A:$G,6,)</f>
@@ -10246,7 +10265,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D178" s="0" t="e">
         <f aca="false">VLOOKUP($A178,統計!$A:$G,6,)</f>
@@ -10270,7 +10289,7 @@
         <v>#N/A</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D179" s="0" t="e">
         <f aca="false">VLOOKUP($A179,統計!$A:$G,6,)</f>
@@ -10294,7 +10313,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D180" s="0" t="e">
         <f aca="false">VLOOKUP($A180,統計!$A:$G,6,)</f>
@@ -10318,7 +10337,7 @@
         <v>#N/A</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D181" s="0" t="e">
         <f aca="false">VLOOKUP($A181,統計!$A:$G,6,)</f>
@@ -10342,7 +10361,7 @@
         <v>#N/A</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D182" s="0" t="e">
         <f aca="false">VLOOKUP($A182,統計!$A:$G,6,)</f>
@@ -10366,7 +10385,7 @@
         <v>#N/A</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D183" s="0" t="e">
         <f aca="false">VLOOKUP($A183,統計!$A:$G,6,)</f>
@@ -10390,7 +10409,7 @@
         <v>#N/A</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D184" s="0" t="e">
         <f aca="false">VLOOKUP($A184,統計!$A:$G,6,)</f>
@@ -10414,7 +10433,7 @@
         <v>#N/A</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D185" s="0" t="e">
         <f aca="false">VLOOKUP($A185,統計!$A:$G,6,)</f>
@@ -10438,7 +10457,7 @@
         <v>#N/A</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D186" s="0" t="e">
         <f aca="false">VLOOKUP($A186,統計!$A:$G,6,)</f>
@@ -10462,7 +10481,7 @@
         <v>#N/A</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D187" s="0" t="e">
         <f aca="false">VLOOKUP($A187,統計!$A:$G,6,)</f>
@@ -10486,7 +10505,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D188" s="0" t="e">
         <f aca="false">VLOOKUP($A188,統計!$A:$G,6,)</f>
@@ -10510,7 +10529,7 @@
         <v>#N/A</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D189" s="0" t="e">
         <f aca="false">VLOOKUP($A189,統計!$A:$G,6,)</f>
@@ -10534,7 +10553,7 @@
         <v>#N/A</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D190" s="0" t="e">
         <f aca="false">VLOOKUP($A190,統計!$A:$G,6,)</f>
@@ -10558,7 +10577,7 @@
         <v>#N/A</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D191" s="0" t="e">
         <f aca="false">VLOOKUP($A191,統計!$A:$G,6,)</f>
@@ -10582,7 +10601,7 @@
         <v>#N/A</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D192" s="0" t="e">
         <f aca="false">VLOOKUP($A192,統計!$A:$G,6,)</f>
@@ -10606,7 +10625,7 @@
         <v>#N/A</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D193" s="0" t="e">
         <f aca="false">VLOOKUP($A193,統計!$A:$G,6,)</f>
@@ -10630,7 +10649,7 @@
         <v>#N/A</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D194" s="0" t="e">
         <f aca="false">VLOOKUP($A194,統計!$A:$G,6,)</f>
@@ -10654,7 +10673,7 @@
         <v>#N/A</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D195" s="0" t="e">
         <f aca="false">VLOOKUP($A195,統計!$A:$G,6,)</f>
@@ -10678,7 +10697,7 @@
         <v>#N/A</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D196" s="0" t="e">
         <f aca="false">VLOOKUP($A196,統計!$A:$G,6,)</f>
@@ -10702,7 +10721,7 @@
         <v>#N/A</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D197" s="0" t="e">
         <f aca="false">VLOOKUP($A197,統計!$A:$G,6,)</f>
@@ -10726,7 +10745,7 @@
         <v>#N/A</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D198" s="0" t="e">
         <f aca="false">VLOOKUP($A198,統計!$A:$G,6,)</f>
@@ -10750,7 +10769,7 @@
         <v>#N/A</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D199" s="0" t="e">
         <f aca="false">VLOOKUP($A199,統計!$A:$G,6,)</f>
@@ -10774,7 +10793,7 @@
         <v>#N/A</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D200" s="0" t="e">
         <f aca="false">VLOOKUP($A200,統計!$A:$G,6,)</f>
@@ -10798,7 +10817,7 @@
         <v>#N/A</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D201" s="0" t="e">
         <f aca="false">VLOOKUP($A201,統計!$A:$G,6,)</f>
@@ -10822,7 +10841,7 @@
         <v>#N/A</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D202" s="0" t="e">
         <f aca="false">VLOOKUP($A202,統計!$A:$G,6,)</f>
@@ -10846,7 +10865,7 @@
         <v>#N/A</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D203" s="0" t="e">
         <f aca="false">VLOOKUP($A203,統計!$A:$G,6,)</f>
@@ -10870,7 +10889,7 @@
         <v>#N/A</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D204" s="0" t="e">
         <f aca="false">VLOOKUP($A204,統計!$A:$G,6,)</f>
@@ -10894,7 +10913,7 @@
         <v>#N/A</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D205" s="0" t="e">
         <f aca="false">VLOOKUP($A205,統計!$A:$G,6,)</f>
@@ -10918,7 +10937,7 @@
         <v>#N/A</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D206" s="0" t="e">
         <f aca="false">VLOOKUP($A206,統計!$A:$G,6,)</f>
@@ -10942,7 +10961,7 @@
         <v>#N/A</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D207" s="0" t="e">
         <f aca="false">VLOOKUP($A207,統計!$A:$G,6,)</f>
@@ -10966,7 +10985,7 @@
         <v>#N/A</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D208" s="0" t="e">
         <f aca="false">VLOOKUP($A208,統計!$A:$G,6,)</f>
@@ -10990,7 +11009,7 @@
         <v>#N/A</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D209" s="0" t="e">
         <f aca="false">VLOOKUP($A209,統計!$A:$G,6,)</f>
@@ -11014,7 +11033,7 @@
         <v>#N/A</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D210" s="0" t="e">
         <f aca="false">VLOOKUP($A210,統計!$A:$G,6,)</f>
@@ -11038,7 +11057,7 @@
         <v>#N/A</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D211" s="0" t="e">
         <f aca="false">VLOOKUP($A211,統計!$A:$G,6,)</f>
@@ -11062,7 +11081,7 @@
         <v>#N/A</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D212" s="0" t="e">
         <f aca="false">VLOOKUP($A212,統計!$A:$G,6,)</f>
@@ -11086,7 +11105,7 @@
         <v>#N/A</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D213" s="0" t="e">
         <f aca="false">VLOOKUP($A213,統計!$A:$G,6,)</f>
@@ -11110,7 +11129,7 @@
         <v>#N/A</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D214" s="0" t="e">
         <f aca="false">VLOOKUP($A214,統計!$A:$G,6,)</f>
@@ -11134,7 +11153,7 @@
         <v>#N/A</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D215" s="0" t="e">
         <f aca="false">VLOOKUP($A215,統計!$A:$G,6,)</f>
@@ -11158,7 +11177,7 @@
         <v>#N/A</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D216" s="0" t="e">
         <f aca="false">VLOOKUP($A216,統計!$A:$G,6,)</f>
@@ -11182,7 +11201,7 @@
         <v>#N/A</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D217" s="0" t="e">
         <f aca="false">VLOOKUP($A217,統計!$A:$G,6,)</f>
@@ -11206,7 +11225,7 @@
         <v>#N/A</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D218" s="0" t="e">
         <f aca="false">VLOOKUP($A218,統計!$A:$G,6,)</f>
@@ -11230,7 +11249,7 @@
         <v>#N/A</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D219" s="0" t="e">
         <f aca="false">VLOOKUP($A219,統計!$A:$G,6,)</f>
@@ -11254,7 +11273,7 @@
         <v>#N/A</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D220" s="0" t="e">
         <f aca="false">VLOOKUP($A220,統計!$A:$G,6,)</f>
@@ -11278,7 +11297,7 @@
         <v>#N/A</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D221" s="0" t="e">
         <f aca="false">VLOOKUP($A221,統計!$A:$G,6,)</f>
@@ -11302,7 +11321,7 @@
         <v>#N/A</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D222" s="0" t="e">
         <f aca="false">VLOOKUP($A222,統計!$A:$G,6,)</f>
@@ -11326,7 +11345,7 @@
         <v>#N/A</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D223" s="0" t="e">
         <f aca="false">VLOOKUP($A223,統計!$A:$G,6,)</f>
@@ -11350,7 +11369,7 @@
         <v>#N/A</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D224" s="0" t="e">
         <f aca="false">VLOOKUP($A224,統計!$A:$G,6,)</f>
@@ -11374,7 +11393,7 @@
         <v>#N/A</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D225" s="0" t="e">
         <f aca="false">VLOOKUP($A225,統計!$A:$G,6,)</f>
@@ -11398,7 +11417,7 @@
         <v>#N/A</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D226" s="0" t="e">
         <f aca="false">VLOOKUP($A226,統計!$A:$G,6,)</f>
@@ -11422,7 +11441,7 @@
         <v>#N/A</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D227" s="0" t="e">
         <f aca="false">VLOOKUP($A227,統計!$A:$G,6,)</f>
@@ -11446,7 +11465,7 @@
         <v>#N/A</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D228" s="0" t="e">
         <f aca="false">VLOOKUP($A228,統計!$A:$G,6,)</f>
@@ -11470,7 +11489,7 @@
         <v>#N/A</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D229" s="0" t="e">
         <f aca="false">VLOOKUP($A229,統計!$A:$G,6,)</f>
@@ -11494,7 +11513,7 @@
         <v>#N/A</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D230" s="0" t="e">
         <f aca="false">VLOOKUP($A230,統計!$A:$G,6,)</f>
@@ -11518,7 +11537,7 @@
         <v>#N/A</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D231" s="0" t="e">
         <f aca="false">VLOOKUP($A231,統計!$A:$G,6,)</f>
@@ -11542,7 +11561,7 @@
         <v>#N/A</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D232" s="0" t="e">
         <f aca="false">VLOOKUP($A232,統計!$A:$G,6,)</f>
@@ -11566,7 +11585,7 @@
         <v>#N/A</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D233" s="0" t="e">
         <f aca="false">VLOOKUP($A233,統計!$A:$G,6,)</f>
@@ -11590,7 +11609,7 @@
         <v>#N/A</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D234" s="0" t="e">
         <f aca="false">VLOOKUP($A234,統計!$A:$G,6,)</f>
@@ -11614,7 +11633,7 @@
         <v>#N/A</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D235" s="0" t="e">
         <f aca="false">VLOOKUP($A235,統計!$A:$G,6,)</f>
@@ -11638,7 +11657,7 @@
         <v>#N/A</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D236" s="0" t="e">
         <f aca="false">VLOOKUP($A236,統計!$A:$G,6,)</f>
@@ -11662,7 +11681,7 @@
         <v>#N/A</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D237" s="0" t="e">
         <f aca="false">VLOOKUP($A237,統計!$A:$G,6,)</f>
@@ -11686,7 +11705,7 @@
         <v>#N/A</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D238" s="0" t="e">
         <f aca="false">VLOOKUP($A238,統計!$A:$G,6,)</f>
@@ -11710,7 +11729,7 @@
         <v>#N/A</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D239" s="0" t="e">
         <f aca="false">VLOOKUP($A239,統計!$A:$G,6,)</f>
@@ -11734,7 +11753,7 @@
         <v>#N/A</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D240" s="0" t="e">
         <f aca="false">VLOOKUP($A240,統計!$A:$G,6,)</f>
@@ -11758,7 +11777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D241" s="0" t="e">
         <f aca="false">VLOOKUP($A241,統計!$A:$G,6,)</f>
@@ -11782,7 +11801,7 @@
         <v>#N/A</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D242" s="0" t="e">
         <f aca="false">VLOOKUP($A242,統計!$A:$G,6,)</f>
@@ -11806,7 +11825,7 @@
         <v>#N/A</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D243" s="0" t="e">
         <f aca="false">VLOOKUP($A243,統計!$A:$G,6,)</f>
@@ -11830,7 +11849,7 @@
         <v>#N/A</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D244" s="0" t="e">
         <f aca="false">VLOOKUP($A244,統計!$A:$G,6,)</f>
@@ -11854,7 +11873,7 @@
         <v>#N/A</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D245" s="0" t="e">
         <f aca="false">VLOOKUP($A245,統計!$A:$G,6,)</f>
@@ -11878,7 +11897,7 @@
         <v>#N/A</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D246" s="0" t="e">
         <f aca="false">VLOOKUP($A246,統計!$A:$G,6,)</f>
@@ -11902,7 +11921,7 @@
         <v>#N/A</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D247" s="0" t="e">
         <f aca="false">VLOOKUP($A247,統計!$A:$G,6,)</f>
@@ -11926,7 +11945,7 @@
         <v>#N/A</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D248" s="0" t="e">
         <f aca="false">VLOOKUP($A248,統計!$A:$G,6,)</f>
@@ -11950,7 +11969,7 @@
         <v>#N/A</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D249" s="0" t="e">
         <f aca="false">VLOOKUP($A249,統計!$A:$G,6,)</f>
@@ -11974,7 +11993,7 @@
         <v>#N/A</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D250" s="0" t="e">
         <f aca="false">VLOOKUP($A250,統計!$A:$G,6,)</f>
@@ -11998,7 +12017,7 @@
         <v>#N/A</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D251" s="0" t="e">
         <f aca="false">VLOOKUP($A251,統計!$A:$G,6,)</f>
@@ -12022,7 +12041,7 @@
         <v>#N/A</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D252" s="0" t="e">
         <f aca="false">VLOOKUP($A252,統計!$A:$G,6,)</f>
@@ -12046,7 +12065,7 @@
         <v>#N/A</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D253" s="0" t="e">
         <f aca="false">VLOOKUP($A253,統計!$A:$G,6,)</f>
@@ -12070,7 +12089,7 @@
         <v>#N/A</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D254" s="0" t="e">
         <f aca="false">VLOOKUP($A254,統計!$A:$G,6,)</f>
@@ -12094,7 +12113,7 @@
         <v>#N/A</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D255" s="0" t="e">
         <f aca="false">VLOOKUP($A255,統計!$A:$G,6,)</f>
@@ -12118,7 +12137,7 @@
         <v>#N/A</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D256" s="0" t="e">
         <f aca="false">VLOOKUP($A256,統計!$A:$G,6,)</f>
@@ -12142,7 +12161,7 @@
         <v>#N/A</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D257" s="0" t="e">
         <f aca="false">VLOOKUP($A257,統計!$A:$G,6,)</f>
@@ -12166,7 +12185,7 @@
         <v>#N/A</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D258" s="0" t="e">
         <f aca="false">VLOOKUP($A258,統計!$A:$G,6,)</f>
@@ -12190,7 +12209,7 @@
         <v>#N/A</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D259" s="0" t="e">
         <f aca="false">VLOOKUP($A259,統計!$A:$G,6,)</f>
@@ -12214,7 +12233,7 @@
         <v>#N/A</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D260" s="0" t="e">
         <f aca="false">VLOOKUP($A260,統計!$A:$G,6,)</f>
@@ -12238,7 +12257,7 @@
         <v>#N/A</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D261" s="0" t="e">
         <f aca="false">VLOOKUP($A261,統計!$A:$G,6,)</f>
@@ -12262,7 +12281,7 @@
         <v>#N/A</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D262" s="0" t="e">
         <f aca="false">VLOOKUP($A262,統計!$A:$G,6,)</f>
@@ -12286,7 +12305,7 @@
         <v>#N/A</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D263" s="0" t="e">
         <f aca="false">VLOOKUP($A263,統計!$A:$G,6,)</f>
@@ -12310,7 +12329,7 @@
         <v>#N/A</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D264" s="0" t="e">
         <f aca="false">VLOOKUP($A264,統計!$A:$G,6,)</f>
@@ -12334,7 +12353,7 @@
         <v>#N/A</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D265" s="0" t="e">
         <f aca="false">VLOOKUP($A265,統計!$A:$G,6,)</f>
@@ -12358,7 +12377,7 @@
         <v>#N/A</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D266" s="0" t="e">
         <f aca="false">VLOOKUP($A266,統計!$A:$G,6,)</f>
@@ -12382,7 +12401,7 @@
         <v>#N/A</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D267" s="0" t="e">
         <f aca="false">VLOOKUP($A267,統計!$A:$G,6,)</f>
@@ -12406,7 +12425,7 @@
         <v>#N/A</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D268" s="0" t="e">
         <f aca="false">VLOOKUP($A268,統計!$A:$G,6,)</f>
@@ -12430,7 +12449,7 @@
         <v>#N/A</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D269" s="0" t="e">
         <f aca="false">VLOOKUP($A269,統計!$A:$G,6,)</f>
@@ -12454,7 +12473,7 @@
         <v>#N/A</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D270" s="0" t="e">
         <f aca="false">VLOOKUP($A270,統計!$A:$G,6,)</f>
@@ -12478,7 +12497,7 @@
         <v>#N/A</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D271" s="0" t="e">
         <f aca="false">VLOOKUP($A271,統計!$A:$G,6,)</f>
@@ -12502,7 +12521,7 @@
         <v>#N/A</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D272" s="0" t="e">
         <f aca="false">VLOOKUP($A272,統計!$A:$G,6,)</f>
@@ -12526,7 +12545,7 @@
         <v>#N/A</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D273" s="0" t="e">
         <f aca="false">VLOOKUP($A273,統計!$A:$G,6,)</f>
@@ -12550,7 +12569,7 @@
         <v>#N/A</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D274" s="0" t="e">
         <f aca="false">VLOOKUP($A274,統計!$A:$G,6,)</f>
@@ -12574,7 +12593,7 @@
         <v>#N/A</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D275" s="0" t="e">
         <f aca="false">VLOOKUP($A275,統計!$A:$G,6,)</f>
@@ -12598,7 +12617,7 @@
         <v>#N/A</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D276" s="0" t="e">
         <f aca="false">VLOOKUP($A276,統計!$A:$G,6,)</f>
@@ -12622,7 +12641,7 @@
         <v>#N/A</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D277" s="0" t="e">
         <f aca="false">VLOOKUP($A277,統計!$A:$G,6,)</f>
@@ -12646,7 +12665,7 @@
         <v>#N/A</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D278" s="0" t="e">
         <f aca="false">VLOOKUP($A278,統計!$A:$G,6,)</f>
@@ -12670,7 +12689,7 @@
         <v>#N/A</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D279" s="0" t="e">
         <f aca="false">VLOOKUP($A279,統計!$A:$G,6,)</f>
@@ -12694,7 +12713,7 @@
         <v>#N/A</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D280" s="0" t="e">
         <f aca="false">VLOOKUP($A280,統計!$A:$G,6,)</f>
@@ -12718,7 +12737,7 @@
         <v>#N/A</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D281" s="0" t="e">
         <f aca="false">VLOOKUP($A281,統計!$A:$G,6,)</f>
@@ -12742,7 +12761,7 @@
         <v>#N/A</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D282" s="0" t="e">
         <f aca="false">VLOOKUP($A282,統計!$A:$G,6,)</f>
@@ -12766,7 +12785,7 @@
         <v>#N/A</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D283" s="0" t="e">
         <f aca="false">VLOOKUP($A283,統計!$A:$G,6,)</f>
@@ -12790,7 +12809,7 @@
         <v>#N/A</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D284" s="0" t="e">
         <f aca="false">VLOOKUP($A284,統計!$A:$G,6,)</f>
@@ -12814,7 +12833,7 @@
         <v>#N/A</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D285" s="0" t="e">
         <f aca="false">VLOOKUP($A285,統計!$A:$G,6,)</f>
@@ -12838,7 +12857,7 @@
         <v>#N/A</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D286" s="0" t="e">
         <f aca="false">VLOOKUP($A286,統計!$A:$G,6,)</f>
@@ -12862,7 +12881,7 @@
         <v>#N/A</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D287" s="0" t="e">
         <f aca="false">VLOOKUP($A287,統計!$A:$G,6,)</f>
@@ -12886,7 +12905,7 @@
         <v>#N/A</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D288" s="0" t="e">
         <f aca="false">VLOOKUP($A288,統計!$A:$G,6,)</f>
@@ -12910,7 +12929,7 @@
         <v>#N/A</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D289" s="0" t="e">
         <f aca="false">VLOOKUP($A289,統計!$A:$G,6,)</f>
@@ -12934,7 +12953,7 @@
         <v>#N/A</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D290" s="0" t="e">
         <f aca="false">VLOOKUP($A290,統計!$A:$G,6,)</f>
@@ -12958,7 +12977,7 @@
         <v>#N/A</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D291" s="0" t="e">
         <f aca="false">VLOOKUP($A291,統計!$A:$G,6,)</f>
@@ -12982,7 +13001,7 @@
         <v>#N/A</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D292" s="0" t="e">
         <f aca="false">VLOOKUP($A292,統計!$A:$G,6,)</f>
@@ -13006,7 +13025,7 @@
         <v>#N/A</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D293" s="0" t="e">
         <f aca="false">VLOOKUP($A293,統計!$A:$G,6,)</f>
@@ -13030,7 +13049,7 @@
         <v>#N/A</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D294" s="0" t="e">
         <f aca="false">VLOOKUP($A294,統計!$A:$G,6,)</f>
@@ -13054,7 +13073,7 @@
         <v>#N/A</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D295" s="0" t="e">
         <f aca="false">VLOOKUP($A295,統計!$A:$G,6,)</f>
@@ -13095,13 +13114,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13115,30 +13134,30 @@
         <v>1173</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">C2/B2</f>
         <v>2.41791044776119</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">D2/C2</f>
         <v>1.81018518518519</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">O2/D2</f>
@@ -13150,7 +13169,7 @@
         <v>1239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13158,7 +13177,7 @@
         <v>2175</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13169,19 +13188,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13189,7 +13208,7 @@
         <v>3732</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">C6-C2</f>
@@ -13220,7 +13239,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13229,18 +13248,18 @@
         <v>0.0674157303370787</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
@@ -13256,7 +13275,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N10" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>2</v>
@@ -13272,7 +13291,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>294</v>
@@ -13288,7 +13307,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>200</v>
@@ -13296,7 +13315,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N14" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>118</v>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="514">
   <si>
     <t xml:space="preserve">索引號</t>
   </si>
@@ -853,6 +853,12 @@
   </si>
   <si>
     <t xml:space="preserve">晉紀四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八王之亂人物表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">司馬炎24年至25年、晉惠帝至9年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀五</t>
@@ -1564,11 +1570,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1688,11 +1695,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1721,6 +1728,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1737,7 +1748,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1813,7 +1824,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2173,16 +2184,19 @@
                 <c:pt idx="80">
                   <c:v>0.888888888888889</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57524932"/>
-        <c:axId val="83774724"/>
+        <c:axId val="38421606"/>
+        <c:axId val="95797626"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57524932"/>
+        <c:axId val="38421606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,12 +2272,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83774724"/>
+        <c:crossAx val="95797626"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83774724"/>
+        <c:axId val="95797626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57524932"/>
+        <c:crossAx val="38421606"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2374,11 +2388,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>90360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>669600</xdr:colOff>
+      <xdr:colOff>669240</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
@@ -2388,8 +2402,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6835320" y="1995120"/>
-        <a:ext cx="4149720" cy="2741400"/>
+        <a:off x="6918480" y="1995480"/>
+        <a:ext cx="4149360" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2407,19 +2421,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.12"/>
@@ -2529,19 +2544,19 @@
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>611.160493827161</v>
+        <v>616.146341463415</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44630.1604938272</v>
+        <v>44635.1463414634</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>494.239180822187</v>
+        <v>488.246554437988</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>44513.2391808222</v>
+        <v>44507.246554438</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,19 +2607,19 @@
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>701.037037037037</v>
+        <v>706.756097560976</v>
       </c>
       <c r="P3" s="1" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44720.037037037</v>
+        <v>44725.756097561</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>541.838459874083</v>
+        <v>535.268694512273</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>44560.8384598741</v>
+        <v>44554.2686945123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,19 +2670,19 @@
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1060.54320987654</v>
+        <v>1069.19512195122</v>
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45079.5432098766</v>
+        <v>45088.1951219512</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>652.903444328507</v>
+        <v>644.98702135227</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>44671.9034443285</v>
+        <v>44663.9870213523</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,19 +2733,19 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1581.82716049383</v>
+        <v>1594.73170731707</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>45600.8271604938</v>
+        <v>45613.7317073171</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>786.974746991347</v>
+        <v>777.432715894838</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>44805.9747469913</v>
+        <v>44796.4327158948</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,19 +2796,19 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>2381.72839506173</v>
+        <v>2401.15853658537</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>46400.7283950617</v>
+        <v>46420.1585365854</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>1039.2509259664</v>
+        <v>1026.65005828855</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>45058.2509259664</v>
+        <v>45045.6500582886</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,19 +2859,19 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>2642.37037037037</v>
+        <v>2663.92682926829</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>46661.3703703704</v>
+        <v>46682.9268292683</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>1080.50363447804</v>
+        <v>1067.40257968626</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>45099.503634478</v>
+        <v>45086.4025796863</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,19 +2922,19 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>2642.37037037037</v>
+        <v>2663.92682926829</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>46661.3703703704</v>
+        <v>46682.9268292683</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>1080.50363447804</v>
+        <v>1067.40257968626</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>45099.503634478</v>
+        <v>45086.4025796863</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,7 +3009,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>8.98765432098766</v>
+        <v>9.0609756097561</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,7 +3050,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>0.7933213175316</v>
+        <v>0.78370233457141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,6 +5497,40 @@
       <c r="I82" s="0" t="n">
         <f aca="false">E82/H82</f>
         <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>704</v>
+      </c>
+      <c r="B83" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B82)</f>
+        <v>卷82</v>
+      </c>
+      <c r="C83" s="7" t="n">
+        <v>44853</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>44867</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">D83-C83+1</f>
+        <v>15</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <f aca="false">G82+1</f>
+        <v>289</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <f aca="false">IF(F83*G83&lt;0,ABS(F83)+ABS(G83),G83-F83+1)</f>
+        <v>10</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <f aca="false">E83/H83</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -5506,14 +5555,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
+      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="22.03"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,7 +5587,7 @@
       <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -5567,7 +5616,7 @@
       <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="0" t="str">
@@ -5600,7 +5649,7 @@
       <c r="G3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="0" t="str">
@@ -5630,7 +5679,7 @@
       <c r="G4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="0" t="str">
@@ -5660,7 +5709,7 @@
       <c r="G5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="0" t="str">
@@ -5690,7 +5739,7 @@
       <c r="F6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="0" t="str">
@@ -5720,7 +5769,7 @@
       <c r="G7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="0" t="str">
@@ -5750,7 +5799,7 @@
       <c r="F8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="0" t="str">
@@ -5777,7 +5826,7 @@
         <f aca="false">VLOOKUP($A9,統計!$A:$G,7,)</f>
         <v>-207</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="0" t="str">
@@ -5810,7 +5859,7 @@
       <c r="G10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="0" t="str">
@@ -5840,7 +5889,7 @@
       <c r="G11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="0" t="str">
@@ -5870,7 +5919,7 @@
       <c r="G12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="0" t="str">
@@ -5897,7 +5946,7 @@
         <f aca="false">VLOOKUP($A13,統計!$A:$G,7,)</f>
         <v>-188</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>68</v>
       </c>
       <c r="I13" s="0" t="str">
@@ -5930,7 +5979,7 @@
       <c r="G14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="0" t="str">
@@ -5960,7 +6009,7 @@
       <c r="G15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>75</v>
       </c>
       <c r="I15" s="0" t="str">
@@ -5990,7 +6039,7 @@
       <c r="G16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="0" t="str">
@@ -6023,7 +6072,7 @@
       <c r="G17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I17" s="0" t="str">
@@ -6056,7 +6105,7 @@
       <c r="G18" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="0" t="str">
@@ -6086,7 +6135,7 @@
       <c r="G19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="0" t="str">
@@ -6119,7 +6168,7 @@
       <c r="G20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I20" s="0" t="str">
@@ -6149,7 +6198,7 @@
       <c r="G21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="0" t="str">
@@ -6176,7 +6225,7 @@
         <f aca="false">VLOOKUP($A22,統計!$A:$G,7,)</f>
         <v>-99</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="0" t="str">
@@ -6206,7 +6255,7 @@
       <c r="G23" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="0" t="str">
@@ -6236,7 +6285,7 @@
       <c r="F24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="0" t="str">
@@ -6269,7 +6318,7 @@
       <c r="G25" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>108</v>
       </c>
       <c r="I25" s="0" t="str">
@@ -6299,7 +6348,7 @@
       <c r="G26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>111</v>
       </c>
       <c r="I26" s="0" t="str">
@@ -6326,7 +6375,7 @@
         <f aca="false">VLOOKUP($A27,統計!$A:$G,7,)</f>
         <v>-59</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="0" t="str">
@@ -6359,7 +6408,7 @@
       <c r="G28" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="0" t="str">
@@ -6389,7 +6438,7 @@
       <c r="G29" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>120</v>
       </c>
       <c r="I29" s="0" t="str">
@@ -6419,7 +6468,7 @@
       <c r="F30" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="0" t="str">
@@ -6449,7 +6498,7 @@
       <c r="F31" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I31" s="0" t="str">
@@ -6482,7 +6531,7 @@
       <c r="G32" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>130</v>
       </c>
       <c r="I32" s="0" t="str">
@@ -6512,7 +6561,7 @@
       <c r="F33" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I33" s="0" t="str">
@@ -6542,7 +6591,7 @@
       <c r="F34" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>136</v>
       </c>
       <c r="I34" s="0" t="str">
@@ -6572,7 +6621,7 @@
       <c r="G35" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>139</v>
       </c>
       <c r="I35" s="0" t="str">
@@ -6605,7 +6654,7 @@
       <c r="G36" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="0" t="str">
@@ -6635,7 +6684,7 @@
       <c r="G37" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>146</v>
       </c>
       <c r="I37" s="0" t="str">
@@ -6665,7 +6714,7 @@
       <c r="G38" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>149</v>
       </c>
       <c r="I38" s="0" t="str">
@@ -6695,7 +6744,7 @@
       <c r="G39" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="0" t="str">
@@ -6725,7 +6774,7 @@
       <c r="G40" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>155</v>
       </c>
       <c r="I40" s="0" t="str">
@@ -6752,7 +6801,7 @@
         <f aca="false">VLOOKUP($A41,統計!$A:$G,7,)</f>
         <v>26</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>157</v>
       </c>
       <c r="I41" s="0" t="str">
@@ -6782,7 +6831,7 @@
       <c r="F42" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>160</v>
       </c>
       <c r="I42" s="0" t="str">
@@ -6812,7 +6861,7 @@
       <c r="F43" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>163</v>
       </c>
       <c r="I43" s="0" t="str">
@@ -6842,7 +6891,7 @@
       <c r="G44" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>166</v>
       </c>
       <c r="I44" s="0" t="str">
@@ -6872,7 +6921,7 @@
       <c r="G45" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I45" s="0" t="str">
@@ -6905,7 +6954,7 @@
       <c r="G46" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>173</v>
       </c>
       <c r="I46" s="0" t="str">
@@ -6935,7 +6984,7 @@
       <c r="F47" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>176</v>
       </c>
       <c r="I47" s="0" t="str">
@@ -6968,7 +7017,7 @@
       <c r="G48" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>180</v>
       </c>
       <c r="I48" s="0" t="str">
@@ -6998,7 +7047,7 @@
       <c r="G49" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>183</v>
       </c>
       <c r="I49" s="0" t="str">
@@ -7025,7 +7074,7 @@
         <f aca="false">VLOOKUP($A50,統計!$A:$G,7,)</f>
         <v>115</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I50" s="0" t="str">
@@ -7058,7 +7107,7 @@
       <c r="G51" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="10" t="s">
         <v>189</v>
       </c>
       <c r="I51" s="0" t="str">
@@ -7088,7 +7137,7 @@
       <c r="G52" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>192</v>
       </c>
       <c r="I52" s="0" t="str">
@@ -7115,7 +7164,7 @@
         <f aca="false">VLOOKUP($A53,統計!$A:$G,7,)</f>
         <v>145</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="8" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="0" t="str">
@@ -7145,7 +7194,7 @@
       <c r="F54" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>197</v>
       </c>
       <c r="I54" s="0" t="str">
@@ -7178,7 +7227,7 @@
       <c r="G55" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="8" t="s">
         <v>201</v>
       </c>
       <c r="I55" s="0" t="str">
@@ -7205,7 +7254,7 @@
         <f aca="false">VLOOKUP($A56,統計!$A:$G,7,)</f>
         <v>166</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>203</v>
       </c>
       <c r="I56" s="0" t="str">
@@ -7235,7 +7284,7 @@
       <c r="F57" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>206</v>
       </c>
       <c r="I57" s="0" t="str">
@@ -7262,7 +7311,7 @@
         <f aca="false">VLOOKUP($A58,統計!$A:$G,7,)</f>
         <v>180</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I58" s="0" t="str">
@@ -7292,7 +7341,7 @@
       <c r="F59" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>211</v>
       </c>
       <c r="I59" s="0" t="str">
@@ -7322,7 +7371,7 @@
       <c r="G60" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>214</v>
       </c>
       <c r="I60" s="0" t="str">
@@ -7352,7 +7401,7 @@
       <c r="F61" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>217</v>
       </c>
       <c r="I61" s="0" t="str">
@@ -7382,7 +7431,7 @@
       <c r="F62" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>220</v>
       </c>
       <c r="I62" s="0" t="str">
@@ -7415,7 +7464,7 @@
       <c r="G63" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="11" t="s">
         <v>224</v>
       </c>
       <c r="I63" s="0" t="str">
@@ -7442,7 +7491,7 @@
         <f aca="false">VLOOKUP($A64,統計!$A:$G,7,)</f>
         <v>200</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="11" t="s">
         <v>226</v>
       </c>
       <c r="I64" s="0" t="str">
@@ -7472,7 +7521,7 @@
       <c r="F65" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="8" t="s">
         <v>229</v>
       </c>
       <c r="I65" s="0" t="str">
@@ -7499,7 +7548,7 @@
         <f aca="false">VLOOKUP($A66,統計!$A:$G,7,)</f>
         <v>208</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="8" t="s">
         <v>231</v>
       </c>
       <c r="I66" s="0" t="str">
@@ -7526,7 +7575,7 @@
         <f aca="false">VLOOKUP($A67,統計!$A:$G,7,)</f>
         <v>213</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="8" t="s">
         <v>233</v>
       </c>
       <c r="I67" s="0" t="str">
@@ -7556,7 +7605,7 @@
       <c r="G68" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="8" t="s">
         <v>236</v>
       </c>
       <c r="I68" s="0" t="str">
@@ -7583,7 +7632,7 @@
         <f aca="false">VLOOKUP($A69,統計!$A:$G,7,)</f>
         <v>219</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="8" t="s">
         <v>238</v>
       </c>
       <c r="I69" s="0" t="str">
@@ -7610,7 +7659,7 @@
         <f aca="false">VLOOKUP($A70,統計!$A:$G,7,)</f>
         <v>222</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="8" t="s">
         <v>240</v>
       </c>
       <c r="I70" s="0" t="str">
@@ -7640,7 +7689,7 @@
       <c r="G71" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="8" t="s">
         <v>243</v>
       </c>
       <c r="I71" s="0" t="str">
@@ -7667,7 +7716,7 @@
         <f aca="false">VLOOKUP($A72,統計!$A:$G,7,)</f>
         <v>230</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="8" t="s">
         <v>245</v>
       </c>
       <c r="I72" s="0" t="str">
@@ -7697,7 +7746,7 @@
       <c r="G73" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="0" t="str">
@@ -7727,7 +7776,7 @@
       <c r="G74" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>251</v>
       </c>
       <c r="I74" s="0" t="str">
@@ -7757,7 +7806,7 @@
       <c r="F75" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="8" t="s">
         <v>254</v>
       </c>
       <c r="I75" s="0" t="str">
@@ -7790,7 +7839,7 @@
       <c r="G76" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="8" t="s">
         <v>258</v>
       </c>
       <c r="I76" s="0" t="str">
@@ -7820,7 +7869,7 @@
       <c r="F77" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="8" t="s">
         <v>261</v>
       </c>
       <c r="I77" s="0" t="str">
@@ -7850,7 +7899,7 @@
       <c r="F78" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="8" t="s">
         <v>264</v>
       </c>
       <c r="I78" s="0" t="str">
@@ -7979,28 +8028,33 @@
       <c r="A83" s="0" t="n">
         <v>704</v>
       </c>
-      <c r="B83" s="0" t="e">
+      <c r="B83" s="0" t="str">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷82</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="D83" s="0" t="e">
+      <c r="D83" s="0" t="n">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="0" t="e">
+        <v>289</v>
+      </c>
+      <c r="E83" s="0" t="n">
         <f aca="false">VLOOKUP($A83,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0" t="e">
+        <v>298</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="I83" s="0" t="str">
         <f aca="false">A83&amp;"|"&amp;"["&amp;B83&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B83,"卷","")&amp;".html)|"&amp;C83&amp;"|"&amp;D83&amp;"|"&amp;E83&amp;"|"&amp;F83&amp;"|"&amp;G83&amp;"|"&amp;H83</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>704|[卷82](5_筆記/资治通鉴82.html)|晉紀四|289|298||八王之亂人物表|司馬炎24年至25年、晉惠帝至9年</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>705</v>
       </c>
@@ -8009,7 +8063,7 @@
         <v>#N/A</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D84" s="0" t="e">
         <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
@@ -8019,6 +8073,7 @@
         <f aca="false">VLOOKUP($A84,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
+      <c r="H84" s="0"/>
       <c r="I84" s="0" t="e">
         <f aca="false">A84&amp;"|"&amp;"["&amp;B84&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B84,"卷","")&amp;".html)|"&amp;C84&amp;"|"&amp;D84&amp;"|"&amp;E84&amp;"|"&amp;F84&amp;"|"&amp;G84&amp;"|"&amp;H84</f>
         <v>#N/A</v>
@@ -8033,7 +8088,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D85" s="0" t="e">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,6,)</f>
@@ -8057,7 +8112,7 @@
         <v>#N/A</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D86" s="0" t="e">
         <f aca="false">VLOOKUP($A86,統計!$A:$G,6,)</f>
@@ -8081,7 +8136,7 @@
         <v>#N/A</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D87" s="0" t="e">
         <f aca="false">VLOOKUP($A87,統計!$A:$G,6,)</f>
@@ -8105,7 +8160,7 @@
         <v>#N/A</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D88" s="0" t="e">
         <f aca="false">VLOOKUP($A88,統計!$A:$G,6,)</f>
@@ -8129,7 +8184,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D89" s="0" t="e">
         <f aca="false">VLOOKUP($A89,統計!$A:$G,6,)</f>
@@ -8153,7 +8208,7 @@
         <v>#N/A</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D90" s="0" t="e">
         <f aca="false">VLOOKUP($A90,統計!$A:$G,6,)</f>
@@ -8177,7 +8232,7 @@
         <v>#N/A</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D91" s="0" t="e">
         <f aca="false">VLOOKUP($A91,統計!$A:$G,6,)</f>
@@ -8201,7 +8256,7 @@
         <v>#N/A</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D92" s="0" t="e">
         <f aca="false">VLOOKUP($A92,統計!$A:$G,6,)</f>
@@ -8225,7 +8280,7 @@
         <v>#N/A</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D93" s="0" t="e">
         <f aca="false">VLOOKUP($A93,統計!$A:$G,6,)</f>
@@ -8249,7 +8304,7 @@
         <v>#N/A</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D94" s="0" t="e">
         <f aca="false">VLOOKUP($A94,統計!$A:$G,6,)</f>
@@ -8273,7 +8328,7 @@
         <v>#N/A</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D95" s="0" t="e">
         <f aca="false">VLOOKUP($A95,統計!$A:$G,6,)</f>
@@ -8297,7 +8352,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D96" s="0" t="e">
         <f aca="false">VLOOKUP($A96,統計!$A:$G,6,)</f>
@@ -8321,7 +8376,7 @@
         <v>#N/A</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D97" s="0" t="e">
         <f aca="false">VLOOKUP($A97,統計!$A:$G,6,)</f>
@@ -8345,7 +8400,7 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D98" s="0" t="e">
         <f aca="false">VLOOKUP($A98,統計!$A:$G,6,)</f>
@@ -8369,7 +8424,7 @@
         <v>#N/A</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D99" s="0" t="e">
         <f aca="false">VLOOKUP($A99,統計!$A:$G,6,)</f>
@@ -8393,7 +8448,7 @@
         <v>#N/A</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D100" s="0" t="e">
         <f aca="false">VLOOKUP($A100,統計!$A:$G,6,)</f>
@@ -8417,7 +8472,7 @@
         <v>#N/A</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D101" s="0" t="e">
         <f aca="false">VLOOKUP($A101,統計!$A:$G,6,)</f>
@@ -8441,7 +8496,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D102" s="0" t="e">
         <f aca="false">VLOOKUP($A102,統計!$A:$G,6,)</f>
@@ -8465,7 +8520,7 @@
         <v>#N/A</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D103" s="0" t="e">
         <f aca="false">VLOOKUP($A103,統計!$A:$G,6,)</f>
@@ -8489,7 +8544,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D104" s="0" t="e">
         <f aca="false">VLOOKUP($A104,統計!$A:$G,6,)</f>
@@ -8513,7 +8568,7 @@
         <v>#N/A</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="0" t="e">
         <f aca="false">VLOOKUP($A105,統計!$A:$G,6,)</f>
@@ -8537,7 +8592,7 @@
         <v>#N/A</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D106" s="0" t="e">
         <f aca="false">VLOOKUP($A106,統計!$A:$G,6,)</f>
@@ -8561,7 +8616,7 @@
         <v>#N/A</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="0" t="e">
         <f aca="false">VLOOKUP($A107,統計!$A:$G,6,)</f>
@@ -8585,7 +8640,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="0" t="e">
         <f aca="false">VLOOKUP($A108,統計!$A:$G,6,)</f>
@@ -8609,7 +8664,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="0" t="e">
         <f aca="false">VLOOKUP($A109,統計!$A:$G,6,)</f>
@@ -8633,7 +8688,7 @@
         <v>#N/A</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="0" t="e">
         <f aca="false">VLOOKUP($A110,統計!$A:$G,6,)</f>
@@ -8657,7 +8712,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="0" t="e">
         <f aca="false">VLOOKUP($A111,統計!$A:$G,6,)</f>
@@ -8681,7 +8736,7 @@
         <v>#N/A</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="0" t="e">
         <f aca="false">VLOOKUP($A112,統計!$A:$G,6,)</f>
@@ -8705,7 +8760,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="0" t="e">
         <f aca="false">VLOOKUP($A113,統計!$A:$G,6,)</f>
@@ -8729,7 +8784,7 @@
         <v>#N/A</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="0" t="e">
         <f aca="false">VLOOKUP($A114,統計!$A:$G,6,)</f>
@@ -8753,7 +8808,7 @@
         <v>#N/A</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="0" t="e">
         <f aca="false">VLOOKUP($A115,統計!$A:$G,6,)</f>
@@ -8777,7 +8832,7 @@
         <v>#N/A</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="0" t="e">
         <f aca="false">VLOOKUP($A116,統計!$A:$G,6,)</f>
@@ -8801,7 +8856,7 @@
         <v>#N/A</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="0" t="e">
         <f aca="false">VLOOKUP($A117,統計!$A:$G,6,)</f>
@@ -8825,7 +8880,7 @@
         <v>#N/A</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="0" t="e">
         <f aca="false">VLOOKUP($A118,統計!$A:$G,6,)</f>
@@ -8849,7 +8904,7 @@
         <v>#N/A</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D119" s="0" t="e">
         <f aca="false">VLOOKUP($A119,統計!$A:$G,6,)</f>
@@ -8873,7 +8928,7 @@
         <v>#N/A</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D120" s="0" t="e">
         <f aca="false">VLOOKUP($A120,統計!$A:$G,6,)</f>
@@ -8897,7 +8952,7 @@
         <v>#N/A</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D121" s="0" t="e">
         <f aca="false">VLOOKUP($A121,統計!$A:$G,6,)</f>
@@ -8921,7 +8976,7 @@
         <v>#N/A</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D122" s="0" t="e">
         <f aca="false">VLOOKUP($A122,統計!$A:$G,6,)</f>
@@ -8945,7 +9000,7 @@
         <v>#N/A</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D123" s="0" t="e">
         <f aca="false">VLOOKUP($A123,統計!$A:$G,6,)</f>
@@ -8969,7 +9024,7 @@
         <v>#N/A</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D124" s="0" t="e">
         <f aca="false">VLOOKUP($A124,統計!$A:$G,6,)</f>
@@ -8993,7 +9048,7 @@
         <v>#N/A</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D125" s="0" t="e">
         <f aca="false">VLOOKUP($A125,統計!$A:$G,6,)</f>
@@ -9017,7 +9072,7 @@
         <v>#N/A</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D126" s="0" t="e">
         <f aca="false">VLOOKUP($A126,統計!$A:$G,6,)</f>
@@ -9041,7 +9096,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D127" s="0" t="e">
         <f aca="false">VLOOKUP($A127,統計!$A:$G,6,)</f>
@@ -9065,7 +9120,7 @@
         <v>#N/A</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D128" s="0" t="e">
         <f aca="false">VLOOKUP($A128,統計!$A:$G,6,)</f>
@@ -9089,7 +9144,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D129" s="0" t="e">
         <f aca="false">VLOOKUP($A129,統計!$A:$G,6,)</f>
@@ -9113,7 +9168,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D130" s="0" t="e">
         <f aca="false">VLOOKUP($A130,統計!$A:$G,6,)</f>
@@ -9137,7 +9192,7 @@
         <v>#N/A</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D131" s="0" t="e">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,6,)</f>
@@ -9161,7 +9216,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D132" s="0" t="e">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,6,)</f>
@@ -9185,7 +9240,7 @@
         <v>#N/A</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D133" s="0" t="e">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,6,)</f>
@@ -9209,7 +9264,7 @@
         <v>#N/A</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D134" s="0" t="e">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,6,)</f>
@@ -9233,7 +9288,7 @@
         <v>#N/A</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D135" s="0" t="e">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,6,)</f>
@@ -9257,7 +9312,7 @@
         <v>#N/A</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D136" s="0" t="e">
         <f aca="false">VLOOKUP($A136,統計!$A:$G,6,)</f>
@@ -9281,7 +9336,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D137" s="0" t="e">
         <f aca="false">VLOOKUP($A137,統計!$A:$G,6,)</f>
@@ -9305,7 +9360,7 @@
         <v>#N/A</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D138" s="0" t="e">
         <f aca="false">VLOOKUP($A138,統計!$A:$G,6,)</f>
@@ -9329,7 +9384,7 @@
         <v>#N/A</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D139" s="0" t="e">
         <f aca="false">VLOOKUP($A139,統計!$A:$G,6,)</f>
@@ -9353,7 +9408,7 @@
         <v>#N/A</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D140" s="0" t="e">
         <f aca="false">VLOOKUP($A140,統計!$A:$G,6,)</f>
@@ -9377,7 +9432,7 @@
         <v>#N/A</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D141" s="0" t="e">
         <f aca="false">VLOOKUP($A141,統計!$A:$G,6,)</f>
@@ -9401,7 +9456,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D142" s="0" t="e">
         <f aca="false">VLOOKUP($A142,統計!$A:$G,6,)</f>
@@ -9425,7 +9480,7 @@
         <v>#N/A</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D143" s="0" t="e">
         <f aca="false">VLOOKUP($A143,統計!$A:$G,6,)</f>
@@ -9449,7 +9504,7 @@
         <v>#N/A</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D144" s="0" t="e">
         <f aca="false">VLOOKUP($A144,統計!$A:$G,6,)</f>
@@ -9473,7 +9528,7 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D145" s="0" t="e">
         <f aca="false">VLOOKUP($A145,統計!$A:$G,6,)</f>
@@ -9497,7 +9552,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D146" s="0" t="e">
         <f aca="false">VLOOKUP($A146,統計!$A:$G,6,)</f>
@@ -9521,7 +9576,7 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D147" s="0" t="e">
         <f aca="false">VLOOKUP($A147,統計!$A:$G,6,)</f>
@@ -9545,7 +9600,7 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D148" s="0" t="e">
         <f aca="false">VLOOKUP($A148,統計!$A:$G,6,)</f>
@@ -9569,7 +9624,7 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D149" s="0" t="e">
         <f aca="false">VLOOKUP($A149,統計!$A:$G,6,)</f>
@@ -9593,7 +9648,7 @@
         <v>#N/A</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D150" s="0" t="e">
         <f aca="false">VLOOKUP($A150,統計!$A:$G,6,)</f>
@@ -9617,7 +9672,7 @@
         <v>#N/A</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D151" s="0" t="e">
         <f aca="false">VLOOKUP($A151,統計!$A:$G,6,)</f>
@@ -9641,7 +9696,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D152" s="0" t="e">
         <f aca="false">VLOOKUP($A152,統計!$A:$G,6,)</f>
@@ -9665,7 +9720,7 @@
         <v>#N/A</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D153" s="0" t="e">
         <f aca="false">VLOOKUP($A153,統計!$A:$G,6,)</f>
@@ -9689,7 +9744,7 @@
         <v>#N/A</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D154" s="0" t="e">
         <f aca="false">VLOOKUP($A154,統計!$A:$G,6,)</f>
@@ -9713,7 +9768,7 @@
         <v>#N/A</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D155" s="0" t="e">
         <f aca="false">VLOOKUP($A155,統計!$A:$G,6,)</f>
@@ -9737,7 +9792,7 @@
         <v>#N/A</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D156" s="0" t="e">
         <f aca="false">VLOOKUP($A156,統計!$A:$G,6,)</f>
@@ -9761,7 +9816,7 @@
         <v>#N/A</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D157" s="0" t="e">
         <f aca="false">VLOOKUP($A157,統計!$A:$G,6,)</f>
@@ -9785,7 +9840,7 @@
         <v>#N/A</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D158" s="0" t="e">
         <f aca="false">VLOOKUP($A158,統計!$A:$G,6,)</f>
@@ -9809,7 +9864,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D159" s="0" t="e">
         <f aca="false">VLOOKUP($A159,統計!$A:$G,6,)</f>
@@ -9833,7 +9888,7 @@
         <v>#N/A</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D160" s="0" t="e">
         <f aca="false">VLOOKUP($A160,統計!$A:$G,6,)</f>
@@ -9857,7 +9912,7 @@
         <v>#N/A</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D161" s="0" t="e">
         <f aca="false">VLOOKUP($A161,統計!$A:$G,6,)</f>
@@ -9881,7 +9936,7 @@
         <v>#N/A</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D162" s="0" t="e">
         <f aca="false">VLOOKUP($A162,統計!$A:$G,6,)</f>
@@ -9905,7 +9960,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D163" s="0" t="e">
         <f aca="false">VLOOKUP($A163,統計!$A:$G,6,)</f>
@@ -9929,7 +9984,7 @@
         <v>#N/A</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D164" s="0" t="e">
         <f aca="false">VLOOKUP($A164,統計!$A:$G,6,)</f>
@@ -9953,7 +10008,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D165" s="0" t="e">
         <f aca="false">VLOOKUP($A165,統計!$A:$G,6,)</f>
@@ -9977,7 +10032,7 @@
         <v>#N/A</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D166" s="0" t="e">
         <f aca="false">VLOOKUP($A166,統計!$A:$G,6,)</f>
@@ -10001,7 +10056,7 @@
         <v>#N/A</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D167" s="0" t="e">
         <f aca="false">VLOOKUP($A167,統計!$A:$G,6,)</f>
@@ -10025,7 +10080,7 @@
         <v>#N/A</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D168" s="0" t="e">
         <f aca="false">VLOOKUP($A168,統計!$A:$G,6,)</f>
@@ -10049,7 +10104,7 @@
         <v>#N/A</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D169" s="0" t="e">
         <f aca="false">VLOOKUP($A169,統計!$A:$G,6,)</f>
@@ -10073,7 +10128,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D170" s="0" t="e">
         <f aca="false">VLOOKUP($A170,統計!$A:$G,6,)</f>
@@ -10097,7 +10152,7 @@
         <v>#N/A</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D171" s="0" t="e">
         <f aca="false">VLOOKUP($A171,統計!$A:$G,6,)</f>
@@ -10121,7 +10176,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D172" s="0" t="e">
         <f aca="false">VLOOKUP($A172,統計!$A:$G,6,)</f>
@@ -10145,7 +10200,7 @@
         <v>#N/A</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D173" s="0" t="e">
         <f aca="false">VLOOKUP($A173,統計!$A:$G,6,)</f>
@@ -10169,7 +10224,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D174" s="0" t="e">
         <f aca="false">VLOOKUP($A174,統計!$A:$G,6,)</f>
@@ -10193,7 +10248,7 @@
         <v>#N/A</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D175" s="0" t="e">
         <f aca="false">VLOOKUP($A175,統計!$A:$G,6,)</f>
@@ -10217,7 +10272,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D176" s="0" t="e">
         <f aca="false">VLOOKUP($A176,統計!$A:$G,6,)</f>
@@ -10241,7 +10296,7 @@
         <v>#N/A</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D177" s="0" t="e">
         <f aca="false">VLOOKUP($A177,統計!$A:$G,6,)</f>
@@ -10265,7 +10320,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D178" s="0" t="e">
         <f aca="false">VLOOKUP($A178,統計!$A:$G,6,)</f>
@@ -10289,7 +10344,7 @@
         <v>#N/A</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D179" s="0" t="e">
         <f aca="false">VLOOKUP($A179,統計!$A:$G,6,)</f>
@@ -10313,7 +10368,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D180" s="0" t="e">
         <f aca="false">VLOOKUP($A180,統計!$A:$G,6,)</f>
@@ -10337,7 +10392,7 @@
         <v>#N/A</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D181" s="0" t="e">
         <f aca="false">VLOOKUP($A181,統計!$A:$G,6,)</f>
@@ -10361,7 +10416,7 @@
         <v>#N/A</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D182" s="0" t="e">
         <f aca="false">VLOOKUP($A182,統計!$A:$G,6,)</f>
@@ -10385,7 +10440,7 @@
         <v>#N/A</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D183" s="0" t="e">
         <f aca="false">VLOOKUP($A183,統計!$A:$G,6,)</f>
@@ -10409,7 +10464,7 @@
         <v>#N/A</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D184" s="0" t="e">
         <f aca="false">VLOOKUP($A184,統計!$A:$G,6,)</f>
@@ -10433,7 +10488,7 @@
         <v>#N/A</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D185" s="0" t="e">
         <f aca="false">VLOOKUP($A185,統計!$A:$G,6,)</f>
@@ -10457,7 +10512,7 @@
         <v>#N/A</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D186" s="0" t="e">
         <f aca="false">VLOOKUP($A186,統計!$A:$G,6,)</f>
@@ -10481,7 +10536,7 @@
         <v>#N/A</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D187" s="0" t="e">
         <f aca="false">VLOOKUP($A187,統計!$A:$G,6,)</f>
@@ -10505,7 +10560,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D188" s="0" t="e">
         <f aca="false">VLOOKUP($A188,統計!$A:$G,6,)</f>
@@ -10529,7 +10584,7 @@
         <v>#N/A</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D189" s="0" t="e">
         <f aca="false">VLOOKUP($A189,統計!$A:$G,6,)</f>
@@ -10553,7 +10608,7 @@
         <v>#N/A</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D190" s="0" t="e">
         <f aca="false">VLOOKUP($A190,統計!$A:$G,6,)</f>
@@ -10577,7 +10632,7 @@
         <v>#N/A</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D191" s="0" t="e">
         <f aca="false">VLOOKUP($A191,統計!$A:$G,6,)</f>
@@ -10601,7 +10656,7 @@
         <v>#N/A</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D192" s="0" t="e">
         <f aca="false">VLOOKUP($A192,統計!$A:$G,6,)</f>
@@ -10625,7 +10680,7 @@
         <v>#N/A</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D193" s="0" t="e">
         <f aca="false">VLOOKUP($A193,統計!$A:$G,6,)</f>
@@ -10649,7 +10704,7 @@
         <v>#N/A</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D194" s="0" t="e">
         <f aca="false">VLOOKUP($A194,統計!$A:$G,6,)</f>
@@ -10673,7 +10728,7 @@
         <v>#N/A</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D195" s="0" t="e">
         <f aca="false">VLOOKUP($A195,統計!$A:$G,6,)</f>
@@ -10697,7 +10752,7 @@
         <v>#N/A</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D196" s="0" t="e">
         <f aca="false">VLOOKUP($A196,統計!$A:$G,6,)</f>
@@ -10721,7 +10776,7 @@
         <v>#N/A</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D197" s="0" t="e">
         <f aca="false">VLOOKUP($A197,統計!$A:$G,6,)</f>
@@ -10745,7 +10800,7 @@
         <v>#N/A</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D198" s="0" t="e">
         <f aca="false">VLOOKUP($A198,統計!$A:$G,6,)</f>
@@ -10769,7 +10824,7 @@
         <v>#N/A</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D199" s="0" t="e">
         <f aca="false">VLOOKUP($A199,統計!$A:$G,6,)</f>
@@ -10793,7 +10848,7 @@
         <v>#N/A</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D200" s="0" t="e">
         <f aca="false">VLOOKUP($A200,統計!$A:$G,6,)</f>
@@ -10817,7 +10872,7 @@
         <v>#N/A</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D201" s="0" t="e">
         <f aca="false">VLOOKUP($A201,統計!$A:$G,6,)</f>
@@ -10841,7 +10896,7 @@
         <v>#N/A</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D202" s="0" t="e">
         <f aca="false">VLOOKUP($A202,統計!$A:$G,6,)</f>
@@ -10865,7 +10920,7 @@
         <v>#N/A</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D203" s="0" t="e">
         <f aca="false">VLOOKUP($A203,統計!$A:$G,6,)</f>
@@ -10889,7 +10944,7 @@
         <v>#N/A</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D204" s="0" t="e">
         <f aca="false">VLOOKUP($A204,統計!$A:$G,6,)</f>
@@ -10913,7 +10968,7 @@
         <v>#N/A</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D205" s="0" t="e">
         <f aca="false">VLOOKUP($A205,統計!$A:$G,6,)</f>
@@ -10937,7 +10992,7 @@
         <v>#N/A</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D206" s="0" t="e">
         <f aca="false">VLOOKUP($A206,統計!$A:$G,6,)</f>
@@ -10961,7 +11016,7 @@
         <v>#N/A</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D207" s="0" t="e">
         <f aca="false">VLOOKUP($A207,統計!$A:$G,6,)</f>
@@ -10985,7 +11040,7 @@
         <v>#N/A</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D208" s="0" t="e">
         <f aca="false">VLOOKUP($A208,統計!$A:$G,6,)</f>
@@ -11009,7 +11064,7 @@
         <v>#N/A</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D209" s="0" t="e">
         <f aca="false">VLOOKUP($A209,統計!$A:$G,6,)</f>
@@ -11033,7 +11088,7 @@
         <v>#N/A</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D210" s="0" t="e">
         <f aca="false">VLOOKUP($A210,統計!$A:$G,6,)</f>
@@ -11057,7 +11112,7 @@
         <v>#N/A</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D211" s="0" t="e">
         <f aca="false">VLOOKUP($A211,統計!$A:$G,6,)</f>
@@ -11081,7 +11136,7 @@
         <v>#N/A</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D212" s="0" t="e">
         <f aca="false">VLOOKUP($A212,統計!$A:$G,6,)</f>
@@ -11105,7 +11160,7 @@
         <v>#N/A</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D213" s="0" t="e">
         <f aca="false">VLOOKUP($A213,統計!$A:$G,6,)</f>
@@ -11129,7 +11184,7 @@
         <v>#N/A</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D214" s="0" t="e">
         <f aca="false">VLOOKUP($A214,統計!$A:$G,6,)</f>
@@ -11153,7 +11208,7 @@
         <v>#N/A</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D215" s="0" t="e">
         <f aca="false">VLOOKUP($A215,統計!$A:$G,6,)</f>
@@ -11177,7 +11232,7 @@
         <v>#N/A</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D216" s="0" t="e">
         <f aca="false">VLOOKUP($A216,統計!$A:$G,6,)</f>
@@ -11201,7 +11256,7 @@
         <v>#N/A</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D217" s="0" t="e">
         <f aca="false">VLOOKUP($A217,統計!$A:$G,6,)</f>
@@ -11225,7 +11280,7 @@
         <v>#N/A</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D218" s="0" t="e">
         <f aca="false">VLOOKUP($A218,統計!$A:$G,6,)</f>
@@ -11249,7 +11304,7 @@
         <v>#N/A</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D219" s="0" t="e">
         <f aca="false">VLOOKUP($A219,統計!$A:$G,6,)</f>
@@ -11273,7 +11328,7 @@
         <v>#N/A</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D220" s="0" t="e">
         <f aca="false">VLOOKUP($A220,統計!$A:$G,6,)</f>
@@ -11297,7 +11352,7 @@
         <v>#N/A</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D221" s="0" t="e">
         <f aca="false">VLOOKUP($A221,統計!$A:$G,6,)</f>
@@ -11321,7 +11376,7 @@
         <v>#N/A</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D222" s="0" t="e">
         <f aca="false">VLOOKUP($A222,統計!$A:$G,6,)</f>
@@ -11345,7 +11400,7 @@
         <v>#N/A</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D223" s="0" t="e">
         <f aca="false">VLOOKUP($A223,統計!$A:$G,6,)</f>
@@ -11369,7 +11424,7 @@
         <v>#N/A</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D224" s="0" t="e">
         <f aca="false">VLOOKUP($A224,統計!$A:$G,6,)</f>
@@ -11393,7 +11448,7 @@
         <v>#N/A</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D225" s="0" t="e">
         <f aca="false">VLOOKUP($A225,統計!$A:$G,6,)</f>
@@ -11417,7 +11472,7 @@
         <v>#N/A</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D226" s="0" t="e">
         <f aca="false">VLOOKUP($A226,統計!$A:$G,6,)</f>
@@ -11441,7 +11496,7 @@
         <v>#N/A</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D227" s="0" t="e">
         <f aca="false">VLOOKUP($A227,統計!$A:$G,6,)</f>
@@ -11465,7 +11520,7 @@
         <v>#N/A</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D228" s="0" t="e">
         <f aca="false">VLOOKUP($A228,統計!$A:$G,6,)</f>
@@ -11489,7 +11544,7 @@
         <v>#N/A</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D229" s="0" t="e">
         <f aca="false">VLOOKUP($A229,統計!$A:$G,6,)</f>
@@ -11513,7 +11568,7 @@
         <v>#N/A</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D230" s="0" t="e">
         <f aca="false">VLOOKUP($A230,統計!$A:$G,6,)</f>
@@ -11537,7 +11592,7 @@
         <v>#N/A</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D231" s="0" t="e">
         <f aca="false">VLOOKUP($A231,統計!$A:$G,6,)</f>
@@ -11561,7 +11616,7 @@
         <v>#N/A</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D232" s="0" t="e">
         <f aca="false">VLOOKUP($A232,統計!$A:$G,6,)</f>
@@ -11585,7 +11640,7 @@
         <v>#N/A</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D233" s="0" t="e">
         <f aca="false">VLOOKUP($A233,統計!$A:$G,6,)</f>
@@ -11609,7 +11664,7 @@
         <v>#N/A</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D234" s="0" t="e">
         <f aca="false">VLOOKUP($A234,統計!$A:$G,6,)</f>
@@ -11633,7 +11688,7 @@
         <v>#N/A</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D235" s="0" t="e">
         <f aca="false">VLOOKUP($A235,統計!$A:$G,6,)</f>
@@ -11657,7 +11712,7 @@
         <v>#N/A</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D236" s="0" t="e">
         <f aca="false">VLOOKUP($A236,統計!$A:$G,6,)</f>
@@ -11681,7 +11736,7 @@
         <v>#N/A</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D237" s="0" t="e">
         <f aca="false">VLOOKUP($A237,統計!$A:$G,6,)</f>
@@ -11705,7 +11760,7 @@
         <v>#N/A</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D238" s="0" t="e">
         <f aca="false">VLOOKUP($A238,統計!$A:$G,6,)</f>
@@ -11729,7 +11784,7 @@
         <v>#N/A</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D239" s="0" t="e">
         <f aca="false">VLOOKUP($A239,統計!$A:$G,6,)</f>
@@ -11753,7 +11808,7 @@
         <v>#N/A</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D240" s="0" t="e">
         <f aca="false">VLOOKUP($A240,統計!$A:$G,6,)</f>
@@ -11777,7 +11832,7 @@
         <v>#N/A</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D241" s="0" t="e">
         <f aca="false">VLOOKUP($A241,統計!$A:$G,6,)</f>
@@ -11801,7 +11856,7 @@
         <v>#N/A</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D242" s="0" t="e">
         <f aca="false">VLOOKUP($A242,統計!$A:$G,6,)</f>
@@ -11825,7 +11880,7 @@
         <v>#N/A</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D243" s="0" t="e">
         <f aca="false">VLOOKUP($A243,統計!$A:$G,6,)</f>
@@ -11849,7 +11904,7 @@
         <v>#N/A</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D244" s="0" t="e">
         <f aca="false">VLOOKUP($A244,統計!$A:$G,6,)</f>
@@ -11873,7 +11928,7 @@
         <v>#N/A</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D245" s="0" t="e">
         <f aca="false">VLOOKUP($A245,統計!$A:$G,6,)</f>
@@ -11897,7 +11952,7 @@
         <v>#N/A</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D246" s="0" t="e">
         <f aca="false">VLOOKUP($A246,統計!$A:$G,6,)</f>
@@ -11921,7 +11976,7 @@
         <v>#N/A</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D247" s="0" t="e">
         <f aca="false">VLOOKUP($A247,統計!$A:$G,6,)</f>
@@ -11945,7 +12000,7 @@
         <v>#N/A</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D248" s="0" t="e">
         <f aca="false">VLOOKUP($A248,統計!$A:$G,6,)</f>
@@ -11969,7 +12024,7 @@
         <v>#N/A</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D249" s="0" t="e">
         <f aca="false">VLOOKUP($A249,統計!$A:$G,6,)</f>
@@ -11993,7 +12048,7 @@
         <v>#N/A</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D250" s="0" t="e">
         <f aca="false">VLOOKUP($A250,統計!$A:$G,6,)</f>
@@ -12017,7 +12072,7 @@
         <v>#N/A</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D251" s="0" t="e">
         <f aca="false">VLOOKUP($A251,統計!$A:$G,6,)</f>
@@ -12041,7 +12096,7 @@
         <v>#N/A</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D252" s="0" t="e">
         <f aca="false">VLOOKUP($A252,統計!$A:$G,6,)</f>
@@ -12065,7 +12120,7 @@
         <v>#N/A</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D253" s="0" t="e">
         <f aca="false">VLOOKUP($A253,統計!$A:$G,6,)</f>
@@ -12089,7 +12144,7 @@
         <v>#N/A</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D254" s="0" t="e">
         <f aca="false">VLOOKUP($A254,統計!$A:$G,6,)</f>
@@ -12113,7 +12168,7 @@
         <v>#N/A</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D255" s="0" t="e">
         <f aca="false">VLOOKUP($A255,統計!$A:$G,6,)</f>
@@ -12137,7 +12192,7 @@
         <v>#N/A</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D256" s="0" t="e">
         <f aca="false">VLOOKUP($A256,統計!$A:$G,6,)</f>
@@ -12161,7 +12216,7 @@
         <v>#N/A</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D257" s="0" t="e">
         <f aca="false">VLOOKUP($A257,統計!$A:$G,6,)</f>
@@ -12185,7 +12240,7 @@
         <v>#N/A</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D258" s="0" t="e">
         <f aca="false">VLOOKUP($A258,統計!$A:$G,6,)</f>
@@ -12209,7 +12264,7 @@
         <v>#N/A</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D259" s="0" t="e">
         <f aca="false">VLOOKUP($A259,統計!$A:$G,6,)</f>
@@ -12233,7 +12288,7 @@
         <v>#N/A</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D260" s="0" t="e">
         <f aca="false">VLOOKUP($A260,統計!$A:$G,6,)</f>
@@ -12257,7 +12312,7 @@
         <v>#N/A</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D261" s="0" t="e">
         <f aca="false">VLOOKUP($A261,統計!$A:$G,6,)</f>
@@ -12281,7 +12336,7 @@
         <v>#N/A</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D262" s="0" t="e">
         <f aca="false">VLOOKUP($A262,統計!$A:$G,6,)</f>
@@ -12305,7 +12360,7 @@
         <v>#N/A</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D263" s="0" t="e">
         <f aca="false">VLOOKUP($A263,統計!$A:$G,6,)</f>
@@ -12329,7 +12384,7 @@
         <v>#N/A</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D264" s="0" t="e">
         <f aca="false">VLOOKUP($A264,統計!$A:$G,6,)</f>
@@ -12353,7 +12408,7 @@
         <v>#N/A</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D265" s="0" t="e">
         <f aca="false">VLOOKUP($A265,統計!$A:$G,6,)</f>
@@ -12377,7 +12432,7 @@
         <v>#N/A</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D266" s="0" t="e">
         <f aca="false">VLOOKUP($A266,統計!$A:$G,6,)</f>
@@ -12401,7 +12456,7 @@
         <v>#N/A</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D267" s="0" t="e">
         <f aca="false">VLOOKUP($A267,統計!$A:$G,6,)</f>
@@ -12425,7 +12480,7 @@
         <v>#N/A</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D268" s="0" t="e">
         <f aca="false">VLOOKUP($A268,統計!$A:$G,6,)</f>
@@ -12449,7 +12504,7 @@
         <v>#N/A</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D269" s="0" t="e">
         <f aca="false">VLOOKUP($A269,統計!$A:$G,6,)</f>
@@ -12473,7 +12528,7 @@
         <v>#N/A</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D270" s="0" t="e">
         <f aca="false">VLOOKUP($A270,統計!$A:$G,6,)</f>
@@ -12497,7 +12552,7 @@
         <v>#N/A</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D271" s="0" t="e">
         <f aca="false">VLOOKUP($A271,統計!$A:$G,6,)</f>
@@ -12521,7 +12576,7 @@
         <v>#N/A</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D272" s="0" t="e">
         <f aca="false">VLOOKUP($A272,統計!$A:$G,6,)</f>
@@ -12545,7 +12600,7 @@
         <v>#N/A</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D273" s="0" t="e">
         <f aca="false">VLOOKUP($A273,統計!$A:$G,6,)</f>
@@ -12569,7 +12624,7 @@
         <v>#N/A</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D274" s="0" t="e">
         <f aca="false">VLOOKUP($A274,統計!$A:$G,6,)</f>
@@ -12593,7 +12648,7 @@
         <v>#N/A</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D275" s="0" t="e">
         <f aca="false">VLOOKUP($A275,統計!$A:$G,6,)</f>
@@ -12617,7 +12672,7 @@
         <v>#N/A</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D276" s="0" t="e">
         <f aca="false">VLOOKUP($A276,統計!$A:$G,6,)</f>
@@ -12641,7 +12696,7 @@
         <v>#N/A</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D277" s="0" t="e">
         <f aca="false">VLOOKUP($A277,統計!$A:$G,6,)</f>
@@ -12665,7 +12720,7 @@
         <v>#N/A</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D278" s="0" t="e">
         <f aca="false">VLOOKUP($A278,統計!$A:$G,6,)</f>
@@ -12689,7 +12744,7 @@
         <v>#N/A</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D279" s="0" t="e">
         <f aca="false">VLOOKUP($A279,統計!$A:$G,6,)</f>
@@ -12713,7 +12768,7 @@
         <v>#N/A</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D280" s="0" t="e">
         <f aca="false">VLOOKUP($A280,統計!$A:$G,6,)</f>
@@ -12737,7 +12792,7 @@
         <v>#N/A</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D281" s="0" t="e">
         <f aca="false">VLOOKUP($A281,統計!$A:$G,6,)</f>
@@ -12761,7 +12816,7 @@
         <v>#N/A</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D282" s="0" t="e">
         <f aca="false">VLOOKUP($A282,統計!$A:$G,6,)</f>
@@ -12785,7 +12840,7 @@
         <v>#N/A</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D283" s="0" t="e">
         <f aca="false">VLOOKUP($A283,統計!$A:$G,6,)</f>
@@ -12809,7 +12864,7 @@
         <v>#N/A</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D284" s="0" t="e">
         <f aca="false">VLOOKUP($A284,統計!$A:$G,6,)</f>
@@ -12833,7 +12888,7 @@
         <v>#N/A</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D285" s="0" t="e">
         <f aca="false">VLOOKUP($A285,統計!$A:$G,6,)</f>
@@ -12857,7 +12912,7 @@
         <v>#N/A</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D286" s="0" t="e">
         <f aca="false">VLOOKUP($A286,統計!$A:$G,6,)</f>
@@ -12881,7 +12936,7 @@
         <v>#N/A</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D287" s="0" t="e">
         <f aca="false">VLOOKUP($A287,統計!$A:$G,6,)</f>
@@ -12905,7 +12960,7 @@
         <v>#N/A</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D288" s="0" t="e">
         <f aca="false">VLOOKUP($A288,統計!$A:$G,6,)</f>
@@ -12929,7 +12984,7 @@
         <v>#N/A</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D289" s="0" t="e">
         <f aca="false">VLOOKUP($A289,統計!$A:$G,6,)</f>
@@ -12953,7 +13008,7 @@
         <v>#N/A</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D290" s="0" t="e">
         <f aca="false">VLOOKUP($A290,統計!$A:$G,6,)</f>
@@ -12977,7 +13032,7 @@
         <v>#N/A</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D291" s="0" t="e">
         <f aca="false">VLOOKUP($A291,統計!$A:$G,6,)</f>
@@ -13001,7 +13056,7 @@
         <v>#N/A</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D292" s="0" t="e">
         <f aca="false">VLOOKUP($A292,統計!$A:$G,6,)</f>
@@ -13025,7 +13080,7 @@
         <v>#N/A</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D293" s="0" t="e">
         <f aca="false">VLOOKUP($A293,統計!$A:$G,6,)</f>
@@ -13049,7 +13104,7 @@
         <v>#N/A</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D294" s="0" t="e">
         <f aca="false">VLOOKUP($A294,統計!$A:$G,6,)</f>
@@ -13073,7 +13128,7 @@
         <v>#N/A</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D295" s="0" t="e">
         <f aca="false">VLOOKUP($A295,統計!$A:$G,6,)</f>
@@ -13114,13 +13169,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13134,30 +13189,30 @@
         <v>1173</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">C2/B2</f>
         <v>2.41791044776119</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">D2/C2</f>
         <v>1.81018518518519</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">O2/D2</f>
@@ -13169,7 +13224,7 @@
         <v>1239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13177,7 +13232,7 @@
         <v>2175</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13188,19 +13243,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13208,7 +13263,7 @@
         <v>3732</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">C6-C2</f>
@@ -13239,27 +13294,27 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="12" t="n">
         <f aca="false">C2/C7</f>
         <v>0.0674157303370787</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
@@ -13275,7 +13330,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N10" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>2</v>
@@ -13291,7 +13346,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>294</v>
@@ -13307,7 +13362,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>200</v>
@@ -13315,7 +13370,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N14" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>118</v>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -855,13 +855,13 @@
     <t xml:space="preserve">晉紀四</t>
   </si>
   <si>
-    <t xml:space="preserve">八王之亂人物表</t>
-  </si>
-  <si>
     <t xml:space="preserve">司馬炎24年至25年、晉惠帝至9年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀五</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晉惠帝10年至11年</t>
   </si>
   <si>
     <t xml:space="preserve">晉紀六</t>
@@ -2187,16 +2187,22 @@
                 <c:pt idx="81">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-22438</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38421606"/>
-        <c:axId val="95797626"/>
+        <c:axId val="882462"/>
+        <c:axId val="13861728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38421606"/>
+        <c:axId val="882462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,12 +2278,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95797626"/>
+        <c:crossAx val="13861728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95797626"/>
+        <c:axId val="13861728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38421606"/>
+        <c:crossAx val="882462"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2388,11 +2394,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>90360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>669240</xdr:colOff>
+      <xdr:colOff>668880</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
@@ -2402,8 +2408,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6918480" y="1995480"/>
-        <a:ext cx="4149360" cy="2741040"/>
+        <a:off x="7001640" y="1995840"/>
+        <a:ext cx="4149000" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2421,20 +2427,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.12"/>
@@ -2544,19 +2549,19 @@
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>616.146341463415</v>
+        <v>-35719.4285714286</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44635.1463414634</v>
+        <v>8299.57142857143</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>488.246554437988</v>
+        <v>328890.689419697</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>44507.246554438</v>
+        <v>372909.689419697</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,19 +2612,19 @@
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>706.756097560976</v>
+        <v>-40972.2857142857</v>
       </c>
       <c r="P3" s="1" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44725.756097561</v>
+        <v>3046.71428571428</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>535.268694512273</v>
+        <v>360565.555174403</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>44554.2686945123</v>
+        <v>404584.555174403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,19 +2675,19 @@
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1069.19512195122</v>
+        <v>-61983.7142857143</v>
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45088.1951219512</v>
+        <v>-17964.7142857143</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>644.98702135227</v>
+        <v>434473.575268718</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>44663.9870213523</v>
+        <v>478492.575268718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,19 +2738,19 @@
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1594.73170731707</v>
+        <v>-92450.2857142857</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>45613.7317073171</v>
+        <v>-48431.2857142857</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>777.432715894838</v>
+        <v>523691.113811139</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>44796.4327158948</v>
+        <v>567710.11381114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,19 +2801,19 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>2401.15853658537</v>
+        <v>-139200.714285714</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>46420.1585365854</v>
+        <v>-95181.7142857143</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>1026.65005828855</v>
+        <v>691567.902311081</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>45045.6500582886</v>
+        <v>735586.902311081</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,19 +2864,19 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>2663.92682926829</v>
+        <v>-154434</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>46682.9268292683</v>
+        <v>-110415</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>1067.40257968626</v>
+        <v>719019.452631827</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>45086.4025796863</v>
+        <v>763038.452631827</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,19 +2927,19 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>2663.92682926829</v>
+        <v>-154434</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>46682.9268292683</v>
+        <v>-110415</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>1067.40257968626</v>
+        <v>719019.452631827</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>45086.4025796863</v>
+        <v>763038.452631827</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3014,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>9.0609756097561</v>
+        <v>-525.285714285714</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,7 +3055,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>0.78370233457141</v>
+        <v>527.9144292451</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,6 +5536,71 @@
       <c r="I83" s="0" t="n">
         <f aca="false">E83/H83</f>
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="B84" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B83)</f>
+        <v>卷83</v>
+      </c>
+      <c r="C84" s="7" t="n">
+        <v>44868</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>44876</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">D84-C84+1</f>
+        <v>9</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <f aca="false">G83+1</f>
+        <v>299</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">IF(F84*G84&lt;0,ABS(F84)+ABS(G84),G84-F84+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">E84/H84</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>706</v>
+      </c>
+      <c r="B85" s="0" t="str">
+        <f aca="false">"卷"&amp;ROW(B84)</f>
+        <v>卷84</v>
+      </c>
+      <c r="C85" s="7" t="n">
+        <v>44877</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">D85-C85+1</f>
+        <v>-44876</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <f aca="false">G84+1</f>
+        <v>301</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">IF(F85*G85&lt;0,ABS(F85)+ABS(G85),G85-F85+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">E85/H85</f>
+        <v>-22438</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5625,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="G83" activeCellId="0" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8043,64 +8113,63 @@
         <f aca="false">VLOOKUP($A83,統計!$A:$G,7,)</f>
         <v>298</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="H83" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="I83" s="0" t="str">
         <f aca="false">A83&amp;"|"&amp;"["&amp;B83&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B83,"卷","")&amp;".html)|"&amp;C83&amp;"|"&amp;D83&amp;"|"&amp;E83&amp;"|"&amp;F83&amp;"|"&amp;G83&amp;"|"&amp;H83</f>
-        <v>704|[卷82](5_筆記/资治通鉴82.html)|晉紀四|289|298||八王之亂人物表|司馬炎24年至25年、晉惠帝至9年</v>
+        <v>704|[卷82](5_筆記/资治通鉴82.html)|晉紀四|289|298|||司馬炎24年至25年、晉惠帝至9年</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="B84" s="0" t="e">
+      <c r="B84" s="0" t="str">
         <f aca="false">VLOOKUP($A84,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷83</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
+        <v>299</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">VLOOKUP($A84,統計!$A:$G,7,)</f>
+        <v>300</v>
+      </c>
+      <c r="H84" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="D84" s="0" t="e">
-        <f aca="false">VLOOKUP($A84,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="0" t="e">
-        <f aca="false">VLOOKUP($A84,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0" t="e">
+      <c r="I84" s="0" t="str">
         <f aca="false">A84&amp;"|"&amp;"["&amp;B84&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B84,"卷","")&amp;".html)|"&amp;C84&amp;"|"&amp;D84&amp;"|"&amp;E84&amp;"|"&amp;F84&amp;"|"&amp;G84&amp;"|"&amp;H84</f>
-        <v>#N/A</v>
+        <v>705|[卷83](5_筆記/资治通鉴83.html)|晉紀五|299|300|||晉惠帝10年至11年</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>706</v>
       </c>
-      <c r="B85" s="0" t="e">
+      <c r="B85" s="0" t="str">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷84</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D85" s="0" t="e">
+      <c r="D85" s="0" t="n">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="0" t="e">
+        <v>301</v>
+      </c>
+      <c r="E85" s="0" t="n">
         <f aca="false">VLOOKUP($A85,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="0" t="e">
+        <v>302</v>
+      </c>
+      <c r="I85" s="0" t="str">
         <f aca="false">A85&amp;"|"&amp;"["&amp;B85&amp;"](5_筆記/资治通鉴"&amp;SUBSTITUTE(B85,"卷","")&amp;".html)|"&amp;C85&amp;"|"&amp;D85&amp;"|"&amp;E85&amp;"|"&amp;F85&amp;"|"&amp;G85&amp;"|"&amp;H85</f>
-        <v>#N/A</v>
+        <v>706|[卷84](5_筆記/资治通鉴84.html)|晉紀六|301|302|||</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F3C742-A31E-4DCE-8B3F-037BB642A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82623B25-C67E-4B56-BCE2-60553B13210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2415" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
     <sheet name="目錄生成" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="517">
   <si>
     <t>索引號</t>
   </si>
@@ -1572,6 +1572,14 @@
   </si>
   <si>
     <t>晉惠帝12年、司馬倫、晉惠帝13年</t>
+  </si>
+  <si>
+    <t>羊獻容廢立表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉惠帝14年至15年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1878,7 +1886,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2130,6 +2138,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>卷84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>卷85</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2391,6 +2402,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,11 +2959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3066,19 +3080,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>619.28571428571433</v>
+        <v>620</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44638.285714285717</v>
+        <v>44639</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>557.0330243749064</v>
+        <v>584.46359048733302</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44576.033024374905</v>
+        <v>44603.463590487336</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3129,19 +3143,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>710.35714285714289</v>
+        <v>711.17647058823525</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44729.357142857145</v>
+        <v>44730.176470588238</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>610.67986460362943</v>
+        <v>640.75221878466857</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44629.679864603626</v>
+        <v>44659.75221878467</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3192,19 +3206,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1074.6428571428571</v>
+        <v>1075.8823529411764</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45093.642857142855</v>
+        <v>45094.882352941175</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>735.85582513731617</v>
+        <v>772.09235147845118</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44754.855825137318</v>
+        <v>44791.092351478452</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3255,19 +3269,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1602.8571428571429</v>
+        <v>1604.705882352941</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45621.857142857145</v>
+        <v>45623.705882352944</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>886.96109178155245</v>
+        <v>930.63865451594609</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>44905.961091781552</v>
+        <v>44949.638654515948</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3318,19 +3332,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2413.3928571428573</v>
+        <v>2416.1764705882351</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46432.392857142855</v>
+        <v>46435.176470588238</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1171.289344993784</v>
+        <v>1228.9683844918241</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45190.289344993784</v>
+        <v>45247.968384491825</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3381,19 +3395,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2677.5</v>
+        <v>2680.5882352941176</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46696.5</v>
+        <v>46699.588235294119</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1217.7832731920105</v>
+        <v>1277.7518623495146</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45236.783273192013</v>
+        <v>45296.751862349513</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3444,19 +3458,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2677.5</v>
+        <v>2680.5882352941176</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46696.5</v>
+        <v>46699.588235294119</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1217.7832731920105</v>
+        <v>1277.7518623495146</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45236.783273192013</v>
+        <v>45296.751862349513</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3531,7 +3545,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.1071428571428577</v>
+        <v>9.117647058823529</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3572,7 +3586,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.89411400381204886</v>
+        <v>0.9381438049555908</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5435,7 +5449,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B85" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B86" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6121,6 +6135,40 @@
       <c r="I85">
         <f t="shared" si="19"/>
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>707</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="16"/>
+        <v>卷85</v>
+      </c>
+      <c r="C86" s="7">
+        <v>44891</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44900</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86" si="22">D86-C86+1</f>
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86" si="23">G85+1</f>
+        <v>303</v>
+      </c>
+      <c r="G86">
+        <v>304</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86" si="24">IF(F86*G86&lt;0,ABS(F86)+ABS(G86),G86-F86+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86" si="25">E86/H86</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6137,7 +6185,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8691,24 +8739,30 @@
       <c r="A86">
         <v>707</v>
       </c>
-      <c r="B86" t="e">
+      <c r="B86" t="str">
         <f>VLOOKUP($A86,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷85</v>
       </c>
       <c r="C86" t="s">
         <v>281</v>
       </c>
-      <c r="D86" t="e">
+      <c r="D86">
         <f>VLOOKUP($A86,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E86" t="e">
+        <v>303</v>
+      </c>
+      <c r="E86">
         <f>VLOOKUP($A86,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" t="e">
+        <v>304</v>
+      </c>
+      <c r="G86" t="s">
+        <v>515</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>707|[卷85](5_筆記/资治通鉴85.html)|晉紀七|303|304||羊獻容廢立表|晉惠帝14年至15年</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82623B25-C67E-4B56-BCE2-60553B13210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9DC5E1-4EE8-4241-94DB-8594506179B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2415" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="518">
   <si>
     <t>索引號</t>
   </si>
@@ -1579,6 +1579,10 @@
   </si>
   <si>
     <t>晉惠帝14年至15年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉惠帝16年至18年、晉懷帝至2年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1675,11 +1679,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1886,7 +1887,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2141,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>卷85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>卷86</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2405,6 +2409,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,11 +2966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3080,19 +3087,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>620</v>
+        <v>624.65116279069775</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44639</v>
+        <v>44643.651162790695</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>584.46359048733302</v>
+        <v>598.2649505954995</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44603.463590487336</v>
+        <v>44617.264950595498</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3143,19 +3150,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>711.17647058823525</v>
+        <v>716.51162790697674</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44730.176470588238</v>
+        <v>44735.511627906977</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>640.75221878466857</v>
+        <v>655.88276285188795</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44659.75221878467</v>
+        <v>44674.882762851885</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3206,19 +3213,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1075.8823529411764</v>
+        <v>1083.953488372093</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45094.882352941175</v>
+        <v>45102.953488372092</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>772.09235147845118</v>
+        <v>790.32432478346084</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44791.092351478452</v>
+        <v>44809.324324783462</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3269,19 +3276,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1604.705882352941</v>
+        <v>1616.7441860465117</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45623.705882352944</v>
+        <v>45635.744186046511</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>930.63865451594609</v>
+        <v>952.61449597228818</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>44949.638654515948</v>
+        <v>44971.614495972288</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3332,19 +3339,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2416.1764705882351</v>
+        <v>2434.3023255813955</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46435.176470588238</v>
+        <v>46453.302325581397</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1228.9683844918241</v>
+        <v>1257.9889009311466</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45247.968384491825</v>
+        <v>45276.988900931145</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3395,19 +3402,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2680.5882352941176</v>
+        <v>2700.6976744186049</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46699.588235294119</v>
+        <v>46719.697674418603</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1277.7518623495146</v>
+        <v>1307.9243382200166</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45296.751862349513</v>
+        <v>45326.924338220015</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3458,19 +3465,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2680.5882352941176</v>
+        <v>2700.6976744186049</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46699.588235294119</v>
+        <v>46719.697674418603</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1277.7518623495146</v>
+        <v>1307.9243382200166</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45296.751862349513</v>
+        <v>45326.924338220015</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3545,7 +3552,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.117647058823529</v>
+        <v>9.1860465116279073</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3586,7 +3593,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.9381438049555908</v>
+        <v>0.96029687093980665</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5449,7 +5456,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B86" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B87" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6169,6 +6176,40 @@
       <c r="I86">
         <f t="shared" ref="I86" si="25">E86/H86</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>708</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="16"/>
+        <v>卷86</v>
+      </c>
+      <c r="C87" s="7">
+        <v>44902</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44916</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87" si="26">D87-C87+1</f>
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87" si="27">G86+1</f>
+        <v>305</v>
+      </c>
+      <c r="G87">
+        <v>308</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87" si="28">IF(F87*G87&lt;0,ABS(F87)+ABS(G87),G87-F87+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87" si="29">E87/H87</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -6185,14 +6226,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="33.375" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="22" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6217,7 +6258,7 @@
       <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6246,7 +6287,7 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="str">
@@ -6279,7 +6320,7 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="str">
@@ -6309,7 +6350,7 @@
       <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="str">
@@ -6339,7 +6380,7 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
       <c r="I5" t="str">
@@ -6369,7 +6410,7 @@
       <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="str">
@@ -6399,7 +6440,7 @@
       <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
       <c r="I7" t="str">
@@ -6429,7 +6470,7 @@
       <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" t="s">
         <v>54</v>
       </c>
       <c r="I8" t="str">
@@ -6456,7 +6497,7 @@
         <f>VLOOKUP($A9,統計!$A:$G,7,)</f>
         <v>-207</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="str">
@@ -6489,7 +6530,7 @@
       <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" t="s">
         <v>60</v>
       </c>
       <c r="I10" t="str">
@@ -6519,7 +6560,7 @@
       <c r="G11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" t="s">
         <v>63</v>
       </c>
       <c r="I11" t="str">
@@ -6549,7 +6590,7 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
       <c r="I12" t="str">
@@ -6576,7 +6617,7 @@
         <f>VLOOKUP($A13,統計!$A:$G,7,)</f>
         <v>-188</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" t="s">
         <v>68</v>
       </c>
       <c r="I13" t="str">
@@ -6609,7 +6650,7 @@
       <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" t="s">
         <v>72</v>
       </c>
       <c r="I14" t="str">
@@ -6639,7 +6680,7 @@
       <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" t="s">
         <v>75</v>
       </c>
       <c r="I15" t="str">
@@ -6669,7 +6710,7 @@
       <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" t="s">
         <v>78</v>
       </c>
       <c r="I16" t="str">
@@ -6702,7 +6743,7 @@
       <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="str">
@@ -6735,7 +6776,7 @@
       <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" t="s">
         <v>86</v>
       </c>
       <c r="I18" t="str">
@@ -6765,7 +6806,7 @@
       <c r="G19" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="I19" t="str">
@@ -6798,7 +6839,7 @@
       <c r="G20" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
       <c r="I20" t="str">
@@ -6828,7 +6869,7 @@
       <c r="G21" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" t="s">
         <v>96</v>
       </c>
       <c r="I21" t="str">
@@ -6855,7 +6896,7 @@
         <f>VLOOKUP($A22,統計!$A:$G,7,)</f>
         <v>-99</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" t="s">
         <v>98</v>
       </c>
       <c r="I22" t="str">
@@ -6885,7 +6926,7 @@
       <c r="G23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" t="s">
         <v>101</v>
       </c>
       <c r="I23" t="str">
@@ -6915,7 +6956,7 @@
       <c r="F24" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" t="s">
         <v>104</v>
       </c>
       <c r="I24" t="str">
@@ -6948,7 +6989,7 @@
       <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
       <c r="I25" t="str">
@@ -6978,7 +7019,7 @@
       <c r="G26" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" t="s">
         <v>111</v>
       </c>
       <c r="I26" t="str">
@@ -7005,7 +7046,7 @@
         <f>VLOOKUP($A27,統計!$A:$G,7,)</f>
         <v>-59</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" t="s">
         <v>113</v>
       </c>
       <c r="I27" t="str">
@@ -7038,7 +7079,7 @@
       <c r="G28" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" t="s">
         <v>117</v>
       </c>
       <c r="I28" t="str">
@@ -7068,7 +7109,7 @@
       <c r="G29" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" t="s">
         <v>120</v>
       </c>
       <c r="I29" t="str">
@@ -7098,7 +7139,7 @@
       <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" t="s">
         <v>123</v>
       </c>
       <c r="I30" t="str">
@@ -7128,7 +7169,7 @@
       <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" t="s">
         <v>126</v>
       </c>
       <c r="I31" t="str">
@@ -7161,7 +7202,7 @@
       <c r="G32" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" t="s">
         <v>130</v>
       </c>
       <c r="I32" t="str">
@@ -7191,7 +7232,7 @@
       <c r="F33" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" t="s">
         <v>133</v>
       </c>
       <c r="I33" t="str">
@@ -7221,7 +7262,7 @@
       <c r="F34" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" t="s">
         <v>136</v>
       </c>
       <c r="I34" t="str">
@@ -7251,7 +7292,7 @@
       <c r="G35" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" t="s">
         <v>139</v>
       </c>
       <c r="I35" t="str">
@@ -7284,7 +7325,7 @@
       <c r="G36" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" t="s">
         <v>143</v>
       </c>
       <c r="I36" t="str">
@@ -7314,7 +7355,7 @@
       <c r="G37" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" t="s">
         <v>146</v>
       </c>
       <c r="I37" t="str">
@@ -7344,7 +7385,7 @@
       <c r="G38" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" t="s">
         <v>149</v>
       </c>
       <c r="I38" t="str">
@@ -7374,7 +7415,7 @@
       <c r="G39" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" t="s">
         <v>152</v>
       </c>
       <c r="I39" t="str">
@@ -7404,7 +7445,7 @@
       <c r="G40" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" t="s">
         <v>155</v>
       </c>
       <c r="I40" t="str">
@@ -7431,7 +7472,7 @@
         <f>VLOOKUP($A41,統計!$A:$G,7,)</f>
         <v>26</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" t="s">
         <v>157</v>
       </c>
       <c r="I41" t="str">
@@ -7461,7 +7502,7 @@
       <c r="F42" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" t="s">
         <v>160</v>
       </c>
       <c r="I42" t="str">
@@ -7491,7 +7532,7 @@
       <c r="F43" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" t="s">
         <v>163</v>
       </c>
       <c r="I43" t="str">
@@ -7521,7 +7562,7 @@
       <c r="G44" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" t="s">
         <v>166</v>
       </c>
       <c r="I44" t="str">
@@ -7551,7 +7592,7 @@
       <c r="G45" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" t="s">
         <v>169</v>
       </c>
       <c r="I45" t="str">
@@ -7584,7 +7625,7 @@
       <c r="G46" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" t="s">
         <v>173</v>
       </c>
       <c r="I46" t="str">
@@ -7614,7 +7655,7 @@
       <c r="F47" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" t="s">
         <v>176</v>
       </c>
       <c r="I47" t="str">
@@ -7647,7 +7688,7 @@
       <c r="G48" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" t="s">
         <v>180</v>
       </c>
       <c r="I48" t="str">
@@ -7677,7 +7718,7 @@
       <c r="G49" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" t="s">
         <v>183</v>
       </c>
       <c r="I49" t="str">
@@ -7704,7 +7745,7 @@
         <f>VLOOKUP($A50,統計!$A:$G,7,)</f>
         <v>115</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I50" t="str">
@@ -7737,7 +7778,7 @@
       <c r="G51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>189</v>
       </c>
       <c r="I51" t="str">
@@ -7767,7 +7808,7 @@
       <c r="G52" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" t="s">
         <v>192</v>
       </c>
       <c r="I52" t="str">
@@ -7794,7 +7835,7 @@
         <f>VLOOKUP($A53,統計!$A:$G,7,)</f>
         <v>145</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" t="s">
         <v>194</v>
       </c>
       <c r="I53" t="str">
@@ -7824,7 +7865,7 @@
       <c r="F54" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" t="s">
         <v>197</v>
       </c>
       <c r="I54" t="str">
@@ -7857,7 +7898,7 @@
       <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" t="s">
         <v>201</v>
       </c>
       <c r="I55" t="str">
@@ -7884,7 +7925,7 @@
         <f>VLOOKUP($A56,統計!$A:$G,7,)</f>
         <v>166</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" t="s">
         <v>203</v>
       </c>
       <c r="I56" t="str">
@@ -7914,7 +7955,7 @@
       <c r="F57" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" t="s">
         <v>206</v>
       </c>
       <c r="I57" t="str">
@@ -7941,7 +7982,7 @@
         <f>VLOOKUP($A58,統計!$A:$G,7,)</f>
         <v>180</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" t="s">
         <v>208</v>
       </c>
       <c r="I58" t="str">
@@ -7971,7 +8012,7 @@
       <c r="F59" t="s">
         <v>210</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" t="s">
         <v>211</v>
       </c>
       <c r="I59" t="str">
@@ -8001,7 +8042,7 @@
       <c r="G60" t="s">
         <v>213</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" t="s">
         <v>214</v>
       </c>
       <c r="I60" t="str">
@@ -8031,7 +8072,7 @@
       <c r="F61" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" t="s">
         <v>217</v>
       </c>
       <c r="I61" t="str">
@@ -8061,7 +8102,7 @@
       <c r="F62" t="s">
         <v>219</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" t="s">
         <v>220</v>
       </c>
       <c r="I62" t="str">
@@ -8094,7 +8135,7 @@
       <c r="G63" t="s">
         <v>223</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" t="s">
         <v>224</v>
       </c>
       <c r="I63" t="str">
@@ -8121,7 +8162,7 @@
         <f>VLOOKUP($A64,統計!$A:$G,7,)</f>
         <v>200</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" t="s">
         <v>226</v>
       </c>
       <c r="I64" t="str">
@@ -8151,7 +8192,7 @@
       <c r="F65" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" t="s">
         <v>229</v>
       </c>
       <c r="I65" t="str">
@@ -8178,7 +8219,7 @@
         <f>VLOOKUP($A66,統計!$A:$G,7,)</f>
         <v>208</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" t="s">
         <v>231</v>
       </c>
       <c r="I66" t="str">
@@ -8205,7 +8246,7 @@
         <f>VLOOKUP($A67,統計!$A:$G,7,)</f>
         <v>213</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" t="s">
         <v>233</v>
       </c>
       <c r="I67" t="str">
@@ -8235,7 +8276,7 @@
       <c r="G68" t="s">
         <v>235</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" t="s">
         <v>236</v>
       </c>
       <c r="I68" t="str">
@@ -8262,7 +8303,7 @@
         <f>VLOOKUP($A69,統計!$A:$G,7,)</f>
         <v>219</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" t="s">
         <v>238</v>
       </c>
       <c r="I69" t="str">
@@ -8289,7 +8330,7 @@
         <f>VLOOKUP($A70,統計!$A:$G,7,)</f>
         <v>222</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" t="s">
         <v>240</v>
       </c>
       <c r="I70" t="str">
@@ -8319,7 +8360,7 @@
       <c r="G71" t="s">
         <v>242</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" t="s">
         <v>243</v>
       </c>
       <c r="I71" t="str">
@@ -8346,7 +8387,7 @@
         <f>VLOOKUP($A72,統計!$A:$G,7,)</f>
         <v>230</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" t="s">
         <v>245</v>
       </c>
       <c r="I72" t="str">
@@ -8376,7 +8417,7 @@
       <c r="G73" t="s">
         <v>247</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" t="s">
         <v>248</v>
       </c>
       <c r="I73" t="str">
@@ -8406,7 +8447,7 @@
       <c r="G74" t="s">
         <v>250</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" t="s">
         <v>251</v>
       </c>
       <c r="I74" t="str">
@@ -8436,7 +8477,7 @@
       <c r="F75" t="s">
         <v>253</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" t="s">
         <v>254</v>
       </c>
       <c r="I75" t="str">
@@ -8469,7 +8510,7 @@
       <c r="G76" t="s">
         <v>257</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
       <c r="I76" t="str">
@@ -8499,7 +8540,7 @@
       <c r="F77" t="s">
         <v>260</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" t="s">
         <v>261</v>
       </c>
       <c r="I77" t="str">
@@ -8529,7 +8570,7 @@
       <c r="F78" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" t="s">
         <v>264</v>
       </c>
       <c r="I78" t="str">
@@ -8727,7 +8768,7 @@
         <f>VLOOKUP($A85,統計!$A:$G,7,)</f>
         <v>302</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" t="s">
         <v>514</v>
       </c>
       <c r="I85" t="str">
@@ -8757,7 +8798,7 @@
       <c r="G86" t="s">
         <v>515</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" t="s">
         <v>516</v>
       </c>
       <c r="I86" t="str">
@@ -8769,24 +8810,27 @@
       <c r="A87">
         <v>708</v>
       </c>
-      <c r="B87" t="e">
+      <c r="B87" t="str">
         <f>VLOOKUP($A87,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷86</v>
       </c>
       <c r="C87" t="s">
         <v>282</v>
       </c>
-      <c r="D87" t="e">
+      <c r="D87">
         <f>VLOOKUP($A87,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E87" t="e">
+        <v>305</v>
+      </c>
+      <c r="E87">
         <f>VLOOKUP($A87,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" t="e">
+        <v>308</v>
+      </c>
+      <c r="H87" t="s">
+        <v>517</v>
+      </c>
+      <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>708|[卷86](5_筆記/资治通鉴86.html)|晉紀八|305|308|||晉惠帝16年至18年、晉懷帝至2年</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -13784,7 +13828,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13929,7 +13973,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <f>C2/C7</f>
         <v>6.741573033707865E-2</v>
       </c>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9DC5E1-4EE8-4241-94DB-8594506179B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9EE8A-E235-4B68-835B-DC0C3B5904A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2415" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="519">
   <si>
     <t>索引號</t>
   </si>
@@ -1584,6 +1584,9 @@
   <si>
     <t>晉惠帝16年至18年、晉懷帝至2年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉懷帝3年至5年</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1890,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2145,6 +2148,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>卷86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>卷87</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2412,6 +2418,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,11 +2975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3087,19 +3096,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>624.65116279069775</v>
+        <v>629.97701149425279</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44643.651162790695</v>
+        <v>44648.977011494251</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>598.2649505954995</v>
+        <v>626.99828192442305</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44617.264950595498</v>
+        <v>44645.998281924425</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3150,19 +3159,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>716.51162790697674</v>
+        <v>722.62068965517233</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44735.511627906977</v>
+        <v>44741.620689655174</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>655.88276285188795</v>
+        <v>687.3833492044638</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44674.882762851885</v>
+        <v>44706.383349204465</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3213,19 +3222,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1083.953488372093</v>
+        <v>1093.1954022988505</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45102.953488372092</v>
+        <v>45112.19540229885</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>790.32432478346084</v>
+        <v>828.2818395245589</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44809.324324783462</v>
+        <v>44847.281839524556</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3276,19 +3285,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1616.7441860465117</v>
+        <v>1630.5287356321837</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45635.744186046511</v>
+        <v>45649.528735632186</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>952.61449597228818</v>
+        <v>998.36644569667362</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>44971.614495972288</v>
+        <v>45017.366445696673</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3339,19 +3348,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2434.3023255813955</v>
+        <v>2455.0574712643675</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46453.302325581397</v>
+        <v>46474.057471264365</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1257.9889009311466</v>
+        <v>1318.4073022808896</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45276.988900931145</v>
+        <v>45337.407302280888</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3402,19 +3411,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2700.6976744186049</v>
+        <v>2723.7241379310344</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46719.697674418603</v>
+        <v>46742.724137931036</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1307.9243382200166</v>
+        <v>1370.7410272569248</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45326.924338220015</v>
+        <v>45389.741027256925</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3465,19 +3474,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2700.6976744186049</v>
+        <v>2723.7241379310344</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46719.697674418603</v>
+        <v>46742.724137931036</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1307.9243382200166</v>
+        <v>1370.7410272569248</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45326.924338220015</v>
+        <v>45389.741027256925</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3552,7 +3561,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.1860465116279073</v>
+        <v>9.2643678160919531</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3593,7 +3602,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.96029687093980665</v>
+        <v>1.006417788000679</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5456,7 +5465,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B87" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B88" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6210,6 +6219,41 @@
       <c r="I87">
         <f t="shared" ref="I87" si="29">E87/H87</f>
         <v>3.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>709</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="16"/>
+        <v>卷87</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" ref="C88" si="30">D87+1</f>
+        <v>44917</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44932</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ref="E88" si="31">D88-C88+1</f>
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88" si="32">G87+1</f>
+        <v>309</v>
+      </c>
+      <c r="G88">
+        <v>311</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ref="H88" si="33">IF(F88*G88&lt;0,ABS(F88)+ABS(G88),G88-F88+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88" si="34">E88/H88</f>
+        <v>5.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6226,7 +6270,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8837,24 +8881,27 @@
       <c r="A88">
         <v>709</v>
       </c>
-      <c r="B88" t="e">
+      <c r="B88" t="str">
         <f>VLOOKUP($A88,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷87</v>
       </c>
       <c r="C88" t="s">
         <v>283</v>
       </c>
-      <c r="D88" t="e">
+      <c r="D88">
         <f>VLOOKUP($A88,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E88" t="e">
+        <v>309</v>
+      </c>
+      <c r="E88">
         <f>VLOOKUP($A88,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" t="e">
+        <v>311</v>
+      </c>
+      <c r="H88" t="s">
+        <v>518</v>
+      </c>
+      <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>709|[卷87](5_筆記/资治通鉴87.html)|晉紀九|309|311|||晉懷帝3年至5年</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9EE8A-E235-4B68-835B-DC0C3B5904A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5564E7-3029-43DD-BC56-319FC94D993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2415" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
   <si>
     <t>索引號</t>
   </si>
@@ -1587,6 +1587,10 @@
   </si>
   <si>
     <t>晉懷帝3年至5年</t>
+  </si>
+  <si>
+    <t>晉懷帝6年至7年、晉愍帝元年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1890,7 +1894,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2151,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>卷87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>卷88</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2421,6 +2428,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,11 +2985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3096,19 +3106,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>629.97701149425279</v>
+        <v>631.31818181818176</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44648.977011494251</v>
+        <v>44650.318181818184</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>626.99828192442305</v>
+        <v>655.89115821530072</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44645.998281924425</v>
+        <v>44674.891158215301</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3159,19 +3169,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>722.62068965517233</v>
+        <v>724.15909090909088</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44741.620689655174</v>
+        <v>44743.159090909088</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>687.3833492044638</v>
+        <v>719.05884600489628</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44706.383349204465</v>
+        <v>44738.058846004897</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3222,19 +3232,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1093.1954022988505</v>
+        <v>1095.5227272727273</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45112.19540229885</v>
+        <v>45114.522727272728</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>828.2818395245589</v>
+        <v>866.45011751395259</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44847.281839524556</v>
+        <v>44885.450117513952</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3285,19 +3295,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1630.5287356321837</v>
+        <v>1633.9999999999998</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45649.528735632186</v>
+        <v>45653</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>998.36644569667362</v>
+        <v>1044.3724381213135</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45017.366445696673</v>
+        <v>45063.372438121311</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3348,19 +3358,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2455.0574712643675</v>
+        <v>2460.2840909090905</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46474.057471264365</v>
+        <v>46479.284090909088</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1318.4073022808896</v>
+        <v>1379.16118340617</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45337.407302280888</v>
+        <v>45398.16118340617</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3411,19 +3421,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2723.7241379310344</v>
+        <v>2729.522727272727</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46742.724137931036</v>
+        <v>46748.522727272728</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1370.7410272569248</v>
+        <v>1433.9065128238196</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45389.741027256925</v>
+        <v>45452.906512823822</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3474,19 +3484,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2723.7241379310344</v>
+        <v>2729.522727272727</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46742.724137931036</v>
+        <v>46748.522727272728</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1370.7410272569248</v>
+        <v>1433.9065128238196</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45389.741027256925</v>
+        <v>45452.906512823822</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3561,7 +3571,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.2643678160919531</v>
+        <v>9.2840909090909083</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3602,7 +3612,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.006417788000679</v>
+        <v>1.0527947964932596</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5465,7 +5475,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B88" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B89" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6254,6 +6264,41 @@
       <c r="I88">
         <f t="shared" ref="I88" si="34">E88/H88</f>
         <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>710</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="16"/>
+        <v>卷88</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ref="C89" si="35">D88+1</f>
+        <v>44933</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44943</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ref="E89" si="36">D89-C89+1</f>
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89" si="37">G88+1</f>
+        <v>312</v>
+      </c>
+      <c r="G89">
+        <v>313</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ref="H89" si="38">IF(F89*G89&lt;0,ABS(F89)+ABS(G89),G89-F89+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ref="I89" si="39">E89/H89</f>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8908,24 +8953,27 @@
       <c r="A89">
         <v>710</v>
       </c>
-      <c r="B89" t="e">
+      <c r="B89" t="str">
         <f>VLOOKUP($A89,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷88</v>
       </c>
       <c r="C89" t="s">
         <v>284</v>
       </c>
-      <c r="D89" t="e">
+      <c r="D89">
         <f>VLOOKUP($A89,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" t="e">
+        <v>312</v>
+      </c>
+      <c r="E89">
         <f>VLOOKUP($A89,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="e">
+        <v>313</v>
+      </c>
+      <c r="H89" t="s">
+        <v>519</v>
+      </c>
+      <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>710|[卷88](5_筆記/资治通鉴88.html)|晉紀十|312|313|||晉懷帝6年至7年、晉愍帝元年</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5564E7-3029-43DD-BC56-319FC94D993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799E1F8-8B34-4E0B-B1F5-1F86562079F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2415" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="521">
   <si>
     <t>索引號</t>
   </si>
@@ -1590,6 +1590,10 @@
   </si>
   <si>
     <t>晉懷帝6年至7年、晉愍帝元年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉愍帝2年至4年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1894,7 +1898,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2158,6 +2162,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>卷88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>卷89</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2431,6 +2438,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,7 +2987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2985,11 +2995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3106,19 +3116,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>631.31818181818176</v>
+        <v>632.62921348314615</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44650.318181818184</v>
+        <v>44651.629213483146</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>655.89115821530072</v>
+        <v>666.59113544177046</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44674.891158215301</v>
+        <v>44685.591135441769</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3169,19 +3179,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>724.15909090909088</v>
+        <v>725.66292134831463</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44743.159090909088</v>
+        <v>44744.662921348317</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>719.05884600489628</v>
+        <v>730.78931863038395</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44738.058846004897</v>
+        <v>44749.789318630385</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3232,19 +3242,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1095.5227272727273</v>
+        <v>1097.7977528089889</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45114.522727272728</v>
+        <v>45116.79775280899</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>866.45011751395259</v>
+        <v>880.58507940381548</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44885.450117513952</v>
+        <v>44899.585079403812</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3295,19 +3305,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1633.9999999999998</v>
+        <v>1637.3932584269664</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45653</v>
+        <v>45656.393258426964</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1044.3724381213135</v>
+        <v>1061.4099620517436</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45063.372438121311</v>
+        <v>45080.409962051745</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3358,19 +3368,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2460.2840909090905</v>
+        <v>2465.3932584269664</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46479.284090909088</v>
+        <v>46484.393258426964</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1379.16118340617</v>
+        <v>1401.6603329513953</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45398.16118340617</v>
+        <v>45420.660332951396</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3421,19 +3431,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2729.522727272727</v>
+        <v>2735.1910112359551</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46748.522727272728</v>
+        <v>46754.191011235955</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1433.9065128238196</v>
+        <v>1457.298758381527</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45452.906512823822</v>
+        <v>45476.298758381527</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3484,19 +3494,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2729.522727272727</v>
+        <v>2735.1910112359551</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46748.522727272728</v>
+        <v>46754.191011235955</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1433.9065128238196</v>
+        <v>1457.298758381527</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45452.906512823822</v>
+        <v>45476.298758381527</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3571,7 +3581,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.2840909090909083</v>
+        <v>9.3033707865168545</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3612,7 +3622,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.0527947964932596</v>
+        <v>1.0699697198102254</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -5475,7 +5485,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B89" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B90" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6299,6 +6309,41 @@
       <c r="I89">
         <f t="shared" ref="I89" si="39">E89/H89</f>
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>711</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="16"/>
+        <v>卷89</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" ref="C90" si="40">D89+1</f>
+        <v>44944</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44954</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ref="E90" si="41">D90-C90+1</f>
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90" si="42">G89+1</f>
+        <v>314</v>
+      </c>
+      <c r="G90">
+        <v>316</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90" si="43">IF(F90*G90&lt;0,ABS(F90)+ABS(G90),G90-F90+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ref="I90" si="44">E90/H90</f>
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -6314,8 +6359,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8980,29 +9025,32 @@
       <c r="A90">
         <v>711</v>
       </c>
-      <c r="B90" t="e">
+      <c r="B90" t="str">
         <f>VLOOKUP($A90,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷89</v>
       </c>
       <c r="C90" t="s">
         <v>285</v>
       </c>
-      <c r="D90" t="e">
+      <c r="D90">
         <f>VLOOKUP($A90,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E90" t="e">
+        <v>314</v>
+      </c>
+      <c r="E90">
         <f>VLOOKUP($A90,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" t="e">
+        <v>316</v>
+      </c>
+      <c r="H90" t="s">
+        <v>520</v>
+      </c>
+      <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>711|[卷89](5_筆記/资治通鉴89.html)|晉紀十一|314|316|||晉愍帝2年至4年</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="B91" t="e">
         <f>VLOOKUP($A91,統計!$A:$G,2,)</f>
@@ -9026,7 +9074,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="B92" t="e">
         <f>VLOOKUP($A92,統計!$A:$G,2,)</f>
@@ -9050,7 +9098,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="B93" t="e">
         <f>VLOOKUP($A93,統計!$A:$G,2,)</f>
@@ -9074,7 +9122,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="B94" t="e">
         <f>VLOOKUP($A94,統計!$A:$G,2,)</f>
@@ -9098,7 +9146,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="B95" t="e">
         <f>VLOOKUP($A95,統計!$A:$G,2,)</f>
@@ -9122,7 +9170,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="B96" t="e">
         <f>VLOOKUP($A96,統計!$A:$G,2,)</f>
@@ -9146,7 +9194,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="B97" t="e">
         <f>VLOOKUP($A97,統計!$A:$G,2,)</f>
@@ -9170,7 +9218,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="B98" t="e">
         <f>VLOOKUP($A98,統計!$A:$G,2,)</f>
@@ -9194,7 +9242,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="B99" t="e">
         <f>VLOOKUP($A99,統計!$A:$G,2,)</f>
@@ -9218,7 +9266,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="B100" t="e">
         <f>VLOOKUP($A100,統計!$A:$G,2,)</f>
@@ -9242,7 +9290,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="B101" t="e">
         <f>VLOOKUP($A101,統計!$A:$G,2,)</f>
@@ -9266,7 +9314,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="B102" t="e">
         <f>VLOOKUP($A102,統計!$A:$G,2,)</f>
@@ -9290,7 +9338,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="B103" t="e">
         <f>VLOOKUP($A103,統計!$A:$G,2,)</f>
@@ -9314,7 +9362,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="B104" t="e">
         <f>VLOOKUP($A104,統計!$A:$G,2,)</f>
@@ -9338,7 +9386,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="B105" t="e">
         <f>VLOOKUP($A105,統計!$A:$G,2,)</f>
@@ -9362,7 +9410,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="B106" t="e">
         <f>VLOOKUP($A106,統計!$A:$G,2,)</f>
@@ -9386,7 +9434,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="B107" t="e">
         <f>VLOOKUP($A107,統計!$A:$G,2,)</f>
@@ -9410,7 +9458,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="B108" t="e">
         <f>VLOOKUP($A108,統計!$A:$G,2,)</f>
@@ -9434,7 +9482,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="B109" t="e">
         <f>VLOOKUP($A109,統計!$A:$G,2,)</f>
@@ -9458,7 +9506,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="B110" t="e">
         <f>VLOOKUP($A110,統計!$A:$G,2,)</f>
@@ -9482,7 +9530,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="B111" t="e">
         <f>VLOOKUP($A111,統計!$A:$G,2,)</f>
@@ -9506,7 +9554,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="B112" t="e">
         <f>VLOOKUP($A112,統計!$A:$G,2,)</f>
@@ -9530,7 +9578,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="B113" t="e">
         <f>VLOOKUP($A113,統計!$A:$G,2,)</f>
@@ -9554,7 +9602,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="B114" t="e">
         <f>VLOOKUP($A114,統計!$A:$G,2,)</f>
@@ -9578,7 +9626,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="B115" t="e">
         <f>VLOOKUP($A115,統計!$A:$G,2,)</f>
@@ -9602,7 +9650,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="B116" t="e">
         <f>VLOOKUP($A116,統計!$A:$G,2,)</f>
@@ -9626,7 +9674,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="B117" t="e">
         <f>VLOOKUP($A117,統計!$A:$G,2,)</f>
@@ -9650,7 +9698,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="B118" t="e">
         <f>VLOOKUP($A118,統計!$A:$G,2,)</f>
@@ -9674,7 +9722,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="B119" t="e">
         <f>VLOOKUP($A119,統計!$A:$G,2,)</f>
@@ -9698,7 +9746,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>801</v>
+        <v>901</v>
       </c>
       <c r="B120" t="e">
         <f>VLOOKUP($A120,統計!$A:$G,2,)</f>
@@ -9722,7 +9770,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>802</v>
+        <v>902</v>
       </c>
       <c r="B121" t="e">
         <f>VLOOKUP($A121,統計!$A:$G,2,)</f>
@@ -9746,7 +9794,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>803</v>
+        <v>903</v>
       </c>
       <c r="B122" t="e">
         <f>VLOOKUP($A122,統計!$A:$G,2,)</f>
@@ -9770,7 +9818,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>804</v>
+        <v>904</v>
       </c>
       <c r="B123" t="e">
         <f>VLOOKUP($A123,統計!$A:$G,2,)</f>
@@ -9794,7 +9842,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>805</v>
+        <v>905</v>
       </c>
       <c r="B124" t="e">
         <f>VLOOKUP($A124,統計!$A:$G,2,)</f>
@@ -9818,7 +9866,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>806</v>
+        <v>906</v>
       </c>
       <c r="B125" t="e">
         <f>VLOOKUP($A125,統計!$A:$G,2,)</f>
@@ -9842,7 +9890,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>807</v>
+        <v>907</v>
       </c>
       <c r="B126" t="e">
         <f>VLOOKUP($A126,統計!$A:$G,2,)</f>
@@ -9866,7 +9914,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>808</v>
+        <v>908</v>
       </c>
       <c r="B127" t="e">
         <f>VLOOKUP($A127,統計!$A:$G,2,)</f>
@@ -9890,7 +9938,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>809</v>
+        <v>909</v>
       </c>
       <c r="B128" t="e">
         <f>VLOOKUP($A128,統計!$A:$G,2,)</f>
@@ -9914,7 +9962,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="B129" t="e">
         <f>VLOOKUP($A129,統計!$A:$G,2,)</f>
@@ -9938,7 +9986,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>811</v>
+        <v>911</v>
       </c>
       <c r="B130" t="e">
         <f>VLOOKUP($A130,統計!$A:$G,2,)</f>
@@ -9962,7 +10010,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>812</v>
+        <v>912</v>
       </c>
       <c r="B131" t="e">
         <f>VLOOKUP($A131,統計!$A:$G,2,)</f>
@@ -9986,7 +10034,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>813</v>
+        <v>913</v>
       </c>
       <c r="B132" t="e">
         <f>VLOOKUP($A132,統計!$A:$G,2,)</f>
@@ -10010,7 +10058,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>814</v>
+        <v>914</v>
       </c>
       <c r="B133" t="e">
         <f>VLOOKUP($A133,統計!$A:$G,2,)</f>
@@ -10034,7 +10082,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>815</v>
+        <v>915</v>
       </c>
       <c r="B134" t="e">
         <f>VLOOKUP($A134,統計!$A:$G,2,)</f>
@@ -10058,7 +10106,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="B135" t="e">
         <f>VLOOKUP($A135,統計!$A:$G,2,)</f>
@@ -10082,7 +10130,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>901</v>
+        <v>1001</v>
       </c>
       <c r="B136" t="e">
         <f>VLOOKUP($A136,統計!$A:$G,2,)</f>
@@ -10106,7 +10154,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>902</v>
+        <v>1002</v>
       </c>
       <c r="B137" t="e">
         <f>VLOOKUP($A137,統計!$A:$G,2,)</f>
@@ -10130,7 +10178,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>903</v>
+        <v>1003</v>
       </c>
       <c r="B138" t="e">
         <f>VLOOKUP($A138,統計!$A:$G,2,)</f>
@@ -10154,7 +10202,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>904</v>
+        <v>1004</v>
       </c>
       <c r="B139" t="e">
         <f>VLOOKUP($A139,統計!$A:$G,2,)</f>
@@ -10178,7 +10226,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>905</v>
+        <v>1005</v>
       </c>
       <c r="B140" t="e">
         <f>VLOOKUP($A140,統計!$A:$G,2,)</f>
@@ -10202,7 +10250,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>906</v>
+        <v>1006</v>
       </c>
       <c r="B141" t="e">
         <f>VLOOKUP($A141,統計!$A:$G,2,)</f>
@@ -10226,7 +10274,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>907</v>
+        <v>1007</v>
       </c>
       <c r="B142" t="e">
         <f>VLOOKUP($A142,統計!$A:$G,2,)</f>
@@ -10250,7 +10298,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>908</v>
+        <v>1008</v>
       </c>
       <c r="B143" t="e">
         <f>VLOOKUP($A143,統計!$A:$G,2,)</f>
@@ -10274,7 +10322,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>909</v>
+        <v>1009</v>
       </c>
       <c r="B144" t="e">
         <f>VLOOKUP($A144,統計!$A:$G,2,)</f>
@@ -10298,7 +10346,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="B145" t="e">
         <f>VLOOKUP($A145,統計!$A:$G,2,)</f>
@@ -10322,7 +10370,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="B146" t="e">
         <f>VLOOKUP($A146,統計!$A:$G,2,)</f>
@@ -10346,7 +10394,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="B147" t="e">
         <f>VLOOKUP($A147,統計!$A:$G,2,)</f>
@@ -10370,7 +10418,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="B148" t="e">
         <f>VLOOKUP($A148,統計!$A:$G,2,)</f>
@@ -10394,7 +10442,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="B149" t="e">
         <f>VLOOKUP($A149,統計!$A:$G,2,)</f>
@@ -10418,7 +10466,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="B150" t="e">
         <f>VLOOKUP($A150,統計!$A:$G,2,)</f>
@@ -10442,7 +10490,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>1006</v>
+        <v>1106</v>
       </c>
       <c r="B151" t="e">
         <f>VLOOKUP($A151,統計!$A:$G,2,)</f>
@@ -10466,7 +10514,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="B152" t="e">
         <f>VLOOKUP($A152,統計!$A:$G,2,)</f>
@@ -10490,7 +10538,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="B153" t="e">
         <f>VLOOKUP($A153,統計!$A:$G,2,)</f>
@@ -10514,7 +10562,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="B154" t="e">
         <f>VLOOKUP($A154,統計!$A:$G,2,)</f>
@@ -10538,7 +10586,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="B155" t="e">
         <f>VLOOKUP($A155,統計!$A:$G,2,)</f>
@@ -10562,7 +10610,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="B156" t="e">
         <f>VLOOKUP($A156,統計!$A:$G,2,)</f>
@@ -10586,7 +10634,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>1012</v>
+        <v>1112</v>
       </c>
       <c r="B157" t="e">
         <f>VLOOKUP($A157,統計!$A:$G,2,)</f>
@@ -10610,7 +10658,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>1013</v>
+        <v>1113</v>
       </c>
       <c r="B158" t="e">
         <f>VLOOKUP($A158,統計!$A:$G,2,)</f>
@@ -10634,7 +10682,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>1014</v>
+        <v>1114</v>
       </c>
       <c r="B159" t="e">
         <f>VLOOKUP($A159,統計!$A:$G,2,)</f>
@@ -10658,7 +10706,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="B160" t="e">
         <f>VLOOKUP($A160,統計!$A:$G,2,)</f>
@@ -10682,7 +10730,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>1016</v>
+        <v>1116</v>
       </c>
       <c r="B161" t="e">
         <f>VLOOKUP($A161,統計!$A:$G,2,)</f>
@@ -10706,7 +10754,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>1017</v>
+        <v>1117</v>
       </c>
       <c r="B162" t="e">
         <f>VLOOKUP($A162,統計!$A:$G,2,)</f>
@@ -10730,7 +10778,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="B163" t="e">
         <f>VLOOKUP($A163,統計!$A:$G,2,)</f>
@@ -10754,7 +10802,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="B164" t="e">
         <f>VLOOKUP($A164,統計!$A:$G,2,)</f>
@@ -10778,7 +10826,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="B165" t="e">
         <f>VLOOKUP($A165,統計!$A:$G,2,)</f>
@@ -10802,7 +10850,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>1021</v>
+        <v>1121</v>
       </c>
       <c r="B166" t="e">
         <f>VLOOKUP($A166,統計!$A:$G,2,)</f>
@@ -10826,7 +10874,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="B167" t="e">
         <f>VLOOKUP($A167,統計!$A:$G,2,)</f>
@@ -10850,7 +10898,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>1101</v>
+        <v>1201</v>
       </c>
       <c r="B168" t="e">
         <f>VLOOKUP($A168,統計!$A:$G,2,)</f>
@@ -10874,7 +10922,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>1102</v>
+        <v>1202</v>
       </c>
       <c r="B169" t="e">
         <f>VLOOKUP($A169,統計!$A:$G,2,)</f>
@@ -10898,7 +10946,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>1103</v>
+        <v>1203</v>
       </c>
       <c r="B170" t="e">
         <f>VLOOKUP($A170,統計!$A:$G,2,)</f>
@@ -10922,7 +10970,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>1104</v>
+        <v>1204</v>
       </c>
       <c r="B171" t="e">
         <f>VLOOKUP($A171,統計!$A:$G,2,)</f>
@@ -10946,7 +10994,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>1105</v>
+        <v>1205</v>
       </c>
       <c r="B172" t="e">
         <f>VLOOKUP($A172,統計!$A:$G,2,)</f>
@@ -10970,7 +11018,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>1106</v>
+        <v>1206</v>
       </c>
       <c r="B173" t="e">
         <f>VLOOKUP($A173,統計!$A:$G,2,)</f>
@@ -10994,7 +11042,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>1107</v>
+        <v>1207</v>
       </c>
       <c r="B174" t="e">
         <f>VLOOKUP($A174,統計!$A:$G,2,)</f>
@@ -11018,7 +11066,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>1108</v>
+        <v>1208</v>
       </c>
       <c r="B175" t="e">
         <f>VLOOKUP($A175,統計!$A:$G,2,)</f>
@@ -11042,7 +11090,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>1109</v>
+        <v>1209</v>
       </c>
       <c r="B176" t="e">
         <f>VLOOKUP($A176,統計!$A:$G,2,)</f>
@@ -11066,7 +11114,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>1110</v>
+        <v>1210</v>
       </c>
       <c r="B177" t="e">
         <f>VLOOKUP($A177,統計!$A:$G,2,)</f>
@@ -11090,7 +11138,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>1201</v>
+        <v>1301</v>
       </c>
       <c r="B178" t="e">
         <f>VLOOKUP($A178,統計!$A:$G,2,)</f>
@@ -11114,7 +11162,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>1202</v>
+        <v>1302</v>
       </c>
       <c r="B179" t="e">
         <f>VLOOKUP($A179,統計!$A:$G,2,)</f>
@@ -11138,7 +11186,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>1203</v>
+        <v>1303</v>
       </c>
       <c r="B180" t="e">
         <f>VLOOKUP($A180,統計!$A:$G,2,)</f>
@@ -11162,7 +11210,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>1204</v>
+        <v>1304</v>
       </c>
       <c r="B181" t="e">
         <f>VLOOKUP($A181,統計!$A:$G,2,)</f>
@@ -11186,7 +11234,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>1205</v>
+        <v>1305</v>
       </c>
       <c r="B182" t="e">
         <f>VLOOKUP($A182,統計!$A:$G,2,)</f>
@@ -11210,7 +11258,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>1206</v>
+        <v>1306</v>
       </c>
       <c r="B183" t="e">
         <f>VLOOKUP($A183,統計!$A:$G,2,)</f>
@@ -11234,7 +11282,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>1207</v>
+        <v>1307</v>
       </c>
       <c r="B184" t="e">
         <f>VLOOKUP($A184,統計!$A:$G,2,)</f>
@@ -11258,7 +11306,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>1208</v>
+        <v>1308</v>
       </c>
       <c r="B185" t="e">
         <f>VLOOKUP($A185,統計!$A:$G,2,)</f>
@@ -11282,7 +11330,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>1301</v>
+        <v>1401</v>
       </c>
       <c r="B186" t="e">
         <f>VLOOKUP($A186,統計!$A:$G,2,)</f>
@@ -11306,7 +11354,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>1302</v>
+        <v>1402</v>
       </c>
       <c r="B187" t="e">
         <f>VLOOKUP($A187,統計!$A:$G,2,)</f>
@@ -11330,7 +11378,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>1303</v>
+        <v>1403</v>
       </c>
       <c r="B188" t="e">
         <f>VLOOKUP($A188,統計!$A:$G,2,)</f>
@@ -11354,7 +11402,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>1304</v>
+        <v>1404</v>
       </c>
       <c r="B189" t="e">
         <f>VLOOKUP($A189,統計!$A:$G,2,)</f>
@@ -11378,7 +11426,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>1305</v>
+        <v>1405</v>
       </c>
       <c r="B190" t="e">
         <f>VLOOKUP($A190,統計!$A:$G,2,)</f>
@@ -11402,7 +11450,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>1306</v>
+        <v>1406</v>
       </c>
       <c r="B191" t="e">
         <f>VLOOKUP($A191,統計!$A:$G,2,)</f>
@@ -11426,7 +11474,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>1307</v>
+        <v>1407</v>
       </c>
       <c r="B192" t="e">
         <f>VLOOKUP($A192,統計!$A:$G,2,)</f>
@@ -11450,7 +11498,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>1308</v>
+        <v>1408</v>
       </c>
       <c r="B193" t="e">
         <f>VLOOKUP($A193,統計!$A:$G,2,)</f>
@@ -11474,7 +11522,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>1309</v>
+        <v>1409</v>
       </c>
       <c r="B194" t="e">
         <f>VLOOKUP($A194,統計!$A:$G,2,)</f>
@@ -11498,7 +11546,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="B195" t="e">
         <f>VLOOKUP($A195,統計!$A:$G,2,)</f>
@@ -11522,7 +11570,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>1311</v>
+        <v>1411</v>
       </c>
       <c r="B196" t="e">
         <f>VLOOKUP($A196,統計!$A:$G,2,)</f>
@@ -11546,7 +11594,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>1312</v>
+        <v>1412</v>
       </c>
       <c r="B197" t="e">
         <f>VLOOKUP($A197,統計!$A:$G,2,)</f>
@@ -11570,7 +11618,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>1313</v>
+        <v>1413</v>
       </c>
       <c r="B198" t="e">
         <f>VLOOKUP($A198,統計!$A:$G,2,)</f>
@@ -11594,7 +11642,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>1314</v>
+        <v>1414</v>
       </c>
       <c r="B199" t="e">
         <f>VLOOKUP($A199,統計!$A:$G,2,)</f>
@@ -11618,7 +11666,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="B200" t="e">
         <f>VLOOKUP($A200,統計!$A:$G,2,)</f>
@@ -11642,7 +11690,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>1316</v>
+        <v>1416</v>
       </c>
       <c r="B201" t="e">
         <f>VLOOKUP($A201,統計!$A:$G,2,)</f>
@@ -11666,7 +11714,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>1317</v>
+        <v>1417</v>
       </c>
       <c r="B202" t="e">
         <f>VLOOKUP($A202,統計!$A:$G,2,)</f>
@@ -11690,7 +11738,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>1318</v>
+        <v>1418</v>
       </c>
       <c r="B203" t="e">
         <f>VLOOKUP($A203,統計!$A:$G,2,)</f>
@@ -11714,7 +11762,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>1319</v>
+        <v>1419</v>
       </c>
       <c r="B204" t="e">
         <f>VLOOKUP($A204,統計!$A:$G,2,)</f>
@@ -11738,7 +11786,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>1320</v>
+        <v>1420</v>
       </c>
       <c r="B205" t="e">
         <f>VLOOKUP($A205,統計!$A:$G,2,)</f>
@@ -11762,7 +11810,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>1321</v>
+        <v>1421</v>
       </c>
       <c r="B206" t="e">
         <f>VLOOKUP($A206,統計!$A:$G,2,)</f>
@@ -11786,7 +11834,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>1322</v>
+        <v>1422</v>
       </c>
       <c r="B207" t="e">
         <f>VLOOKUP($A207,統計!$A:$G,2,)</f>
@@ -11810,7 +11858,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>1323</v>
+        <v>1423</v>
       </c>
       <c r="B208" t="e">
         <f>VLOOKUP($A208,統計!$A:$G,2,)</f>
@@ -11834,7 +11882,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>1324</v>
+        <v>1424</v>
       </c>
       <c r="B209" t="e">
         <f>VLOOKUP($A209,統計!$A:$G,2,)</f>
@@ -11858,7 +11906,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>1325</v>
+        <v>1425</v>
       </c>
       <c r="B210" t="e">
         <f>VLOOKUP($A210,統計!$A:$G,2,)</f>
@@ -11882,7 +11930,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>1326</v>
+        <v>1426</v>
       </c>
       <c r="B211" t="e">
         <f>VLOOKUP($A211,統計!$A:$G,2,)</f>
@@ -11906,7 +11954,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>1327</v>
+        <v>1427</v>
       </c>
       <c r="B212" t="e">
         <f>VLOOKUP($A212,統計!$A:$G,2,)</f>
@@ -11930,7 +11978,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>1328</v>
+        <v>1428</v>
       </c>
       <c r="B213" t="e">
         <f>VLOOKUP($A213,統計!$A:$G,2,)</f>
@@ -11954,7 +12002,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>1329</v>
+        <v>1429</v>
       </c>
       <c r="B214" t="e">
         <f>VLOOKUP($A214,統計!$A:$G,2,)</f>
@@ -11978,7 +12026,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>1330</v>
+        <v>1430</v>
       </c>
       <c r="B215" t="e">
         <f>VLOOKUP($A215,統計!$A:$G,2,)</f>
@@ -12002,7 +12050,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>1331</v>
+        <v>1431</v>
       </c>
       <c r="B216" t="e">
         <f>VLOOKUP($A216,統計!$A:$G,2,)</f>
@@ -12026,7 +12074,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>1332</v>
+        <v>1432</v>
       </c>
       <c r="B217" t="e">
         <f>VLOOKUP($A217,統計!$A:$G,2,)</f>
@@ -12050,7 +12098,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>1333</v>
+        <v>1433</v>
       </c>
       <c r="B218" t="e">
         <f>VLOOKUP($A218,統計!$A:$G,2,)</f>
@@ -12074,7 +12122,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>1334</v>
+        <v>1434</v>
       </c>
       <c r="B219" t="e">
         <f>VLOOKUP($A219,統計!$A:$G,2,)</f>
@@ -12098,7 +12146,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>1335</v>
+        <v>1435</v>
       </c>
       <c r="B220" t="e">
         <f>VLOOKUP($A220,統計!$A:$G,2,)</f>
@@ -12122,7 +12170,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>1336</v>
+        <v>1436</v>
       </c>
       <c r="B221" t="e">
         <f>VLOOKUP($A221,統計!$A:$G,2,)</f>
@@ -12146,7 +12194,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>1337</v>
+        <v>1437</v>
       </c>
       <c r="B222" t="e">
         <f>VLOOKUP($A222,統計!$A:$G,2,)</f>
@@ -12170,7 +12218,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>1338</v>
+        <v>1438</v>
       </c>
       <c r="B223" t="e">
         <f>VLOOKUP($A223,統計!$A:$G,2,)</f>
@@ -12194,7 +12242,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>1339</v>
+        <v>1439</v>
       </c>
       <c r="B224" t="e">
         <f>VLOOKUP($A224,統計!$A:$G,2,)</f>
@@ -12218,7 +12266,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>1340</v>
+        <v>1440</v>
       </c>
       <c r="B225" t="e">
         <f>VLOOKUP($A225,統計!$A:$G,2,)</f>
@@ -12242,7 +12290,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>1341</v>
+        <v>1441</v>
       </c>
       <c r="B226" t="e">
         <f>VLOOKUP($A226,統計!$A:$G,2,)</f>
@@ -12266,7 +12314,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>1342</v>
+        <v>1442</v>
       </c>
       <c r="B227" t="e">
         <f>VLOOKUP($A227,統計!$A:$G,2,)</f>
@@ -12290,7 +12338,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>1343</v>
+        <v>1443</v>
       </c>
       <c r="B228" t="e">
         <f>VLOOKUP($A228,統計!$A:$G,2,)</f>
@@ -12314,7 +12362,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>1344</v>
+        <v>1444</v>
       </c>
       <c r="B229" t="e">
         <f>VLOOKUP($A229,統計!$A:$G,2,)</f>
@@ -12338,7 +12386,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>1345</v>
+        <v>1445</v>
       </c>
       <c r="B230" t="e">
         <f>VLOOKUP($A230,統計!$A:$G,2,)</f>
@@ -12362,7 +12410,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>1346</v>
+        <v>1446</v>
       </c>
       <c r="B231" t="e">
         <f>VLOOKUP($A231,統計!$A:$G,2,)</f>
@@ -12386,7 +12434,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>1347</v>
+        <v>1447</v>
       </c>
       <c r="B232" t="e">
         <f>VLOOKUP($A232,統計!$A:$G,2,)</f>
@@ -12410,7 +12458,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>1348</v>
+        <v>1448</v>
       </c>
       <c r="B233" t="e">
         <f>VLOOKUP($A233,統計!$A:$G,2,)</f>
@@ -12434,7 +12482,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>1349</v>
+        <v>1449</v>
       </c>
       <c r="B234" t="e">
         <f>VLOOKUP($A234,統計!$A:$G,2,)</f>
@@ -12458,7 +12506,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="B235" t="e">
         <f>VLOOKUP($A235,統計!$A:$G,2,)</f>
@@ -12482,7 +12530,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>1351</v>
+        <v>1451</v>
       </c>
       <c r="B236" t="e">
         <f>VLOOKUP($A236,統計!$A:$G,2,)</f>
@@ -12506,7 +12554,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>1352</v>
+        <v>1452</v>
       </c>
       <c r="B237" t="e">
         <f>VLOOKUP($A237,統計!$A:$G,2,)</f>
@@ -12530,7 +12578,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>1353</v>
+        <v>1453</v>
       </c>
       <c r="B238" t="e">
         <f>VLOOKUP($A238,統計!$A:$G,2,)</f>
@@ -12554,7 +12602,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>1354</v>
+        <v>1454</v>
       </c>
       <c r="B239" t="e">
         <f>VLOOKUP($A239,統計!$A:$G,2,)</f>
@@ -12578,7 +12626,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>1355</v>
+        <v>1455</v>
       </c>
       <c r="B240" t="e">
         <f>VLOOKUP($A240,統計!$A:$G,2,)</f>
@@ -12602,7 +12650,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>1356</v>
+        <v>1456</v>
       </c>
       <c r="B241" t="e">
         <f>VLOOKUP($A241,統計!$A:$G,2,)</f>
@@ -12626,7 +12674,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>1357</v>
+        <v>1457</v>
       </c>
       <c r="B242" t="e">
         <f>VLOOKUP($A242,統計!$A:$G,2,)</f>
@@ -12650,7 +12698,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>1358</v>
+        <v>1458</v>
       </c>
       <c r="B243" t="e">
         <f>VLOOKUP($A243,統計!$A:$G,2,)</f>
@@ -12674,7 +12722,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>1359</v>
+        <v>1459</v>
       </c>
       <c r="B244" t="e">
         <f>VLOOKUP($A244,統計!$A:$G,2,)</f>
@@ -12698,7 +12746,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="B245" t="e">
         <f>VLOOKUP($A245,統計!$A:$G,2,)</f>
@@ -12722,7 +12770,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>1361</v>
+        <v>1461</v>
       </c>
       <c r="B246" t="e">
         <f>VLOOKUP($A246,統計!$A:$G,2,)</f>
@@ -12746,7 +12794,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>1362</v>
+        <v>1462</v>
       </c>
       <c r="B247" t="e">
         <f>VLOOKUP($A247,統計!$A:$G,2,)</f>
@@ -12770,7 +12818,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>1363</v>
+        <v>1463</v>
       </c>
       <c r="B248" t="e">
         <f>VLOOKUP($A248,統計!$A:$G,2,)</f>
@@ -12794,7 +12842,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>1364</v>
+        <v>1464</v>
       </c>
       <c r="B249" t="e">
         <f>VLOOKUP($A249,統計!$A:$G,2,)</f>
@@ -12818,7 +12866,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>1365</v>
+        <v>1465</v>
       </c>
       <c r="B250" t="e">
         <f>VLOOKUP($A250,統計!$A:$G,2,)</f>
@@ -12842,7 +12890,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>1366</v>
+        <v>1466</v>
       </c>
       <c r="B251" t="e">
         <f>VLOOKUP($A251,統計!$A:$G,2,)</f>
@@ -12866,7 +12914,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>1367</v>
+        <v>1467</v>
       </c>
       <c r="B252" t="e">
         <f>VLOOKUP($A252,統計!$A:$G,2,)</f>
@@ -12890,7 +12938,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>1368</v>
+        <v>1468</v>
       </c>
       <c r="B253" t="e">
         <f>VLOOKUP($A253,統計!$A:$G,2,)</f>
@@ -12914,7 +12962,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>1369</v>
+        <v>1469</v>
       </c>
       <c r="B254" t="e">
         <f>VLOOKUP($A254,統計!$A:$G,2,)</f>
@@ -12938,7 +12986,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>1370</v>
+        <v>1470</v>
       </c>
       <c r="B255" t="e">
         <f>VLOOKUP($A255,統計!$A:$G,2,)</f>
@@ -12962,7 +13010,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>1371</v>
+        <v>1471</v>
       </c>
       <c r="B256" t="e">
         <f>VLOOKUP($A256,統計!$A:$G,2,)</f>
@@ -12986,7 +13034,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>1372</v>
+        <v>1472</v>
       </c>
       <c r="B257" t="e">
         <f>VLOOKUP($A257,統計!$A:$G,2,)</f>
@@ -13010,7 +13058,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>1373</v>
+        <v>1473</v>
       </c>
       <c r="B258" t="e">
         <f>VLOOKUP($A258,統計!$A:$G,2,)</f>
@@ -13034,7 +13082,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>1374</v>
+        <v>1474</v>
       </c>
       <c r="B259" t="e">
         <f>VLOOKUP($A259,統計!$A:$G,2,)</f>
@@ -13058,7 +13106,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="B260" t="e">
         <f>VLOOKUP($A260,統計!$A:$G,2,)</f>
@@ -13082,7 +13130,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>1376</v>
+        <v>1476</v>
       </c>
       <c r="B261" t="e">
         <f>VLOOKUP($A261,統計!$A:$G,2,)</f>
@@ -13106,7 +13154,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>1377</v>
+        <v>1477</v>
       </c>
       <c r="B262" t="e">
         <f>VLOOKUP($A262,統計!$A:$G,2,)</f>
@@ -13130,7 +13178,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>1378</v>
+        <v>1478</v>
       </c>
       <c r="B263" t="e">
         <f>VLOOKUP($A263,統計!$A:$G,2,)</f>
@@ -13154,7 +13202,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>1379</v>
+        <v>1479</v>
       </c>
       <c r="B264" t="e">
         <f>VLOOKUP($A264,統計!$A:$G,2,)</f>
@@ -13178,7 +13226,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>1380</v>
+        <v>1480</v>
       </c>
       <c r="B265" t="e">
         <f>VLOOKUP($A265,統計!$A:$G,2,)</f>
@@ -13202,7 +13250,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>1381</v>
+        <v>1481</v>
       </c>
       <c r="B266" t="e">
         <f>VLOOKUP($A266,統計!$A:$G,2,)</f>
@@ -13226,7 +13274,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>1401</v>
+        <v>1501</v>
       </c>
       <c r="B267" t="e">
         <f>VLOOKUP($A267,統計!$A:$G,2,)</f>
@@ -13250,7 +13298,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>1402</v>
+        <v>1502</v>
       </c>
       <c r="B268" t="e">
         <f>VLOOKUP($A268,統計!$A:$G,2,)</f>
@@ -13274,7 +13322,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>1403</v>
+        <v>1503</v>
       </c>
       <c r="B269" t="e">
         <f>VLOOKUP($A269,統計!$A:$G,2,)</f>
@@ -13298,7 +13346,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>1404</v>
+        <v>1504</v>
       </c>
       <c r="B270" t="e">
         <f>VLOOKUP($A270,統計!$A:$G,2,)</f>
@@ -13322,7 +13370,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>1405</v>
+        <v>1505</v>
       </c>
       <c r="B271" t="e">
         <f>VLOOKUP($A271,統計!$A:$G,2,)</f>
@@ -13346,7 +13394,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>1406</v>
+        <v>1506</v>
       </c>
       <c r="B272" t="e">
         <f>VLOOKUP($A272,統計!$A:$G,2,)</f>
@@ -13370,7 +13418,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>1501</v>
+        <v>1601</v>
       </c>
       <c r="B273" t="e">
         <f>VLOOKUP($A273,統計!$A:$G,2,)</f>
@@ -13394,7 +13442,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>1502</v>
+        <v>1602</v>
       </c>
       <c r="B274" t="e">
         <f>VLOOKUP($A274,統計!$A:$G,2,)</f>
@@ -13418,7 +13466,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>1503</v>
+        <v>1603</v>
       </c>
       <c r="B275" t="e">
         <f>VLOOKUP($A275,統計!$A:$G,2,)</f>
@@ -13442,7 +13490,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>1504</v>
+        <v>1604</v>
       </c>
       <c r="B276" t="e">
         <f>VLOOKUP($A276,統計!$A:$G,2,)</f>
@@ -13466,7 +13514,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>1505</v>
+        <v>1605</v>
       </c>
       <c r="B277" t="e">
         <f>VLOOKUP($A277,統計!$A:$G,2,)</f>
@@ -13490,7 +13538,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>1506</v>
+        <v>1606</v>
       </c>
       <c r="B278" t="e">
         <f>VLOOKUP($A278,統計!$A:$G,2,)</f>
@@ -13514,7 +13562,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>1507</v>
+        <v>1607</v>
       </c>
       <c r="B279" t="e">
         <f>VLOOKUP($A279,統計!$A:$G,2,)</f>
@@ -13538,7 +13586,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>1508</v>
+        <v>1608</v>
       </c>
       <c r="B280" t="e">
         <f>VLOOKUP($A280,統計!$A:$G,2,)</f>
@@ -13562,7 +13610,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>1601</v>
+        <v>1701</v>
       </c>
       <c r="B281" t="e">
         <f>VLOOKUP($A281,統計!$A:$G,2,)</f>
@@ -13586,7 +13634,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>1602</v>
+        <v>1702</v>
       </c>
       <c r="B282" t="e">
         <f>VLOOKUP($A282,統計!$A:$G,2,)</f>
@@ -13610,7 +13658,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>1603</v>
+        <v>1703</v>
       </c>
       <c r="B283" t="e">
         <f>VLOOKUP($A283,統計!$A:$G,2,)</f>
@@ -13634,7 +13682,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>1604</v>
+        <v>1704</v>
       </c>
       <c r="B284" t="e">
         <f>VLOOKUP($A284,統計!$A:$G,2,)</f>
@@ -13658,7 +13706,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="B285" t="e">
         <f>VLOOKUP($A285,統計!$A:$G,2,)</f>
@@ -13682,7 +13730,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>1606</v>
+        <v>1706</v>
       </c>
       <c r="B286" t="e">
         <f>VLOOKUP($A286,統計!$A:$G,2,)</f>
@@ -13706,7 +13754,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B287" t="e">
         <f>VLOOKUP($A287,統計!$A:$G,2,)</f>
@@ -13730,7 +13778,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>1702</v>
+        <v>1802</v>
       </c>
       <c r="B288" t="e">
         <f>VLOOKUP($A288,統計!$A:$G,2,)</f>
@@ -13754,7 +13802,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>1703</v>
+        <v>1803</v>
       </c>
       <c r="B289" t="e">
         <f>VLOOKUP($A289,統計!$A:$G,2,)</f>
@@ -13778,7 +13826,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>1704</v>
+        <v>1804</v>
       </c>
       <c r="B290" t="e">
         <f>VLOOKUP($A290,統計!$A:$G,2,)</f>
@@ -13802,7 +13850,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>1801</v>
+        <v>1901</v>
       </c>
       <c r="B291" t="e">
         <f>VLOOKUP($A291,統計!$A:$G,2,)</f>
@@ -13826,7 +13874,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>1802</v>
+        <v>1902</v>
       </c>
       <c r="B292" t="e">
         <f>VLOOKUP($A292,統計!$A:$G,2,)</f>
@@ -13850,7 +13898,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>1803</v>
+        <v>1903</v>
       </c>
       <c r="B293" t="e">
         <f>VLOOKUP($A293,統計!$A:$G,2,)</f>
@@ -13874,7 +13922,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="B294" t="e">
         <f>VLOOKUP($A294,統計!$A:$G,2,)</f>
@@ -13898,7 +13946,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>1805</v>
+        <v>1905</v>
       </c>
       <c r="B295" t="e">
         <f>VLOOKUP($A295,統計!$A:$G,2,)</f>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799E1F8-8B34-4E0B-B1F5-1F86562079F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF3720-862A-41EA-BB3A-6207F0770878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
   <si>
     <t>索引號</t>
   </si>
@@ -1594,6 +1594,10 @@
   </si>
   <si>
     <t>晉愍帝2年至4年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉元帝至2年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1898,7 +1902,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2165,6 +2169,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>卷89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>卷90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2441,6 +2448,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,7 +2997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2995,28 +3005,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="18.625" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="18" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" customWidth="1"/>
+    <col min="3" max="4" width="12.7265625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" customWidth="1"/>
+    <col min="17" max="17" width="16.36328125" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3116,22 +3126,22 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>632.62921348314615</v>
+        <v>633.91111111111115</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44651.629213483146</v>
+        <v>44652.911111111112</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>666.59113544177046</v>
+        <v>693.78588689311891</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44685.591135441769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>44712.785886893122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3179,22 +3189,22 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>725.66292134831463</v>
+        <v>727.13333333333344</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44744.662921348317</v>
+        <v>44746.133333333331</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>730.78931863038395</v>
+        <v>760.60314726805814</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44749.789318630385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>44779.603147268055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3242,22 +3252,22 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1097.7977528089889</v>
+        <v>1100.0222222222224</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45116.79775280899</v>
+        <v>45119.022222222222</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>880.58507940381548</v>
+        <v>916.5100881429164</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44899.585079403812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>44935.510088142917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3305,22 +3315,22 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1637.3932584269664</v>
+        <v>1640.7111111111112</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45656.393258426964</v>
+        <v>45659.711111111108</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1061.4099620517436</v>
+        <v>1104.7120381989953</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45080.409962051745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45123.712038198995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -3368,22 +3378,22 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2465.3932584269664</v>
+        <v>2470.3888888888891</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46484.393258426964</v>
+        <v>46489.388888888891</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1401.6603329513953</v>
+        <v>1458.843518186173</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45420.660332951396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45477.843518186171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>201</v>
       </c>
@@ -3431,22 +3441,22 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2735.1910112359551</v>
+        <v>2740.7333333333336</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46754.191011235955</v>
+        <v>46759.733333333337</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1457.298758381527</v>
+        <v>1516.7518105111203</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45476.298758381527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45535.751810511123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>202</v>
       </c>
@@ -3494,22 +3504,22 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2735.1910112359551</v>
+        <v>2740.7333333333336</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46754.191011235955</v>
+        <v>46759.733333333337</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1457.298758381527</v>
+        <v>1516.7518105111203</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45476.298758381527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45535.751810511123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>203</v>
       </c>
@@ -3543,7 +3553,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>301</v>
       </c>
@@ -3581,10 +3591,10 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3033707865168545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>9.3222222222222229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>302</v>
       </c>
@@ -3622,10 +3632,10 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.0699697198102254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1.1136210062489871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>303</v>
       </c>
@@ -3659,7 +3669,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>304</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>305</v>
       </c>
@@ -3727,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>306</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>307</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>308</v>
       </c>
@@ -3829,7 +3839,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>309</v>
       </c>
@@ -3863,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>310</v>
       </c>
@@ -3897,7 +3907,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>311</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>312</v>
       </c>
@@ -3965,7 +3975,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>313</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>314</v>
       </c>
@@ -4033,7 +4043,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>315</v>
       </c>
@@ -4067,7 +4077,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>316</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>317</v>
       </c>
@@ -4135,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>318</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>319</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>320</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>321</v>
       </c>
@@ -4271,7 +4281,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>322</v>
       </c>
@@ -4305,7 +4315,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>323</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>324</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>325</v>
       </c>
@@ -4407,7 +4417,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>326</v>
       </c>
@@ -4441,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>327</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>328</v>
       </c>
@@ -4509,7 +4519,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>401</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>402</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>403</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>501</v>
       </c>
@@ -4645,7 +4655,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>502</v>
       </c>
@@ -4679,7 +4689,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>503</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>504</v>
       </c>
@@ -4747,7 +4757,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>505</v>
       </c>
@@ -4781,7 +4791,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>506</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>507</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>508</v>
       </c>
@@ -4885,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>509</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>510</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>511</v>
       </c>
@@ -4990,7 +5000,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>512</v>
       </c>
@@ -5025,7 +5035,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>513</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>514</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>515</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>516</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>517</v>
       </c>
@@ -5200,7 +5210,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>518</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>519</v>
       </c>
@@ -5270,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>520</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>521</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>522</v>
       </c>
@@ -5375,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>523</v>
       </c>
@@ -5410,7 +5420,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>524</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>525</v>
       </c>
@@ -5480,12 +5490,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B90" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B91" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -5515,7 +5525,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>527</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>528</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>529</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>601</v>
       </c>
@@ -5654,7 +5664,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>602</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>603</v>
       </c>
@@ -5724,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>604</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>605</v>
       </c>
@@ -5794,7 +5804,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>606</v>
       </c>
@@ -5829,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>607</v>
       </c>
@@ -5864,7 +5874,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>608</v>
       </c>
@@ -5899,7 +5909,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>609</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>610</v>
       </c>
@@ -5969,7 +5979,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>701</v>
       </c>
@@ -6003,7 +6013,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>702</v>
       </c>
@@ -6037,7 +6047,7 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>703</v>
       </c>
@@ -6071,7 +6081,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>704</v>
       </c>
@@ -6105,7 +6115,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>705</v>
       </c>
@@ -6139,7 +6149,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>706</v>
       </c>
@@ -6173,7 +6183,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>707</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>708</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>709</v>
       </c>
@@ -6276,7 +6286,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>710</v>
       </c>
@@ -6311,7 +6321,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>711</v>
       </c>
@@ -6342,8 +6352,42 @@
         <v>3</v>
       </c>
       <c r="I90">
-        <f t="shared" ref="I90" si="44">E90/H90</f>
+        <f t="shared" ref="I90:I91" si="44">E90/H90</f>
         <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>801</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="16"/>
+        <v>卷90</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45019</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45029</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91" si="45">D91-C91+1</f>
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ref="F91" si="46">G90+1</f>
+        <v>317</v>
+      </c>
+      <c r="G91">
+        <v>318</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ref="H91" si="47">IF(F91*G91&lt;0,ABS(F91)+ABS(G91),G91-F91+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="44"/>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -6359,18 +6403,18 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="33.375" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6399,7 +6443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -6429,7 +6473,7 @@
         <v>101|[卷1](5_筆記/资治通鉴1.html)|周紀一|-403|-369|趙建國前世系圖、趙建國前傳位圖、魏建國前傳位圖、韓建國前傳位圖、田氏代齊前傳位圖、秦四代亂政世系圖、秦四代亂政傳位圖||周威烈王23年至24年、周安王共26年、周烈王至7年</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -6462,7 +6506,7 @@
         <v>102|[卷2](5_筆記/资治通鉴2.html)|周紀二|-368|-321|齊威王時期諸田譜系|商鞅二十等爵|周顯王共48年</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -6492,7 +6536,7 @@
         <v>103|[卷3](5_筆記/资治通鉴3.html)|周紀三|-320|-298||古蜀國世系|周慎靚王共6年、周赧王至17年</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -6522,7 +6566,7 @@
         <v>104|[卷4](5_筆記/资治通鉴4.html)|周紀四|-297|-273||楚国都城与各种郢都、西周國、東周國|周赧王18年至42年</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -6552,7 +6596,7 @@
         <v>105|[卷5](5_筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系簡圖(至秦)、秦始皇關系圖||周赧王43年至59年</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>201</v>
       </c>
@@ -6582,7 +6626,7 @@
         <v>201|[卷6](5_筆記/资治通鉴6.html)|秦紀一|-255|-228||韓國都城變遷史|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>202</v>
       </c>
@@ -6612,7 +6656,7 @@
         <v>202|[卷7](5_筆記/资治通鉴7.html)|秦紀二|-227|-209|王翦家族、蒙驁家族、項燕家族||秦始皇20年至37年、秦二世元年</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>203</v>
       </c>
@@ -6639,7 +6683,7 @@
         <v>203|[卷8](5_筆記/资治通鉴8.html)|秦紀三|-208|-207|||秦二世2年至3年</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>301</v>
       </c>
@@ -6672,7 +6716,7 @@
         <v>301|[卷9](5_筆記/资治通鉴9.html)|漢紀一|-206|-205|秦末漢初政權逗逼分裂圖|歷代歲首表|楚漢至2年</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>302</v>
       </c>
@@ -6702,7 +6746,7 @@
         <v>302|[卷10](5_筆記/资治通鉴10.html)|漢紀二|-204|-203||周禮宴請等級、韓信戰役表|楚漢3年至4年</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>303</v>
       </c>
@@ -6732,7 +6776,7 @@
         <v>303|[卷11](5_筆記/资治通鉴11.html)|漢紀三|-202|-200||詔書形式、驛站交通規格、鞋類型|漢高祖5年至7年</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>304</v>
       </c>
@@ -6759,7 +6803,7 @@
         <v>304|[卷12](5_筆記/资治通鉴12.html)|漢紀四|-199|-188|||漢高祖8年至12年、漢惠帝共7年</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>305</v>
       </c>
@@ -6792,7 +6836,7 @@
         <v>305|[卷13](5_筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|漢惠帝掛名子嗣表|漢高后共8年、漢文帝至2年</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>306</v>
       </c>
@@ -6822,7 +6866,7 @@
         <v>306|[卷14](5_筆記/资治通鉴14.html)|漢紀六|-177|-170||漢歷代皇帝生前廟名、大夫罪名表、各類彗星|漢文帝3年至10年</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>307</v>
       </c>
@@ -6852,7 +6896,7 @@
         <v>307|[卷15](5_筆記/资治通鉴15.html)|漢紀七|-169|-155||秦漢三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>308</v>
       </c>
@@ -6885,7 +6929,7 @@
         <v>308|[卷16](5_筆記/资治通鉴16.html)|漢紀八|-154|-141|七國之亂世系圖、臧兒田竇世系圖|漢兵役類型(昭帝紀注)|漢景帝3年至16年</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>309</v>
       </c>
@@ -6918,7 +6962,7 @@
         <v>309|[卷17](5_筆記/资治通鉴17.html)|漢紀九|-140|-134|衛霍裙帶世系|牢獄別稱|漢武帝至7年</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>310</v>
       </c>
@@ -6948,7 +6992,7 @@
         <v>310|[卷18](5_筆記/资治通鉴18.html)|漢紀十|-133|-125||武帝時期漢匈重要戰役|漢武帝8年至16年</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>311</v>
       </c>
@@ -6981,7 +7025,7 @@
         <v>311|[卷19](5_筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山謀反世系、死守外戚的平陽侯曹氏|武功爵表、張騫兩次探索各國紀要、白鹿皮幣|漢武帝17年至22年</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>312</v>
       </c>
@@ -7011,7 +7055,7 @@
         <v>312|[卷20](5_筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南諸夷|漢武帝23年至31年</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>313</v>
       </c>
@@ -7038,7 +7082,7 @@
         <v>313|[卷21](5_筆記/资治通鉴21.html)|漢紀十三|-109|-99|||漢武帝32年至42年</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>314</v>
       </c>
@@ -7068,7 +7112,7 @@
         <v>314|[卷22](5_筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、漢武帝子嗣、人臣功五品|漢武帝43年至54年</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>315</v>
       </c>
@@ -7098,7 +7142,7 @@
         <v>315|[卷23](5_筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五單于爭立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>316</v>
       </c>
@@ -7131,7 +7175,7 @@
         <v>316|[卷24](5_筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢武帝子嗣皇帝示意圖、霍光世系|西漢綬帶顏色、各時代盜墓信息|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>317</v>
       </c>
@@ -7161,7 +7205,7 @@
         <v>317|[卷25](5_筆記/资治通鉴25.html)|漢紀十七|-67|-62||五爭車師|漢宣帝7年至12年</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>318</v>
       </c>
@@ -7188,7 +7232,7 @@
         <v>318|[卷26](5_筆記/资治通鉴26.html)|漢紀十八|-61|-59|||漢宣帝13年至15年</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>319</v>
       </c>
@@ -7221,7 +7265,7 @@
         <v>319|[卷27](5_筆記/资治通鉴27.html)|漢紀十九|-58|-49|麒麟閣十一功臣成分|五單于爭立表|漢宣帝16年至25年</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>320</v>
       </c>
@@ -7251,7 +7295,7 @@
         <v>320|[卷28](5_筆記/资治通鉴28.html)|漢紀二十|-48|-42||蕭史黨爭表、舜命九官（尚書）|漢元帝至7年</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>321</v>
       </c>
@@ -7281,7 +7325,7 @@
         <v>321|[卷29](5_筆記/资治通鉴29.html)|漢紀二十一|-41|-33|金日磾及班彪世系||漢元帝8年至16年</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>322</v>
       </c>
@@ -7311,7 +7355,7 @@
         <v>322|[卷30](5_筆記/资治通鉴30.html)|漢紀二十二|-32|-23|呼韓邪世系||漢成帝至10年</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>323</v>
       </c>
@@ -7344,7 +7388,7 @@
         <v>323|[卷31](5_筆記/资治通鉴31.html)|漢紀二十三|-22|-14|許平君世系、班氏世系|墳形製|漢成帝11年19年</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>324</v>
       </c>
@@ -7374,7 +7418,7 @@
         <v>324|[卷32](5_筆記/资治通鉴32.html)|漢紀二十四|-13|-8|馮奉世世系||漢成帝20年至25年</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>325</v>
       </c>
@@ -7404,7 +7448,7 @@
         <v>325|[卷33](5_筆記/资治通鉴33.html)|漢紀二十五|-7|-6|傅丁太后世系||漢成帝26年、漢哀帝元年</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>326</v>
       </c>
@@ -7434,7 +7478,7 @@
         <v>326|[卷34](5_筆記/资治通鉴34.html)|漢紀二十六|-5|-3||西漢帝王男寵表|漢哀帝2年至4年</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>327</v>
       </c>
@@ -7467,7 +7511,7 @@
         <v>327|[卷35](5_筆記/资治通鉴35.html)|漢紀二十七|-2|2|衛子夫後衛氏世系|新三公分職|漢哀帝5年至6年、漢平帝至2年</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>328</v>
       </c>
@@ -7497,7 +7541,7 @@
         <v>328|[卷36](5_筆記/资治通鉴36.html)|漢紀二十八|3|8||九錫之法|漢平帝3年至6年、王莽居攝、始初至3年</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>401</v>
       </c>
@@ -7527,7 +7571,7 @@
         <v>401|[卷37](5_筆記/资治通鉴37.html)|漢紀二十九|9|14||王莽十一公表、漢官儀印制|王莽至6年</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>402</v>
       </c>
@@ -7557,7 +7601,7 @@
         <v>402|[卷38](5_筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、周禮天子六宮制度、六宮安置表|王莽7年至14年</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>403</v>
       </c>
@@ -7587,7 +7631,7 @@
         <v>403|[卷39](5_筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡、銅馬諸賊表|王莽15年、玄漢至2年</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>501</v>
       </c>
@@ -7614,7 +7658,7 @@
         <v>501|[卷40](5_筆記/资治通鉴40.html)|漢紀三十二|25|26|||漢光武帝至2年</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>502</v>
       </c>
@@ -7644,7 +7688,7 @@
         <v>502|[卷41](5_筆記/资治通鉴41.html)|漢紀三十三|27|29|耿氏世系、莎車王世系||漢光武帝3年至5年</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>503</v>
       </c>
@@ -7674,7 +7718,7 @@
         <v>503|[卷42](5_筆記/资治通鉴42.html)|漢紀三十四|30|35|陰氏世系||漢光武帝6年至11年</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>504</v>
       </c>
@@ -7704,7 +7748,7 @@
         <v>504|[卷43](5_筆記/资治通鉴43.html)|漢紀三十五|36|46||羌人諸种、光武子嗣表|漢光武帝12年至22年</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>505</v>
       </c>
@@ -7734,7 +7778,7 @@
         <v>505|[卷44](5_筆記/资治通鉴44.html)|漢紀三十六|47|60||光武官員俸祿表|漢光武帝23年至33年、漢明帝至3年</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>506</v>
       </c>
@@ -7767,7 +7811,7 @@
         <v>506|[卷45](5_筆記/资治通鉴45.html)|漢紀三十七|61|75|南陽樊氏世系、扶風馬氏世系|西遊記人物原型、黃河改道概況|漢明帝4年至18年</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>507</v>
       </c>
@@ -7797,7 +7841,7 @@
         <v>507|[卷46](5_筆記/资治通鉴46.html)|漢紀三十八|76|84|二宋二梁貴人世系||漢章帝至9年</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>508</v>
       </c>
@@ -7830,7 +7874,7 @@
         <v>508|[卷47](5_筆記/资治通鉴47.html)|漢紀三十九|85|91|漢龜茲王世系|六代之樂、西漢皇后外戚結局表|漢章帝10年至13年、漢和帝至3年</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>509</v>
       </c>
@@ -7860,7 +7904,7 @@
         <v>509|[卷48](5_筆記/资治通鉴48.html)|漢紀四十|92|105||東漢燒當羌鬥爭史|漢和帝4年至17年</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>510</v>
       </c>
@@ -7887,7 +7931,7 @@
         <v>510|[卷49](5_筆記/资治通鉴49.html)|漢紀四十一|106|115|||漢殤帝元年、漢安帝至9年</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>511</v>
       </c>
@@ -7920,7 +7964,7 @@
         <v>511|[卷50](5_筆記/资治通鉴50.html)|漢紀四十二|116|124|蔡諷蔡瑁世系圖|刺殺先零羌|漢安帝10年至18年</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>512</v>
       </c>
@@ -7950,7 +7994,7 @@
         <v>512|[卷51](5_筆記/资治通鉴51.html)|漢紀四十三|125|133||漢群臣上書類型、天體學說三家|漢安帝19年、前少帝劉懿、漢順帝至8年</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>513</v>
       </c>
@@ -7977,7 +8021,7 @@
         <v>513|[卷52](5_筆記/资治通鉴52.html)|漢紀四十四|134|145|||漢順帝9年至19年、漢沖帝、漢質帝</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>514</v>
       </c>
@@ -8007,7 +8051,7 @@
         <v>514|[卷53](5_筆記/资治通鉴53.html)|漢紀四十五|146|156|梁氏世系圖、崔氏世系圖||漢桓帝至10年</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>515</v>
       </c>
@@ -8040,7 +8084,7 @@
         <v>515|[卷54](5_筆記/资治通鉴54.html)|漢紀四十六|157|163|鄧猛女關系圖、李固世系|李杜組合匯總|漢桓帝11年至17年</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>516</v>
       </c>
@@ -8067,7 +8111,7 @@
         <v>516|[卷55](5_筆記/资治通鉴55.html)|漢紀四十七|164|166|||漢桓帝18年至20年</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>517</v>
       </c>
@@ -8097,7 +8141,7 @@
         <v>517|[卷56](5_筆記/资治通鉴56.html)|漢紀四十八|167|171|汝南袁氏世系||漢桓帝21年、漢靈帝至4年</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>518</v>
       </c>
@@ -8124,7 +8168,7 @@
         <v>518|[卷57](5_筆記/资治通鉴57.html)|漢紀四十九|172|180|||漢靈帝5年至13年</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>519</v>
       </c>
@@ -8154,7 +8198,7 @@
         <v>519|[卷58](5_筆記/资治通鉴58.html)|漢紀五十|181|187|檀石槐世系、何皇后世系||漢靈帝14年至20年</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>520</v>
       </c>
@@ -8184,7 +8228,7 @@
         <v>520|[卷59](5_筆記/资治通鉴59.html)|漢紀五十一|188|190||十二分野表|漢靈帝21年、劉辯、漢獻帝至2年</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>521</v>
       </c>
@@ -8214,7 +8258,7 @@
         <v>521|[卷60](5_筆記/资治通鉴60.html)|漢紀五十二|191|193|漢末道教諸張世系||漢獻帝3年至5年</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>522</v>
       </c>
@@ -8244,7 +8288,7 @@
         <v>522|[卷61](5_筆記/资治通鉴61.html)|漢紀五十三|194|195|孫吳世系||漢獻帝6年至7年</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>523</v>
       </c>
@@ -8277,7 +8321,7 @@
         <v>523|[卷62](5_筆記/资治通鉴62.html)|漢紀五十四|196|198|下邳陳氏世系、潁川陳氏世系|蔡邕漢樂四品|漢獻帝8年至10年</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>524</v>
       </c>
@@ -8304,7 +8348,7 @@
         <v>524|[卷63](5_筆記/资治通鉴63.html)|漢紀五十五|199|200|||漢獻帝11年至12年</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>525</v>
       </c>
@@ -8334,7 +8378,7 @@
         <v>525|[卷64](5_筆記/资治通鉴64.html)|漢紀五十六|201|205|遼東公孫世系||漢獻帝13年至17年</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>526</v>
       </c>
@@ -8361,7 +8405,7 @@
         <v>526|[卷65](5_筆記/资治通鉴65.html)|漢紀五十七|206|208|||漢獻帝18年至20年</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>527</v>
       </c>
@@ -8388,7 +8432,7 @@
         <v>527|[卷66](5_筆記/资治通鉴66.html)|漢紀五十八|209|213|||漢獻帝21年至25年</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>528</v>
       </c>
@@ -8418,7 +8462,7 @@
         <v>528|[卷67](5_筆記/资治通鉴67.html)|漢紀五十九|214|216||孫十萬合肥之戰表|漢獻帝26年至28年</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>529</v>
       </c>
@@ -8445,7 +8489,7 @@
         <v>529|[卷68](5_筆記/资治通鉴68.html)|漢紀六十|217|219|||漢獻帝29年至31年</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>601</v>
       </c>
@@ -8472,7 +8516,7 @@
         <v>601|[卷69](5_筆記/资治通鉴69.html)|魏紀一|220|222|||曹丕至3年</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>602</v>
       </c>
@@ -8502,7 +8546,7 @@
         <v>602|[卷70](5_筆記/资治通鉴70.html)|魏紀二|223|227||曹丕三次伐吳表、諸葛亮五次北伐表|曹丕4年至7年、曹叡至2年</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>603</v>
       </c>
@@ -8529,7 +8573,7 @@
         <v>603|[卷71](5_筆記/资治通鉴71.html)|魏紀三|228|230|||曹叡3年至5年</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>604</v>
       </c>
@@ -8559,7 +8603,7 @@
         <v>604|[卷72](5_筆記/资治通鉴72.html)|魏紀四|231|234||劉曄勸諫表|曹叡6年至9年</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>605</v>
       </c>
@@ -8589,7 +8633,7 @@
         <v>605|[卷73](5_筆記/资治通鉴73.html)|魏紀五|235|237||曹叡後宮十二等爵位|曹叡10年至12年</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>606</v>
       </c>
@@ -8619,7 +8663,7 @@
         <v>606|[卷74](5_筆記/资治通鉴74.html)|魏紀六|238|245|全氏世系圖、吳郡陸氏世系圖||曹叡13年至14年、曹芳至7年</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>607</v>
       </c>
@@ -8652,7 +8696,7 @@
         <v>607|[卷75](5_筆記/资治通鉴75.html)|魏紀七|246|252|太山羊氏世系、太原王氏世系|姜維十一次北伐表、壽春三叛表|曹芳8年至14年</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>608</v>
       </c>
@@ -8682,7 +8726,7 @@
         <v>608|[卷76](5_筆記/资治通鉴76.html)|魏紀八|253|255|琅邪諸葛世系||曹芳15年至16年、曹髦至2年</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>609</v>
       </c>
@@ -8712,7 +8756,7 @@
         <v>609|[卷77](5_筆記/资治通鉴77.html)|魏紀九|256|261|孫權托孤亂政圖、琅邪王氏世系、琅邪太原王氏源流圖||曹髦3年至7年、曹奐至2年</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>610</v>
       </c>
@@ -8742,7 +8786,7 @@
         <v>610|[卷78](5_筆記/资治通鉴78.html)|魏紀十|262|264|陳留阮氏世系、三卞皇后圖||曹奐3年至5年</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>701</v>
       </c>
@@ -8769,7 +8813,7 @@
         <v>701|[卷79](5_筆記/资治通鉴79.html)|晉紀一|265|272|||曹奐6年至7年、司馬炎至7年</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>702</v>
       </c>
@@ -8799,7 +8843,7 @@
         <v>702|[卷80](5_筆記/资治通鉴80.html)|晉紀二|273|279||諸王就國情況(西晉大小國)|司馬炎8年至14年</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>703</v>
       </c>
@@ -8829,7 +8873,7 @@
         <v>703|[卷81](5_筆記/资治通鉴81.html)|晉紀三|280|288|弘農楊氏名人世系||司馬炎15年至23年</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>704</v>
       </c>
@@ -8856,7 +8900,7 @@
         <v>704|[卷82](5_筆記/资治通鉴82.html)|晉紀四|289|298|||司馬炎24年至25年、晉惠帝至9年</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>705</v>
       </c>
@@ -8883,7 +8927,7 @@
         <v>705|[卷83](5_筆記/资治通鉴83.html)|晉紀五|299|300|||晉惠帝10年至11年</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>706</v>
       </c>
@@ -8910,7 +8954,7 @@
         <v>706|[卷84](5_筆記/资治通鉴84.html)|晉紀六|301|302|||晉惠帝12年、司馬倫、晉惠帝13年</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>707</v>
       </c>
@@ -8940,7 +8984,7 @@
         <v>707|[卷85](5_筆記/资治通鉴85.html)|晉紀七|303|304||羊獻容廢立表|晉惠帝14年至15年</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>708</v>
       </c>
@@ -8967,7 +9011,7 @@
         <v>708|[卷86](5_筆記/资治通鉴86.html)|晉紀八|305|308|||晉惠帝16年至18年、晉懷帝至2年</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>709</v>
       </c>
@@ -8994,7 +9038,7 @@
         <v>709|[卷87](5_筆記/资治通鉴87.html)|晉紀九|309|311|||晉懷帝3年至5年</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>710</v>
       </c>
@@ -9021,7 +9065,7 @@
         <v>710|[卷88](5_筆記/资治通鉴88.html)|晉紀十|312|313|||晉懷帝6年至7年、晉愍帝元年</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>711</v>
       </c>
@@ -9048,31 +9092,34 @@
         <v>711|[卷89](5_筆記/资治通鉴89.html)|晉紀十一|314|316|||晉愍帝2年至4年</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>801</v>
       </c>
-      <c r="B91" t="e">
+      <c r="B91" t="str">
         <f>VLOOKUP($A91,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷90</v>
       </c>
       <c r="C91" t="s">
         <v>286</v>
       </c>
-      <c r="D91" t="e">
+      <c r="D91">
         <f>VLOOKUP($A91,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E91" t="e">
+        <v>317</v>
+      </c>
+      <c r="E91">
         <f>VLOOKUP($A91,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" t="e">
+        <v>318</v>
+      </c>
+      <c r="H91" t="s">
+        <v>521</v>
+      </c>
+      <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+        <v>801|[卷90](5_筆記/资治通鉴90.html)|晉紀十二|317|318|||晉元帝至2年</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>802</v>
       </c>
@@ -9096,7 +9143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>803</v>
       </c>
@@ -9120,7 +9167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>804</v>
       </c>
@@ -9144,7 +9191,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>805</v>
       </c>
@@ -9168,7 +9215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>806</v>
       </c>
@@ -9192,7 +9239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>807</v>
       </c>
@@ -9216,7 +9263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>808</v>
       </c>
@@ -9240,7 +9287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>809</v>
       </c>
@@ -9264,7 +9311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>810</v>
       </c>
@@ -9288,7 +9335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>811</v>
       </c>
@@ -9312,7 +9359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>812</v>
       </c>
@@ -9336,7 +9383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>813</v>
       </c>
@@ -9360,7 +9407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>814</v>
       </c>
@@ -9384,7 +9431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>815</v>
       </c>
@@ -9408,7 +9455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>816</v>
       </c>
@@ -9432,7 +9479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>817</v>
       </c>
@@ -9456,7 +9503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>818</v>
       </c>
@@ -9480,7 +9527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>819</v>
       </c>
@@ -9504,7 +9551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>820</v>
       </c>
@@ -9528,7 +9575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>821</v>
       </c>
@@ -9552,7 +9599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>822</v>
       </c>
@@ -9576,7 +9623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>823</v>
       </c>
@@ -9600,7 +9647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>824</v>
       </c>
@@ -9624,7 +9671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>825</v>
       </c>
@@ -9648,7 +9695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>826</v>
       </c>
@@ -9672,7 +9719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>827</v>
       </c>
@@ -9696,7 +9743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>828</v>
       </c>
@@ -9720,7 +9767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>829</v>
       </c>
@@ -9744,7 +9791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>901</v>
       </c>
@@ -9768,7 +9815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>902</v>
       </c>
@@ -9792,7 +9839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>903</v>
       </c>
@@ -9816,7 +9863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>904</v>
       </c>
@@ -9840,7 +9887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>905</v>
       </c>
@@ -9864,7 +9911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>906</v>
       </c>
@@ -9888,7 +9935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>907</v>
       </c>
@@ -9912,7 +9959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>908</v>
       </c>
@@ -9936,7 +9983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>909</v>
       </c>
@@ -9960,7 +10007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>910</v>
       </c>
@@ -9984,7 +10031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>911</v>
       </c>
@@ -10008,7 +10055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>912</v>
       </c>
@@ -10032,7 +10079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>913</v>
       </c>
@@ -10056,7 +10103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>914</v>
       </c>
@@ -10080,7 +10127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>915</v>
       </c>
@@ -10104,7 +10151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>916</v>
       </c>
@@ -10128,7 +10175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1001</v>
       </c>
@@ -10152,7 +10199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1002</v>
       </c>
@@ -10176,7 +10223,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1003</v>
       </c>
@@ -10200,7 +10247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1004</v>
       </c>
@@ -10224,7 +10271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1005</v>
       </c>
@@ -10248,7 +10295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1006</v>
       </c>
@@ -10272,7 +10319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1007</v>
       </c>
@@ -10296,7 +10343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1008</v>
       </c>
@@ -10320,7 +10367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1009</v>
       </c>
@@ -10344,7 +10391,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1010</v>
       </c>
@@ -10368,7 +10415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1101</v>
       </c>
@@ -10392,7 +10439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1102</v>
       </c>
@@ -10416,7 +10463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1103</v>
       </c>
@@ -10440,7 +10487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1104</v>
       </c>
@@ -10464,7 +10511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1105</v>
       </c>
@@ -10488,7 +10535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1106</v>
       </c>
@@ -10512,7 +10559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1107</v>
       </c>
@@ -10536,7 +10583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1108</v>
       </c>
@@ -10560,7 +10607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1109</v>
       </c>
@@ -10584,7 +10631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1110</v>
       </c>
@@ -10608,7 +10655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1111</v>
       </c>
@@ -10632,7 +10679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1112</v>
       </c>
@@ -10656,7 +10703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1113</v>
       </c>
@@ -10680,7 +10727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1114</v>
       </c>
@@ -10704,7 +10751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1115</v>
       </c>
@@ -10728,7 +10775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1116</v>
       </c>
@@ -10752,7 +10799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1117</v>
       </c>
@@ -10776,7 +10823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1118</v>
       </c>
@@ -10800,7 +10847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1119</v>
       </c>
@@ -10824,7 +10871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1120</v>
       </c>
@@ -10848,7 +10895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1121</v>
       </c>
@@ -10872,7 +10919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1122</v>
       </c>
@@ -10896,7 +10943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1201</v>
       </c>
@@ -10920,7 +10967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1202</v>
       </c>
@@ -10944,7 +10991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1203</v>
       </c>
@@ -10968,7 +11015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1204</v>
       </c>
@@ -10992,7 +11039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1205</v>
       </c>
@@ -11016,7 +11063,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1206</v>
       </c>
@@ -11040,7 +11087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1207</v>
       </c>
@@ -11064,7 +11111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1208</v>
       </c>
@@ -11088,7 +11135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1209</v>
       </c>
@@ -11112,7 +11159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1210</v>
       </c>
@@ -11136,7 +11183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1301</v>
       </c>
@@ -11160,7 +11207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1302</v>
       </c>
@@ -11184,7 +11231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1303</v>
       </c>
@@ -11208,7 +11255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1304</v>
       </c>
@@ -11232,7 +11279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1305</v>
       </c>
@@ -11256,7 +11303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1306</v>
       </c>
@@ -11280,7 +11327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1307</v>
       </c>
@@ -11304,7 +11351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1308</v>
       </c>
@@ -11328,7 +11375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1401</v>
       </c>
@@ -11352,7 +11399,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1402</v>
       </c>
@@ -11376,7 +11423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1403</v>
       </c>
@@ -11400,7 +11447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1404</v>
       </c>
@@ -11424,7 +11471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1405</v>
       </c>
@@ -11448,7 +11495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1406</v>
       </c>
@@ -11472,7 +11519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1407</v>
       </c>
@@ -11496,7 +11543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1408</v>
       </c>
@@ -11520,7 +11567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1409</v>
       </c>
@@ -11544,7 +11591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1410</v>
       </c>
@@ -11568,7 +11615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1411</v>
       </c>
@@ -11592,7 +11639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1412</v>
       </c>
@@ -11616,7 +11663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1413</v>
       </c>
@@ -11640,7 +11687,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1414</v>
       </c>
@@ -11664,7 +11711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1415</v>
       </c>
@@ -11688,7 +11735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1416</v>
       </c>
@@ -11712,7 +11759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1417</v>
       </c>
@@ -11736,7 +11783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1418</v>
       </c>
@@ -11760,7 +11807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1419</v>
       </c>
@@ -11784,7 +11831,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1420</v>
       </c>
@@ -11808,7 +11855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1421</v>
       </c>
@@ -11832,7 +11879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1422</v>
       </c>
@@ -11856,7 +11903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1423</v>
       </c>
@@ -11880,7 +11927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1424</v>
       </c>
@@ -11904,7 +11951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1425</v>
       </c>
@@ -11928,7 +11975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1426</v>
       </c>
@@ -11952,7 +11999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1427</v>
       </c>
@@ -11976,7 +12023,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1428</v>
       </c>
@@ -12000,7 +12047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1429</v>
       </c>
@@ -12024,7 +12071,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1430</v>
       </c>
@@ -12048,7 +12095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1431</v>
       </c>
@@ -12072,7 +12119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1432</v>
       </c>
@@ -12096,7 +12143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1433</v>
       </c>
@@ -12120,7 +12167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1434</v>
       </c>
@@ -12144,7 +12191,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1435</v>
       </c>
@@ -12168,7 +12215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1436</v>
       </c>
@@ -12192,7 +12239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1437</v>
       </c>
@@ -12216,7 +12263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1438</v>
       </c>
@@ -12240,7 +12287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1439</v>
       </c>
@@ -12264,7 +12311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1440</v>
       </c>
@@ -12288,7 +12335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1441</v>
       </c>
@@ -12312,7 +12359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1442</v>
       </c>
@@ -12336,7 +12383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1443</v>
       </c>
@@ -12360,7 +12407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1444</v>
       </c>
@@ -12384,7 +12431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1445</v>
       </c>
@@ -12408,7 +12455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1446</v>
       </c>
@@ -12432,7 +12479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1447</v>
       </c>
@@ -12456,7 +12503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1448</v>
       </c>
@@ -12480,7 +12527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1449</v>
       </c>
@@ -12504,7 +12551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1450</v>
       </c>
@@ -12528,7 +12575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1451</v>
       </c>
@@ -12552,7 +12599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1452</v>
       </c>
@@ -12576,7 +12623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1453</v>
       </c>
@@ -12600,7 +12647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1454</v>
       </c>
@@ -12624,7 +12671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1455</v>
       </c>
@@ -12648,7 +12695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1456</v>
       </c>
@@ -12672,7 +12719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1457</v>
       </c>
@@ -12696,7 +12743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1458</v>
       </c>
@@ -12720,7 +12767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1459</v>
       </c>
@@ -12744,7 +12791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1460</v>
       </c>
@@ -12768,7 +12815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1461</v>
       </c>
@@ -12792,7 +12839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1462</v>
       </c>
@@ -12816,7 +12863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1463</v>
       </c>
@@ -12840,7 +12887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1464</v>
       </c>
@@ -12864,7 +12911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1465</v>
       </c>
@@ -12888,7 +12935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1466</v>
       </c>
@@ -12912,7 +12959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1467</v>
       </c>
@@ -12936,7 +12983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1468</v>
       </c>
@@ -12960,7 +13007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1469</v>
       </c>
@@ -12984,7 +13031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1470</v>
       </c>
@@ -13008,7 +13055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1471</v>
       </c>
@@ -13032,7 +13079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1472</v>
       </c>
@@ -13056,7 +13103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1473</v>
       </c>
@@ -13080,7 +13127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1474</v>
       </c>
@@ -13104,7 +13151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1475</v>
       </c>
@@ -13128,7 +13175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1476</v>
       </c>
@@ -13152,7 +13199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1477</v>
       </c>
@@ -13176,7 +13223,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1478</v>
       </c>
@@ -13200,7 +13247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1479</v>
       </c>
@@ -13224,7 +13271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1480</v>
       </c>
@@ -13248,7 +13295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1481</v>
       </c>
@@ -13272,7 +13319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1501</v>
       </c>
@@ -13296,7 +13343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1502</v>
       </c>
@@ -13320,7 +13367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1503</v>
       </c>
@@ -13344,7 +13391,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1504</v>
       </c>
@@ -13368,7 +13415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1505</v>
       </c>
@@ -13392,7 +13439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1506</v>
       </c>
@@ -13416,7 +13463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1601</v>
       </c>
@@ -13440,7 +13487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1602</v>
       </c>
@@ -13464,7 +13511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1603</v>
       </c>
@@ -13488,7 +13535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1604</v>
       </c>
@@ -13512,7 +13559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1605</v>
       </c>
@@ -13536,7 +13583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1606</v>
       </c>
@@ -13560,7 +13607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1607</v>
       </c>
@@ -13584,7 +13631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1608</v>
       </c>
@@ -13608,7 +13655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1701</v>
       </c>
@@ -13632,7 +13679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1702</v>
       </c>
@@ -13656,7 +13703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1703</v>
       </c>
@@ -13680,7 +13727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1704</v>
       </c>
@@ -13704,7 +13751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1705</v>
       </c>
@@ -13728,7 +13775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1706</v>
       </c>
@@ -13752,7 +13799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1801</v>
       </c>
@@ -13776,7 +13823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1802</v>
       </c>
@@ -13800,7 +13847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1803</v>
       </c>
@@ -13824,7 +13871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1804</v>
       </c>
@@ -13848,7 +13895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1901</v>
       </c>
@@ -13872,7 +13919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1902</v>
       </c>
@@ -13896,7 +13943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1903</v>
       </c>
@@ -13920,7 +13967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1904</v>
       </c>
@@ -13944,7 +13991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1905</v>
       </c>
@@ -13983,9 +14030,9 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>491</v>
       </c>
@@ -13996,7 +14043,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>268</v>
       </c>
@@ -14037,7 +14084,7 @@
         <v>6.8201193520886619E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1239</v>
       </c>
@@ -14045,7 +14092,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2175</v>
       </c>
@@ -14053,7 +14100,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2491</v>
       </c>
@@ -14076,7 +14123,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3732</v>
       </c>
@@ -14104,7 +14151,7 @@
         <v>5963.3518518518522</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>9612</v>
       </c>
@@ -14115,7 +14162,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G8" s="9">
         <f>C2/C7</f>
         <v>6.741573033707865E-2</v>
@@ -14130,7 +14177,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>511</v>
       </c>
@@ -14146,7 +14193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>511</v>
       </c>
@@ -14162,7 +14209,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>511</v>
       </c>
@@ -14178,7 +14225,7 @@
         <v>58799</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>512</v>
       </c>
@@ -14186,7 +14233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>513</v>
       </c>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF3720-862A-41EA-BB3A-6207F0770878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94315FB8-8059-4678-B4FA-7A69DA02ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="5460" windowWidth="32960" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="523">
   <si>
     <t>索引號</t>
   </si>
@@ -1598,6 +1598,10 @@
   </si>
   <si>
     <t>晉元帝至2年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉元帝3年至5年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1902,7 +1906,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2172,6 +2176,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>卷90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>卷91</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2451,6 +2458,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,11 +3015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3126,19 +3136,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>633.91111111111115</v>
+        <v>637.4065934065934</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44652.911111111112</v>
+        <v>44656.406593406595</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>693.78588689311891</v>
+        <v>712.33483940537417</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44712.785886893122</v>
+        <v>44731.334839405376</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3189,19 +3199,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>727.13333333333344</v>
+        <v>731.14285714285722</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44746.133333333331</v>
+        <v>44750.142857142855</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>760.60314726805814</v>
+        <v>780.93851575260112</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44779.603147268055</v>
+        <v>44799.938515752598</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3252,19 +3262,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1100.0222222222224</v>
+        <v>1106.0879120879122</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45119.022222222222</v>
+        <v>45125.087912087911</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>916.5100881429164</v>
+        <v>941.01376056279764</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44935.510088142917</v>
+        <v>44960.013760562797</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3315,19 +3325,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1640.7111111111112</v>
+        <v>1649.7582417582419</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45659.711111111108</v>
+        <v>45668.758241758245</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1104.7120381989953</v>
+        <v>1134.2474489408205</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45123.712038198995</v>
+        <v>45153.24744894082</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3378,19 +3388,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2470.3888888888891</v>
+        <v>2484.0109890109893</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46489.388888888891</v>
+        <v>46503.010989010989</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1458.843518186173</v>
+        <v>1497.8469335811237</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45477.843518186171</v>
+        <v>45516.846933581124</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3441,19 +3451,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2740.7333333333336</v>
+        <v>2755.8461538461538</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46759.733333333337</v>
+        <v>46774.846153846156</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1516.7518105111203</v>
+        <v>1557.3034530820539</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45535.751810511123</v>
+        <v>45576.303453082051</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3504,19 +3514,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2740.7333333333336</v>
+        <v>2755.8461538461538</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46759.733333333337</v>
+        <v>46774.846153846156</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1516.7518105111203</v>
+        <v>1557.3034530820539</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45535.751810511123</v>
+        <v>45576.303453082051</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3591,7 +3601,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3222222222222229</v>
+        <v>9.3736263736263741</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3632,7 +3642,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.1136210062489871</v>
+        <v>1.1433946057871174</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5495,7 +5505,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B91" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B92" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6330,7 +6340,7 @@
         <v>卷89</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ref="C90" si="40">D89+1</f>
+        <f t="shared" ref="C90:C92" si="40">D89+1</f>
         <v>44944</v>
       </c>
       <c r="D90" s="1">
@@ -6388,6 +6398,41 @@
       <c r="I91">
         <f t="shared" si="44"/>
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>802</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="16"/>
+        <v>卷91</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="40"/>
+        <v>45030</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45043</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92" si="48">D92-C92+1</f>
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92" si="49">G91+1</f>
+        <v>319</v>
+      </c>
+      <c r="G92">
+        <v>321</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92" si="50">IF(F92*G92&lt;0,ABS(F92)+ABS(G92),G92-F92+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ref="I92" si="51">E92/H92</f>
+        <v>4.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6403,8 +6448,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9123,24 +9168,27 @@
       <c r="A92">
         <v>802</v>
       </c>
-      <c r="B92" t="e">
+      <c r="B92" t="str">
         <f>VLOOKUP($A92,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷91</v>
       </c>
       <c r="C92" t="s">
         <v>287</v>
       </c>
-      <c r="D92" t="e">
+      <c r="D92">
         <f>VLOOKUP($A92,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E92" t="e">
+        <v>319</v>
+      </c>
+      <c r="E92">
         <f>VLOOKUP($A92,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" t="e">
+        <v>321</v>
+      </c>
+      <c r="H92" t="s">
+        <v>522</v>
+      </c>
+      <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>802|[卷91](5_筆記/资治通鉴91.html)|晉紀十三|319|321|||晉元帝3年至5年</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94315FB8-8059-4678-B4FA-7A69DA02ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98C4AA-02E7-4AE0-97BC-7CD2F4DE48A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="5460" windowWidth="32960" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="525">
   <si>
     <t>索引號</t>
   </si>
@@ -1602,6 +1602,13 @@
   </si>
   <si>
     <t>晉元帝3年至5年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉元帝6年至7年、晉明帝元年</t>
+  </si>
+  <si>
+    <t>兩晉諸周氏世系</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1913,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2179,6 +2186,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>卷91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>卷92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2461,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,11 +3028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3136,19 +3149,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>637.4065934065934</v>
+        <v>639.3478260869565</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44656.406593406595</v>
+        <v>44658.34782608696</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>712.33483940537417</v>
+        <v>741.89098059202263</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44731.334839405376</v>
+        <v>44760.890980592019</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3199,19 +3212,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>731.14285714285722</v>
+        <v>733.36956521739137</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44750.142857142855</v>
+        <v>44752.369565217392</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>780.93851575260112</v>
+        <v>813.34115528788357</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44799.938515752598</v>
+        <v>44832.341155287882</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3262,19 +3275,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1106.0879120879122</v>
+        <v>1109.4565217391305</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45125.087912087911</v>
+        <v>45128.456521739128</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>941.01376056279764</v>
+        <v>980.05822957822579</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44960.013760562797</v>
+        <v>44999.058229578222</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3325,19 +3338,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1649.7582417582419</v>
+        <v>1654.7826086956522</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45668.758241758245</v>
+        <v>45673.782608695656</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1134.2474489408205</v>
+        <v>1181.3095549715674</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45153.24744894082</v>
+        <v>45200.309554971565</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3388,19 +3401,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2484.0109890109893</v>
+        <v>2491.576086956522</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46503.010989010989</v>
+        <v>46510.57608695652</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1497.8469335811237</v>
+        <v>1559.9954808596303</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45516.846933581124</v>
+        <v>45578.99548085963</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3451,19 +3464,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2755.8461538461538</v>
+        <v>2764.2391304347825</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46774.846153846156</v>
+        <v>46783.239130434784</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1557.3034530820539</v>
+        <v>1621.9189655960431</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45576.303453082051</v>
+        <v>45640.918965596044</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3514,19 +3527,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2755.8461538461538</v>
+        <v>2764.2391304347825</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46774.846153846156</v>
+        <v>46783.239130434784</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1557.3034530820539</v>
+        <v>1621.9189655960431</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45576.303453082051</v>
+        <v>45640.918965596044</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3601,7 +3614,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.3736263736263741</v>
+        <v>9.4021739130434785</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3642,7 +3655,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.1433946057871174</v>
+        <v>1.1908362449310155</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5505,7 +5518,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B92" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B93" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6433,6 +6446,41 @@
       <c r="I92">
         <f t="shared" ref="I92" si="51">E92/H92</f>
         <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>803</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="16"/>
+        <v>卷92</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ref="C93" si="52">D92+1</f>
+        <v>45044</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93" si="53">D93-C93+1</f>
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93" si="54">G92+1</f>
+        <v>322</v>
+      </c>
+      <c r="G93">
+        <v>323</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ref="H93" si="55">IF(F93*G93&lt;0,ABS(F93)+ABS(G93),G93-F93+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93" si="56">E93/H93</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6449,7 +6497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9195,24 +9243,30 @@
       <c r="A93">
         <v>803</v>
       </c>
-      <c r="B93" t="e">
+      <c r="B93" t="str">
         <f>VLOOKUP($A93,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷92</v>
       </c>
       <c r="C93" t="s">
         <v>288</v>
       </c>
-      <c r="D93" t="e">
+      <c r="D93">
         <f>VLOOKUP($A93,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E93" t="e">
+        <v>322</v>
+      </c>
+      <c r="E93">
         <f>VLOOKUP($A93,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" t="e">
+        <v>323</v>
+      </c>
+      <c r="F93" t="s">
+        <v>524</v>
+      </c>
+      <c r="H93" t="s">
+        <v>523</v>
+      </c>
+      <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>803|[卷92](5_筆記/资治通鉴92.html)|晉紀十四|322|323|兩晉諸周氏世系||晉元帝6年至7年、晉明帝元年</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98C4AA-02E7-4AE0-97BC-7CD2F4DE48A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2879E27-31AB-4FE2-BBEA-E214ED1793EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="526">
   <si>
     <t>索引號</t>
   </si>
@@ -1609,6 +1609,10 @@
   </si>
   <si>
     <t>兩晉諸周氏世系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉明帝2年至3年、晉成帝至3年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1913,7 +1917,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2189,6 +2193,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>卷92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>卷93</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2474,6 +2481,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,11 +3038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3149,19 +3159,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>639.3478260869565</v>
+        <v>644.17204301075265</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44658.34782608696</v>
+        <v>44663.172043010753</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>741.89098059202263</v>
+        <v>752.4423302515728</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44760.890980592019</v>
+        <v>44771.442330251572</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3212,19 +3222,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>733.36956521739137</v>
+        <v>738.90322580645159</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44752.369565217392</v>
+        <v>44757.903225806454</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>813.34115528788357</v>
+        <v>824.90868629506292</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44832.341155287882</v>
+        <v>44843.908686295064</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3275,19 +3285,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1109.4565217391305</v>
+        <v>1117.8279569892472</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45128.456521739128</v>
+        <v>45136.827956989247</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>980.05822957822579</v>
+        <v>993.99685039654003</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>44999.058229578222</v>
+        <v>45012.996850396543</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3338,19 +3348,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1654.7826086956522</v>
+        <v>1667.2688172043011</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45673.782608695656</v>
+        <v>45686.268817204298</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1181.3095549715674</v>
+        <v>1198.1104199190372</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45200.309554971565</v>
+        <v>45217.110419919038</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3401,19 +3411,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2491.576086956522</v>
+        <v>2510.3763440860216</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46510.57608695652</v>
+        <v>46529.37634408602</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1559.9954808596303</v>
+        <v>1582.1821069495352</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45578.99548085963</v>
+        <v>45601.182106949535</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3464,19 +3474,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2764.2391304347825</v>
+        <v>2785.0967741935483</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46783.239130434784</v>
+        <v>46804.096774193546</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1621.9189655960431</v>
+        <v>1644.9862821872266</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45640.918965596044</v>
+        <v>45663.986282187223</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3527,19 +3537,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2764.2391304347825</v>
+        <v>2785.0967741935483</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46783.239130434784</v>
+        <v>46804.096774193546</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1621.9189655960431</v>
+        <v>1644.9862821872266</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45640.918965596044</v>
+        <v>45663.986282187223</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3614,7 +3624,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4021739130434785</v>
+        <v>9.4731182795698921</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3655,7 +3665,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.1908362449310155</v>
+        <v>1.2077726007248359</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5518,7 +5528,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B93" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B94" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6481,6 +6491,41 @@
       <c r="I93">
         <f t="shared" ref="I93" si="56">E93/H93</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>804</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="16"/>
+        <v>卷93</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" ref="C94" si="57">D93+1</f>
+        <v>45056</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45071</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94" si="58">D94-C94+1</f>
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94" si="59">G93+1</f>
+        <v>324</v>
+      </c>
+      <c r="G94">
+        <v>327</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94" si="60">IF(F94*G94&lt;0,ABS(F94)+ABS(G94),G94-F94+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ref="I94" si="61">E94/H94</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6497,7 +6542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9273,24 +9318,27 @@
       <c r="A94">
         <v>804</v>
       </c>
-      <c r="B94" t="e">
+      <c r="B94" t="str">
         <f>VLOOKUP($A94,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷93</v>
       </c>
       <c r="C94" t="s">
         <v>289</v>
       </c>
-      <c r="D94" t="e">
+      <c r="D94">
         <f>VLOOKUP($A94,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E94" t="e">
+        <v>324</v>
+      </c>
+      <c r="E94">
         <f>VLOOKUP($A94,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" t="e">
+        <v>327</v>
+      </c>
+      <c r="H94" t="s">
+        <v>525</v>
+      </c>
+      <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>804|[卷93](5_筆記/资治通鉴93.html)|晉紀十五|324|327|||晉明帝2年至3年、晉成帝至3年</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2879E27-31AB-4FE2-BBEA-E214ED1793EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588C885-706F-4CBF-8E14-E251747197EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="527">
   <si>
     <t>索引號</t>
   </si>
@@ -1613,6 +1613,10 @@
   </si>
   <si>
     <t>晉明帝2年至3年、晉成帝至3年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉成帝4年至7年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1917,7 +1921,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2196,6 +2200,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>卷93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>卷94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2483,6 +2490,9 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3038,11 +3048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3159,19 +3169,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>644.17204301075265</v>
+        <v>648.89361702127655</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44663.172043010753</v>
+        <v>44667.893617021276</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>752.4423302515728</v>
+        <v>762.37914995029746</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44771.442330251572</v>
+        <v>44781.379149950299</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3222,19 +3232,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>738.90322580645159</v>
+        <v>744.31914893617022</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44757.903225806454</v>
+        <v>44763.319148936171</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>824.90868629506292</v>
+        <v>835.80250307552672</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44843.908686295064</v>
+        <v>44854.802503075523</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3285,19 +3295,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1117.8279569892472</v>
+        <v>1126.0212765957447</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45136.827956989247</v>
+        <v>45145.021276595748</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>993.99685039654003</v>
+        <v>1007.1236603677285</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45012.996850396543</v>
+        <v>45026.123660367732</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3348,19 +3358,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1667.2688172043011</v>
+        <v>1679.4893617021276</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45686.268817204298</v>
+        <v>45698.48936170213</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1198.1104199190372</v>
+        <v>1213.9327716704577</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45217.110419919038</v>
+        <v>45232.932771670457</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3411,19 +3421,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2510.3763440860216</v>
+        <v>2528.7765957446809</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46529.37634408602</v>
+        <v>46547.776595744683</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1582.1821069495352</v>
+        <v>1603.076543234173</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45601.182106949535</v>
+        <v>45622.076543234172</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3474,19 +3484,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2785.0967741935483</v>
+        <v>2805.510638297872</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46804.096774193546</v>
+        <v>46824.51063829787</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1644.9862821872266</v>
+        <v>1666.710115942705</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45663.986282187223</v>
+        <v>45685.710115942704</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3537,19 +3547,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2785.0967741935483</v>
+        <v>2805.510638297872</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46804.096774193546</v>
+        <v>46824.51063829787</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1644.9862821872266</v>
+        <v>1666.710115942705</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45663.986282187223</v>
+        <v>45685.710115942704</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3624,7 +3634,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.4731182795698921</v>
+        <v>9.5425531914893611</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3665,7 +3675,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2077726007248359</v>
+        <v>1.2237225520871549</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5528,7 +5538,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B94" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B95" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6525,6 +6535,41 @@
       </c>
       <c r="I94">
         <f t="shared" ref="I94" si="61">E94/H94</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>805</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="16"/>
+        <v>卷94</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" ref="C95" si="62">D94+1</f>
+        <v>45072</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45087</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95" si="63">D95-C95+1</f>
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95" si="64">G94+1</f>
+        <v>328</v>
+      </c>
+      <c r="G95">
+        <v>331</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95" si="65">IF(F95*G95&lt;0,ABS(F95)+ABS(G95),G95-F95+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ref="I95" si="66">E95/H95</f>
         <v>4</v>
       </c>
     </row>
@@ -6542,7 +6587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9345,24 +9390,27 @@
       <c r="A95">
         <v>805</v>
       </c>
-      <c r="B95" t="e">
+      <c r="B95" t="str">
         <f>VLOOKUP($A95,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷94</v>
       </c>
       <c r="C95" t="s">
         <v>290</v>
       </c>
-      <c r="D95" t="e">
+      <c r="D95">
         <f>VLOOKUP($A95,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E95" t="e">
+        <v>328</v>
+      </c>
+      <c r="E95">
         <f>VLOOKUP($A95,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" t="e">
+        <v>331</v>
+      </c>
+      <c r="H95" t="s">
+        <v>526</v>
+      </c>
+      <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>805|[卷94](5_筆記/资治通鉴94.html)|晉紀十六|328|331|||晉成帝4年至7年</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588C885-706F-4CBF-8E14-E251747197EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D573459-EEA9-4704-8DA1-CBF3CBAC5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="528">
   <si>
     <t>索引號</t>
   </si>
@@ -1617,6 +1617,10 @@
   </si>
   <si>
     <t>晉成帝4年至7年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉成帝8年至13年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1921,7 +1925,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2203,6 +2207,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>卷94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>卷95</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2494,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,11 +3058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3169,19 +3179,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>648.89361702127655</v>
+        <v>654.23157894736846</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44667.893617021276</v>
+        <v>44673.231578947365</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>762.37914995029746</v>
+        <v>761.90769605641435</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44781.379149950299</v>
+        <v>44780.907696056413</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3232,19 +3242,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>744.31914893617022</v>
+        <v>750.44210526315794</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44763.319148936171</v>
+        <v>44769.442105263159</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>835.80250307552672</v>
+        <v>835.28564431224891</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44854.802503075523</v>
+        <v>44854.285644312251</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3295,19 +3305,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1126.0212765957447</v>
+        <v>1135.2842105263157</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45145.021276595748</v>
+        <v>45154.284210526319</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1007.1236603677285</v>
+        <v>1006.5008569091959</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45026.123660367732</v>
+        <v>45025.500856909195</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3358,19 +3368,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1679.4893617021276</v>
+        <v>1693.3052631578948</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45698.48936170213</v>
+        <v>45712.305263157898</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1213.9327716704577</v>
+        <v>1213.1820778297963</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45232.932771670457</v>
+        <v>45232.182077829799</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3421,19 +3431,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2528.7765957446809</v>
+        <v>2549.5789473684213</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46547.776595744683</v>
+        <v>46568.57894736842</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1603.076543234173</v>
+        <v>1602.085203585719</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45622.076543234172</v>
+        <v>45621.085203585717</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3484,19 +3494,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2805.510638297872</v>
+        <v>2828.5894736842106</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46824.51063829787</v>
+        <v>46847.589473684209</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1666.710115942705</v>
+        <v>1665.6794254074421</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45685.710115942704</v>
+        <v>45684.679425407441</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3547,19 +3557,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2805.510638297872</v>
+        <v>2828.5894736842106</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46824.51063829787</v>
+        <v>46847.589473684209</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1666.710115942705</v>
+        <v>1665.6794254074421</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45685.710115942704</v>
+        <v>45684.679425407441</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3634,7 +3644,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.5425531914893611</v>
+        <v>9.621052631578948</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3675,7 +3685,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2237225520871549</v>
+        <v>1.2229658042639076</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5538,7 +5548,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B95" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B96" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6571,6 +6581,40 @@
       <c r="I95">
         <f t="shared" ref="I95" si="66">E95/H95</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>806</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="16"/>
+        <v>卷95</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45089</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45105</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ref="E96" si="67">D96-C96+1</f>
+        <v>17</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ref="F96" si="68">G95+1</f>
+        <v>332</v>
+      </c>
+      <c r="G96">
+        <v>337</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ref="H96" si="69">IF(F96*G96&lt;0,ABS(F96)+ABS(G96),G96-F96+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96" si="70">E96/H96</f>
+        <v>2.8333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6585,9 +6629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9417,24 +9461,27 @@
       <c r="A96">
         <v>806</v>
       </c>
-      <c r="B96" t="e">
+      <c r="B96" t="str">
         <f>VLOOKUP($A96,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷95</v>
       </c>
       <c r="C96" t="s">
         <v>291</v>
       </c>
-      <c r="D96" t="e">
+      <c r="D96">
         <f>VLOOKUP($A96,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E96" t="e">
+        <v>332</v>
+      </c>
+      <c r="E96">
         <f>VLOOKUP($A96,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" t="e">
+        <v>337</v>
+      </c>
+      <c r="H96" t="s">
+        <v>527</v>
+      </c>
+      <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>806|[卷95](5_筆記/资治通鉴95.html)|晉紀十七|332|337|||晉成帝8年至13年</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D573459-EEA9-4704-8DA1-CBF3CBAC5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2604F92B-F06D-4522-8647-2AD92167EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="6650" windowWidth="28810" windowHeight="13760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="529">
   <si>
     <t>索引號</t>
   </si>
@@ -1621,6 +1621,10 @@
   </si>
   <si>
     <t>晉成帝8年至13年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉成帝14年至17年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1929,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2210,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>卷95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>卷96</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2504,6 +2511,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,11 +3068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3179,19 +3189,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>654.23157894736846</v>
+        <v>660.875</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44673.231578947365</v>
+        <v>44679.875</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>761.90769605641435</v>
+        <v>777.09742963586302</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44780.907696056413</v>
+        <v>44796.097429635862</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3242,19 +3252,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>750.44210526315794</v>
+        <v>758.0625</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44769.442105263159</v>
+        <v>44777.0625</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>835.28564431224891</v>
+        <v>851.93827358153203</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44854.285644312251</v>
+        <v>44870.938273581531</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3305,19 +3315,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1135.2842105263157</v>
+        <v>1146.8125</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45154.284210526319</v>
+        <v>45165.8125</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1006.5008569091959</v>
+        <v>1026.5669094547598</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45025.500856909195</v>
+        <v>45045.566909454763</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3368,19 +3378,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1693.3052631578948</v>
+        <v>1710.5</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45712.305263157898</v>
+        <v>45729.5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1213.1820778297963</v>
+        <v>1237.3686199017275</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45232.182077829799</v>
+        <v>45256.368619901725</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3431,19 +3441,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2549.5789473684213</v>
+        <v>2575.46875</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46568.57894736842</v>
+        <v>46594.46875</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1602.085203585719</v>
+        <v>1634.025092813773</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45621.085203585717</v>
+        <v>45653.025092813776</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3494,19 +3504,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2828.5894736842106</v>
+        <v>2857.3125</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46847.589473684209</v>
+        <v>46876.3125</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1665.6794254074421</v>
+        <v>1698.8871575666863</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45684.679425407441</v>
+        <v>45717.887157566685</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3557,19 +3567,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2828.5894736842106</v>
+        <v>2857.3125</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46847.589473684209</v>
+        <v>46876.3125</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1665.6794254074421</v>
+        <v>1698.8871575666863</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45684.679425407441</v>
+        <v>45717.887157566685</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3644,7 +3654,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.621052631578948</v>
+        <v>9.71875</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3685,7 +3695,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2229658042639076</v>
+        <v>1.2473473990944832</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5548,7 +5558,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B96" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B97" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6615,6 +6625,40 @@
       <c r="I96">
         <f t="shared" ref="I96" si="70">E96/H96</f>
         <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>807</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="16"/>
+        <v>卷96</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45106</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45124</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97" si="71">D97-C97+1</f>
+        <v>19</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ref="F97" si="72">G96+1</f>
+        <v>338</v>
+      </c>
+      <c r="G97">
+        <v>341</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ref="H97" si="73">IF(F97*G97&lt;0,ABS(F97)+ABS(G97),G97-F97+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97" si="74">E97/H97</f>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
@@ -6629,9 +6673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9488,24 +9532,27 @@
       <c r="A97">
         <v>807</v>
       </c>
-      <c r="B97" t="e">
+      <c r="B97" t="str">
         <f>VLOOKUP($A97,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷96</v>
       </c>
       <c r="C97" t="s">
         <v>292</v>
       </c>
-      <c r="D97" t="e">
+      <c r="D97">
         <f>VLOOKUP($A97,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" t="e">
+        <v>338</v>
+      </c>
+      <c r="E97">
         <f>VLOOKUP($A97,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
+        <v>341</v>
+      </c>
+      <c r="H97" t="s">
+        <v>528</v>
+      </c>
+      <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>807|[卷96](5_筆記/资治通鉴96.html)|晉紀十八|338|341|||晉成帝14年至17年</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2604F92B-F06D-4522-8647-2AD92167EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9167C3-2CAA-4BBF-857C-D595D8A5967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="6650" windowWidth="28810" windowHeight="13760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19670" yWindow="5070" windowWidth="14380" windowHeight="13760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="530">
   <si>
     <t>索引號</t>
   </si>
@@ -1626,6 +1626,9 @@
   <si>
     <t>晉成帝14年至17年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉成帝18年、晉康帝共3年、晉穆帝至4年</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1932,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2217,6 +2220,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>卷96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>卷97</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2514,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,11 +3077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3189,19 +3198,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>660.875</v>
+        <v>665.97938144329896</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44679.875</v>
+        <v>44684.9793814433</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>777.09742963586302</v>
+        <v>776.01920496040213</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44796.097429635862</v>
+        <v>44795.019204960401</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3252,19 +3261,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>758.0625</v>
+        <v>763.91752577319596</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44777.0625</v>
+        <v>44782.917525773199</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>851.93827358153203</v>
+        <v>850.75620704326593</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44870.938273581531</v>
+        <v>44869.756207043269</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3315,19 +3324,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1146.8125</v>
+        <v>1155.6701030927836</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45165.8125</v>
+        <v>45174.670103092787</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1026.5669094547598</v>
+        <v>1025.1425452366148</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45045.566909454763</v>
+        <v>45044.142545236617</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3378,19 +3387,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1710.5</v>
+        <v>1723.7113402061857</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45729.5</v>
+        <v>45742.711340206188</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1237.3686199017275</v>
+        <v>1235.6517677700144</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45256.368619901725</v>
+        <v>45254.651767770018</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3441,19 +3450,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2575.46875</v>
+        <v>2595.3608247422681</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46594.46875</v>
+        <v>46614.360824742267</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1634.025092813773</v>
+        <v>1631.7578788091923</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45653.025092813776</v>
+        <v>45650.757878809192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3504,19 +3513,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2857.3125</v>
+        <v>2879.3814432989693</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46876.3125</v>
+        <v>46898.381443298967</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1698.8871575666863</v>
+        <v>1696.5299472810075</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45717.887157566685</v>
+        <v>45715.529947281007</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3567,19 +3576,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2857.3125</v>
+        <v>2879.3814432989693</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46876.3125</v>
+        <v>46898.381443298967</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1698.8871575666863</v>
+        <v>1696.5299472810075</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45717.887157566685</v>
+        <v>45715.529947281007</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3654,7 +3663,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.71875</v>
+        <v>9.7938144329896915</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3695,7 +3704,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2473473990944832</v>
+        <v>1.2456167013810628</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5558,7 +5567,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B97" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B98" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6659,6 +6668,41 @@
       <c r="I97">
         <f t="shared" ref="I97" si="74">E97/H97</f>
         <v>4.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>808</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="16"/>
+        <v>卷97</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" ref="C98" si="75">D97+1</f>
+        <v>45125</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45141</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98" si="76">D98-C98+1</f>
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ref="F98" si="77">G97+1</f>
+        <v>342</v>
+      </c>
+      <c r="G98">
+        <v>347</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ref="H98" si="78">IF(F98*G98&lt;0,ABS(F98)+ABS(G98),G98-F98+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ref="I98" si="79">E98/H98</f>
+        <v>2.8333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6673,9 +6717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9559,24 +9603,27 @@
       <c r="A98">
         <v>808</v>
       </c>
-      <c r="B98" t="e">
+      <c r="B98" t="str">
         <f>VLOOKUP($A98,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷97</v>
       </c>
       <c r="C98" t="s">
         <v>293</v>
       </c>
-      <c r="D98" t="e">
+      <c r="D98">
         <f>VLOOKUP($A98,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E98" t="e">
+        <v>342</v>
+      </c>
+      <c r="E98">
         <f>VLOOKUP($A98,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" t="e">
+        <v>347</v>
+      </c>
+      <c r="H98" t="s">
+        <v>529</v>
+      </c>
+      <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>808|[卷97](5_筆記/资治通鉴97.html)|晉紀十九|342|347|||晉成帝18年、晉康帝共3年、晉穆帝至4年</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9167C3-2CAA-4BBF-857C-D595D8A5967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD9A28-D916-41EC-95E1-3A3E786F9E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19670" yWindow="5070" windowWidth="14380" windowHeight="13760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="533">
   <si>
     <t>索引號</t>
   </si>
@@ -1629,6 +1629,17 @@
   </si>
   <si>
     <t>晉成帝18年、晉康帝共3年、晉穆帝至4年</t>
+  </si>
+  <si>
+    <t>晉穆帝5年至7年</t>
+  </si>
+  <si>
+    <t>石虎手刃重要家屬列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>淝水之戰前政權形勢圖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1932,7 +1943,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2223,6 +2234,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>卷97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>卷98</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2523,6 +2537,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,11 +3094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3198,19 +3215,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>665.97938144329896</v>
+        <v>669.59183673469386</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44684.9793814433</v>
+        <v>44688.591836734697</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>776.01920496040213</v>
+        <v>792.34349349480556</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44795.019204960401</v>
+        <v>44811.343493494809</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3261,19 +3278,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>763.91752577319596</v>
+        <v>768.0612244897959</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44782.917525773199</v>
+        <v>44787.061224489793</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>850.75620704326593</v>
+        <v>868.65265819735498</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44869.756207043269</v>
+        <v>44887.652658197352</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3324,19 +3341,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1155.6701030927836</v>
+        <v>1161.9387755102041</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45174.670103092787</v>
+        <v>45180.938775510207</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1025.1425452366148</v>
+        <v>1046.7073758366371</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45044.142545236617</v>
+        <v>45065.707375836639</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3387,19 +3404,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1723.7113402061857</v>
+        <v>1733.0612244897957</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45742.711340206188</v>
+        <v>45752.061224489793</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1235.6517677700144</v>
+        <v>1261.6448564154848</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45254.651767770018</v>
+        <v>45280.644856415485</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3450,19 +3467,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2595.3608247422681</v>
+        <v>2609.4387755102039</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46614.360824742267</v>
+        <v>46628.438775510207</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1631.7578788091923</v>
+        <v>1666.0834293389971</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45650.757878809192</v>
+        <v>45685.083429339</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3513,19 +3530,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2879.3814432989693</v>
+        <v>2895</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46898.381443298967</v>
+        <v>46914</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1696.5299472810075</v>
+        <v>1732.2180387478734</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45715.529947281007</v>
+        <v>45751.218038747873</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3576,19 +3593,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2879.3814432989693</v>
+        <v>2895</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46898.381443298967</v>
+        <v>46914</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1696.5299472810075</v>
+        <v>1732.2180387478734</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45715.529947281007</v>
+        <v>45751.218038747873</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3663,7 +3680,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.7938144329896915</v>
+        <v>9.8469387755102034</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3704,7 +3721,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2456167013810628</v>
+        <v>1.2718194117091581</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5567,7 +5584,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B98" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B99" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6703,6 +6720,40 @@
       <c r="I98">
         <f t="shared" ref="I98" si="79">E98/H98</f>
         <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>809</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="16"/>
+        <v>卷98</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45143</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99" si="80">D99-C99+1</f>
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ref="F99" si="81">G98+1</f>
+        <v>348</v>
+      </c>
+      <c r="G99">
+        <v>350</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99" si="82">IF(F99*G99&lt;0,ABS(F99)+ABS(G99),G99-F99+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ref="I99" si="83">E99/H99</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6718,8 +6769,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9630,24 +9681,33 @@
       <c r="A99">
         <v>809</v>
       </c>
-      <c r="B99" t="e">
+      <c r="B99" t="str">
         <f>VLOOKUP($A99,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷98</v>
       </c>
       <c r="C99" t="s">
         <v>294</v>
       </c>
-      <c r="D99" t="e">
+      <c r="D99">
         <f>VLOOKUP($A99,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E99" t="e">
+        <v>348</v>
+      </c>
+      <c r="E99">
         <f>VLOOKUP($A99,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" t="e">
+        <v>350</v>
+      </c>
+      <c r="F99" t="s">
+        <v>532</v>
+      </c>
+      <c r="G99" t="s">
+        <v>531</v>
+      </c>
+      <c r="H99" t="s">
+        <v>530</v>
+      </c>
+      <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>809|[卷98](5_筆記/资治通鉴98.html)|晉紀二十|348|350|淝水之戰前政權形勢圖|石虎手刃重要家屬列表|晉穆帝5年至7年</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD9A28-D916-41EC-95E1-3A3E786F9E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F82DB-CE25-4FDA-82FC-7FE124AC96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="534">
   <si>
     <t>索引號</t>
   </si>
@@ -1639,6 +1639,10 @@
   </si>
   <si>
     <t>淝水之戰前政權形勢圖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉穆帝8年至11年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1943,7 +1947,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2237,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>卷98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>卷99</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2540,6 +2547,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,11 +3104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3215,19 +3225,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>669.59183673469386</v>
+        <v>673.13131313131316</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44688.591836734697</v>
+        <v>44692.131313131315</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>792.34349349480556</v>
+        <v>798.2384313987435</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44811.343493494809</v>
+        <v>44817.238431398742</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3278,19 +3288,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>768.0612244897959</v>
+        <v>772.12121212121212</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44787.061224489793</v>
+        <v>44791.121212121216</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>868.65265819735498</v>
+        <v>875.11532687855834</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44887.652658197352</v>
+        <v>44894.115326878557</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3341,19 +3351,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1161.9387755102041</v>
+        <v>1168.0808080808081</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45180.938775510207</v>
+        <v>45187.080808080806</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1046.7073758366371</v>
+        <v>1054.4947496647928</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45065.707375836639</v>
+        <v>45073.494749664795</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3404,19 +3414,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1733.0612244897957</v>
+        <v>1742.2222222222224</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45752.061224489793</v>
+        <v>45761.222222222219</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1261.6448564154848</v>
+        <v>1271.0313385996044</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45280.644856415485</v>
+        <v>45290.031338599605</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3467,19 +3477,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2609.4387755102039</v>
+        <v>2623.2323232323233</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46628.438775510207</v>
+        <v>46642.232323232325</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1666.0834293389971</v>
+        <v>1678.4788846426229</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45685.083429339</v>
+        <v>45697.478884642624</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3530,19 +3540,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2895</v>
+        <v>2910.3030303030305</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46914</v>
+        <v>46929.303030303032</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1732.2180387478734</v>
+        <v>1745.1055273917957</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45751.218038747873</v>
+        <v>45764.105527391795</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3593,19 +3603,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2895</v>
+        <v>2910.3030303030305</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46914</v>
+        <v>46929.303030303032</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1732.2180387478734</v>
+        <v>1745.1055273917957</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45751.218038747873</v>
+        <v>45764.105527391795</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3680,7 +3690,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.8469387755102034</v>
+        <v>9.8989898989898997</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3721,7 +3731,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2718194117091581</v>
+        <v>1.2812815913302464</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5584,7 +5594,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B99" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B100" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6754,6 +6764,41 @@
       <c r="I99">
         <f t="shared" ref="I99" si="83">E99/H99</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>810</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="16"/>
+        <v>卷99</v>
+      </c>
+      <c r="C100" s="1">
+        <f>D99+1</f>
+        <v>45158</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45172</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ref="E100" si="84">D100-C100+1</f>
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ref="F100" si="85">G99+1</f>
+        <v>351</v>
+      </c>
+      <c r="G100">
+        <v>354</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ref="H100" si="86">IF(F100*G100&lt;0,ABS(F100)+ABS(G100),G100-F100+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100" si="87">E100/H100</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -6770,7 +6815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9714,24 +9759,27 @@
       <c r="A100">
         <v>810</v>
       </c>
-      <c r="B100" t="e">
+      <c r="B100" t="str">
         <f>VLOOKUP($A100,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷99</v>
       </c>
       <c r="C100" t="s">
         <v>295</v>
       </c>
-      <c r="D100" t="e">
+      <c r="D100">
         <f>VLOOKUP($A100,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E100" t="e">
+        <v>351</v>
+      </c>
+      <c r="E100">
         <f>VLOOKUP($A100,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="e">
+        <v>354</v>
+      </c>
+      <c r="H100" t="s">
+        <v>533</v>
+      </c>
+      <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>810|[卷99](5_筆記/资治通鉴99.html)|晉紀二十一|351|354|||晉穆帝8年至11年</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F82DB-CE25-4FDA-82FC-7FE124AC96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB42131-7B1B-44F9-9B0B-AB59C0C6DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="535">
   <si>
     <t>索引號</t>
   </si>
@@ -1644,6 +1644,9 @@
   <si>
     <t>晉穆帝8年至11年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉穆帝12年至16年</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1950,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2244,6 +2247,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>卷99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>卷100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2550,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,11 +3113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3225,19 +3234,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>673.13131313131316</v>
+        <v>676.59999999999991</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44692.131313131315</v>
+        <v>44695.6</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>798.2384313987435</v>
+        <v>797.85293207540656</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44817.238431398742</v>
+        <v>44816.85293207541</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3288,19 +3297,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>772.12121212121212</v>
+        <v>776.09999999999991</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44791.121212121216</v>
+        <v>44795.1</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>875.11532687855834</v>
+        <v>874.69270081461104</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44894.115326878557</v>
+        <v>44893.692700814609</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3351,19 +3360,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1168.0808080808081</v>
+        <v>1174.0999999999999</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45187.080808080806</v>
+        <v>45193.1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1054.4947496647928</v>
+        <v>1053.9854945394216</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45073.494749664795</v>
+        <v>45072.985494539418</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3414,19 +3423,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1742.2222222222224</v>
+        <v>1751.1999999999998</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45761.222222222219</v>
+        <v>45770.2</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1271.0313385996044</v>
+        <v>1270.4175098215142</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45290.031338599605</v>
+        <v>45289.417509821513</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3477,19 +3486,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2623.2323232323233</v>
+        <v>2636.75</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46642.232323232325</v>
+        <v>46655.75</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1678.4788846426229</v>
+        <v>1677.6682841392978</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45697.478884642624</v>
+        <v>45696.668284139298</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3540,19 +3549,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2910.3030303030305</v>
+        <v>2925.2999999999997</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46929.303030303032</v>
+        <v>46944.3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1745.1055273917957</v>
+        <v>1744.2627503799417</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45764.105527391795</v>
+        <v>45763.262750379945</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3603,19 +3612,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2910.3030303030305</v>
+        <v>2925.2999999999997</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46929.303030303032</v>
+        <v>46944.3</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1745.1055273917957</v>
+        <v>1744.2627503799417</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45764.105527391795</v>
+        <v>45763.262750379945</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3690,7 +3699,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.8989898989898997</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3731,7 +3740,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2812815913302464</v>
+        <v>1.2806628123200747</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5594,7 +5603,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B100" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B101" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6799,6 +6808,41 @@
       <c r="I100">
         <f t="shared" ref="I100" si="87">E100/H100</f>
         <v>3.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>811</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="16"/>
+        <v>卷100</v>
+      </c>
+      <c r="C101" s="1">
+        <f>D100+1</f>
+        <v>45173</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45187</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101" si="88">D101-C101+1</f>
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ref="F101" si="89">G100+1</f>
+        <v>355</v>
+      </c>
+      <c r="G101">
+        <v>359</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ref="H101" si="90">IF(F101*G101&lt;0,ABS(F101)+ABS(G101),G101-F101+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ref="I101" si="91">E101/H101</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9786,24 +9830,27 @@
       <c r="A101">
         <v>811</v>
       </c>
-      <c r="B101" t="e">
+      <c r="B101" t="str">
         <f>VLOOKUP($A101,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷100</v>
       </c>
       <c r="C101" t="s">
         <v>296</v>
       </c>
-      <c r="D101" t="e">
+      <c r="D101">
         <f>VLOOKUP($A101,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E101" t="e">
+        <v>355</v>
+      </c>
+      <c r="E101">
         <f>VLOOKUP($A101,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="e">
+        <v>359</v>
+      </c>
+      <c r="H101" t="s">
+        <v>534</v>
+      </c>
+      <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>811|[卷100](5_筆記/资治通鉴100.html)|晉紀二十二|355|359|||晉穆帝12年至16年</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB42131-7B1B-44F9-9B0B-AB59C0C6DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022AEE3-8B22-4B4B-810B-BD4B9B451E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16180" yWindow="1680" windowWidth="13520" windowHeight="12050" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="536">
   <si>
     <t>索引號</t>
   </si>
@@ -1647,6 +1647,10 @@
   </si>
   <si>
     <t>晉穆帝12年至16年</t>
+  </si>
+  <si>
+    <t>晉穆帝17年至18年、晉哀帝至5年、晉廢帝至4年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1950,7 +1954,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2250,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>卷100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>卷101</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2559,6 +2566,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,11 +3123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3234,19 +3244,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>676.59999999999991</v>
+        <v>686.73267326732673</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44695.6</v>
+        <v>44705.732673267325</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>797.85293207540656</v>
+        <v>795.61609404656724</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44816.85293207541</v>
+        <v>44814.616094046571</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3297,19 +3307,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>776.09999999999991</v>
+        <v>787.7227722772277</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44795.1</v>
+        <v>44806.72277227723</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>874.69270081461104</v>
+        <v>872.2404369724004</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44893.692700814609</v>
+        <v>44891.240436972403</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3360,19 +3370,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1174.0999999999999</v>
+        <v>1191.6831683168316</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45193.1</v>
+        <v>45210.683168316835</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1053.9854945394216</v>
+        <v>1051.0305704660111</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45072.985494539418</v>
+        <v>45070.030570466013</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3423,19 +3433,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1751.1999999999998</v>
+        <v>1777.4257425742574</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45770.2</v>
+        <v>45796.425742574254</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1270.4175098215142</v>
+        <v>1266.8558030404411</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45289.417509821513</v>
+        <v>45285.855803040438</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3486,19 +3496,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2636.75</v>
+        <v>2676.2376237623762</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46655.75</v>
+        <v>46695.237623762376</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1677.6682841392978</v>
+        <v>1672.9648205473566</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45696.668284139298</v>
+        <v>45691.964820547357</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3549,19 +3559,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2925.2999999999997</v>
+        <v>2969.1089108910892</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46944.3</v>
+        <v>46988.108910891089</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1744.2627503799417</v>
+        <v>1739.3725844164119</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45763.262750379945</v>
+        <v>45758.372584416415</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3612,19 +3622,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2925.2999999999997</v>
+        <v>2969.1089108910892</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46944.3</v>
+        <v>46988.108910891089</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1744.2627503799417</v>
+        <v>1739.3725844164119</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45763.262750379945</v>
+        <v>45758.372584416415</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3699,7 +3709,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>9.9499999999999993</v>
+        <v>10.099009900990099</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3740,7 +3750,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2806628123200747</v>
+        <v>1.2770723820972187</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5603,7 +5613,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B101" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B102" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6843,6 +6853,41 @@
       <c r="I101">
         <f t="shared" ref="I101" si="91">E101/H101</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>812</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="16"/>
+        <v>卷101</v>
+      </c>
+      <c r="C102" s="1">
+        <f>D101+1</f>
+        <v>45188</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ref="E102" si="92">D102-C102+1</f>
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ref="F102" si="93">G101+1</f>
+        <v>360</v>
+      </c>
+      <c r="G102">
+        <v>368</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ref="H102" si="94">IF(F102*G102&lt;0,ABS(F102)+ABS(G102),G102-F102+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ref="I102" si="95">E102/H102</f>
+        <v>2.7777777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -6858,8 +6903,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9857,24 +9902,27 @@
       <c r="A102">
         <v>812</v>
       </c>
-      <c r="B102" t="e">
+      <c r="B102" t="str">
         <f>VLOOKUP($A102,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷101</v>
       </c>
       <c r="C102" t="s">
         <v>297</v>
       </c>
-      <c r="D102" t="e">
+      <c r="D102">
         <f>VLOOKUP($A102,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E102" t="e">
+        <v>360</v>
+      </c>
+      <c r="E102">
         <f>VLOOKUP($A102,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" t="e">
+        <v>368</v>
+      </c>
+      <c r="H102" t="s">
+        <v>535</v>
+      </c>
+      <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>812|[卷101](5_筆記/资治通鉴101.html)|晉紀二十三|360|368|||晉穆帝17年至18年、晉哀帝至5年、晉廢帝至4年</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022AEE3-8B22-4B4B-810B-BD4B9B451E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F074BA-B537-4A71-85D5-80095F81FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="1680" windowWidth="13520" windowHeight="12050" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="537">
   <si>
     <t>索引號</t>
   </si>
@@ -1650,6 +1650,10 @@
   </si>
   <si>
     <t>晉穆帝17年至18年、晉哀帝至5年、晉廢帝至4年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉廢帝5年至6年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1954,7 +1958,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2257,6 +2261,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>卷101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>卷102</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2569,6 +2576,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,11 +3133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3244,19 +3254,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>686.73267326732673</v>
+        <v>689.33333333333326</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44705.732673267325</v>
+        <v>44708.333333333336</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>795.61609404656724</v>
+        <v>825.16976451211156</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44814.616094046571</v>
+        <v>44844.169764512109</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3307,19 +3317,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>787.7227722772277</v>
+        <v>790.7058823529411</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44806.72277227723</v>
+        <v>44809.705882352944</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>872.2404369724004</v>
+        <v>904.64036783591041</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44891.240436972403</v>
+        <v>44923.640367835913</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3370,19 +3380,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1191.6831683168316</v>
+        <v>1196.1960784313726</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45210.683168316835</v>
+        <v>45215.196078431371</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1051.0305704660111</v>
+        <v>1090.0717755914411</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45070.030570466013</v>
+        <v>45109.071775591437</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3433,19 +3443,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1777.4257425742574</v>
+        <v>1784.1568627450979</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45796.425742574254</v>
+        <v>45803.156862745098</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1266.8558030404411</v>
+        <v>1313.9139749534745</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45285.855803040438</v>
+        <v>45332.913974953473</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3496,19 +3506,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2676.2376237623762</v>
+        <v>2686.3725490196075</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46695.237623762376</v>
+        <v>46705.372549019608</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1672.9648205473566</v>
+        <v>1735.1081725696085</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45691.964820547357</v>
+        <v>45754.108172569606</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3559,19 +3569,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2969.1089108910892</v>
+        <v>2980.3529411764703</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46988.108910891089</v>
+        <v>46999.352941176468</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1739.3725844164119</v>
+        <v>1803.9826954502344</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45758.372584416415</v>
+        <v>45822.982695450235</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3622,19 +3632,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2969.1089108910892</v>
+        <v>2980.3529411764703</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46988.108910891089</v>
+        <v>46999.352941176468</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1739.3725844164119</v>
+        <v>1803.9826954502344</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45758.372584416415</v>
+        <v>45822.982695450235</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3709,7 +3719,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.099009900990099</v>
+        <v>10.137254901960784</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3750,7 +3760,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2770723820972187</v>
+        <v>1.3245100553966478</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5613,7 +5623,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B102" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B103" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6888,6 +6898,41 @@
       <c r="I102">
         <f t="shared" ref="I102" si="95">E102/H102</f>
         <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>813</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="16"/>
+        <v>卷102</v>
+      </c>
+      <c r="C103" s="1">
+        <f>D102+1</f>
+        <v>45213</v>
+      </c>
+      <c r="D103" s="1">
+        <v>45226</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103" si="96">D103-C103+1</f>
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ref="F103" si="97">G102+1</f>
+        <v>369</v>
+      </c>
+      <c r="G103">
+        <v>370</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ref="H103" si="98">IF(F103*G103&lt;0,ABS(F103)+ABS(G103),G103-F103+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ref="I103" si="99">E103/H103</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6903,8 +6948,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9929,24 +9974,27 @@
       <c r="A103">
         <v>813</v>
       </c>
-      <c r="B103" t="e">
+      <c r="B103" t="str">
         <f>VLOOKUP($A103,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷102</v>
       </c>
       <c r="C103" t="s">
         <v>298</v>
       </c>
-      <c r="D103" t="e">
+      <c r="D103">
         <f>VLOOKUP($A103,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E103" t="e">
+        <v>369</v>
+      </c>
+      <c r="E103">
         <f>VLOOKUP($A103,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" t="e">
+        <v>370</v>
+      </c>
+      <c r="H103" t="s">
+        <v>536</v>
+      </c>
+      <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>813|[卷102](5_筆記/资治通鉴102.html)|晉紀二十四|369|370|||晉廢帝5年至6年</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F074BA-B537-4A71-85D5-80095F81FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B7150-9489-43F1-ACFD-714DA0CD262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="538">
   <si>
     <t>索引號</t>
   </si>
@@ -1654,6 +1654,10 @@
   </si>
   <si>
     <t>晉廢帝5年至6年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉廢帝7年、晉簡文帝至2年、晉孝武帝至4年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1958,7 +1962,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2264,6 +2268,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>卷102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>卷103</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2579,6 +2586,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,11 +3143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3254,19 +3264,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>689.33333333333326</v>
+        <v>693.86407766990283</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44708.333333333336</v>
+        <v>44712.864077669903</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>825.16976451211156</v>
+        <v>826.79422043538364</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44844.169764512109</v>
+        <v>44845.794220435382</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3317,19 +3327,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>790.7058823529411</v>
+        <v>795.90291262135918</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44809.705882352944</v>
+        <v>44814.902912621357</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>904.64036783591041</v>
+        <v>906.42127216270796</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44923.640367835913</v>
+        <v>44925.421272162705</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3380,19 +3390,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1196.1960784313726</v>
+        <v>1204.0582524271845</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45215.196078431371</v>
+        <v>45223.058252427181</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1090.0717755914411</v>
+        <v>1092.2177261931313</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45109.071775591437</v>
+        <v>45111.217726193128</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3443,19 +3453,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1784.1568627450979</v>
+        <v>1795.8834951456311</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45803.156862745098</v>
+        <v>45814.88349514563</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1313.9139749534745</v>
+        <v>1316.5005885584278</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45332.913974953473</v>
+        <v>45335.500588558425</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3506,19 +3516,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2686.3725490196075</v>
+        <v>2704.029126213592</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46705.372549019608</v>
+        <v>46723.029126213594</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1735.1081725696085</v>
+        <v>1738.5239627132464</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45754.108172569606</v>
+        <v>45757.523962713247</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3569,19 +3579,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2980.3529411764703</v>
+        <v>2999.9417475728155</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46999.352941176468</v>
+        <v>47018.941747572819</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1803.9826954502344</v>
+        <v>1807.5340742102608</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45822.982695450235</v>
+        <v>45826.534074210263</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3632,19 +3642,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2980.3529411764703</v>
+        <v>2999.9417475728155</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46999.352941176468</v>
+        <v>47018.941747572819</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1803.9826954502344</v>
+        <v>1807.5340742102608</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45822.982695450235</v>
+        <v>45826.534074210263</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3719,7 +3729,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.137254901960784</v>
+        <v>10.203883495145631</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3760,7 +3770,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.3245100553966478</v>
+        <v>1.3271175287887378</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5623,7 +5633,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B103" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B104" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6933,6 +6943,41 @@
       <c r="I103">
         <f t="shared" ref="I103" si="99">E103/H103</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>814</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="16"/>
+        <v>卷103</v>
+      </c>
+      <c r="C104" s="1">
+        <f>D103+1</f>
+        <v>45227</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45243</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ref="E104" si="100">D104-C104+1</f>
+        <v>17</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ref="F104" si="101">G103+1</f>
+        <v>371</v>
+      </c>
+      <c r="G104">
+        <v>375</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ref="H104" si="102">IF(F104*G104&lt;0,ABS(F104)+ABS(G104),G104-F104+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ref="I104" si="103">E104/H104</f>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10001,24 +10046,27 @@
       <c r="A104">
         <v>814</v>
       </c>
-      <c r="B104" t="e">
+      <c r="B104" t="str">
         <f>VLOOKUP($A104,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷103</v>
       </c>
       <c r="C104" t="s">
         <v>299</v>
       </c>
-      <c r="D104" t="e">
+      <c r="D104">
         <f>VLOOKUP($A104,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" t="e">
+        <v>371</v>
+      </c>
+      <c r="E104">
         <f>VLOOKUP($A104,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
+        <v>375</v>
+      </c>
+      <c r="H104" t="s">
+        <v>537</v>
+      </c>
+      <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>814|[卷103](5_筆記/资治通鉴103.html)|晉紀二十五|371|375|||晉廢帝7年、晉簡文帝至2年、晉孝武帝至4年</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B7150-9489-43F1-ACFD-714DA0CD262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21DD41-BA28-4FE6-BB9A-17B1AF6EB2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="539">
   <si>
     <t>索引號</t>
   </si>
@@ -1658,6 +1658,10 @@
   </si>
   <si>
     <t>晉廢帝7年、晉簡文帝至2年、晉孝武帝至4年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉孝武帝5年至11年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1962,7 +1966,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2271,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>卷103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>卷104</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.2857142857142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,11 +3153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3264,19 +3274,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>693.86407766990283</v>
+        <v>697.65384615384619</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44712.864077669903</v>
+        <v>44716.653846153844</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>826.79422043538364</v>
+        <v>820.116895267563</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44845.794220435382</v>
+        <v>44839.116895267565</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3327,19 +3337,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>795.90291262135918</v>
+        <v>800.25</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44814.902912621357</v>
+        <v>44819.25</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>906.42127216270796</v>
+        <v>899.10086591933464</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44925.421272162705</v>
+        <v>44918.100865919332</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3390,19 +3400,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1204.0582524271845</v>
+        <v>1210.6346153846155</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45223.058252427181</v>
+        <v>45229.634615384617</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1092.2177261931313</v>
+        <v>1083.3967974401353</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45111.217726193128</v>
+        <v>45102.396797440138</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3453,19 +3463,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1795.8834951456311</v>
+        <v>1805.6923076923078</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45814.88349514563</v>
+        <v>45824.692307692305</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1316.5005885584278</v>
+        <v>1305.8683147759589</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45335.500588558425</v>
+        <v>45324.868314775958</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3516,19 +3526,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2704.029126213592</v>
+        <v>2718.7980769230771</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46723.029126213594</v>
+        <v>46737.798076923078</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1738.5239627132464</v>
+        <v>1724.4833592303492</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45757.523962713247</v>
+        <v>45743.483359230348</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3579,19 +3589,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>2999.9417475728155</v>
+        <v>3016.3269230769233</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47018.941747572819</v>
+        <v>47035.326923076922</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1807.5340742102608</v>
+        <v>1792.936133795218</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45826.534074210263</v>
+        <v>45811.936133795221</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3642,19 +3652,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>2999.9417475728155</v>
+        <v>3016.3269230769233</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47018.941747572819</v>
+        <v>47035.326923076922</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1807.5340742102608</v>
+        <v>1792.936133795218</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45826.534074210263</v>
+        <v>45811.936133795221</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3729,7 +3739,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.203883495145631</v>
+        <v>10.259615384615385</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3770,7 +3780,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.3271175287887378</v>
+        <v>1.3163995108628619</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5633,7 +5643,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B104" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B105" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -6978,6 +6988,40 @@
       <c r="I104">
         <f t="shared" ref="I104" si="103">E104/H104</f>
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>815</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="16"/>
+        <v>卷104</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45245</v>
+      </c>
+      <c r="D105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105" si="104">D105-C105+1</f>
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ref="F105" si="105">G104+1</f>
+        <v>376</v>
+      </c>
+      <c r="G105">
+        <v>382</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ref="H105" si="106">IF(F105*G105&lt;0,ABS(F105)+ABS(G105),G105-F105+1)</f>
+        <v>7</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ref="I105" si="107">E105/H105</f>
+        <v>2.2857142857142856</v>
       </c>
     </row>
   </sheetData>
@@ -6994,7 +7038,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="V92" sqref="V92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10073,24 +10117,27 @@
       <c r="A105">
         <v>815</v>
       </c>
-      <c r="B105" t="e">
+      <c r="B105" t="str">
         <f>VLOOKUP($A105,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷104</v>
       </c>
       <c r="C105" t="s">
         <v>300</v>
       </c>
-      <c r="D105" t="e">
+      <c r="D105">
         <f>VLOOKUP($A105,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" t="e">
+        <v>376</v>
+      </c>
+      <c r="E105">
         <f>VLOOKUP($A105,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
+        <v>382</v>
+      </c>
+      <c r="H105" t="s">
+        <v>538</v>
+      </c>
+      <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>815|[卷104](5_筆記/资治通鉴104.html)|晉紀二十六|376|382|||晉孝武帝5年至11年</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21DD41-BA28-4FE6-BB9A-17B1AF6EB2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6DEFF-E7A1-4F58-9D65-59E78F5D7E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="540">
   <si>
     <t>索引號</t>
   </si>
@@ -1662,6 +1662,10 @@
   </si>
   <si>
     <t>晉孝武帝5年至11年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉孝武帝12年至13年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +1970,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2278,6 +2282,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>卷104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>卷105</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2599,6 +2606,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,11 +3163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3274,19 +3284,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>697.65384615384619</v>
+        <v>702.01904761904768</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44716.653846153844</v>
+        <v>44721.019047619047</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>820.116895267563</v>
+        <v>857.78846202530053</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44839.116895267565</v>
+        <v>44876.788462025303</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3337,19 +3347,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>800.25</v>
+        <v>805.25714285714287</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44819.25</v>
+        <v>44824.257142857146</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>899.10086591933464</v>
+        <v>940.40051294266493</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44918.100865919332</v>
+        <v>44959.400512942666</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3400,19 +3410,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1210.6346153846155</v>
+        <v>1218.2095238095239</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45229.634615384617</v>
+        <v>45237.209523809521</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1083.3967974401353</v>
+        <v>1133.1619650831819</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45102.396797440138</v>
+        <v>45152.161965083185</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3463,19 +3473,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1805.6923076923078</v>
+        <v>1816.9904761904763</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45824.692307692305</v>
+        <v>45835.990476190476</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1305.8683147759589</v>
+        <v>1365.8525751670918</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45324.868314775958</v>
+        <v>45384.85257516709</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3526,19 +3536,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2718.7980769230771</v>
+        <v>2735.8095238095239</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46737.798076923078</v>
+        <v>46754.809523809527</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1724.4833592303492</v>
+        <v>1803.6964450291232</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45743.483359230348</v>
+        <v>45822.69644502912</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3589,19 +3599,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3016.3269230769233</v>
+        <v>3035.2000000000003</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47035.326923076922</v>
+        <v>47054.2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1792.936133795218</v>
+        <v>1875.2935558241722</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45811.936133795221</v>
+        <v>45894.293555824173</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3652,19 +3662,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3016.3269230769233</v>
+        <v>3035.2000000000003</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47035.326923076922</v>
+        <v>47054.2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1792.936133795218</v>
+        <v>1875.2935558241722</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45811.936133795221</v>
+        <v>45894.293555824173</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3739,7 +3749,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.259615384615385</v>
+        <v>10.323809523809524</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3780,7 +3790,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.3163995108628619</v>
+        <v>1.376867515289407</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5643,7 +5653,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B105" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B106" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7022,6 +7032,41 @@
       <c r="I105">
         <f t="shared" ref="I105" si="107">E105/H105</f>
         <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>816</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="16"/>
+        <v>卷105</v>
+      </c>
+      <c r="C106" s="1">
+        <f>D105+1</f>
+        <v>45261</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45277</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106" si="108">D106-C106+1</f>
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ref="F106" si="109">G105+1</f>
+        <v>383</v>
+      </c>
+      <c r="G106">
+        <v>384</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ref="H106" si="110">IF(F106*G106&lt;0,ABS(F106)+ABS(G106),G106-F106+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ref="I106" si="111">E106/H106</f>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -7038,7 +7083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V92" sqref="V92"/>
+      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10144,24 +10189,27 @@
       <c r="A106">
         <v>816</v>
       </c>
-      <c r="B106" t="e">
+      <c r="B106" t="str">
         <f>VLOOKUP($A106,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷105</v>
       </c>
       <c r="C106" t="s">
         <v>301</v>
       </c>
-      <c r="D106" t="e">
+      <c r="D106">
         <f>VLOOKUP($A106,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" t="e">
+        <v>383</v>
+      </c>
+      <c r="E106">
         <f>VLOOKUP($A106,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
+        <v>384</v>
+      </c>
+      <c r="H106" t="s">
+        <v>539</v>
+      </c>
+      <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>816|[卷105](5_筆記/资治通鉴105.html)|晉紀二十七|383|384|||晉孝武帝12年至13年</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6DEFF-E7A1-4F58-9D65-59E78F5D7E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414385B-5CF1-4C2F-82F6-E3CBCC9CCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="541">
   <si>
     <t>索引號</t>
   </si>
@@ -1667,6 +1667,9 @@
   <si>
     <t>晉孝武帝12年至13年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉孝武帝14年至15年</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="105"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2285,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>卷105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>卷106</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,11 +3172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3284,19 +3293,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>702.01904761904768</v>
+        <v>707.58490566037733</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44721.019047619047</v>
+        <v>44726.584905660377</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>857.78846202530053</v>
+        <v>900.88547956958951</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44876.788462025303</v>
+        <v>44919.885479569588</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3347,19 +3356,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>805.25714285714287</v>
+        <v>811.64150943396226</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44824.257142857146</v>
+        <v>44830.641509433961</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>940.40051294266493</v>
+        <v>987.64812607709416</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44959.400512942666</v>
+        <v>45006.648126077096</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3410,19 +3419,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1218.2095238095239</v>
+        <v>1227.867924528302</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45237.209523809521</v>
+        <v>45246.867924528298</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1133.1619650831819</v>
+        <v>1190.0943012612715</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45152.161965083185</v>
+        <v>45209.09430126127</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3473,19 +3482,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1816.9904761904763</v>
+        <v>1831.3962264150944</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45835.990476190476</v>
+        <v>45850.396226415098</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1365.8525751670918</v>
+        <v>1434.4757555907429</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45384.85257516709</v>
+        <v>45453.475755590742</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3536,19 +3545,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2735.8095238095239</v>
+        <v>2757.5</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46754.809523809527</v>
+        <v>46776.5</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1803.6964450291232</v>
+        <v>1894.3177820805172</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45822.69644502912</v>
+        <v>45913.317782080514</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3599,19 +3608,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3035.2000000000003</v>
+        <v>3059.2641509433961</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47054.2</v>
+        <v>47078.264150943396</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1875.2935558241722</v>
+        <v>1969.5120757203547</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45894.293555824173</v>
+        <v>45988.512075720355</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3662,19 +3671,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3035.2000000000003</v>
+        <v>3059.2641509433961</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47054.2</v>
+        <v>47078.264150943396</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1875.2935558241722</v>
+        <v>1969.5120757203547</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45894.293555824173</v>
+        <v>45988.512075720355</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3749,7 +3758,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.323809523809524</v>
+        <v>10.40566037735849</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3790,7 +3799,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.376867515289407</v>
+        <v>1.4460441084584101</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5653,7 +5662,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B106" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B107" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7067,6 +7076,40 @@
       <c r="I106">
         <f t="shared" ref="I106" si="111">E106/H106</f>
         <v>8.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>817</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="16"/>
+        <v>卷106</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45279</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45297</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ref="E107" si="112">D107-C107+1</f>
+        <v>19</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ref="F107" si="113">G106+1</f>
+        <v>385</v>
+      </c>
+      <c r="G107">
+        <v>386</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ref="H107" si="114">IF(F107*G107&lt;0,ABS(F107)+ABS(G107),G107-F107+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ref="I107" si="115">E107/H107</f>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7126,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10216,24 +10259,27 @@
       <c r="A107">
         <v>817</v>
       </c>
-      <c r="B107" t="e">
+      <c r="B107" t="str">
         <f>VLOOKUP($A107,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷106</v>
       </c>
       <c r="C107" t="s">
         <v>302</v>
       </c>
-      <c r="D107" t="e">
+      <c r="D107">
         <f>VLOOKUP($A107,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E107" t="e">
+        <v>385</v>
+      </c>
+      <c r="E107">
         <f>VLOOKUP($A107,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
+        <v>386</v>
+      </c>
+      <c r="H107" t="s">
+        <v>540</v>
+      </c>
+      <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>817|[卷106](5_筆記/资治通鉴106.html)|晉紀二十八|385|386|||晉孝武帝14年至15年</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414385B-5CF1-4C2F-82F6-E3CBCC9CCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87F890-2933-4E7E-A6AD-9F798C74CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="542">
   <si>
     <t>索引號</t>
   </si>
@@ -1670,6 +1670,9 @@
   </si>
   <si>
     <t>晉孝武帝14年至15年</t>
+  </si>
+  <si>
+    <t>晉孝武帝16年至20年</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1976,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="106"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2291,6 +2294,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>卷106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>卷107</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2618,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,11 +3181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3293,19 +3302,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>707.58490566037733</v>
+        <v>709.23364485981313</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44726.584905660377</v>
+        <v>44728.233644859814</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>900.88547956958951</v>
+        <v>894.92047367096529</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44919.885479569588</v>
+        <v>44913.920473670965</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3356,19 +3365,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>811.64150943396226</v>
+        <v>813.53271028037386</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44830.641509433961</v>
+        <v>44832.532710280371</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>987.64812607709416</v>
+        <v>981.10864127972604</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45006.648126077096</v>
+        <v>45000.108641279723</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3419,19 +3428,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1227.867924528302</v>
+        <v>1230.7289719626169</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45246.867924528298</v>
+        <v>45249.728971962613</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1190.0943012612715</v>
+        <v>1182.2143657001677</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45209.09430126127</v>
+        <v>45201.214365700165</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3482,19 +3491,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1831.3962264150944</v>
+        <v>1835.6635514018692</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45850.396226415098</v>
+        <v>45854.663551401871</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1434.4757555907429</v>
+        <v>1424.9777044648436</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45453.475755590742</v>
+        <v>45443.977704464844</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3545,19 +3554,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2757.5</v>
+        <v>2763.9252336448599</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46776.5</v>
+        <v>46782.925233644863</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1894.3177820805172</v>
+        <v>1881.7749927912753</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45913.317782080514</v>
+        <v>45900.774992791274</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3608,19 +3617,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3059.2641509433961</v>
+        <v>3066.3925233644864</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47078.264150943396</v>
+        <v>47085.392523364484</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1969.5120757203547</v>
+        <v>1956.4714047188679</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45988.512075720355</v>
+        <v>45975.471404718868</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3671,19 +3680,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3059.2641509433961</v>
+        <v>3066.3925233644864</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47078.264150943396</v>
+        <v>47085.392523364484</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1969.5120757203547</v>
+        <v>1956.4714047188679</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45988.512075720355</v>
+        <v>45975.471404718868</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3758,7 +3767,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.40566037735849</v>
+        <v>10.429906542056075</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3799,7 +3808,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.4460441084584101</v>
+        <v>1.4364694601460117</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5662,7 +5671,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B107" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B108" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7110,6 +7119,41 @@
       <c r="I107">
         <f t="shared" ref="I107" si="115">E107/H107</f>
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>818</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="16"/>
+        <v>卷107</v>
+      </c>
+      <c r="C108" s="1">
+        <f>D107+1</f>
+        <v>45298</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45310</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108" si="116">D108-C108+1</f>
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ref="F108" si="117">G107+1</f>
+        <v>387</v>
+      </c>
+      <c r="G108">
+        <v>391</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ref="H108" si="118">IF(F108*G108&lt;0,ABS(F108)+ABS(G108),G108-F108+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108" si="119">E108/H108</f>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -7124,9 +7168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10286,24 +10330,27 @@
       <c r="A108">
         <v>818</v>
       </c>
-      <c r="B108" t="e">
+      <c r="B108" t="str">
         <f>VLOOKUP($A108,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷107</v>
       </c>
       <c r="C108" t="s">
         <v>303</v>
       </c>
-      <c r="D108" t="e">
+      <c r="D108">
         <f>VLOOKUP($A108,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E108" t="e">
+        <v>387</v>
+      </c>
+      <c r="E108">
         <f>VLOOKUP($A108,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
+        <v>391</v>
+      </c>
+      <c r="H108" t="s">
+        <v>541</v>
+      </c>
+      <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>818|[卷107](5_筆記/资治通鉴107.html)|晉紀二十九|387|391|||晉孝武帝16年至20年</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87F890-2933-4E7E-A6AD-9F798C74CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC4EB7-5352-4AE3-99B2-E4B28475C434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="544">
   <si>
     <t>索引號</t>
   </si>
@@ -1673,6 +1673,13 @@
   </si>
   <si>
     <t>晉孝武帝16年至20年</t>
+  </si>
+  <si>
+    <t>慕容段氏婚姻表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉孝武帝21年至25年、晉安帝元年</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1983,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="107"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2297,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>卷107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>卷108</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2626,6 +2636,9 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="106">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3181,11 +3194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3302,19 +3315,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>709.23364485981313</v>
+        <v>710.85185185185185</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44728.233644859814</v>
+        <v>44729.851851851854</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>894.92047367096529</v>
+        <v>889.02089829165448</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44913.920473670965</v>
+        <v>44908.020898291652</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3365,19 +3378,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>813.53271028037386</v>
+        <v>815.38888888888891</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44832.532710280371</v>
+        <v>44834.388888888891</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>981.10864127972604</v>
+        <v>974.64088849630821</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45000.108641279723</v>
+        <v>44993.640888496309</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,19 +3441,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1230.7289719626169</v>
+        <v>1233.5370370370372</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45249.728971962613</v>
+        <v>45252.537037037036</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1182.2143657001677</v>
+        <v>1174.4208656405003</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45201.214365700165</v>
+        <v>45193.420865640503</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3491,19 +3504,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1835.6635514018692</v>
+        <v>1839.851851851852</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45854.663551401871</v>
+        <v>45858.851851851854</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1424.9777044648436</v>
+        <v>1415.5838380502748</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45443.977704464844</v>
+        <v>45434.583838050276</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3554,19 +3567,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2763.9252336448599</v>
+        <v>2770.2314814814818</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46782.925233644863</v>
+        <v>46789.231481481482</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1881.7749927912753</v>
+        <v>1869.3697861349397</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45900.774992791274</v>
+        <v>45888.369786134943</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3617,19 +3630,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3066.3925233644864</v>
+        <v>3073.3888888888891</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47085.392523364484</v>
+        <v>47092.388888888891</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1956.4714047188679</v>
+        <v>1943.5737776456394</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45975.471404718868</v>
+        <v>45962.573777645637</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3680,19 +3693,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3066.3925233644864</v>
+        <v>3073.3888888888891</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47085.392523364484</v>
+        <v>47092.388888888891</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1956.4714047188679</v>
+        <v>1943.5737776456394</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45975.471404718868</v>
+        <v>45962.573777645637</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3767,7 +3780,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.429906542056075</v>
+        <v>10.453703703703704</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3808,7 +3821,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.4364694601460117</v>
+        <v>1.4269998367442287</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5671,7 +5684,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B108" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B109" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7153,6 +7166,41 @@
       </c>
       <c r="I108">
         <f t="shared" ref="I108" si="119">E108/H108</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>819</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="16"/>
+        <v>卷108</v>
+      </c>
+      <c r="C109" s="1">
+        <f>D108+1</f>
+        <v>45311</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ref="E109" si="120">D109-C109+1</f>
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ref="F109" si="121">G108+1</f>
+        <v>392</v>
+      </c>
+      <c r="G109">
+        <v>396</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ref="H109" si="122">IF(F109*G109&lt;0,ABS(F109)+ABS(G109),G109-F109+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ref="I109" si="123">E109/H109</f>
         <v>2.6</v>
       </c>
     </row>
@@ -7170,7 +7218,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10357,24 +10405,30 @@
       <c r="A109">
         <v>819</v>
       </c>
-      <c r="B109" t="e">
+      <c r="B109" t="str">
         <f>VLOOKUP($A109,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷108</v>
       </c>
       <c r="C109" t="s">
         <v>304</v>
       </c>
-      <c r="D109" t="e">
+      <c r="D109">
         <f>VLOOKUP($A109,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E109" t="e">
+        <v>392</v>
+      </c>
+      <c r="E109">
         <f>VLOOKUP($A109,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
+        <v>396</v>
+      </c>
+      <c r="G109" t="s">
+        <v>542</v>
+      </c>
+      <c r="H109" t="s">
+        <v>543</v>
+      </c>
+      <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>819|[卷108](5_筆記/资治通鉴108.html)|晉紀三十|392|396||慕容段氏婚姻表|晉孝武帝21年至25年、晉安帝元年</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC4EB7-5352-4AE3-99B2-E4B28475C434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EEA477-C551-4FF2-9642-C6D66FE631FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="9100" windowWidth="25600" windowHeight="11470" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="546">
   <si>
     <t>索引號</t>
   </si>
@@ -1680,6 +1680,14 @@
   </si>
   <si>
     <t>晉孝武帝21年至25年、晉安帝元年</t>
+  </si>
+  <si>
+    <t>晉安帝2年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝3年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1983,7 +1991,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="108"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2307,6 +2315,12 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>卷108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>卷109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>卷110</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2640,6 +2654,12 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,11 +3214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3315,19 +3335,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>710.85185185185185</v>
+        <v>706.58181818181811</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44729.851851851854</v>
+        <v>44725.581818181818</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>889.02089829165448</v>
+        <v>935.1598241774625</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44908.020898291652</v>
+        <v>44954.159824177463</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3378,19 +3398,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>815.38888888888891</v>
+        <v>810.4909090909091</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44834.388888888891</v>
+        <v>44829.490909090906</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>974.64088849630821</v>
+        <v>1025.223370647202</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>44993.640888496309</v>
+        <v>45044.223370647203</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3441,19 +3461,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1233.5370370370372</v>
+        <v>1226.1272727272726</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45252.537037037036</v>
+        <v>45245.127272727274</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1174.4208656405003</v>
+        <v>1235.3716457432611</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45193.420865640503</v>
+        <v>45254.37164574326</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3504,19 +3524,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1839.851851851852</v>
+        <v>1828.8</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45858.851851851854</v>
+        <v>45847.8</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1415.5838380502748</v>
+        <v>1489.0506349663608</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45434.583838050276</v>
+        <v>45508.050634966363</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3567,19 +3587,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2770.2314814814818</v>
+        <v>2753.590909090909</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46789.231481481482</v>
+        <v>46772.590909090912</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1869.3697861349397</v>
+        <v>1966.3874312559806</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45888.369786134943</v>
+        <v>45985.387431255978</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3630,19 +3650,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3073.3888888888891</v>
+        <v>3054.9272727272728</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47092.388888888891</v>
+        <v>47073.927272727276</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1943.5737776456394</v>
+        <v>2044.4425048630881</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>45962.573777645637</v>
+        <v>46063.442504863087</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3693,19 +3713,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3073.3888888888891</v>
+        <v>3054.9272727272728</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47092.388888888891</v>
+        <v>47073.927272727276</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1943.5737776456394</v>
+        <v>2044.4425048630881</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>45962.573777645637</v>
+        <v>46063.442504863087</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3780,7 +3800,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.453703703703704</v>
+        <v>10.390909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3821,7 +3841,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.4269998367442287</v>
+        <v>1.5010591078289928</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5684,7 +5704,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B109" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B111" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7202,6 +7222,75 @@
       <c r="I109">
         <f t="shared" ref="I109" si="123">E109/H109</f>
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>820</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="16"/>
+        <v>卷109</v>
+      </c>
+      <c r="C110" s="1">
+        <f>D109+1</f>
+        <v>45324</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45334</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110" si="124">D110-C110+1</f>
+        <v>11</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ref="F110" si="125">G109+1</f>
+        <v>397</v>
+      </c>
+      <c r="G110">
+        <v>397</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ref="H110" si="126">IF(F110*G110&lt;0,ABS(F110)+ABS(G110),G110-F110+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ref="I110" si="127">E110/H110</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>821</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="16"/>
+        <v>卷110</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45346</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45348</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ref="E111" si="128">D111-C111+1</f>
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ref="F111" si="129">G110+1</f>
+        <v>398</v>
+      </c>
+      <c r="G111">
+        <v>398</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ref="H111" si="130">IF(F111*G111&lt;0,ABS(F111)+ABS(G111),G111-F111+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ref="I111" si="131">E111/H111</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7217,8 +7306,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10435,48 +10524,54 @@
       <c r="A110">
         <v>820</v>
       </c>
-      <c r="B110" t="e">
+      <c r="B110" t="str">
         <f>VLOOKUP($A110,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷109</v>
       </c>
       <c r="C110" t="s">
         <v>305</v>
       </c>
-      <c r="D110" t="e">
+      <c r="D110">
         <f>VLOOKUP($A110,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E110" t="e">
+        <v>397</v>
+      </c>
+      <c r="E110">
         <f>VLOOKUP($A110,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="e">
+        <v>397</v>
+      </c>
+      <c r="H110" t="s">
+        <v>544</v>
+      </c>
+      <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>820|[卷109](5_筆記/资治通鉴109.html)|晉紀三十一|397|397|||晉安帝2年</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>821</v>
       </c>
-      <c r="B111" t="e">
+      <c r="B111" t="str">
         <f>VLOOKUP($A111,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷110</v>
       </c>
       <c r="C111" t="s">
         <v>306</v>
       </c>
-      <c r="D111" t="e">
+      <c r="D111">
         <f>VLOOKUP($A111,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E111" t="e">
+        <v>398</v>
+      </c>
+      <c r="E111">
         <f>VLOOKUP($A111,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
+        <v>398</v>
+      </c>
+      <c r="H111" t="s">
+        <v>545</v>
+      </c>
+      <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>821|[卷110](5_筆記/资治通鉴110.html)|晉紀三十二|398|398|||晉安帝3年</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EEA477-C551-4FF2-9642-C6D66FE631FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E4BDB-789F-4D0C-9A61-D4EE9DCA7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="9100" windowWidth="25600" windowHeight="11470" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="9100" windowWidth="25600" windowHeight="11470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -2659,7 +2659,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,9 +3216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3335,19 +3335,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>706.58181818181811</v>
+        <v>709.05454545454552</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44725.581818181818</v>
+        <v>44728.054545454543</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>935.1598241774625</v>
+        <v>963.58098120225611</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44954.159824177463</v>
+        <v>44982.580981202256</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3398,19 +3398,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>810.4909090909091</v>
+        <v>813.32727272727277</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44829.490909090906</v>
+        <v>44832.327272727271</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1025.223370647202</v>
+        <v>1056.3817177546402</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45044.223370647203</v>
+        <v>45075.381717754637</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3461,19 +3461,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1226.1272727272726</v>
+        <v>1230.4181818181819</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45245.127272727274</v>
+        <v>45249.418181818182</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1235.3716457432611</v>
+        <v>1272.9167697102034</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45254.37164574326</v>
+        <v>45291.916769710202</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3524,19 +3524,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1828.8</v>
+        <v>1835.2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45847.8</v>
+        <v>45854.2</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1489.0506349663608</v>
+        <v>1534.3055109994191</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45508.050634966363</v>
+        <v>45553.305510999417</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3587,19 +3587,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2753.590909090909</v>
+        <v>2763.227272727273</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46772.590909090912</v>
+        <v>46782.227272727272</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1966.3874312559806</v>
+        <v>2026.1494147270553</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>45985.387431255978</v>
+        <v>46045.149414727057</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3650,19 +3650,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3054.9272727272728</v>
+        <v>3065.6181818181822</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47073.927272727276</v>
+        <v>47084.618181818179</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2044.4425048630881</v>
+        <v>2106.5767197391215</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46063.442504863087</v>
+        <v>46125.576719739125</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3713,19 +3713,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3054.9272727272728</v>
+        <v>3065.6181818181822</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47073.927272727276</v>
+        <v>47084.618181818179</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2044.4425048630881</v>
+        <v>2106.5767197391215</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46063.442504863087</v>
+        <v>46125.576719739125</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.390909090909091</v>
+        <v>10.427272727272728</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.5010591078289928</v>
+        <v>1.5466789425397369</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7271,11 +7271,11 @@
         <v>45346</v>
       </c>
       <c r="D111" s="1">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="E111">
         <f t="shared" ref="E111" si="128">D111-C111+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F111">
         <f t="shared" ref="F111" si="129">G110+1</f>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="I111">
         <f t="shared" ref="I111" si="131">E111/H111</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7305,9 +7305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E4BDB-789F-4D0C-9A61-D4EE9DCA7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF761D4B-3C32-4EE2-ADB6-1CBE3314F53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="9100" windowWidth="25600" windowHeight="11470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="547">
   <si>
     <t>索引號</t>
   </si>
@@ -1687,6 +1687,10 @@
   </si>
   <si>
     <t>晉安帝3年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝4年至5年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1991,7 +1995,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="110"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2321,6 +2325,9 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>卷110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>卷111</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2660,6 +2667,9 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,11 +3224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3335,19 +3345,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>709.05454545454552</v>
+        <v>710.63063063063066</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44728.054545454543</v>
+        <v>44729.630630630629</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>963.58098120225611</v>
+        <v>983.70884347825631</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>44982.580981202256</v>
+        <v>45002.708843478256</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3398,19 +3408,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>813.32727272727277</v>
+        <v>815.1351351351351</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44832.327272727271</v>
+        <v>44834.135135135133</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1056.3817177546402</v>
+        <v>1078.4480579384415</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45075.381717754637</v>
+        <v>45097.44805793844</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3461,19 +3471,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1230.4181818181819</v>
+        <v>1233.1531531531532</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45249.418181818182</v>
+        <v>45252.153153153151</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1272.9167697102034</v>
+        <v>1299.5062250122071</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45291.916769710202</v>
+        <v>45318.506225012206</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3524,19 +3534,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1835.2</v>
+        <v>1839.2792792792793</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45854.2</v>
+        <v>45858.279279279282</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1534.3055109994191</v>
+        <v>1566.3550124083954</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45553.305510999417</v>
+        <v>45585.355012408392</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3587,19 +3597,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2763.227272727273</v>
+        <v>2769.3693693693695</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46782.227272727272</v>
+        <v>46788.369369369371</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2026.1494147270553</v>
+        <v>2068.4728490473767</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46045.149414727057</v>
+        <v>46087.472849047379</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3650,19 +3660,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3065.6181818181822</v>
+        <v>3072.4324324324325</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47084.618181818179</v>
+        <v>47091.432432432433</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2106.5767197391215</v>
+        <v>2150.5801682462043</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46125.576719739125</v>
+        <v>46169.580168246204</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3713,19 +3723,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3065.6181818181822</v>
+        <v>3072.4324324324325</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47084.618181818179</v>
+        <v>47091.432432432433</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2106.5767197391215</v>
+        <v>2150.5801682462043</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46125.576719739125</v>
+        <v>46169.580168246204</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3800,7 +3810,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.427272727272728</v>
+        <v>10.45045045045045</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3841,7 +3851,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.5466789425397369</v>
+        <v>1.5789869076697534</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5704,7 +5714,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B111" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B112" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7291,6 +7301,40 @@
       <c r="I111">
         <f t="shared" ref="I111" si="131">E111/H111</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>822</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="16"/>
+        <v>卷111</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45354</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45366</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112" si="132">D112-C112+1</f>
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ref="F112" si="133">G111+1</f>
+        <v>399</v>
+      </c>
+      <c r="G112">
+        <v>400</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ref="H112" si="134">IF(F112*G112&lt;0,ABS(F112)+ABS(G112),G112-F112+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112" si="135">E112/H112</f>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -7305,9 +7349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10578,24 +10622,27 @@
       <c r="A112">
         <v>822</v>
       </c>
-      <c r="B112" t="e">
+      <c r="B112" t="str">
         <f>VLOOKUP($A112,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷111</v>
       </c>
       <c r="C112" t="s">
         <v>307</v>
       </c>
-      <c r="D112" t="e">
+      <c r="D112">
         <f>VLOOKUP($A112,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E112" t="e">
+        <v>399</v>
+      </c>
+      <c r="E112">
         <f>VLOOKUP($A112,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="e">
+        <v>400</v>
+      </c>
+      <c r="H112" t="s">
+        <v>546</v>
+      </c>
+      <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>822|[卷111](5_筆記/资治通鉴111.html)|晉紀三十三|399|400|||晉安帝4年至5年</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF761D4B-3C32-4EE2-ADB6-1CBE3314F53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F8E39-BB37-4C75-B20A-9C1E0AC850C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="548">
   <si>
     <t>索引號</t>
   </si>
@@ -1691,6 +1691,10 @@
   </si>
   <si>
     <t>晉安帝4年至5年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝6年至7年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1995,7 +1999,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="111"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2328,6 +2332,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>卷111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>卷112</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2670,6 +2677,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,11 +3234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3345,19 +3355,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>710.63063063063066</v>
+        <v>713.39285714285711</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44729.630630630629</v>
+        <v>44732.392857142855</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>983.70884347825631</v>
+        <v>1009.8212251629394</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45002.708843478256</v>
+        <v>45028.821225162937</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3408,19 +3418,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>815.1351351351351</v>
+        <v>818.30357142857144</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44834.135135135133</v>
+        <v>44837.303571428572</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1078.4480579384415</v>
+        <v>1107.0752757404296</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45097.44805793844</v>
+        <v>45126.075275740426</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3471,19 +3481,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1233.1531531531532</v>
+        <v>1237.9464285714287</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45252.153153153151</v>
+        <v>45256.946428571428</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1299.5062250122071</v>
+        <v>1334.0013937545732</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45318.506225012206</v>
+        <v>45353.001393754574</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3534,19 +3544,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1839.2792792792793</v>
+        <v>1846.4285714285716</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45858.279279279282</v>
+        <v>45865.428571428572</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1566.3550124083954</v>
+        <v>1607.9336362145038</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45585.355012408392</v>
+        <v>45626.933636214504</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3597,19 +3607,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2769.3693693693695</v>
+        <v>2780.1339285714284</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46788.369369369371</v>
+        <v>46799.133928571428</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2068.4728490473767</v>
+        <v>2123.3801042752016</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46087.472849047379</v>
+        <v>46142.380104275202</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3660,19 +3670,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3072.4324324324325</v>
+        <v>3084.375</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47091.432432432433</v>
+        <v>47103.375</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2150.5801682462043</v>
+        <v>2207.6669481090266</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46169.580168246204</v>
+        <v>46226.666948109028</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3723,19 +3733,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3072.4324324324325</v>
+        <v>3084.375</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47091.432432432433</v>
+        <v>47103.375</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2150.5801682462043</v>
+        <v>2207.6669481090266</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46169.580168246204</v>
+        <v>46226.666948109028</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3810,7 +3820,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.45045045045045</v>
+        <v>10.491071428571429</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3851,7 +3861,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.5789869076697534</v>
+        <v>1.6209008429581693</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5714,7 +5724,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B112" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B113" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7335,6 +7345,40 @@
       <c r="I112">
         <f t="shared" ref="I112" si="135">E112/H112</f>
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>823</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="16"/>
+        <v>卷112</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45368</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45382</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ref="E113" si="136">D113-C113+1</f>
+        <v>15</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113" si="137">G112+1</f>
+        <v>401</v>
+      </c>
+      <c r="G113">
+        <v>402</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ref="H113" si="138">IF(F113*G113&lt;0,ABS(F113)+ABS(G113),G113-F113+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ref="I113" si="139">E113/H113</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +7395,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10649,24 +10693,27 @@
       <c r="A113">
         <v>823</v>
       </c>
-      <c r="B113" t="e">
+      <c r="B113" t="str">
         <f>VLOOKUP($A113,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷112</v>
       </c>
       <c r="C113" t="s">
         <v>308</v>
       </c>
-      <c r="D113" t="e">
+      <c r="D113">
         <f>VLOOKUP($A113,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E113" t="e">
+        <v>401</v>
+      </c>
+      <c r="E113">
         <f>VLOOKUP($A113,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
+        <v>402</v>
+      </c>
+      <c r="H113" t="s">
+        <v>547</v>
+      </c>
+      <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>823|[卷112](5_筆記/资治通鉴112.html)|晉紀三十四|401|402|||晉安帝6年至7年</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F8E39-BB37-4C75-B20A-9C1E0AC850C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76B236-0CFE-46AC-B7F6-F9560323A9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="549">
   <si>
     <t>索引號</t>
   </si>
@@ -1695,6 +1695,10 @@
   </si>
   <si>
     <t>晉安帝6年至7年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓楚至2年、晉安帝8年至9年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1999,7 +2003,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="112"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2335,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>卷112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>卷113</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2680,6 +2687,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,11 +3244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3355,19 +3365,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>713.39285714285711</v>
+        <v>714.30088495575217</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44732.392857142855</v>
+        <v>44733.300884955752</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1009.8212251629394</v>
+        <v>1024.7597491105191</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45028.821225162937</v>
+        <v>45043.759749110519</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3418,19 +3428,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>818.30357142857144</v>
+        <v>819.3451327433628</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44837.303571428572</v>
+        <v>44838.345132743365</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1107.0752757404296</v>
+        <v>1123.4525018338436</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45126.075275740426</v>
+        <v>45142.452501833846</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3481,19 +3491,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1237.9464285714287</v>
+        <v>1239.5221238938052</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45256.946428571428</v>
+        <v>45258.522123893803</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1334.0013937545732</v>
+        <v>1353.7355915216008</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45353.001393754574</v>
+        <v>45372.735591521603</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3544,19 +3554,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1846.4285714285716</v>
+        <v>1848.7787610619469</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45865.428571428572</v>
+        <v>45867.778761061949</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1607.9336362145038</v>
+        <v>1631.7201783589646</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45626.933636214504</v>
+        <v>45650.720178358963</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3607,19 +3617,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2780.1339285714284</v>
+        <v>2783.6725663716811</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46799.133928571428</v>
+        <v>46802.672566371679</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2123.3801042752016</v>
+        <v>2154.7917677925843</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46142.380104275202</v>
+        <v>46173.791767792587</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3670,19 +3680,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3084.375</v>
+        <v>3088.3008849557518</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47103.375</v>
+        <v>47107.300884955752</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2207.6669481090266</v>
+        <v>2240.3254868194654</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46226.666948109028</v>
+        <v>46259.325486819464</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3733,19 +3743,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3084.375</v>
+        <v>3088.3008849557518</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47103.375</v>
+        <v>47107.300884955752</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2207.6669481090266</v>
+        <v>2240.3254868194654</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46226.666948109028</v>
+        <v>46259.325486819464</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3820,7 +3830,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.491071428571429</v>
+        <v>10.504424778761061</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3861,7 +3871,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6209008429581693</v>
+        <v>1.6448792120554079</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5724,7 +5734,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B113" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B114" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7379,6 +7389,41 @@
       <c r="I113">
         <f t="shared" ref="I113" si="139">E113/H113</f>
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>824</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="16"/>
+        <v>卷113</v>
+      </c>
+      <c r="C114" s="1">
+        <f>D113+1</f>
+        <v>45383</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45394</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114" si="140">D114-C114+1</f>
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114" si="141">G113+1</f>
+        <v>403</v>
+      </c>
+      <c r="G114">
+        <v>404</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ref="H114" si="142">IF(F114*G114&lt;0,ABS(F114)+ABS(G114),G114-F114+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ref="I114" si="143">E114/H114</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7394,8 +7439,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10720,24 +10765,27 @@
       <c r="A114">
         <v>824</v>
       </c>
-      <c r="B114" t="e">
+      <c r="B114" t="str">
         <f>VLOOKUP($A114,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷113</v>
       </c>
       <c r="C114" t="s">
         <v>309</v>
       </c>
-      <c r="D114" t="e">
+      <c r="D114">
         <f>VLOOKUP($A114,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E114" t="e">
+        <v>403</v>
+      </c>
+      <c r="E114">
         <f>VLOOKUP($A114,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
+        <v>404</v>
+      </c>
+      <c r="H114" t="s">
+        <v>548</v>
+      </c>
+      <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>824|[卷113](5_筆記/资治通鉴113.html)|晉紀三十五|403|404|||桓楚至2年、晉安帝8年至9年</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76B236-0CFE-46AC-B7F6-F9560323A9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAA0B9-9D10-4C28-A945-BB863228AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
   <si>
     <t>索引號</t>
   </si>
@@ -1699,6 +1699,10 @@
   </si>
   <si>
     <t>桓楚至2年、晉安帝8年至9年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓楚3年、晉安帝10年至13年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2003,7 +2007,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -2342,6 +2346,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>卷113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>卷114</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2690,6 +2697,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,11 +3254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3365,19 +3375,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>714.30088495575217</v>
+        <v>716.98245614035079</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44733.300884955752</v>
+        <v>44735.982456140351</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1024.7597491105191</v>
+        <v>1024.1363130455943</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45043.759749110519</v>
+        <v>45043.136313045594</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,19 +3438,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>819.3451327433628</v>
+        <v>822.42105263157896</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44838.345132743365</v>
+        <v>44841.42105263158</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1123.4525018338436</v>
+        <v>1122.7690237722968</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45142.452501833846</v>
+        <v>45141.7690237723</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3491,19 +3501,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1239.5221238938052</v>
+        <v>1244.1754385964912</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45258.522123893803</v>
+        <v>45263.175438596489</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1353.7355915216008</v>
+        <v>1352.912015467936</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45372.735591521603</v>
+        <v>45371.912015467933</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3554,19 +3564,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1848.7787610619469</v>
+        <v>1855.719298245614</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45867.778761061949</v>
+        <v>45874.719298245611</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1631.7201783589646</v>
+        <v>1630.7274840148148</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45650.720178358963</v>
+        <v>45649.727484014817</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3617,19 +3627,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2783.6725663716811</v>
+        <v>2794.1228070175439</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46802.672566371679</v>
+        <v>46813.122807017542</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2154.7917677925843</v>
+        <v>2153.4808508663377</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46173.791767792587</v>
+        <v>46172.480850866341</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3680,19 +3690,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3088.3008849557518</v>
+        <v>3099.894736842105</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47107.300884955752</v>
+        <v>47118.894736842107</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2240.3254868194654</v>
+        <v>2238.9625334961465</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46259.325486819464</v>
+        <v>46257.962533496146</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3743,19 +3753,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3088.3008849557518</v>
+        <v>3099.894736842105</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47107.300884955752</v>
+        <v>47118.894736842107</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2240.3254868194654</v>
+        <v>2238.9625334961465</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46259.325486819464</v>
+        <v>46257.962533496146</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3830,7 +3840,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.504424778761061</v>
+        <v>10.543859649122806</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3871,7 +3881,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6448792120554079</v>
+        <v>1.6438785121117083</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5734,7 +5744,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B114" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B115" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7424,6 +7434,40 @@
       <c r="I114">
         <f t="shared" ref="I114" si="143">E114/H114</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>825</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="16"/>
+        <v>卷114</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45396</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45410</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ref="E115" si="144">D115-C115+1</f>
+        <v>15</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ref="F115" si="145">G114+1</f>
+        <v>405</v>
+      </c>
+      <c r="G115">
+        <v>408</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ref="H115" si="146">IF(F115*G115&lt;0,ABS(F115)+ABS(G115),G115-F115+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ref="I115" si="147">E115/H115</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -7439,8 +7483,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10792,24 +10836,27 @@
       <c r="A115">
         <v>825</v>
       </c>
-      <c r="B115" t="e">
+      <c r="B115" t="str">
         <f>VLOOKUP($A115,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷114</v>
       </c>
       <c r="C115" t="s">
         <v>310</v>
       </c>
-      <c r="D115" t="e">
+      <c r="D115">
         <f>VLOOKUP($A115,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E115" t="e">
+        <v>405</v>
+      </c>
+      <c r="E115">
         <f>VLOOKUP($A115,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I115" t="e">
+        <v>408</v>
+      </c>
+      <c r="H115" t="s">
+        <v>549</v>
+      </c>
+      <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>825|[卷114](5_筆記/资治通鉴114.html)|晉紀三十六|405|408|||桓楚3年、晉安帝10年至13年</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAA0B9-9D10-4C28-A945-BB863228AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783B5D7-717F-4C7A-8B57-7C64E5479C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="551">
   <si>
     <t>索引號</t>
   </si>
@@ -1704,6 +1704,9 @@
   <si>
     <t>桓楚3年、晉安帝10年至13年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝14年至15年</t>
   </si>
 </sst>
 </file>
@@ -3254,11 +3257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3375,19 +3378,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>716.98245614035079</v>
+        <v>717.84347826086957</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44735.982456140351</v>
+        <v>44736.843478260867</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1024.1363130455943</v>
+        <v>1038.5911903174112</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45043.136313045594</v>
+        <v>45057.591190317413</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3438,19 +3441,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>822.42105263157896</v>
+        <v>823.40869565217395</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44841.42105263158</v>
+        <v>44842.408695652171</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1122.7690237722968</v>
+        <v>1138.6160240558459</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45141.7690237723</v>
+        <v>45157.616024055846</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3501,19 +3504,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1244.1754385964912</v>
+        <v>1245.6695652173914</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45263.175438596489</v>
+        <v>45264.669565217395</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1352.912015467936</v>
+        <v>1372.0073027788596</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45371.912015467933</v>
+        <v>45391.00730277886</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3564,19 +3567,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1855.719298245614</v>
+        <v>1857.9478260869566</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45874.719298245611</v>
+        <v>45876.947826086958</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1630.7274840148148</v>
+        <v>1653.7439178087834</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45649.727484014817</v>
+        <v>45672.743917808781</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3627,19 +3630,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2794.1228070175439</v>
+        <v>2797.4782608695655</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46813.122807017542</v>
+        <v>46816.478260869568</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2153.4808508663377</v>
+        <v>2183.8755366224859</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46172.480850866341</v>
+        <v>46202.875536622487</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3690,19 +3693,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3099.894736842105</v>
+        <v>3103.6173913043481</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47118.894736842107</v>
+        <v>47122.617391304346</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2238.9625334961465</v>
+        <v>2270.5637258624629</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46257.962533496146</v>
+        <v>46289.563725862463</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3753,19 +3756,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3099.894736842105</v>
+        <v>3103.6173913043481</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47118.894736842107</v>
+        <v>47122.617391304346</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2238.9625334961465</v>
+        <v>2270.5637258624629</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46257.962533496146</v>
+        <v>46289.563725862463</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.543859649122806</v>
+        <v>10.556521739130435</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3881,7 +3884,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6438785121117083</v>
+        <v>1.6670805623072413</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5744,7 +5747,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B115" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B116" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7468,6 +7471,40 @@
       <c r="I115">
         <f t="shared" ref="I115" si="147">E115/H115</f>
         <v>3.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>826</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="16"/>
+        <v>卷115</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45412</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45423</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ref="E116" si="148">D116-C116+1</f>
+        <v>12</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ref="F116" si="149">G115+1</f>
+        <v>409</v>
+      </c>
+      <c r="G116">
+        <v>410</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ref="H116" si="150">IF(F116*G116&lt;0,ABS(F116)+ABS(G116),G116-F116+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ref="I116" si="151">E116/H116</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7484,7 +7521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10863,24 +10900,27 @@
       <c r="A116">
         <v>826</v>
       </c>
-      <c r="B116" t="e">
+      <c r="B116" t="str">
         <f>VLOOKUP($A116,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷115</v>
       </c>
       <c r="C116" t="s">
         <v>311</v>
       </c>
-      <c r="D116" t="e">
+      <c r="D116">
         <f>VLOOKUP($A116,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E116" t="e">
+        <v>409</v>
+      </c>
+      <c r="E116">
         <f>VLOOKUP($A116,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I116" t="e">
+        <v>410</v>
+      </c>
+      <c r="H116" t="s">
+        <v>550</v>
+      </c>
+      <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>826|[卷115](5_筆記/资治通鉴115.html)|晉紀三十七|409|410|||晉安帝14年至15年</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783B5D7-717F-4C7A-8B57-7C64E5479C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC500D5C-70FA-43D8-8452-6D18C32B69C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="553">
   <si>
     <t>索引號</t>
   </si>
@@ -1707,6 +1707,14 @@
   </si>
   <si>
     <t>晉安帝14年至15年</t>
+  </si>
+  <si>
+    <t>歷代反賊李弘列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝16年至19年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3257,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3378,19 +3386,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>717.84347826086957</v>
+        <v>721.62068965517244</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44736.843478260867</v>
+        <v>44740.620689655174</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1038.5911903174112</v>
+        <v>1040.9657238329439</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45057.591190317413</v>
+        <v>45059.965723832946</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3441,19 +3449,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>823.40869565217395</v>
+        <v>827.74137931034488</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44842.408695652171</v>
+        <v>44846.741379310348</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1138.6160240558459</v>
+        <v>1141.2192445873206</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45157.616024055846</v>
+        <v>45160.219244587322</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3504,19 +3512,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1245.6695652173914</v>
+        <v>1252.2241379310346</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45264.669565217395</v>
+        <v>45271.224137931036</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1372.0073027788596</v>
+        <v>1375.1441263475328</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45391.00730277886</v>
+        <v>45394.144126347535</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3567,19 +3575,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1857.9478260869566</v>
+        <v>1867.7241379310346</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45876.947826086958</v>
+        <v>45886.724137931036</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1653.7439178087834</v>
+        <v>1657.5248764723603</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45672.743917808781</v>
+        <v>45676.524876472358</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3630,19 +3638,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2797.4782608695655</v>
+        <v>2812.1982758620693</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46816.478260869568</v>
+        <v>46831.198275862072</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2183.8755366224859</v>
+        <v>2188.8685364705566</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46202.875536622487</v>
+        <v>46207.86853647056</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3693,19 +3701,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3103.6173913043481</v>
+        <v>3119.9482758620693</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47122.617391304346</v>
+        <v>47138.948275862072</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2270.5637258624629</v>
+        <v>2275.7549211243495</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46289.563725862463</v>
+        <v>46294.754921124346</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3756,19 +3764,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3103.6173913043481</v>
+        <v>3119.9482758620693</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47122.617391304346</v>
+        <v>47138.948275862072</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2270.5637258624629</v>
+        <v>2275.7549211243495</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46289.563725862463</v>
+        <v>46294.754921124346</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3843,7 +3851,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.556521739130435</v>
+        <v>10.612068965517242</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3884,7 +3892,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6670805623072413</v>
+        <v>1.6708920125729438</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5747,7 +5755,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B116" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B117" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7505,6 +7513,40 @@
       <c r="I116">
         <f t="shared" ref="I116" si="151">E116/H116</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>827</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="16"/>
+        <v>卷116</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45425</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ref="E117" si="152">D117-C117+1</f>
+        <v>17</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ref="F117" si="153">G116+1</f>
+        <v>411</v>
+      </c>
+      <c r="G117">
+        <v>414</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ref="H117" si="154">IF(F117*G117&lt;0,ABS(F117)+ABS(G117),G117-F117+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ref="I117" si="155">E117/H117</f>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
@@ -7521,7 +7563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10927,24 +10969,30 @@
       <c r="A117">
         <v>827</v>
       </c>
-      <c r="B117" t="e">
+      <c r="B117" t="str">
         <f>VLOOKUP($A117,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷116</v>
       </c>
       <c r="C117" t="s">
         <v>312</v>
       </c>
-      <c r="D117" t="e">
+      <c r="D117">
         <f>VLOOKUP($A117,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E117" t="e">
+        <v>411</v>
+      </c>
+      <c r="E117">
         <f>VLOOKUP($A117,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I117" t="e">
+        <v>414</v>
+      </c>
+      <c r="G117" t="s">
+        <v>551</v>
+      </c>
+      <c r="H117" t="s">
+        <v>552</v>
+      </c>
+      <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>827|[卷116](5_筆記/资治通鉴116.html)|晉紀三十八|411|414||歷代反賊李弘列表|晉安帝16年至19年</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC500D5C-70FA-43D8-8452-6D18C32B69C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003DE1F-D5F5-4125-BAE6-8D934C452E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="554">
   <si>
     <t>索引號</t>
   </si>
@@ -1715,6 +1715,9 @@
   <si>
     <t>晉安帝16年至19年</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉安帝20年至21年</t>
   </si>
 </sst>
 </file>
@@ -3265,11 +3268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3386,19 +3389,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>721.62068965517244</v>
+        <v>721.26495726495727</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44740.620689655174</v>
+        <v>44740.264957264961</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1040.9657238329439</v>
+        <v>1047.9546035389287</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45059.965723832946</v>
+        <v>45066.954603538928</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3449,19 +3452,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>827.74137931034488</v>
+        <v>827.33333333333326</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44846.741379310348</v>
+        <v>44846.333333333336</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1141.2192445873206</v>
+        <v>1148.8812106213295</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45160.219244587322</v>
+        <v>45167.88121062133</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3512,19 +3515,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1252.2241379310346</v>
+        <v>1251.6068376068376</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45271.224137931036</v>
+        <v>45270.606837606836</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1375.1441263475328</v>
+        <v>1384.3766271469315</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45394.144126347535</v>
+        <v>45403.376627146929</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3575,19 +3578,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1867.7241379310346</v>
+        <v>1866.8034188034187</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45886.724137931036</v>
+        <v>45885.803418803422</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1657.5248764723603</v>
+        <v>1668.6532370956938</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45676.524876472358</v>
+        <v>45687.653237095692</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3638,19 +3641,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2812.1982758620693</v>
+        <v>2810.8119658119658</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46831.198275862072</v>
+        <v>46829.811965811969</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2188.8685364705566</v>
+        <v>2203.5642546324184</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46207.86853647056</v>
+        <v>46222.564254632416</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3701,19 +3704,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3119.9482758620693</v>
+        <v>3118.4102564102564</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47138.948275862072</v>
+        <v>47137.410256410258</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2275.7549211243495</v>
+        <v>2291.0339807704991</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46294.754921124346</v>
+        <v>46310.033980770502</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3764,19 +3767,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3119.9482758620693</v>
+        <v>3118.4102564102564</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47138.948275862072</v>
+        <v>47137.410256410258</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2275.7549211243495</v>
+        <v>2291.0339807704991</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46294.754921124346</v>
+        <v>46310.033980770502</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3851,7 +3854,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.612068965517242</v>
+        <v>10.606837606837606</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3892,7 +3895,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6708920125729438</v>
+        <v>1.682110118040014</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5755,7 +5758,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B117" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B118" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7547,6 +7550,40 @@
       <c r="I117">
         <f t="shared" ref="I117" si="155">E117/H117</f>
         <v>4.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>828</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="16"/>
+        <v>卷117</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45442</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45451</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118" si="156">D118-C118+1</f>
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ref="F118" si="157">G117+1</f>
+        <v>415</v>
+      </c>
+      <c r="G118">
+        <v>416</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118" si="158">IF(F118*G118&lt;0,ABS(F118)+ABS(G118),G118-F118+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118" si="159">E118/H118</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7562,8 +7599,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10999,24 +11036,27 @@
       <c r="A118">
         <v>828</v>
       </c>
-      <c r="B118" t="e">
+      <c r="B118" t="str">
         <f>VLOOKUP($A118,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷117</v>
       </c>
       <c r="C118" t="s">
         <v>313</v>
       </c>
-      <c r="D118" t="e">
+      <c r="D118">
         <f>VLOOKUP($A118,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E118" t="e">
+        <v>415</v>
+      </c>
+      <c r="E118">
         <f>VLOOKUP($A118,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" t="e">
+        <v>416</v>
+      </c>
+      <c r="H118" t="s">
+        <v>553</v>
+      </c>
+      <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>828|[卷117](5_筆記/资治通鉴117.html)|晉紀三十九|415|416|||晉安帝20年至21年</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003DE1F-D5F5-4125-BAE6-8D934C452E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4F291-2EBA-44E1-882E-A30C9ABF6C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="555">
   <si>
     <t>索引號</t>
   </si>
@@ -1718,6 +1718,10 @@
   </si>
   <si>
     <t>晉安帝20年至21年</t>
+  </si>
+  <si>
+    <t>晉安帝22年至24年、晉恭帝元年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3268,11 +3272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3389,19 +3393,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>721.26495726495727</v>
+        <v>721.49152542372883</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44740.264957264961</v>
+        <v>44740.491525423728</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1047.9546035389287</v>
+        <v>1046.0867343526311</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45066.954603538928</v>
+        <v>45065.086734352633</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3452,19 +3456,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>827.33333333333326</v>
+        <v>827.59322033898309</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44846.333333333336</v>
+        <v>44846.593220338982</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1148.8812106213295</v>
+        <v>1146.8334503416486</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45167.88121062133</v>
+        <v>45165.833450341648</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3515,19 +3519,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1251.6068376068376</v>
+        <v>1252</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45270.606837606836</v>
+        <v>45271</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1384.3766271469315</v>
+        <v>1381.9091209826893</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45403.376627146929</v>
+        <v>45400.909120982687</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3578,19 +3582,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1866.8034188034187</v>
+        <v>1867.3898305084747</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45885.803418803422</v>
+        <v>45886.389830508473</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1668.6532370956938</v>
+        <v>1665.6790376850884</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45687.653237095692</v>
+        <v>45684.679037685091</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3641,19 +3645,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2810.8119658119658</v>
+        <v>2811.6949152542375</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46829.811965811969</v>
+        <v>46830.694915254237</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2203.5642546324184</v>
+        <v>2199.6366324268806</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46222.564254632416</v>
+        <v>46218.636632426882</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3704,19 +3708,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3118.4102564102564</v>
+        <v>3119.3898305084745</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47137.410256410258</v>
+        <v>47138.389830508473</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2291.0339807704991</v>
+        <v>2286.9504529506958</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46310.033980770502</v>
+        <v>46305.950452950696</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3767,19 +3771,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3118.4102564102564</v>
+        <v>3119.3898305084745</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47137.410256410258</v>
+        <v>47138.389830508473</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2291.0339807704991</v>
+        <v>2286.9504529506958</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46310.033980770502</v>
+        <v>46305.950452950696</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3854,7 +3858,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.606837606837606</v>
+        <v>10.610169491525424</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3895,7 +3899,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.682110118040014</v>
+        <v>1.6791119331502906</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5758,7 +5762,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B118" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B119" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7584,6 +7588,40 @@
       <c r="I118">
         <f t="shared" ref="I118" si="159">E118/H118</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>829</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="16"/>
+        <v>卷118</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45452</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45462</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ref="E119" si="160">D119-C119+1</f>
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ref="F119" si="161">G118+1</f>
+        <v>417</v>
+      </c>
+      <c r="G119">
+        <v>419</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ref="H119" si="162">IF(F119*G119&lt;0,ABS(F119)+ABS(G119),G119-F119+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ref="I119" si="163">E119/H119</f>
+        <v>3.6666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +7638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11063,24 +11101,27 @@
       <c r="A119">
         <v>829</v>
       </c>
-      <c r="B119" t="e">
+      <c r="B119" t="str">
         <f>VLOOKUP($A119,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷118</v>
       </c>
       <c r="C119" t="s">
         <v>314</v>
       </c>
-      <c r="D119" t="e">
+      <c r="D119">
         <f>VLOOKUP($A119,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E119" t="e">
+        <v>417</v>
+      </c>
+      <c r="E119">
         <f>VLOOKUP($A119,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
+        <v>419</v>
+      </c>
+      <c r="H119" t="s">
+        <v>554</v>
+      </c>
+      <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>829|[卷118](5_筆記/资治通鉴118.html)|晉紀四十|417|419|||晉安帝22年至24年、晉恭帝元年</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">

--- a/5_筆記/閱讀數據.xlsx
+++ b/5_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4F291-2EBA-44E1-882E-A30C9ABF6C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167273BB-4080-4138-8512-9A5D259574C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="556">
   <si>
     <t>索引號</t>
   </si>
@@ -1721,6 +1721,10 @@
   </si>
   <si>
     <t>晉安帝22年至24年、晉恭帝元年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晉恭帝2年、宋武帝元年至3年、劉義符元年至2年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3272,11 +3276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3393,19 +3397,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>721.49152542372883</v>
+        <v>728</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44740.491525423728</v>
+        <v>44747</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1046.0867343526311</v>
+        <v>1055.5865035713807</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45065.086734352633</v>
+        <v>45074.58650357138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3456,19 +3460,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>827.59322033898309</v>
+        <v>835.05882352941171</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44846.593220338982</v>
+        <v>44854.058823529413</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1146.8334503416486</v>
+        <v>1157.2481251031347</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45165.833450341648</v>
+        <v>45176.248125103135</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3519,19 +3523,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1252</v>
+        <v>1263.2941176470588</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45271</v>
+        <v>45282.294117647056</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1381.9091209826893</v>
+        <v>1394.4585753438946</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45400.909120982687</v>
+        <v>45413.458575343895</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3582,19 +3586,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1867.3898305084747</v>
+        <v>1884.2352941176468</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45886.389830508473</v>
+        <v>45903.23529411765</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1665.6790376850884</v>
+        <v>1680.8054759916688</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45684.679037685091</v>
+        <v>45699.80547599167</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3645,19 +3649,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2811.6949152542375</v>
+        <v>2837.0588235294117</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46830.694915254237</v>
+        <v>46856.058823529413</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2199.6366324268806</v>
+        <v>2219.6120701099658</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46218.636632426882</v>
+        <v>46238.612070109964</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3708,19 +3712,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3119.3898305084745</v>
+        <v>3147.5294117647059</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47138.389830508473</v>
+        <v>47166.529411764706</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2286.9504529506958</v>
+        <v>2307.7188087708196</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46305.950452950696</v>
+        <v>46326.71880877082</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3771,19 +3775,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3119.3898305084745</v>
+        <v>3147.5294117647059</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47138.389830508473</v>
+        <v>47166.529411764706</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2286.9504529506958</v>
+        <v>2307.7188087708196</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46305.950452950696</v>
+        <v>46326.71880877082</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3858,7 +3862,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.610169491525424</v>
+        <v>10.705882352941176</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3899,7 +3903,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.6791119331502906</v>
+        <v>1.6943603588625693</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5762,7 +5766,7 @@
         <v>526</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B119" si="16">"卷"&amp;ROW(B65)</f>
+        <f t="shared" ref="B66:B120" si="16">"卷"&amp;ROW(B65)</f>
         <v>卷65</v>
       </c>
       <c r="C66" s="1">
@@ -7622,6 +7626,40 @@
       <c r="I119">
         <f t="shared" ref="I119" si="163">E119/H119</f>
         <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>901</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="16"/>
+        <v>卷119</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D120" s="1">
+        <v>45613</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ref="E120" si="164">D120-C120+1</f>
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120" si="165">G119+1</f>
+        <v>420</v>
+      </c>
+      <c r="G120">
+        <v>423</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120" si="166">IF(F120*G120&lt;0,ABS(F120)+ABS(G120),G120-F120+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ref="I120" si="167">E120/H120</f>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -7637,7 +7675,7 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
@@ -11128,24 +11166,27 @@
       <c r="A120">
         <v>901</v>
       </c>
-      <c r="B120" t="e">
+      <c r="B120" t="str">
         <f>VLOOKUP($A120,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷119</v>
       </c>
       <c r="C120" t="s">
         <v>315</v>
       </c>
-      <c r="D120" t="e">
+      <c r="D120">
         <f>VLOOKUP($A120,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E120" t="e">
+        <v>420</v>
+      </c>
+      <c r="E120">
         <f>VLOOKUP($A120,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
+        <v>423</v>
+      </c>
+      <c r="H120" t="s">
+        <v>555</v>
+      </c>
+      <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>901|[卷119](5_筆記/资治通鉴119.html)|宋紀一|420|423|||晉恭帝2年、宋武帝元年至3年、劉義符元年至2年</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
